--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="548">
   <si>
     <t>Fecha</t>
   </si>
@@ -1652,6 +1652,9 @@
   </si>
   <si>
     <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:10:00 PM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -2012,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L536"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2088,7 +2091,7 @@
         <v>12.85</v>
       </c>
       <c r="L2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2126,7 +2129,7 @@
         <v>15.96</v>
       </c>
       <c r="L3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2164,7 +2167,7 @@
         <v>12.8</v>
       </c>
       <c r="L4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2202,7 +2205,7 @@
         <v>12.59</v>
       </c>
       <c r="L5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2240,7 +2243,7 @@
         <v>10.51</v>
       </c>
       <c r="L6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2278,7 +2281,7 @@
         <v>11.38</v>
       </c>
       <c r="L7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2316,7 +2319,7 @@
         <v>13.63</v>
       </c>
       <c r="L8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2354,7 +2357,7 @@
         <v>11.98</v>
       </c>
       <c r="L9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2392,7 +2395,7 @@
         <v>12.57</v>
       </c>
       <c r="L10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2430,7 +2433,7 @@
         <v>13.58</v>
       </c>
       <c r="L11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2468,7 +2471,7 @@
         <v>12.94</v>
       </c>
       <c r="L12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2506,7 +2509,7 @@
         <v>13.01</v>
       </c>
       <c r="L13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2544,7 +2547,7 @@
         <v>12.2</v>
       </c>
       <c r="L14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2582,7 +2585,7 @@
         <v>10.19</v>
       </c>
       <c r="L15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2620,7 +2623,7 @@
         <v>12.5</v>
       </c>
       <c r="L16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2658,7 +2661,7 @@
         <v>12.17</v>
       </c>
       <c r="L17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2696,7 +2699,7 @@
         <v>9.6</v>
       </c>
       <c r="L18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2734,7 +2737,7 @@
         <v>10.83</v>
       </c>
       <c r="L19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2772,7 +2775,7 @@
         <v>10.82</v>
       </c>
       <c r="L20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2810,7 +2813,7 @@
         <v>11.42</v>
       </c>
       <c r="L21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2848,7 +2851,7 @@
         <v>11.88</v>
       </c>
       <c r="L22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2886,7 +2889,7 @@
         <v>14.15</v>
       </c>
       <c r="L23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2924,7 +2927,7 @@
         <v>15.98</v>
       </c>
       <c r="L24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2962,7 +2965,7 @@
         <v>12.64</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3000,7 +3003,7 @@
         <v>11.77</v>
       </c>
       <c r="L26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3038,7 +3041,7 @@
         <v>14.4</v>
       </c>
       <c r="L27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3076,7 +3079,7 @@
         <v>14.61</v>
       </c>
       <c r="L28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3114,7 +3117,7 @@
         <v>13.05</v>
       </c>
       <c r="L29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3152,7 +3155,7 @@
         <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3190,7 +3193,7 @@
         <v>13.78</v>
       </c>
       <c r="L31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3228,7 +3231,7 @@
         <v>16.79</v>
       </c>
       <c r="L32" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3266,7 +3269,7 @@
         <v>15.33</v>
       </c>
       <c r="L33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3304,7 +3307,7 @@
         <v>18.63</v>
       </c>
       <c r="L34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3342,7 +3345,7 @@
         <v>14.47</v>
       </c>
       <c r="L35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3380,7 +3383,7 @@
         <v>15.87</v>
       </c>
       <c r="L36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3418,7 +3421,7 @@
         <v>16.17</v>
       </c>
       <c r="L37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3456,7 +3459,7 @@
         <v>15.8</v>
       </c>
       <c r="L38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3494,7 +3497,7 @@
         <v>14.27</v>
       </c>
       <c r="L39" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3532,7 +3535,7 @@
         <v>12.76</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3570,7 +3573,7 @@
         <v>15.76</v>
       </c>
       <c r="L41" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3608,7 +3611,7 @@
         <v>16.71</v>
       </c>
       <c r="L42" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3646,7 +3649,7 @@
         <v>16.73</v>
       </c>
       <c r="L43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3684,7 +3687,7 @@
         <v>17.08</v>
       </c>
       <c r="L44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3722,7 +3725,7 @@
         <v>16.57</v>
       </c>
       <c r="L45" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3760,7 +3763,7 @@
         <v>15.98</v>
       </c>
       <c r="L46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3798,7 +3801,7 @@
         <v>16.61</v>
       </c>
       <c r="L47" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3836,7 +3839,7 @@
         <v>18.58</v>
       </c>
       <c r="L48" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3874,7 +3877,7 @@
         <v>18.03</v>
       </c>
       <c r="L49" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3912,7 +3915,7 @@
         <v>19.19</v>
       </c>
       <c r="L50" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3950,7 +3953,7 @@
         <v>17.81</v>
       </c>
       <c r="L51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3988,7 +3991,7 @@
         <v>15.27</v>
       </c>
       <c r="L52" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4026,7 +4029,7 @@
         <v>16.95</v>
       </c>
       <c r="L53" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4064,7 +4067,7 @@
         <v>14.84</v>
       </c>
       <c r="L54" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4102,7 +4105,7 @@
         <v>15.29</v>
       </c>
       <c r="L55" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4140,7 +4143,7 @@
         <v>15.64</v>
       </c>
       <c r="L56" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4178,7 +4181,7 @@
         <v>18.27</v>
       </c>
       <c r="L57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4216,7 +4219,7 @@
         <v>19.36</v>
       </c>
       <c r="L58" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4254,7 +4257,7 @@
         <v>21.51</v>
       </c>
       <c r="L59" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4292,7 +4295,7 @@
         <v>17.6</v>
       </c>
       <c r="L60" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4330,7 +4333,7 @@
         <v>18.85</v>
       </c>
       <c r="L61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4368,7 +4371,7 @@
         <v>19.93</v>
       </c>
       <c r="L62" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4406,7 +4409,7 @@
         <v>23.39</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4444,7 +4447,7 @@
         <v>18.99</v>
       </c>
       <c r="L64" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4482,7 +4485,7 @@
         <v>18.11</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4520,7 +4523,7 @@
         <v>17.93</v>
       </c>
       <c r="L66" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4558,7 +4561,7 @@
         <v>15.79</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4596,7 +4599,7 @@
         <v>14.49</v>
       </c>
       <c r="L68" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4634,7 +4637,7 @@
         <v>17.26</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4672,7 +4675,7 @@
         <v>17.03</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4710,7 +4713,7 @@
         <v>14.43</v>
       </c>
       <c r="L71" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4748,7 +4751,7 @@
         <v>14.67</v>
       </c>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4786,7 +4789,7 @@
         <v>17.09</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4824,7 +4827,7 @@
         <v>16.96</v>
       </c>
       <c r="L74" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4862,7 +4865,7 @@
         <v>13.67</v>
       </c>
       <c r="L75" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4900,7 +4903,7 @@
         <v>12.76</v>
       </c>
       <c r="L76" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4938,7 +4941,7 @@
         <v>13.82</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4976,7 +4979,7 @@
         <v>11.28</v>
       </c>
       <c r="L78" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5014,7 +5017,7 @@
         <v>12.71</v>
       </c>
       <c r="L79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5052,7 +5055,7 @@
         <v>11.35</v>
       </c>
       <c r="L80" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5090,7 +5093,7 @@
         <v>10.61</v>
       </c>
       <c r="L81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5128,7 +5131,7 @@
         <v>10.36</v>
       </c>
       <c r="L82" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5166,7 +5169,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5204,7 +5207,7 @@
         <v>8.48</v>
       </c>
       <c r="L84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5242,7 +5245,7 @@
         <v>10.21</v>
       </c>
       <c r="L85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5280,7 +5283,7 @@
         <v>10.98</v>
       </c>
       <c r="L86" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5318,7 +5321,7 @@
         <v>14.32</v>
       </c>
       <c r="L87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5356,7 +5359,7 @@
         <v>12.73</v>
       </c>
       <c r="L88" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5394,7 +5397,7 @@
         <v>12.39</v>
       </c>
       <c r="L89" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5432,7 +5435,7 @@
         <v>10.71</v>
       </c>
       <c r="L90" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5470,7 +5473,7 @@
         <v>10.89</v>
       </c>
       <c r="L91" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5508,7 +5511,7 @@
         <v>11.28</v>
       </c>
       <c r="L92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5546,7 +5549,7 @@
         <v>10.18</v>
       </c>
       <c r="L93" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5584,7 +5587,7 @@
         <v>11.92</v>
       </c>
       <c r="L94" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5622,7 +5625,7 @@
         <v>11.69</v>
       </c>
       <c r="L95" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5660,7 +5663,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5698,7 +5701,7 @@
         <v>12.57</v>
       </c>
       <c r="L97" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5736,7 +5739,7 @@
         <v>10.86</v>
       </c>
       <c r="L98" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5774,7 +5777,7 @@
         <v>10.35</v>
       </c>
       <c r="L99" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5812,7 +5815,7 @@
         <v>12.09</v>
       </c>
       <c r="L100" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5850,7 +5853,7 @@
         <v>12.99</v>
       </c>
       <c r="L101" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5888,7 +5891,7 @@
         <v>12.69</v>
       </c>
       <c r="L102" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5926,7 +5929,7 @@
         <v>13.24</v>
       </c>
       <c r="L103" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5964,7 +5967,7 @@
         <v>11.43</v>
       </c>
       <c r="L104" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6002,7 +6005,7 @@
         <v>14.1</v>
       </c>
       <c r="L105" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6040,7 +6043,7 @@
         <v>12.78</v>
       </c>
       <c r="L106" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6078,7 +6081,7 @@
         <v>11.12</v>
       </c>
       <c r="L107" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6116,7 +6119,7 @@
         <v>10.77</v>
       </c>
       <c r="L108" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6154,7 +6157,7 @@
         <v>15.14</v>
       </c>
       <c r="L109" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6192,7 +6195,7 @@
         <v>12.4</v>
       </c>
       <c r="L110" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6230,7 +6233,7 @@
         <v>10.73</v>
       </c>
       <c r="L111" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6268,7 +6271,7 @@
         <v>11.29</v>
       </c>
       <c r="L112" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6306,7 +6309,7 @@
         <v>12.58</v>
       </c>
       <c r="L113" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6344,7 +6347,7 @@
         <v>11.86</v>
       </c>
       <c r="L114" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6382,7 +6385,7 @@
         <v>12.74</v>
       </c>
       <c r="L115" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6420,7 +6423,7 @@
         <v>13.64</v>
       </c>
       <c r="L116" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6458,7 +6461,7 @@
         <v>14.89</v>
       </c>
       <c r="L117" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6496,7 +6499,7 @@
         <v>17.77</v>
       </c>
       <c r="L118" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6534,7 +6537,7 @@
         <v>14.46</v>
       </c>
       <c r="L119" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6572,7 +6575,7 @@
         <v>16.34</v>
       </c>
       <c r="L120" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6610,7 +6613,7 @@
         <v>18.24</v>
       </c>
       <c r="L121" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6648,7 +6651,7 @@
         <v>14.83</v>
       </c>
       <c r="L122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6686,7 +6689,7 @@
         <v>16.56</v>
       </c>
       <c r="L123" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6724,7 +6727,7 @@
         <v>13.6</v>
       </c>
       <c r="L124" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6762,7 +6765,7 @@
         <v>10.71</v>
       </c>
       <c r="L125" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6800,7 +6803,7 @@
         <v>10.83</v>
       </c>
       <c r="L126" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6838,7 +6841,7 @@
         <v>10.06</v>
       </c>
       <c r="L127" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6876,7 +6879,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L128" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6914,7 +6917,7 @@
         <v>10.8</v>
       </c>
       <c r="L129" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6952,7 +6955,7 @@
         <v>12.3</v>
       </c>
       <c r="L130" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6990,7 +6993,7 @@
         <v>12.11</v>
       </c>
       <c r="L131" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7028,7 +7031,7 @@
         <v>12.56</v>
       </c>
       <c r="L132" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7066,7 +7069,7 @@
         <v>11.64</v>
       </c>
       <c r="L133" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7104,7 +7107,7 @@
         <v>13.45</v>
       </c>
       <c r="L134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7142,7 +7145,7 @@
         <v>14.04</v>
       </c>
       <c r="L135" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7180,7 +7183,7 @@
         <v>10.71</v>
       </c>
       <c r="L136" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7218,7 +7221,7 @@
         <v>9.4</v>
       </c>
       <c r="L137" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7256,7 +7259,7 @@
         <v>8.56</v>
       </c>
       <c r="L138" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7294,7 +7297,7 @@
         <v>8.59</v>
       </c>
       <c r="L139" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7332,7 +7335,7 @@
         <v>8.4</v>
       </c>
       <c r="L140" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7370,7 +7373,7 @@
         <v>8.99</v>
       </c>
       <c r="L141" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7408,7 +7411,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="L142" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7446,7 +7449,7 @@
         <v>10.57</v>
       </c>
       <c r="L143" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7484,7 +7487,7 @@
         <v>10.56</v>
       </c>
       <c r="L144" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7522,7 +7525,7 @@
         <v>12.31</v>
       </c>
       <c r="L145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7560,7 +7563,7 @@
         <v>10.61</v>
       </c>
       <c r="L146" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7598,7 +7601,7 @@
         <v>12.98</v>
       </c>
       <c r="L147" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7636,7 +7639,7 @@
         <v>12.25</v>
       </c>
       <c r="L148" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7674,7 +7677,7 @@
         <v>14.36</v>
       </c>
       <c r="L149" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7712,7 +7715,7 @@
         <v>14.71</v>
       </c>
       <c r="L150" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7750,7 +7753,7 @@
         <v>15.35</v>
       </c>
       <c r="L151" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7788,7 +7791,7 @@
         <v>13.19</v>
       </c>
       <c r="L152" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7826,7 +7829,7 @@
         <v>13.74</v>
       </c>
       <c r="L153" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7864,7 +7867,7 @@
         <v>15.02</v>
       </c>
       <c r="L154" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7902,7 +7905,7 @@
         <v>13.03</v>
       </c>
       <c r="L155" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7940,7 +7943,7 @@
         <v>15.78</v>
       </c>
       <c r="L156" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7978,7 +7981,7 @@
         <v>15.35</v>
       </c>
       <c r="L157" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8016,7 +8019,7 @@
         <v>15.37</v>
       </c>
       <c r="L158" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8054,7 +8057,7 @@
         <v>15.71</v>
       </c>
       <c r="L159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8092,7 +8095,7 @@
         <v>14.74</v>
       </c>
       <c r="L160" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8130,7 +8133,7 @@
         <v>16.71</v>
       </c>
       <c r="L161" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8168,7 +8171,7 @@
         <v>13.53</v>
       </c>
       <c r="L162" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8206,7 +8209,7 @@
         <v>15.31</v>
       </c>
       <c r="L163" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8244,7 +8247,7 @@
         <v>14.41</v>
       </c>
       <c r="L164" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8282,7 +8285,7 @@
         <v>15.05</v>
       </c>
       <c r="L165" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8320,7 +8323,7 @@
         <v>20.18</v>
       </c>
       <c r="L166" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8358,7 +8361,7 @@
         <v>25.4</v>
       </c>
       <c r="L167" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8396,7 +8399,7 @@
         <v>25.13</v>
       </c>
       <c r="L168" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8434,7 +8437,7 @@
         <v>20.24</v>
       </c>
       <c r="L169" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8472,7 +8475,7 @@
         <v>16.53</v>
       </c>
       <c r="L170" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8510,7 +8513,7 @@
         <v>15.01</v>
       </c>
       <c r="L171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8548,7 +8551,7 @@
         <v>15.73</v>
       </c>
       <c r="L172" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8586,7 +8589,7 @@
         <v>12.14</v>
       </c>
       <c r="L173" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8624,7 +8627,7 @@
         <v>13.51</v>
       </c>
       <c r="L174" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8662,7 +8665,7 @@
         <v>12.37</v>
       </c>
       <c r="L175" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8700,7 +8703,7 @@
         <v>16.86</v>
       </c>
       <c r="L176" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8738,7 +8741,7 @@
         <v>15.39</v>
       </c>
       <c r="L177" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8776,7 +8779,7 @@
         <v>18.08</v>
       </c>
       <c r="L178" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8814,7 +8817,7 @@
         <v>17.8</v>
       </c>
       <c r="L179" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8852,7 +8855,7 @@
         <v>20.34</v>
       </c>
       <c r="L180" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8890,7 +8893,7 @@
         <v>15.1</v>
       </c>
       <c r="L181" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8928,7 +8931,7 @@
         <v>12.81</v>
       </c>
       <c r="L182" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8966,7 +8969,7 @@
         <v>12.59</v>
       </c>
       <c r="L183" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9004,7 +9007,7 @@
         <v>13.79</v>
       </c>
       <c r="L184" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9042,7 +9045,7 @@
         <v>14.09</v>
       </c>
       <c r="L185" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9080,7 +9083,7 @@
         <v>11.89</v>
       </c>
       <c r="L186" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9118,7 +9121,7 @@
         <v>12.02</v>
       </c>
       <c r="L187" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9156,7 +9159,7 @@
         <v>10.34</v>
       </c>
       <c r="L188" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9194,7 +9197,7 @@
         <v>11.69</v>
       </c>
       <c r="L189" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9232,7 +9235,7 @@
         <v>12.95</v>
       </c>
       <c r="L190" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9270,7 +9273,7 @@
         <v>14.38</v>
       </c>
       <c r="L191" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9308,7 +9311,7 @@
         <v>13.9</v>
       </c>
       <c r="L192" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9346,7 +9349,7 @@
         <v>13.58</v>
       </c>
       <c r="L193" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9384,7 +9387,7 @@
         <v>13.98</v>
       </c>
       <c r="L194" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9422,7 +9425,7 @@
         <v>12.72</v>
       </c>
       <c r="L195" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9460,7 +9463,7 @@
         <v>13.57</v>
       </c>
       <c r="L196" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9498,7 +9501,7 @@
         <v>13.92</v>
       </c>
       <c r="L197" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9536,7 +9539,7 @@
         <v>17.08</v>
       </c>
       <c r="L198" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9574,7 +9577,7 @@
         <v>16.3</v>
       </c>
       <c r="L199" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9612,7 +9615,7 @@
         <v>16.79</v>
       </c>
       <c r="L200" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9650,7 +9653,7 @@
         <v>16.21</v>
       </c>
       <c r="L201" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9688,7 +9691,7 @@
         <v>14.73</v>
       </c>
       <c r="L202" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9726,7 +9729,7 @@
         <v>14.21</v>
       </c>
       <c r="L203" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9764,7 +9767,7 @@
         <v>13.96</v>
       </c>
       <c r="L204" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9802,7 +9805,7 @@
         <v>12.85</v>
       </c>
       <c r="L205" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9840,7 +9843,7 @@
         <v>15.18</v>
       </c>
       <c r="L206" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9878,7 +9881,7 @@
         <v>16.4</v>
       </c>
       <c r="L207" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9916,7 +9919,7 @@
         <v>16.83</v>
       </c>
       <c r="L208" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9954,7 +9957,7 @@
         <v>15.32</v>
       </c>
       <c r="L209" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9992,7 +9995,7 @@
         <v>13.69</v>
       </c>
       <c r="L210" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10030,7 +10033,7 @@
         <v>14.98</v>
       </c>
       <c r="L211" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10068,7 +10071,7 @@
         <v>13.49</v>
       </c>
       <c r="L212" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10106,7 +10109,7 @@
         <v>13.8</v>
       </c>
       <c r="L213" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10144,7 +10147,7 @@
         <v>15.02</v>
       </c>
       <c r="L214" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10182,7 +10185,7 @@
         <v>13.89</v>
       </c>
       <c r="L215" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10220,7 +10223,7 @@
         <v>10.58</v>
       </c>
       <c r="L216" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10258,7 +10261,7 @@
         <v>14.62</v>
       </c>
       <c r="L217" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10296,7 +10299,7 @@
         <v>14.32</v>
       </c>
       <c r="L218" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10334,7 +10337,7 @@
         <v>11.85</v>
       </c>
       <c r="L219" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10372,7 +10375,7 @@
         <v>9.08</v>
       </c>
       <c r="L220" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10410,7 +10413,7 @@
         <v>10.06</v>
       </c>
       <c r="L221" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10448,7 +10451,7 @@
         <v>9.67</v>
       </c>
       <c r="L222" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10486,7 +10489,7 @@
         <v>10.14</v>
       </c>
       <c r="L223" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10524,7 +10527,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="L224" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10562,7 +10565,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L225" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10600,7 +10603,7 @@
         <v>9.19</v>
       </c>
       <c r="L226" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10638,7 +10641,7 @@
         <v>7.33</v>
       </c>
       <c r="L227" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10676,7 +10679,7 @@
         <v>7.42</v>
       </c>
       <c r="L228" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10714,7 +10717,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L229" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10752,7 +10755,7 @@
         <v>7.92</v>
       </c>
       <c r="L230" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10790,7 +10793,7 @@
         <v>10.02</v>
       </c>
       <c r="L231" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10828,7 +10831,7 @@
         <v>8.65</v>
       </c>
       <c r="L232" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10866,7 +10869,7 @@
         <v>9.31</v>
       </c>
       <c r="L233" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10904,7 +10907,7 @@
         <v>7.41</v>
       </c>
       <c r="L234" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10942,7 +10945,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="L235" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10980,7 +10983,7 @@
         <v>8.09</v>
       </c>
       <c r="L236" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11018,7 +11021,7 @@
         <v>6.5</v>
       </c>
       <c r="L237" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11056,7 +11059,7 @@
         <v>7.59</v>
       </c>
       <c r="L238" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11094,7 +11097,7 @@
         <v>8.83</v>
       </c>
       <c r="L239" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11132,7 +11135,7 @@
         <v>10.82</v>
       </c>
       <c r="L240" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11170,7 +11173,7 @@
         <v>12.19</v>
       </c>
       <c r="L241" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11208,7 +11211,7 @@
         <v>13.5</v>
       </c>
       <c r="L242" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11246,7 +11249,7 @@
         <v>14.83</v>
       </c>
       <c r="L243" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11284,7 +11287,7 @@
         <v>14.43</v>
       </c>
       <c r="L244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11322,7 +11325,7 @@
         <v>12.35</v>
       </c>
       <c r="L245" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11360,7 +11363,7 @@
         <v>14.35</v>
       </c>
       <c r="L246" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11398,7 +11401,7 @@
         <v>14.21</v>
       </c>
       <c r="L247" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11436,7 +11439,7 @@
         <v>15.85</v>
       </c>
       <c r="L248" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11474,7 +11477,7 @@
         <v>13.3</v>
       </c>
       <c r="L249" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11512,7 +11515,7 @@
         <v>16.13</v>
       </c>
       <c r="L250" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11550,7 +11553,7 @@
         <v>16.96</v>
       </c>
       <c r="L251" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11588,7 +11591,7 @@
         <v>16.78</v>
       </c>
       <c r="L252" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11626,7 +11629,7 @@
         <v>15.92</v>
       </c>
       <c r="L253" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11664,7 +11667,7 @@
         <v>15.12</v>
       </c>
       <c r="L254" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11702,7 +11705,7 @@
         <v>18.25</v>
       </c>
       <c r="L255" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11740,7 +11743,7 @@
         <v>17.14</v>
       </c>
       <c r="L256" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11778,7 +11781,7 @@
         <v>14.68</v>
       </c>
       <c r="L257" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11816,7 +11819,7 @@
         <v>15.88</v>
       </c>
       <c r="L258" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11854,7 +11857,7 @@
         <v>14.06</v>
       </c>
       <c r="L259" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11892,7 +11895,7 @@
         <v>13.66</v>
       </c>
       <c r="L260" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11930,7 +11933,7 @@
         <v>14.01</v>
       </c>
       <c r="L261" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11968,7 +11971,7 @@
         <v>12.21</v>
       </c>
       <c r="L262" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12006,7 +12009,7 @@
         <v>12.21</v>
       </c>
       <c r="L263" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12044,7 +12047,7 @@
         <v>12.66</v>
       </c>
       <c r="L264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12082,7 +12085,7 @@
         <v>15.74</v>
       </c>
       <c r="L265" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12120,7 +12123,7 @@
         <v>10.45</v>
       </c>
       <c r="L266" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12158,7 +12161,7 @@
         <v>10.81</v>
       </c>
       <c r="L267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12196,7 +12199,7 @@
         <v>9.66</v>
       </c>
       <c r="L268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12234,7 +12237,7 @@
         <v>8.74</v>
       </c>
       <c r="L269" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12272,7 +12275,7 @@
         <v>9.1</v>
       </c>
       <c r="L270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12310,7 +12313,7 @@
         <v>11.49</v>
       </c>
       <c r="L271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12348,7 +12351,7 @@
         <v>11.14</v>
       </c>
       <c r="L272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12386,7 +12389,7 @@
         <v>10.65</v>
       </c>
       <c r="L273" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12424,7 +12427,7 @@
         <v>9.91</v>
       </c>
       <c r="L274" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12462,7 +12465,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L275" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12500,7 +12503,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="L276" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12538,7 +12541,7 @@
         <v>9.32</v>
       </c>
       <c r="L277" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12576,7 +12579,7 @@
         <v>10.03</v>
       </c>
       <c r="L278" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12614,7 +12617,7 @@
         <v>11.41</v>
       </c>
       <c r="L279" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12652,7 +12655,7 @@
         <v>11.83</v>
       </c>
       <c r="L280" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12690,7 +12693,7 @@
         <v>10.68</v>
       </c>
       <c r="L281" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12728,7 +12731,7 @@
         <v>10.52</v>
       </c>
       <c r="L282" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12766,7 +12769,7 @@
         <v>9.41</v>
       </c>
       <c r="L283" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12804,7 +12807,7 @@
         <v>9.48</v>
       </c>
       <c r="L284" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12842,7 +12845,7 @@
         <v>11.87</v>
       </c>
       <c r="L285" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12880,7 +12883,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="L286" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12918,7 +12921,7 @@
         <v>10.4</v>
       </c>
       <c r="L287" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12956,7 +12959,7 @@
         <v>10.57</v>
       </c>
       <c r="L288" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12994,7 +12997,7 @@
         <v>12.09</v>
       </c>
       <c r="L289" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13032,7 +13035,7 @@
         <v>13.32</v>
       </c>
       <c r="L290" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13070,7 +13073,7 @@
         <v>13.99</v>
       </c>
       <c r="L291" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13108,7 +13111,7 @@
         <v>16.19</v>
       </c>
       <c r="L292" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13146,7 +13149,7 @@
         <v>11.69</v>
       </c>
       <c r="L293" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13184,7 +13187,7 @@
         <v>11.21</v>
       </c>
       <c r="L294" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13222,7 +13225,7 @@
         <v>10.54</v>
       </c>
       <c r="L295" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13260,7 +13263,7 @@
         <v>12.48</v>
       </c>
       <c r="L296" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13298,7 +13301,7 @@
         <v>13.6</v>
       </c>
       <c r="L297" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13336,7 +13339,7 @@
         <v>10.42</v>
       </c>
       <c r="L298" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13374,7 +13377,7 @@
         <v>10.9</v>
       </c>
       <c r="L299" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13412,7 +13415,7 @@
         <v>13.36</v>
       </c>
       <c r="L300" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13450,7 +13453,7 @@
         <v>15.33</v>
       </c>
       <c r="L301" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13488,7 +13491,7 @@
         <v>15.73</v>
       </c>
       <c r="L302" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13526,7 +13529,7 @@
         <v>15.09</v>
       </c>
       <c r="L303" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13564,7 +13567,7 @@
         <v>12.27</v>
       </c>
       <c r="L304" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13602,7 +13605,7 @@
         <v>13.75</v>
       </c>
       <c r="L305" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13640,7 +13643,7 @@
         <v>13.66</v>
       </c>
       <c r="L306" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13678,7 +13681,7 @@
         <v>12.52</v>
       </c>
       <c r="L307" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13716,7 +13719,7 @@
         <v>12.44</v>
       </c>
       <c r="L308" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13754,7 +13757,7 @@
         <v>9.73</v>
       </c>
       <c r="L309" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13792,7 +13795,7 @@
         <v>10.97</v>
       </c>
       <c r="L310" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13830,7 +13833,7 @@
         <v>10.05</v>
       </c>
       <c r="L311" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13868,7 +13871,7 @@
         <v>12.74</v>
       </c>
       <c r="L312" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13906,7 +13909,7 @@
         <v>12.09</v>
       </c>
       <c r="L313" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13944,7 +13947,7 @@
         <v>13.72</v>
       </c>
       <c r="L314" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13982,7 +13985,7 @@
         <v>13.92</v>
       </c>
       <c r="L315" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14020,7 +14023,7 @@
         <v>13.9</v>
       </c>
       <c r="L316" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14058,7 +14061,7 @@
         <v>12.16</v>
       </c>
       <c r="L317" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14096,7 +14099,7 @@
         <v>11.72</v>
       </c>
       <c r="L318" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14134,7 +14137,7 @@
         <v>11.33</v>
       </c>
       <c r="L319" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14172,7 +14175,7 @@
         <v>10.89</v>
       </c>
       <c r="L320" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14210,7 +14213,7 @@
         <v>11.54</v>
       </c>
       <c r="L321" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14248,7 +14251,7 @@
         <v>12.09</v>
       </c>
       <c r="L322" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14286,7 +14289,7 @@
         <v>10.72</v>
       </c>
       <c r="L323" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14324,7 +14327,7 @@
         <v>9.18</v>
       </c>
       <c r="L324" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14362,7 +14365,7 @@
         <v>10.25</v>
       </c>
       <c r="L325" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14400,7 +14403,7 @@
         <v>9.18</v>
       </c>
       <c r="L326" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14438,7 +14441,7 @@
         <v>8.84</v>
       </c>
       <c r="L327" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14476,7 +14479,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14514,7 +14517,7 @@
         <v>10.47</v>
       </c>
       <c r="L329" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14552,7 +14555,7 @@
         <v>10.46</v>
       </c>
       <c r="L330" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14590,7 +14593,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="L331" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14628,7 +14631,7 @@
         <v>9.82</v>
       </c>
       <c r="L332" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14666,7 +14669,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14704,7 +14707,7 @@
         <v>10.81</v>
       </c>
       <c r="L334" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14742,7 +14745,7 @@
         <v>11.58</v>
       </c>
       <c r="L335" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14780,7 +14783,7 @@
         <v>9.94</v>
       </c>
       <c r="L336" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14818,7 +14821,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L337" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14856,7 +14859,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L338" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14894,7 +14897,7 @@
         <v>10.32</v>
       </c>
       <c r="L339" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14932,7 +14935,7 @@
         <v>8.82</v>
       </c>
       <c r="L340" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14970,7 +14973,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L341" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15008,7 +15011,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="L342" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15046,7 +15049,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L343" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15084,7 +15087,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L344" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15122,7 +15125,7 @@
         <v>6.15</v>
       </c>
       <c r="L345" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15160,7 +15163,7 @@
         <v>6.47</v>
       </c>
       <c r="L346" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15198,7 +15201,7 @@
         <v>7.12</v>
       </c>
       <c r="L347" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15236,7 +15239,7 @@
         <v>8.07</v>
       </c>
       <c r="L348" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15274,7 +15277,7 @@
         <v>8.56</v>
       </c>
       <c r="L349" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15312,7 +15315,7 @@
         <v>6.74</v>
       </c>
       <c r="L350" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15350,7 +15353,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L351" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15388,7 +15391,7 @@
         <v>10.01</v>
       </c>
       <c r="L352" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15426,7 +15429,7 @@
         <v>10.44</v>
       </c>
       <c r="L353" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15464,7 +15467,7 @@
         <v>10.78</v>
       </c>
       <c r="L354" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15502,7 +15505,7 @@
         <v>8.76</v>
       </c>
       <c r="L355" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15540,7 +15543,7 @@
         <v>7.9</v>
       </c>
       <c r="L356" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15578,7 +15581,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L357" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15616,7 +15619,7 @@
         <v>8.49</v>
       </c>
       <c r="L358" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15654,7 +15657,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L359" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15692,7 +15695,7 @@
         <v>8.68</v>
       </c>
       <c r="L360" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15730,7 +15733,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L361" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15768,7 +15771,7 @@
         <v>10.04</v>
       </c>
       <c r="L362" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15806,7 +15809,7 @@
         <v>8.76</v>
       </c>
       <c r="L363" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15844,7 +15847,7 @@
         <v>7.76</v>
       </c>
       <c r="L364" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15882,7 +15885,7 @@
         <v>10.76</v>
       </c>
       <c r="L365" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15920,7 +15923,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L366" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15958,7 +15961,7 @@
         <v>8.26</v>
       </c>
       <c r="L367" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15996,7 +15999,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L368" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16034,7 +16037,7 @@
         <v>5.75</v>
       </c>
       <c r="L369" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16072,7 +16075,7 @@
         <v>6.74</v>
       </c>
       <c r="L370" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16110,7 +16113,7 @@
         <v>5.82</v>
       </c>
       <c r="L371" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16148,7 +16151,7 @@
         <v>5.24</v>
       </c>
       <c r="L372" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16186,7 +16189,7 @@
         <v>6.84</v>
       </c>
       <c r="L373" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16224,7 +16227,7 @@
         <v>5.92</v>
       </c>
       <c r="L374" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16262,7 +16265,7 @@
         <v>5.04</v>
       </c>
       <c r="L375" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16300,7 +16303,7 @@
         <v>5.74</v>
       </c>
       <c r="L376" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16338,7 +16341,7 @@
         <v>4.92</v>
       </c>
       <c r="L377" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16376,7 +16379,7 @@
         <v>5.18</v>
       </c>
       <c r="L378" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16414,7 +16417,7 @@
         <v>5.77</v>
       </c>
       <c r="L379" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16452,7 +16455,7 @@
         <v>7.15</v>
       </c>
       <c r="L380" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16490,7 +16493,7 @@
         <v>4.87</v>
       </c>
       <c r="L381" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16528,7 +16531,7 @@
         <v>6.74</v>
       </c>
       <c r="L382" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16566,7 +16569,7 @@
         <v>4.47</v>
       </c>
       <c r="L383" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16604,7 +16607,7 @@
         <v>5.76</v>
       </c>
       <c r="L384" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16642,7 +16645,7 @@
         <v>7.82</v>
       </c>
       <c r="L385" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16680,7 +16683,7 @@
         <v>10.25</v>
       </c>
       <c r="L386" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16718,7 +16721,7 @@
         <v>6</v>
       </c>
       <c r="L387" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16756,7 +16759,7 @@
         <v>7.11</v>
       </c>
       <c r="L388" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16794,7 +16797,7 @@
         <v>6.06</v>
       </c>
       <c r="L389" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16832,7 +16835,7 @@
         <v>4.69</v>
       </c>
       <c r="L390" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16870,7 +16873,7 @@
         <v>7.39</v>
       </c>
       <c r="L391" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16908,7 +16911,7 @@
         <v>4.05</v>
       </c>
       <c r="L392" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16946,7 +16949,7 @@
         <v>6.63</v>
       </c>
       <c r="L393" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16984,7 +16987,7 @@
         <v>3.33</v>
       </c>
       <c r="L394" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17022,7 +17025,7 @@
         <v>4.52</v>
       </c>
       <c r="L395" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17060,7 +17063,7 @@
         <v>5.78</v>
       </c>
       <c r="L396" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17098,7 +17101,7 @@
         <v>5.45</v>
       </c>
       <c r="L397" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17136,7 +17139,7 @@
         <v>4.65</v>
       </c>
       <c r="L398" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17174,7 +17177,7 @@
         <v>4.61</v>
       </c>
       <c r="L399" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17212,7 +17215,7 @@
         <v>4.22</v>
       </c>
       <c r="L400" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17250,7 +17253,7 @@
         <v>3.01</v>
       </c>
       <c r="L401" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17288,7 +17291,7 @@
         <v>3.43</v>
       </c>
       <c r="L402" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17326,7 +17329,7 @@
         <v>6.5</v>
       </c>
       <c r="L403" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17364,7 +17367,7 @@
         <v>7.53</v>
       </c>
       <c r="L404" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17402,7 +17405,7 @@
         <v>6.98</v>
       </c>
       <c r="L405" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17440,7 +17443,7 @@
         <v>4.81</v>
       </c>
       <c r="L406" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17478,7 +17481,7 @@
         <v>5.21</v>
       </c>
       <c r="L407" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17516,7 +17519,7 @@
         <v>4.8</v>
       </c>
       <c r="L408" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17554,7 +17557,7 @@
         <v>3.98</v>
       </c>
       <c r="L409" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17592,7 +17595,7 @@
         <v>4.67</v>
       </c>
       <c r="L410" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17630,7 +17633,7 @@
         <v>4.37</v>
       </c>
       <c r="L411" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17668,7 +17671,7 @@
         <v>3.9</v>
       </c>
       <c r="L412" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17706,7 +17709,7 @@
         <v>4.75</v>
       </c>
       <c r="L413" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17744,7 +17747,7 @@
         <v>4.1</v>
       </c>
       <c r="L414" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17782,7 +17785,7 @@
         <v>4.95</v>
       </c>
       <c r="L415" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17820,7 +17823,7 @@
         <v>4.55</v>
       </c>
       <c r="L416" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17858,7 +17861,7 @@
         <v>5.14</v>
       </c>
       <c r="L417" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17896,7 +17899,7 @@
         <v>3.38</v>
       </c>
       <c r="L418" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17934,7 +17937,7 @@
         <v>4.79</v>
       </c>
       <c r="L419" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17972,7 +17975,7 @@
         <v>6.24</v>
       </c>
       <c r="L420" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18010,7 +18013,7 @@
         <v>3.03</v>
       </c>
       <c r="L421" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18048,7 +18051,7 @@
         <v>3.13</v>
       </c>
       <c r="L422" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18086,7 +18089,7 @@
         <v>2.67</v>
       </c>
       <c r="L423" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18124,7 +18127,7 @@
         <v>3.63</v>
       </c>
       <c r="L424" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18162,7 +18165,7 @@
         <v>5.68</v>
       </c>
       <c r="L425" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18200,7 +18203,7 @@
         <v>5.36</v>
       </c>
       <c r="L426" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18238,7 +18241,7 @@
         <v>3.66</v>
       </c>
       <c r="L427" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18276,7 +18279,7 @@
         <v>2.27</v>
       </c>
       <c r="L428" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18314,7 +18317,7 @@
         <v>1.87</v>
       </c>
       <c r="L429" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18352,7 +18355,7 @@
         <v>2.54</v>
       </c>
       <c r="L430" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18390,7 +18393,7 @@
         <v>2.58</v>
       </c>
       <c r="L431" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18428,7 +18431,7 @@
         <v>1.76</v>
       </c>
       <c r="L432" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18466,7 +18469,7 @@
         <v>2.03</v>
       </c>
       <c r="L433" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18504,7 +18507,7 @@
         <v>3.95</v>
       </c>
       <c r="L434" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18542,7 +18545,7 @@
         <v>3.11</v>
       </c>
       <c r="L435" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18580,7 +18583,7 @@
         <v>3.99</v>
       </c>
       <c r="L436" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18618,7 +18621,7 @@
         <v>4.47</v>
       </c>
       <c r="L437" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18656,7 +18659,7 @@
         <v>2.84</v>
       </c>
       <c r="L438" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18694,7 +18697,7 @@
         <v>1.67</v>
       </c>
       <c r="L439" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18732,7 +18735,7 @@
         <v>1.46</v>
       </c>
       <c r="L440" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18770,7 +18773,7 @@
         <v>1.71</v>
       </c>
       <c r="L441" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18808,7 +18811,7 @@
         <v>2.6</v>
       </c>
       <c r="L442" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18846,7 +18849,7 @@
         <v>1.54</v>
       </c>
       <c r="L443" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18884,7 +18887,7 @@
         <v>0.79</v>
       </c>
       <c r="L444" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18922,7 +18925,7 @@
         <v>0.7</v>
       </c>
       <c r="L445" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18960,7 +18963,7 @@
         <v>0.95</v>
       </c>
       <c r="L446" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18998,7 +19001,7 @@
         <v>0.89</v>
       </c>
       <c r="L447" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19036,7 +19039,7 @@
         <v>1.63</v>
       </c>
       <c r="L448" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19074,7 +19077,7 @@
         <v>3.84</v>
       </c>
       <c r="L449" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19112,7 +19115,7 @@
         <v>3.21</v>
       </c>
       <c r="L450" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19150,7 +19153,7 @@
         <v>3.83</v>
       </c>
       <c r="L451" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19188,7 +19191,7 @@
         <v>3.05</v>
       </c>
       <c r="L452" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19226,7 +19229,7 @@
         <v>2</v>
       </c>
       <c r="L453" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19264,7 +19267,7 @@
         <v>2.11</v>
       </c>
       <c r="L454" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19302,7 +19305,7 @@
         <v>2.77</v>
       </c>
       <c r="L455" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19340,7 +19343,7 @@
         <v>1.18</v>
       </c>
       <c r="L456" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19378,7 +19381,7 @@
         <v>1.03</v>
       </c>
       <c r="L457" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19416,7 +19419,7 @@
         <v>0.91</v>
       </c>
       <c r="L458" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19454,7 +19457,7 @@
         <v>0.65</v>
       </c>
       <c r="L459" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19492,7 +19495,7 @@
         <v>1.85</v>
       </c>
       <c r="L460" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19530,7 +19533,7 @@
         <v>3.54</v>
       </c>
       <c r="L461" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19568,7 +19571,7 @@
         <v>2.05</v>
       </c>
       <c r="L462" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19606,7 +19609,7 @@
         <v>3.32</v>
       </c>
       <c r="L463" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19644,7 +19647,7 @@
         <v>3.36</v>
       </c>
       <c r="L464" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19682,7 +19685,7 @@
         <v>1.97</v>
       </c>
       <c r="L465" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19720,7 +19723,7 @@
         <v>2.95</v>
       </c>
       <c r="L466" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19758,7 +19761,7 @@
         <v>2.35</v>
       </c>
       <c r="L467" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19796,7 +19799,7 @@
         <v>2.41</v>
       </c>
       <c r="L468" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19834,7 +19837,7 @@
         <v>2.93</v>
       </c>
       <c r="L469" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19872,7 +19875,7 @@
         <v>3.24</v>
       </c>
       <c r="L470" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19910,7 +19913,7 @@
         <v>4.3</v>
       </c>
       <c r="L471" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19948,7 +19951,7 @@
         <v>5.1</v>
       </c>
       <c r="L472" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19986,7 +19989,7 @@
         <v>2.81</v>
       </c>
       <c r="L473" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20024,7 +20027,7 @@
         <v>2.72</v>
       </c>
       <c r="L474" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20062,7 +20065,7 @@
         <v>3.34</v>
       </c>
       <c r="L475" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20100,7 +20103,7 @@
         <v>3.36</v>
       </c>
       <c r="L476" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20138,7 +20141,7 @@
         <v>4.7</v>
       </c>
       <c r="L477" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20176,7 +20179,7 @@
         <v>4.26</v>
       </c>
       <c r="L478" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20214,7 +20217,7 @@
         <v>5.25</v>
       </c>
       <c r="L479" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20252,7 +20255,7 @@
         <v>4.43</v>
       </c>
       <c r="L480" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20290,7 +20293,7 @@
         <v>4.76</v>
       </c>
       <c r="L481" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20328,7 +20331,7 @@
         <v>4.76</v>
       </c>
       <c r="L482" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20366,7 +20369,7 @@
         <v>6.41</v>
       </c>
       <c r="L483" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20404,7 +20407,7 @@
         <v>5.42</v>
       </c>
       <c r="L484" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20442,7 +20445,7 @@
         <v>5.48</v>
       </c>
       <c r="L485" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20480,7 +20483,7 @@
         <v>6.45</v>
       </c>
       <c r="L486" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20518,7 +20521,7 @@
         <v>4.81</v>
       </c>
       <c r="L487" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20556,7 +20559,7 @@
         <v>4.51</v>
       </c>
       <c r="L488" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20594,7 +20597,7 @@
         <v>4.48</v>
       </c>
       <c r="L489" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20632,7 +20635,7 @@
         <v>4.35</v>
       </c>
       <c r="L490" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20670,7 +20673,7 @@
         <v>7.52</v>
       </c>
       <c r="L491" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20708,7 +20711,7 @@
         <v>4.94</v>
       </c>
       <c r="L492" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20746,7 +20749,7 @@
         <v>3.86</v>
       </c>
       <c r="L493" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20784,7 +20787,7 @@
         <v>4.8</v>
       </c>
       <c r="L494" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20822,7 +20825,7 @@
         <v>3.75</v>
       </c>
       <c r="L495" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20860,7 +20863,7 @@
         <v>4.37</v>
       </c>
       <c r="L496" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20898,7 +20901,7 @@
         <v>5.87</v>
       </c>
       <c r="L497" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20936,7 +20939,7 @@
         <v>9.31</v>
       </c>
       <c r="L498" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20974,7 +20977,7 @@
         <v>7.68</v>
       </c>
       <c r="L499" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21012,7 +21015,7 @@
         <v>5.7</v>
       </c>
       <c r="L500" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21050,7 +21053,7 @@
         <v>4.06</v>
       </c>
       <c r="L501" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21088,7 +21091,7 @@
         <v>4.23</v>
       </c>
       <c r="L502" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21126,7 +21129,7 @@
         <v>7.37</v>
       </c>
       <c r="L503" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21164,7 +21167,7 @@
         <v>5.95</v>
       </c>
       <c r="L504" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21202,7 +21205,7 @@
         <v>7</v>
       </c>
       <c r="L505" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21240,7 +21243,7 @@
         <v>5.49</v>
       </c>
       <c r="L506" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21278,7 +21281,7 @@
         <v>7.76</v>
       </c>
       <c r="L507" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21316,7 +21319,7 @@
         <v>7.9</v>
       </c>
       <c r="L508" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21354,7 +21357,7 @@
         <v>5.36</v>
       </c>
       <c r="L509" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21392,7 +21395,7 @@
         <v>4.67</v>
       </c>
       <c r="L510" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21430,7 +21433,7 @@
         <v>5.52</v>
       </c>
       <c r="L511" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21468,7 +21471,7 @@
         <v>6.85</v>
       </c>
       <c r="L512" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21506,7 +21509,7 @@
         <v>7.77</v>
       </c>
       <c r="L513" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21544,7 +21547,7 @@
         <v>9.31</v>
       </c>
       <c r="L514" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21582,7 +21585,7 @@
         <v>5.85</v>
       </c>
       <c r="L515" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21620,7 +21623,7 @@
         <v>7.6</v>
       </c>
       <c r="L516" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21658,7 +21661,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L517" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21696,7 +21699,7 @@
         <v>10.07</v>
       </c>
       <c r="L518" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21734,7 +21737,7 @@
         <v>4.88</v>
       </c>
       <c r="L519" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21772,7 +21775,7 @@
         <v>5.91</v>
       </c>
       <c r="L520" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21810,7 +21813,7 @@
         <v>5.17</v>
       </c>
       <c r="L521" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21848,7 +21851,7 @@
         <v>5</v>
       </c>
       <c r="L522" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21886,7 +21889,7 @@
         <v>3.47</v>
       </c>
       <c r="L523" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21924,7 +21927,7 @@
         <v>6.38</v>
       </c>
       <c r="L524" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21962,7 +21965,7 @@
         <v>4.02</v>
       </c>
       <c r="L525" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22000,7 +22003,7 @@
         <v>6.09</v>
       </c>
       <c r="L526" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22038,7 +22041,7 @@
         <v>6.46</v>
       </c>
       <c r="L527" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22076,7 +22079,7 @@
         <v>4.36</v>
       </c>
       <c r="L528" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22114,7 +22117,7 @@
         <v>6.78</v>
       </c>
       <c r="L529" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22152,7 +22155,7 @@
         <v>5.16</v>
       </c>
       <c r="L530" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22190,7 +22193,7 @@
         <v>5.23</v>
       </c>
       <c r="L531" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22228,7 +22231,7 @@
         <v>3.65</v>
       </c>
       <c r="L532" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22266,7 +22269,7 @@
         <v>3.76</v>
       </c>
       <c r="L533" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22304,7 +22307,7 @@
         <v>3.5</v>
       </c>
       <c r="L534" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22342,7 +22345,7 @@
         <v>2.78</v>
       </c>
       <c r="L535" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22380,7 +22383,45 @@
         <v>3.26</v>
       </c>
       <c r="L536" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
         <v>546</v>
+      </c>
+      <c r="C537">
+        <v>12.89</v>
+      </c>
+      <c r="D537">
+        <v>100</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>60</v>
+      </c>
+      <c r="G537">
+        <v>329.05</v>
+      </c>
+      <c r="H537">
+        <v>60</v>
+      </c>
+      <c r="I537">
+        <v>0.61</v>
+      </c>
+      <c r="J537">
+        <v>6.92</v>
+      </c>
+      <c r="K537">
+        <v>1.87</v>
+      </c>
+      <c r="L537" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="436">
   <si>
     <t>Fecha</t>
   </si>
@@ -1292,6 +1292,33 @@
   </si>
   <si>
     <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 PM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1652,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L416"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1755,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1766,7 +1793,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1804,7 +1831,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1842,7 +1869,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1880,7 +1907,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1918,7 +1945,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1956,7 +1983,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1994,7 +2021,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2032,7 +2059,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2070,7 +2097,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2108,7 +2135,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2146,7 +2173,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2184,7 +2211,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2222,7 +2249,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2260,7 +2287,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2298,7 +2325,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2336,7 +2363,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2374,7 +2401,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2412,7 +2439,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2450,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2488,7 +2515,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2526,7 +2553,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2564,7 +2591,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2602,7 +2629,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2640,7 +2667,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2678,7 +2705,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2716,7 +2743,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2754,7 +2781,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2792,7 +2819,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2830,7 +2857,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2868,7 +2895,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2906,7 +2933,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2944,7 +2971,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2982,7 +3009,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3020,7 +3047,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3058,7 +3085,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3096,7 +3123,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3134,7 +3161,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3172,7 +3199,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3210,7 +3237,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3248,7 +3275,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3286,7 +3313,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3324,7 +3351,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3362,7 +3389,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3400,7 +3427,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3438,7 +3465,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3476,7 +3503,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3514,7 +3541,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3552,7 +3579,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3590,7 +3617,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3628,7 +3655,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3666,7 +3693,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3704,7 +3731,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3742,7 +3769,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3780,7 +3807,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3818,7 +3845,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3856,7 +3883,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3894,7 +3921,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3932,7 +3959,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3970,7 +3997,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4008,7 +4035,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4046,7 +4073,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4084,7 +4111,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4122,7 +4149,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4160,7 +4187,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4198,7 +4225,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4236,7 +4263,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4274,7 +4301,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4312,7 +4339,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4350,7 +4377,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4388,7 +4415,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4426,7 +4453,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4464,7 +4491,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4502,7 +4529,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4540,7 +4567,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4578,7 +4605,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4616,7 +4643,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4654,7 +4681,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4692,7 +4719,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4730,7 +4757,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4768,7 +4795,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4806,7 +4833,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4844,7 +4871,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4882,7 +4909,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4920,7 +4947,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4958,7 +4985,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4996,7 +5023,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5034,7 +5061,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5072,7 +5099,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5110,7 +5137,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5148,7 +5175,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5186,7 +5213,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5224,7 +5251,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5262,7 +5289,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5300,7 +5327,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5338,7 +5365,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5376,7 +5403,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5414,7 +5441,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5452,7 +5479,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5490,7 +5517,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5528,7 +5555,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5566,7 +5593,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5604,7 +5631,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5642,7 +5669,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5680,7 +5707,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5718,7 +5745,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5756,7 +5783,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5794,7 +5821,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5832,7 +5859,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5870,7 +5897,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5908,7 +5935,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5946,7 +5973,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5984,7 +6011,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6022,7 +6049,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6060,7 +6087,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6098,7 +6125,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6136,7 +6163,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6174,7 +6201,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6212,7 +6239,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6250,7 +6277,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6288,7 +6315,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6326,7 +6353,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6364,7 +6391,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6402,7 +6429,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6440,7 +6467,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6478,7 +6505,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6516,7 +6543,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6554,7 +6581,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6592,7 +6619,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6630,7 +6657,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6668,7 +6695,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6706,7 +6733,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6744,7 +6771,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6782,7 +6809,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6820,7 +6847,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6858,7 +6885,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6896,7 +6923,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6934,7 +6961,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6972,7 +6999,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7010,7 +7037,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7048,7 +7075,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7086,7 +7113,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7124,7 +7151,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7162,7 +7189,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7200,7 +7227,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7238,7 +7265,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7276,7 +7303,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7314,7 +7341,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7352,7 +7379,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7390,7 +7417,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7428,7 +7455,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7466,7 +7493,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7504,7 +7531,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7542,7 +7569,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7580,7 +7607,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7618,7 +7645,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7656,7 +7683,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7694,7 +7721,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7732,7 +7759,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7770,7 +7797,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7808,7 +7835,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7846,7 +7873,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7884,7 +7911,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7922,7 +7949,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7960,7 +7987,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7998,7 +8025,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8036,7 +8063,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8074,7 +8101,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8112,7 +8139,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8150,7 +8177,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8188,7 +8215,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8226,7 +8253,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8264,7 +8291,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8302,7 +8329,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8340,7 +8367,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8378,7 +8405,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8416,7 +8443,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8454,7 +8481,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8492,7 +8519,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8530,7 +8557,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8568,7 +8595,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8606,7 +8633,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8644,7 +8671,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8682,7 +8709,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8720,7 +8747,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8758,7 +8785,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8796,7 +8823,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8834,7 +8861,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8872,7 +8899,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8910,7 +8937,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8948,7 +8975,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8986,7 +9013,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9024,7 +9051,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9062,7 +9089,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9100,7 +9127,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9138,7 +9165,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9176,7 +9203,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9214,7 +9241,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9252,7 +9279,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9290,7 +9317,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9328,7 +9355,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9366,7 +9393,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9404,7 +9431,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9442,7 +9469,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9480,7 +9507,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9518,7 +9545,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9556,7 +9583,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9594,7 +9621,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9632,7 +9659,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9670,7 +9697,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9708,7 +9735,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9746,7 +9773,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9784,7 +9811,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9822,7 +9849,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9860,7 +9887,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9898,7 +9925,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9936,7 +9963,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9974,7 +10001,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10012,7 +10039,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10050,7 +10077,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10088,7 +10115,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10126,7 +10153,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10164,7 +10191,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10202,7 +10229,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10240,7 +10267,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10278,7 +10305,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10316,7 +10343,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10354,7 +10381,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10392,7 +10419,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10430,7 +10457,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10468,7 +10495,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10506,7 +10533,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10544,7 +10571,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10582,7 +10609,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10620,7 +10647,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10658,7 +10685,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10696,7 +10723,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10734,7 +10761,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10772,7 +10799,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10810,7 +10837,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10848,7 +10875,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10886,7 +10913,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10924,7 +10951,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10962,7 +10989,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11000,7 +11027,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11038,7 +11065,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11076,7 +11103,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11114,7 +11141,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11152,7 +11179,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11190,7 +11217,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11228,7 +11255,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11266,7 +11293,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11304,7 +11331,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11342,7 +11369,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11380,7 +11407,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11418,7 +11445,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11456,7 +11483,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11494,7 +11521,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11532,7 +11559,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11570,7 +11597,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11608,7 +11635,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11646,7 +11673,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11684,7 +11711,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11722,7 +11749,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11760,7 +11787,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11798,7 +11825,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11836,7 +11863,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11874,7 +11901,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11912,7 +11939,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11950,7 +11977,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -11988,7 +12015,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12026,7 +12053,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12064,7 +12091,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12102,7 +12129,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12140,7 +12167,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12178,7 +12205,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12216,7 +12243,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12254,7 +12281,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12292,7 +12319,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12330,7 +12357,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12368,7 +12395,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12406,7 +12433,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12444,7 +12471,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12482,7 +12509,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12520,7 +12547,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12558,7 +12585,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12596,7 +12623,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12634,7 +12661,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12672,7 +12699,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12710,7 +12737,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12748,7 +12775,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12786,7 +12813,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12824,7 +12851,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12862,7 +12889,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12900,7 +12927,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12938,7 +12965,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -12976,7 +13003,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13014,7 +13041,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13052,7 +13079,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13090,7 +13117,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13128,7 +13155,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13166,7 +13193,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13204,7 +13231,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13242,7 +13269,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13280,7 +13307,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13318,7 +13345,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13356,7 +13383,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13394,7 +13421,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13432,7 +13459,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13470,7 +13497,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13508,7 +13535,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13546,7 +13573,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13584,7 +13611,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13622,7 +13649,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13660,7 +13687,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13698,7 +13725,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13736,7 +13763,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13774,7 +13801,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13812,7 +13839,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13850,7 +13877,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13888,7 +13915,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13926,7 +13953,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13964,7 +13991,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14002,7 +14029,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14040,7 +14067,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14078,7 +14105,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14116,7 +14143,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14154,7 +14181,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14192,7 +14219,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14230,7 +14257,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14268,7 +14295,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14306,7 +14333,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14344,7 +14371,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14382,7 +14409,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14420,7 +14447,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14458,7 +14485,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14496,7 +14523,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14534,7 +14561,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14572,7 +14599,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14610,7 +14637,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14648,7 +14675,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14686,7 +14713,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14724,7 +14751,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14762,7 +14789,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14800,7 +14827,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14838,7 +14865,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14876,7 +14903,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14914,7 +14941,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -14952,7 +14979,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -14990,7 +15017,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15028,7 +15055,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15066,7 +15093,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15104,7 +15131,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15142,7 +15169,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15180,7 +15207,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15218,7 +15245,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15256,7 +15283,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15294,7 +15321,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15332,7 +15359,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15370,7 +15397,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15408,7 +15435,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15446,7 +15473,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15484,7 +15511,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15522,7 +15549,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15560,7 +15587,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15598,7 +15625,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15636,7 +15663,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15674,7 +15701,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15712,7 +15739,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15750,7 +15777,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15788,7 +15815,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15826,7 +15853,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15864,7 +15891,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15902,7 +15929,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15940,7 +15967,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -15978,7 +16005,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16016,7 +16043,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16054,7 +16081,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16092,7 +16119,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16130,7 +16157,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16168,7 +16195,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16206,7 +16233,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16244,7 +16271,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16282,7 +16309,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16320,7 +16347,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16358,7 +16385,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16396,7 +16423,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16434,7 +16461,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16472,7 +16499,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16510,7 +16537,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16548,7 +16575,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16586,7 +16613,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16624,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16662,7 +16689,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16700,7 +16727,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16738,7 +16765,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16776,7 +16803,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16814,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16852,7 +16879,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16890,7 +16917,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16928,7 +16955,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -16966,7 +16993,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17004,7 +17031,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17042,7 +17069,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17080,7 +17107,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17118,7 +17145,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17156,7 +17183,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17194,7 +17221,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17232,7 +17259,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17270,7 +17297,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17308,7 +17335,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17346,7 +17373,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17384,7 +17411,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17422,7 +17449,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17460,7 +17487,349 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
         <v>426</v>
+      </c>
+      <c r="C417">
+        <v>12.68</v>
+      </c>
+      <c r="D417">
+        <v>100</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>60</v>
+      </c>
+      <c r="G417">
+        <v>332.42</v>
+      </c>
+      <c r="H417">
+        <v>60</v>
+      </c>
+      <c r="I417">
+        <v>0.03</v>
+      </c>
+      <c r="J417">
+        <v>81.45</v>
+      </c>
+      <c r="K417">
+        <v>1.3</v>
+      </c>
+      <c r="L417" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>427</v>
+      </c>
+      <c r="C418">
+        <v>12.67</v>
+      </c>
+      <c r="D418">
+        <v>100</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>60</v>
+      </c>
+      <c r="G418">
+        <v>333.85</v>
+      </c>
+      <c r="H418">
+        <v>60</v>
+      </c>
+      <c r="I418">
+        <v>0.6</v>
+      </c>
+      <c r="J418">
+        <v>81.09</v>
+      </c>
+      <c r="K418">
+        <v>1.55</v>
+      </c>
+      <c r="L418" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>428</v>
+      </c>
+      <c r="C419">
+        <v>12.67</v>
+      </c>
+      <c r="D419">
+        <v>100</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>60</v>
+      </c>
+      <c r="G419">
+        <v>304.57</v>
+      </c>
+      <c r="H419">
+        <v>60</v>
+      </c>
+      <c r="I419">
+        <v>1.94</v>
+      </c>
+      <c r="J419">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="K419">
+        <v>1.42</v>
+      </c>
+      <c r="L419" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>429</v>
+      </c>
+      <c r="C420">
+        <v>12.67</v>
+      </c>
+      <c r="D420">
+        <v>100</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>60</v>
+      </c>
+      <c r="G420">
+        <v>281.21</v>
+      </c>
+      <c r="H420">
+        <v>60</v>
+      </c>
+      <c r="I420">
+        <v>-3.15</v>
+      </c>
+      <c r="J420">
+        <v>83.02</v>
+      </c>
+      <c r="K420">
+        <v>1.35</v>
+      </c>
+      <c r="L420" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>430</v>
+      </c>
+      <c r="C421">
+        <v>12.66</v>
+      </c>
+      <c r="D421">
+        <v>100</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>60</v>
+      </c>
+      <c r="G421">
+        <v>329.06</v>
+      </c>
+      <c r="H421">
+        <v>60</v>
+      </c>
+      <c r="I421">
+        <v>-0.36</v>
+      </c>
+      <c r="J421">
+        <v>82.45</v>
+      </c>
+      <c r="K421">
+        <v>2.99</v>
+      </c>
+      <c r="L421" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>431</v>
+      </c>
+      <c r="C422">
+        <v>12.66</v>
+      </c>
+      <c r="D422">
+        <v>100</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>60</v>
+      </c>
+      <c r="G422">
+        <v>350.47</v>
+      </c>
+      <c r="H422">
+        <v>60</v>
+      </c>
+      <c r="I422">
+        <v>1.17</v>
+      </c>
+      <c r="J422">
+        <v>83.44</v>
+      </c>
+      <c r="K422">
+        <v>3.36</v>
+      </c>
+      <c r="L422" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>432</v>
+      </c>
+      <c r="C423">
+        <v>12.66</v>
+      </c>
+      <c r="D423">
+        <v>100</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>60</v>
+      </c>
+      <c r="G423">
+        <v>355.77</v>
+      </c>
+      <c r="H423">
+        <v>60</v>
+      </c>
+      <c r="I423">
+        <v>-1.99</v>
+      </c>
+      <c r="J423">
+        <v>85.64</v>
+      </c>
+      <c r="K423">
+        <v>4.04</v>
+      </c>
+      <c r="L423" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>433</v>
+      </c>
+      <c r="C424">
+        <v>12.65</v>
+      </c>
+      <c r="D424">
+        <v>100</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>60</v>
+      </c>
+      <c r="G424">
+        <v>346.09</v>
+      </c>
+      <c r="H424">
+        <v>60</v>
+      </c>
+      <c r="I424">
+        <v>0.34</v>
+      </c>
+      <c r="J424">
+        <v>87.63</v>
+      </c>
+      <c r="K424">
+        <v>5.02</v>
+      </c>
+      <c r="L424" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>434</v>
+      </c>
+      <c r="C425">
+        <v>12.65</v>
+      </c>
+      <c r="D425">
+        <v>100</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>60</v>
+      </c>
+      <c r="G425">
+        <v>333.05</v>
+      </c>
+      <c r="H425">
+        <v>60</v>
+      </c>
+      <c r="I425">
+        <v>1.09</v>
+      </c>
+      <c r="J425">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="K425">
+        <v>1.76</v>
+      </c>
+      <c r="L425" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="446">
   <si>
     <t>Fecha</t>
   </si>
@@ -1319,6 +1319,36 @@
   </si>
   <si>
     <t>11/8/2020 10:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:10:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1679,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L425"/>
+  <dimension ref="A1:L435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1785,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1793,7 +1823,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1831,7 +1861,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1869,7 +1899,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1907,7 +1937,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1945,7 +1975,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1983,7 +2013,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2021,7 +2051,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2059,7 +2089,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2097,7 +2127,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2135,7 +2165,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2173,7 +2203,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2211,7 +2241,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2249,7 +2279,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2287,7 +2317,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2325,7 +2355,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2363,7 +2393,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2401,7 +2431,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2439,7 +2469,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2477,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2515,7 +2545,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2553,7 +2583,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2591,7 +2621,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2629,7 +2659,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2667,7 +2697,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2705,7 +2735,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2743,7 +2773,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2781,7 +2811,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2819,7 +2849,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2857,7 +2887,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2895,7 +2925,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2933,7 +2963,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2971,7 +3001,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3009,7 +3039,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3047,7 +3077,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3085,7 +3115,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3123,7 +3153,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3161,7 +3191,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3199,7 +3229,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3237,7 +3267,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3275,7 +3305,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3313,7 +3343,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3351,7 +3381,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3389,7 +3419,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3427,7 +3457,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3465,7 +3495,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3503,7 +3533,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3541,7 +3571,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3579,7 +3609,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3617,7 +3647,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3655,7 +3685,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3693,7 +3723,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3731,7 +3761,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3769,7 +3799,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3807,7 +3837,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3845,7 +3875,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3883,7 +3913,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3921,7 +3951,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3959,7 +3989,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3997,7 +4027,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4035,7 +4065,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4073,7 +4103,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4111,7 +4141,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4149,7 +4179,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4187,7 +4217,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4225,7 +4255,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4263,7 +4293,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4301,7 +4331,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4339,7 +4369,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4377,7 +4407,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4415,7 +4445,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4453,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4491,7 +4521,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4529,7 +4559,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4567,7 +4597,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4605,7 +4635,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4643,7 +4673,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4681,7 +4711,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4719,7 +4749,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4757,7 +4787,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4795,7 +4825,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4833,7 +4863,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4871,7 +4901,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4909,7 +4939,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4947,7 +4977,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4985,7 +5015,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5023,7 +5053,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5061,7 +5091,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5099,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5137,7 +5167,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5175,7 +5205,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5213,7 +5243,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5251,7 +5281,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5289,7 +5319,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5327,7 +5357,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5365,7 +5395,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5403,7 +5433,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5441,7 +5471,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5479,7 +5509,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5517,7 +5547,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5555,7 +5585,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5593,7 +5623,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5631,7 +5661,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5669,7 +5699,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5707,7 +5737,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5745,7 +5775,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5783,7 +5813,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5821,7 +5851,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5859,7 +5889,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5897,7 +5927,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5935,7 +5965,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5973,7 +6003,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6011,7 +6041,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6049,7 +6079,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6087,7 +6117,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6125,7 +6155,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6163,7 +6193,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6201,7 +6231,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6239,7 +6269,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6277,7 +6307,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6315,7 +6345,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6353,7 +6383,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6391,7 +6421,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6429,7 +6459,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6467,7 +6497,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6505,7 +6535,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6543,7 +6573,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6581,7 +6611,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6619,7 +6649,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6657,7 +6687,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6695,7 +6725,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6733,7 +6763,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6771,7 +6801,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6809,7 +6839,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6847,7 +6877,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6885,7 +6915,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6923,7 +6953,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6961,7 +6991,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6999,7 +7029,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7037,7 +7067,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7075,7 +7105,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7113,7 +7143,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7151,7 +7181,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7189,7 +7219,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7227,7 +7257,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7265,7 +7295,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7303,7 +7333,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7341,7 +7371,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7379,7 +7409,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7417,7 +7447,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7455,7 +7485,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7493,7 +7523,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7531,7 +7561,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7569,7 +7599,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7607,7 +7637,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7645,7 +7675,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7683,7 +7713,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7721,7 +7751,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7759,7 +7789,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7797,7 +7827,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7835,7 +7865,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7873,7 +7903,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7911,7 +7941,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7949,7 +7979,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7987,7 +8017,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8025,7 +8055,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8063,7 +8093,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8101,7 +8131,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8139,7 +8169,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8177,7 +8207,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8215,7 +8245,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8253,7 +8283,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8291,7 +8321,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8329,7 +8359,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8367,7 +8397,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8405,7 +8435,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8443,7 +8473,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8481,7 +8511,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8519,7 +8549,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8557,7 +8587,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8595,7 +8625,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8633,7 +8663,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8671,7 +8701,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8709,7 +8739,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8747,7 +8777,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8785,7 +8815,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8823,7 +8853,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8861,7 +8891,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8899,7 +8929,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8937,7 +8967,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8975,7 +9005,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9013,7 +9043,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9051,7 +9081,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9089,7 +9119,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9127,7 +9157,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9165,7 +9195,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9203,7 +9233,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9241,7 +9271,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9279,7 +9309,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9317,7 +9347,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9355,7 +9385,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9393,7 +9423,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9431,7 +9461,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9469,7 +9499,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9507,7 +9537,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9545,7 +9575,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9583,7 +9613,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9621,7 +9651,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9659,7 +9689,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9697,7 +9727,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9735,7 +9765,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9773,7 +9803,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9811,7 +9841,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9849,7 +9879,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9887,7 +9917,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9925,7 +9955,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9963,7 +9993,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10001,7 +10031,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10039,7 +10069,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10077,7 +10107,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10115,7 +10145,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10153,7 +10183,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10191,7 +10221,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10229,7 +10259,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10267,7 +10297,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10305,7 +10335,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10343,7 +10373,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10381,7 +10411,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10419,7 +10449,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10457,7 +10487,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10495,7 +10525,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10533,7 +10563,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10571,7 +10601,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10609,7 +10639,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10647,7 +10677,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10685,7 +10715,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10723,7 +10753,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10761,7 +10791,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10799,7 +10829,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10837,7 +10867,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10875,7 +10905,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10913,7 +10943,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10951,7 +10981,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10989,7 +11019,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11027,7 +11057,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11065,7 +11095,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11103,7 +11133,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11141,7 +11171,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11179,7 +11209,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11217,7 +11247,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11255,7 +11285,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11293,7 +11323,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11331,7 +11361,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11369,7 +11399,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11407,7 +11437,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11445,7 +11475,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11483,7 +11513,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11521,7 +11551,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11559,7 +11589,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11597,7 +11627,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11635,7 +11665,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11673,7 +11703,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11711,7 +11741,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11749,7 +11779,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11787,7 +11817,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11825,7 +11855,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11863,7 +11893,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11901,7 +11931,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11939,7 +11969,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11977,7 +12007,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12015,7 +12045,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12053,7 +12083,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12091,7 +12121,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12129,7 +12159,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12167,7 +12197,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12205,7 +12235,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12243,7 +12273,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12281,7 +12311,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12319,7 +12349,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12357,7 +12387,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12395,7 +12425,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12433,7 +12463,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12471,7 +12501,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12509,7 +12539,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12547,7 +12577,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12585,7 +12615,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12623,7 +12653,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12661,7 +12691,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12699,7 +12729,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12737,7 +12767,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12775,7 +12805,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12813,7 +12843,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12851,7 +12881,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12889,7 +12919,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12927,7 +12957,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12965,7 +12995,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13003,7 +13033,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13041,7 +13071,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13079,7 +13109,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13117,7 +13147,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13155,7 +13185,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13193,7 +13223,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13231,7 +13261,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13269,7 +13299,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13307,7 +13337,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13345,7 +13375,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13383,7 +13413,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13421,7 +13451,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13459,7 +13489,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13497,7 +13527,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13535,7 +13565,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13573,7 +13603,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13611,7 +13641,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13649,7 +13679,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13687,7 +13717,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13725,7 +13755,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13763,7 +13793,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13801,7 +13831,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13839,7 +13869,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13877,7 +13907,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13915,7 +13945,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13953,7 +13983,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13991,7 +14021,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14029,7 +14059,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14067,7 +14097,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14105,7 +14135,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14143,7 +14173,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14181,7 +14211,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14219,7 +14249,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14257,7 +14287,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14295,7 +14325,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14333,7 +14363,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14371,7 +14401,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14409,7 +14439,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14447,7 +14477,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14485,7 +14515,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14523,7 +14553,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14561,7 +14591,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14599,7 +14629,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14637,7 +14667,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14675,7 +14705,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14713,7 +14743,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14751,7 +14781,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14789,7 +14819,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14827,7 +14857,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14865,7 +14895,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14903,7 +14933,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14941,7 +14971,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -14979,7 +15009,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15017,7 +15047,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15055,7 +15085,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15093,7 +15123,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15131,7 +15161,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15169,7 +15199,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15207,7 +15237,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15245,7 +15275,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15283,7 +15313,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15321,7 +15351,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15359,7 +15389,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15397,7 +15427,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15435,7 +15465,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15473,7 +15503,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15511,7 +15541,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15549,7 +15579,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15587,7 +15617,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15625,7 +15655,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15663,7 +15693,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15701,7 +15731,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15739,7 +15769,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15777,7 +15807,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15815,7 +15845,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15853,7 +15883,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15891,7 +15921,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15929,7 +15959,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15967,7 +15997,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16005,7 +16035,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16043,7 +16073,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16081,7 +16111,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16119,7 +16149,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16157,7 +16187,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16195,7 +16225,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16233,7 +16263,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16271,7 +16301,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16309,7 +16339,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16347,7 +16377,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16385,7 +16415,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16423,7 +16453,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16461,7 +16491,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16499,7 +16529,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16537,7 +16567,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16575,7 +16605,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16613,7 +16643,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16651,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16689,7 +16719,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16727,7 +16757,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16765,7 +16795,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16803,7 +16833,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16841,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16879,7 +16909,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16917,7 +16947,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16955,7 +16985,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -16993,7 +17023,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17031,7 +17061,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17069,7 +17099,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17107,7 +17137,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17145,7 +17175,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17183,7 +17213,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17221,7 +17251,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17259,7 +17289,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17297,7 +17327,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17335,7 +17365,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17373,7 +17403,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17411,7 +17441,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17449,7 +17479,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17487,7 +17517,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17525,7 +17555,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17563,7 +17593,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17601,7 +17631,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17639,7 +17669,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17677,7 +17707,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17715,7 +17745,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17753,7 +17783,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17791,7 +17821,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17829,7 +17859,387 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
         <v>435</v>
+      </c>
+      <c r="C426">
+        <v>12.64</v>
+      </c>
+      <c r="D426">
+        <v>100</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>60</v>
+      </c>
+      <c r="G426">
+        <v>355.52</v>
+      </c>
+      <c r="H426">
+        <v>60</v>
+      </c>
+      <c r="I426">
+        <v>-0.95</v>
+      </c>
+      <c r="J426">
+        <v>87.06</v>
+      </c>
+      <c r="K426">
+        <v>2.97</v>
+      </c>
+      <c r="L426" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>436</v>
+      </c>
+      <c r="C427">
+        <v>12.64</v>
+      </c>
+      <c r="D427">
+        <v>100</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>60</v>
+      </c>
+      <c r="G427">
+        <v>329.06</v>
+      </c>
+      <c r="H427">
+        <v>60</v>
+      </c>
+      <c r="I427">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="J427">
+        <v>89.23</v>
+      </c>
+      <c r="K427">
+        <v>2.03</v>
+      </c>
+      <c r="L427" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>437</v>
+      </c>
+      <c r="C428">
+        <v>12.64</v>
+      </c>
+      <c r="D428">
+        <v>100</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>60</v>
+      </c>
+      <c r="G428">
+        <v>309</v>
+      </c>
+      <c r="H428">
+        <v>60</v>
+      </c>
+      <c r="I428">
+        <v>-0.4</v>
+      </c>
+      <c r="J428">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="K428">
+        <v>2.2</v>
+      </c>
+      <c r="L428" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>438</v>
+      </c>
+      <c r="C429">
+        <v>12.63</v>
+      </c>
+      <c r="D429">
+        <v>100</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>60</v>
+      </c>
+      <c r="G429">
+        <v>336.03</v>
+      </c>
+      <c r="H429">
+        <v>60</v>
+      </c>
+      <c r="I429">
+        <v>2.4</v>
+      </c>
+      <c r="J429">
+        <v>87.23999999999999</v>
+      </c>
+      <c r="K429">
+        <v>2.28</v>
+      </c>
+      <c r="L429" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>439</v>
+      </c>
+      <c r="C430">
+        <v>12.63</v>
+      </c>
+      <c r="D430">
+        <v>100</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>60</v>
+      </c>
+      <c r="G430">
+        <v>7.8</v>
+      </c>
+      <c r="H430">
+        <v>60</v>
+      </c>
+      <c r="I430">
+        <v>0.53</v>
+      </c>
+      <c r="J430">
+        <v>86.62</v>
+      </c>
+      <c r="K430">
+        <v>2.17</v>
+      </c>
+      <c r="L430" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431">
+        <v>12.63</v>
+      </c>
+      <c r="D431">
+        <v>100</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>60</v>
+      </c>
+      <c r="G431">
+        <v>359.61</v>
+      </c>
+      <c r="H431">
+        <v>60</v>
+      </c>
+      <c r="I431">
+        <v>1.09</v>
+      </c>
+      <c r="J431">
+        <v>83.55</v>
+      </c>
+      <c r="K431">
+        <v>2.69</v>
+      </c>
+      <c r="L431" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>441</v>
+      </c>
+      <c r="C432">
+        <v>12.62</v>
+      </c>
+      <c r="D432">
+        <v>100</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>60</v>
+      </c>
+      <c r="G432">
+        <v>326.79</v>
+      </c>
+      <c r="H432">
+        <v>60</v>
+      </c>
+      <c r="I432">
+        <v>0.98</v>
+      </c>
+      <c r="J432">
+        <v>84.70999999999999</v>
+      </c>
+      <c r="K432">
+        <v>1.24</v>
+      </c>
+      <c r="L432" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>442</v>
+      </c>
+      <c r="C433">
+        <v>12.62</v>
+      </c>
+      <c r="D433">
+        <v>100</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>60</v>
+      </c>
+      <c r="G433">
+        <v>22.6</v>
+      </c>
+      <c r="H433">
+        <v>60</v>
+      </c>
+      <c r="I433">
+        <v>-0.46</v>
+      </c>
+      <c r="J433">
+        <v>85.23</v>
+      </c>
+      <c r="K433">
+        <v>1.91</v>
+      </c>
+      <c r="L433" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>443</v>
+      </c>
+      <c r="C434">
+        <v>12.63</v>
+      </c>
+      <c r="D434">
+        <v>100</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>60</v>
+      </c>
+      <c r="G434">
+        <v>24.97</v>
+      </c>
+      <c r="H434">
+        <v>60</v>
+      </c>
+      <c r="I434">
+        <v>-0.79</v>
+      </c>
+      <c r="J434">
+        <v>95.97</v>
+      </c>
+      <c r="K434">
+        <v>2.27</v>
+      </c>
+      <c r="L434" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>444</v>
+      </c>
+      <c r="C435">
+        <v>12.62</v>
+      </c>
+      <c r="D435">
+        <v>100</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>60</v>
+      </c>
+      <c r="G435">
+        <v>249.07</v>
+      </c>
+      <c r="H435">
+        <v>60</v>
+      </c>
+      <c r="I435">
+        <v>-1.16</v>
+      </c>
+      <c r="J435">
+        <v>100.71</v>
+      </c>
+      <c r="K435">
+        <v>0.79</v>
+      </c>
+      <c r="L435" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="455">
   <si>
     <t>Fecha</t>
   </si>
@@ -1349,6 +1349,33 @@
   </si>
   <si>
     <t>11/9/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:40:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1709,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L435"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,7 +1812,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1823,7 +1850,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1861,7 +1888,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1899,7 +1926,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1937,7 +1964,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1975,7 +2002,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2013,7 +2040,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2051,7 +2078,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2089,7 +2116,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2127,7 +2154,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2165,7 +2192,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2203,7 +2230,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2241,7 +2268,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2279,7 +2306,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2317,7 +2344,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2355,7 +2382,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2393,7 +2420,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2431,7 +2458,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2469,7 +2496,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2507,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2545,7 +2572,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2583,7 +2610,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2621,7 +2648,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2659,7 +2686,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2697,7 +2724,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2735,7 +2762,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2773,7 +2800,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2811,7 +2838,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2849,7 +2876,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2887,7 +2914,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2925,7 +2952,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2963,7 +2990,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3001,7 +3028,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3039,7 +3066,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3077,7 +3104,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3115,7 +3142,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3153,7 +3180,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3191,7 +3218,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3229,7 +3256,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3267,7 +3294,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3305,7 +3332,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3343,7 +3370,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3381,7 +3408,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3419,7 +3446,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3457,7 +3484,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3495,7 +3522,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3533,7 +3560,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3571,7 +3598,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3609,7 +3636,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3647,7 +3674,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3685,7 +3712,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3723,7 +3750,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3761,7 +3788,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3799,7 +3826,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3837,7 +3864,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3875,7 +3902,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3913,7 +3940,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3951,7 +3978,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3989,7 +4016,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4027,7 +4054,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4065,7 +4092,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4103,7 +4130,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4141,7 +4168,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4179,7 +4206,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4217,7 +4244,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4255,7 +4282,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4293,7 +4320,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4331,7 +4358,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4369,7 +4396,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4407,7 +4434,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4445,7 +4472,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4483,7 +4510,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4521,7 +4548,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4559,7 +4586,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4597,7 +4624,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4635,7 +4662,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4673,7 +4700,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4711,7 +4738,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4749,7 +4776,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4787,7 +4814,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4825,7 +4852,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4863,7 +4890,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4901,7 +4928,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4939,7 +4966,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4977,7 +5004,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5015,7 +5042,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5053,7 +5080,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5091,7 +5118,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5129,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5167,7 +5194,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5205,7 +5232,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5243,7 +5270,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5281,7 +5308,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5319,7 +5346,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5357,7 +5384,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5395,7 +5422,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5433,7 +5460,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5471,7 +5498,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5509,7 +5536,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5547,7 +5574,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5585,7 +5612,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5623,7 +5650,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5661,7 +5688,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5699,7 +5726,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5737,7 +5764,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5775,7 +5802,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5813,7 +5840,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5851,7 +5878,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5889,7 +5916,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5927,7 +5954,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5965,7 +5992,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6003,7 +6030,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6041,7 +6068,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6079,7 +6106,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6117,7 +6144,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6155,7 +6182,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6193,7 +6220,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6231,7 +6258,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6269,7 +6296,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6307,7 +6334,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6345,7 +6372,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6383,7 +6410,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6421,7 +6448,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6459,7 +6486,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6497,7 +6524,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6535,7 +6562,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6573,7 +6600,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6611,7 +6638,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6649,7 +6676,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6687,7 +6714,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6725,7 +6752,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6763,7 +6790,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6801,7 +6828,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6839,7 +6866,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6877,7 +6904,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6915,7 +6942,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6953,7 +6980,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6991,7 +7018,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7029,7 +7056,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7067,7 +7094,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7105,7 +7132,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7143,7 +7170,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7181,7 +7208,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7219,7 +7246,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7257,7 +7284,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7295,7 +7322,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7333,7 +7360,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7371,7 +7398,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7409,7 +7436,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7447,7 +7474,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7485,7 +7512,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7523,7 +7550,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7561,7 +7588,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7599,7 +7626,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7637,7 +7664,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7675,7 +7702,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7713,7 +7740,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7751,7 +7778,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7789,7 +7816,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7827,7 +7854,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7865,7 +7892,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7903,7 +7930,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7941,7 +7968,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7979,7 +8006,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8017,7 +8044,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8055,7 +8082,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8093,7 +8120,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8131,7 +8158,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8169,7 +8196,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8207,7 +8234,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8245,7 +8272,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8283,7 +8310,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8321,7 +8348,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8359,7 +8386,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8397,7 +8424,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8435,7 +8462,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8473,7 +8500,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8511,7 +8538,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8549,7 +8576,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8587,7 +8614,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8625,7 +8652,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8663,7 +8690,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8701,7 +8728,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8739,7 +8766,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8777,7 +8804,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8815,7 +8842,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8853,7 +8880,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8891,7 +8918,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8929,7 +8956,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8967,7 +8994,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9005,7 +9032,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9043,7 +9070,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9081,7 +9108,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9119,7 +9146,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9157,7 +9184,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9195,7 +9222,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9233,7 +9260,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9271,7 +9298,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9309,7 +9336,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9347,7 +9374,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9385,7 +9412,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9423,7 +9450,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9461,7 +9488,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9499,7 +9526,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9537,7 +9564,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9575,7 +9602,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9613,7 +9640,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9651,7 +9678,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9689,7 +9716,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9727,7 +9754,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9765,7 +9792,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9803,7 +9830,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9841,7 +9868,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9879,7 +9906,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9917,7 +9944,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9955,7 +9982,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9993,7 +10020,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10031,7 +10058,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10069,7 +10096,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10107,7 +10134,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10145,7 +10172,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10183,7 +10210,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10221,7 +10248,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10259,7 +10286,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10297,7 +10324,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10335,7 +10362,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10373,7 +10400,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10411,7 +10438,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10449,7 +10476,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10487,7 +10514,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10525,7 +10552,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10563,7 +10590,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10601,7 +10628,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10639,7 +10666,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10677,7 +10704,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10715,7 +10742,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10753,7 +10780,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10791,7 +10818,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10829,7 +10856,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10867,7 +10894,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10905,7 +10932,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10943,7 +10970,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10981,7 +11008,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11019,7 +11046,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11057,7 +11084,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11095,7 +11122,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11133,7 +11160,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11171,7 +11198,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11209,7 +11236,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11247,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11285,7 +11312,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11323,7 +11350,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11361,7 +11388,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11399,7 +11426,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11437,7 +11464,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11475,7 +11502,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11513,7 +11540,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11551,7 +11578,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11589,7 +11616,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11627,7 +11654,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11665,7 +11692,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11703,7 +11730,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11741,7 +11768,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11779,7 +11806,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11817,7 +11844,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11855,7 +11882,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11893,7 +11920,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11931,7 +11958,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11969,7 +11996,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12007,7 +12034,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12045,7 +12072,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12083,7 +12110,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12121,7 +12148,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12159,7 +12186,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12197,7 +12224,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12235,7 +12262,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12273,7 +12300,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12311,7 +12338,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12349,7 +12376,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12387,7 +12414,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12425,7 +12452,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12463,7 +12490,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12501,7 +12528,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12539,7 +12566,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12577,7 +12604,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12615,7 +12642,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12653,7 +12680,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12691,7 +12718,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12729,7 +12756,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12767,7 +12794,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12805,7 +12832,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12843,7 +12870,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12881,7 +12908,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12919,7 +12946,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12957,7 +12984,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12995,7 +13022,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13033,7 +13060,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13071,7 +13098,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13109,7 +13136,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13147,7 +13174,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13185,7 +13212,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13223,7 +13250,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13261,7 +13288,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13299,7 +13326,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13337,7 +13364,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13375,7 +13402,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13413,7 +13440,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13451,7 +13478,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13489,7 +13516,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13527,7 +13554,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13565,7 +13592,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13603,7 +13630,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13641,7 +13668,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13679,7 +13706,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13717,7 +13744,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13755,7 +13782,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13793,7 +13820,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13831,7 +13858,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13869,7 +13896,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13907,7 +13934,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13945,7 +13972,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13983,7 +14010,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14021,7 +14048,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14059,7 +14086,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14097,7 +14124,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14135,7 +14162,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14173,7 +14200,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14211,7 +14238,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14249,7 +14276,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14287,7 +14314,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14325,7 +14352,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14363,7 +14390,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14401,7 +14428,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14439,7 +14466,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14477,7 +14504,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14515,7 +14542,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14553,7 +14580,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14591,7 +14618,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14629,7 +14656,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14667,7 +14694,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14705,7 +14732,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14743,7 +14770,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14781,7 +14808,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14819,7 +14846,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14857,7 +14884,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14895,7 +14922,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14933,7 +14960,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14971,7 +14998,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15009,7 +15036,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15047,7 +15074,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15085,7 +15112,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15123,7 +15150,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15161,7 +15188,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15199,7 +15226,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15237,7 +15264,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15275,7 +15302,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15313,7 +15340,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15351,7 +15378,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15389,7 +15416,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15427,7 +15454,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15465,7 +15492,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15503,7 +15530,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15541,7 +15568,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15579,7 +15606,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15617,7 +15644,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15655,7 +15682,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15693,7 +15720,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15731,7 +15758,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15769,7 +15796,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15807,7 +15834,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15845,7 +15872,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15883,7 +15910,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15921,7 +15948,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15959,7 +15986,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15997,7 +16024,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16035,7 +16062,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16073,7 +16100,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16111,7 +16138,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16149,7 +16176,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16187,7 +16214,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16225,7 +16252,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16263,7 +16290,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16301,7 +16328,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16339,7 +16366,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16377,7 +16404,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16415,7 +16442,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16453,7 +16480,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16491,7 +16518,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16529,7 +16556,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16567,7 +16594,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16605,7 +16632,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16643,7 +16670,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16681,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16719,7 +16746,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16757,7 +16784,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16795,7 +16822,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16833,7 +16860,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16871,7 +16898,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16909,7 +16936,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16947,7 +16974,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16985,7 +17012,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17023,7 +17050,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17061,7 +17088,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17099,7 +17126,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17137,7 +17164,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17175,7 +17202,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17213,7 +17240,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17251,7 +17278,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17289,7 +17316,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17327,7 +17354,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17365,7 +17392,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17403,7 +17430,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17441,7 +17468,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17479,7 +17506,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17517,7 +17544,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17555,7 +17582,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17593,7 +17620,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17631,7 +17658,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17669,7 +17696,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17707,7 +17734,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17745,7 +17772,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17783,7 +17810,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17821,7 +17848,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17859,7 +17886,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17897,7 +17924,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17935,7 +17962,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17973,7 +18000,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18011,7 +18038,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18049,7 +18076,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18087,7 +18114,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18125,7 +18152,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18163,7 +18190,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18201,7 +18228,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18239,7 +18266,349 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
         <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.6</v>
+      </c>
+      <c r="D436">
+        <v>100</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>60</v>
+      </c>
+      <c r="G436">
+        <v>243.98</v>
+      </c>
+      <c r="H436">
+        <v>60</v>
+      </c>
+      <c r="I436">
+        <v>-0.44</v>
+      </c>
+      <c r="J436">
+        <v>91.36</v>
+      </c>
+      <c r="K436">
+        <v>1.55</v>
+      </c>
+      <c r="L436" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>12.6</v>
+      </c>
+      <c r="D437">
+        <v>100</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>60</v>
+      </c>
+      <c r="G437">
+        <v>332.2</v>
+      </c>
+      <c r="H437">
+        <v>60</v>
+      </c>
+      <c r="I437">
+        <v>0.15</v>
+      </c>
+      <c r="J437">
+        <v>91.81</v>
+      </c>
+      <c r="K437">
+        <v>0.86</v>
+      </c>
+      <c r="L437" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>12.6</v>
+      </c>
+      <c r="D438">
+        <v>100</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>60</v>
+      </c>
+      <c r="G438">
+        <v>13</v>
+      </c>
+      <c r="H438">
+        <v>60</v>
+      </c>
+      <c r="I438">
+        <v>-0.02</v>
+      </c>
+      <c r="J438">
+        <v>90.59</v>
+      </c>
+      <c r="K438">
+        <v>1.51</v>
+      </c>
+      <c r="L438" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.59</v>
+      </c>
+      <c r="D439">
+        <v>100</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>60</v>
+      </c>
+      <c r="G439">
+        <v>351.41</v>
+      </c>
+      <c r="H439">
+        <v>60</v>
+      </c>
+      <c r="I439">
+        <v>0.35</v>
+      </c>
+      <c r="J439">
+        <v>90.27</v>
+      </c>
+      <c r="K439">
+        <v>1.24</v>
+      </c>
+      <c r="L439" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.59</v>
+      </c>
+      <c r="D440">
+        <v>100</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>60</v>
+      </c>
+      <c r="G440">
+        <v>336.59</v>
+      </c>
+      <c r="H440">
+        <v>60</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>90.48</v>
+      </c>
+      <c r="K440">
+        <v>1.59</v>
+      </c>
+      <c r="L440" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.58</v>
+      </c>
+      <c r="D441">
+        <v>100</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>60</v>
+      </c>
+      <c r="G441">
+        <v>316.32</v>
+      </c>
+      <c r="H441">
+        <v>60</v>
+      </c>
+      <c r="I441">
+        <v>-0.64</v>
+      </c>
+      <c r="J441">
+        <v>92.67</v>
+      </c>
+      <c r="K441">
+        <v>2.13</v>
+      </c>
+      <c r="L441" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.58</v>
+      </c>
+      <c r="D442">
+        <v>100</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>60</v>
+      </c>
+      <c r="G442">
+        <v>332.11</v>
+      </c>
+      <c r="H442">
+        <v>60</v>
+      </c>
+      <c r="I442">
+        <v>1.08</v>
+      </c>
+      <c r="J442">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="K442">
+        <v>2.4</v>
+      </c>
+      <c r="L442" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.57</v>
+      </c>
+      <c r="D443">
+        <v>100</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>60</v>
+      </c>
+      <c r="G443">
+        <v>287.64</v>
+      </c>
+      <c r="H443">
+        <v>60</v>
+      </c>
+      <c r="I443">
+        <v>0.63</v>
+      </c>
+      <c r="J443">
+        <v>85.87</v>
+      </c>
+      <c r="K443">
+        <v>1.35</v>
+      </c>
+      <c r="L443" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.57</v>
+      </c>
+      <c r="D444">
+        <v>100</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>60</v>
+      </c>
+      <c r="G444">
+        <v>4.93</v>
+      </c>
+      <c r="H444">
+        <v>60</v>
+      </c>
+      <c r="I444">
+        <v>0.7</v>
+      </c>
+      <c r="J444">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="K444">
+        <v>4.15</v>
+      </c>
+      <c r="L444" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="464">
   <si>
     <t>Fecha</t>
   </si>
@@ -1376,6 +1376,33 @@
   </si>
   <si>
     <t>11/9/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:10:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1736,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1812,7 +1839,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1850,7 +1877,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1888,7 +1915,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1926,7 +1953,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1964,7 +1991,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2002,7 +2029,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2040,7 +2067,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2078,7 +2105,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2116,7 +2143,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2154,7 +2181,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2192,7 +2219,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2230,7 +2257,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2268,7 +2295,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2306,7 +2333,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2344,7 +2371,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2382,7 +2409,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2420,7 +2447,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2458,7 +2485,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2496,7 +2523,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2534,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2572,7 +2599,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2610,7 +2637,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2648,7 +2675,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2686,7 +2713,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2724,7 +2751,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2762,7 +2789,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2800,7 +2827,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2838,7 +2865,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2876,7 +2903,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2914,7 +2941,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2952,7 +2979,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2990,7 +3017,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3028,7 +3055,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3066,7 +3093,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3104,7 +3131,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3142,7 +3169,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3180,7 +3207,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3218,7 +3245,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3256,7 +3283,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3294,7 +3321,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3332,7 +3359,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3370,7 +3397,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3408,7 +3435,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3446,7 +3473,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3484,7 +3511,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3522,7 +3549,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3560,7 +3587,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3598,7 +3625,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3636,7 +3663,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3674,7 +3701,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3712,7 +3739,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3750,7 +3777,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3788,7 +3815,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3826,7 +3853,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3864,7 +3891,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3902,7 +3929,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3940,7 +3967,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3978,7 +4005,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4016,7 +4043,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4054,7 +4081,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4092,7 +4119,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4130,7 +4157,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4168,7 +4195,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4206,7 +4233,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4244,7 +4271,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4282,7 +4309,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4320,7 +4347,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4358,7 +4385,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4396,7 +4423,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4434,7 +4461,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4472,7 +4499,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4510,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4548,7 +4575,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4586,7 +4613,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4624,7 +4651,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4662,7 +4689,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4700,7 +4727,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4738,7 +4765,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4776,7 +4803,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4814,7 +4841,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4852,7 +4879,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4890,7 +4917,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4928,7 +4955,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4966,7 +4993,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5004,7 +5031,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5042,7 +5069,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5080,7 +5107,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5118,7 +5145,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5156,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5194,7 +5221,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5232,7 +5259,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5270,7 +5297,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5308,7 +5335,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5346,7 +5373,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5384,7 +5411,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5422,7 +5449,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5460,7 +5487,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5498,7 +5525,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5536,7 +5563,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5574,7 +5601,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5612,7 +5639,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5650,7 +5677,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5688,7 +5715,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5726,7 +5753,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5764,7 +5791,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5802,7 +5829,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5840,7 +5867,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5878,7 +5905,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5916,7 +5943,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5954,7 +5981,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5992,7 +6019,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6030,7 +6057,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6068,7 +6095,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6106,7 +6133,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6144,7 +6171,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6182,7 +6209,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6220,7 +6247,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6258,7 +6285,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6296,7 +6323,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6334,7 +6361,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6372,7 +6399,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6410,7 +6437,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6448,7 +6475,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6486,7 +6513,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6524,7 +6551,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6562,7 +6589,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6600,7 +6627,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6638,7 +6665,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6676,7 +6703,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6714,7 +6741,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6752,7 +6779,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6790,7 +6817,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6828,7 +6855,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6866,7 +6893,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6904,7 +6931,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6942,7 +6969,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6980,7 +7007,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7018,7 +7045,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7056,7 +7083,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7094,7 +7121,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7132,7 +7159,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7170,7 +7197,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7208,7 +7235,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7246,7 +7273,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7284,7 +7311,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7322,7 +7349,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7360,7 +7387,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7398,7 +7425,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7436,7 +7463,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7474,7 +7501,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7512,7 +7539,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7550,7 +7577,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7588,7 +7615,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7626,7 +7653,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7664,7 +7691,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7702,7 +7729,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7740,7 +7767,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7778,7 +7805,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7816,7 +7843,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7854,7 +7881,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7892,7 +7919,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7930,7 +7957,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7968,7 +7995,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8006,7 +8033,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8044,7 +8071,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8082,7 +8109,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8120,7 +8147,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8158,7 +8185,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8196,7 +8223,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8234,7 +8261,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8272,7 +8299,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8310,7 +8337,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8348,7 +8375,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8386,7 +8413,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8424,7 +8451,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8462,7 +8489,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8500,7 +8527,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8538,7 +8565,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8576,7 +8603,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8614,7 +8641,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8652,7 +8679,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8690,7 +8717,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8728,7 +8755,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8766,7 +8793,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8804,7 +8831,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8842,7 +8869,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8880,7 +8907,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8918,7 +8945,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8956,7 +8983,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8994,7 +9021,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9032,7 +9059,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9070,7 +9097,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9108,7 +9135,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9146,7 +9173,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9184,7 +9211,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9222,7 +9249,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9260,7 +9287,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9298,7 +9325,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9336,7 +9363,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9374,7 +9401,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9412,7 +9439,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9450,7 +9477,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9488,7 +9515,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9526,7 +9553,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9564,7 +9591,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9602,7 +9629,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9640,7 +9667,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9678,7 +9705,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9716,7 +9743,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9754,7 +9781,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9792,7 +9819,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9830,7 +9857,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9868,7 +9895,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9906,7 +9933,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9944,7 +9971,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9982,7 +10009,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10020,7 +10047,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10058,7 +10085,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10096,7 +10123,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10134,7 +10161,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10172,7 +10199,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10210,7 +10237,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10248,7 +10275,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10286,7 +10313,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10324,7 +10351,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10362,7 +10389,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10400,7 +10427,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10438,7 +10465,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10476,7 +10503,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10514,7 +10541,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10552,7 +10579,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10590,7 +10617,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10628,7 +10655,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10666,7 +10693,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10704,7 +10731,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10742,7 +10769,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10780,7 +10807,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10818,7 +10845,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10856,7 +10883,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10894,7 +10921,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10932,7 +10959,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10970,7 +10997,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11008,7 +11035,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11046,7 +11073,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11084,7 +11111,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11122,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11160,7 +11187,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11198,7 +11225,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11236,7 +11263,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11274,7 +11301,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11312,7 +11339,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11350,7 +11377,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11388,7 +11415,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11426,7 +11453,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11464,7 +11491,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11502,7 +11529,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11540,7 +11567,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11578,7 +11605,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11616,7 +11643,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11654,7 +11681,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11692,7 +11719,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11730,7 +11757,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11768,7 +11795,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11806,7 +11833,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11844,7 +11871,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11882,7 +11909,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11920,7 +11947,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11958,7 +11985,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11996,7 +12023,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12034,7 +12061,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12072,7 +12099,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12110,7 +12137,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12148,7 +12175,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12186,7 +12213,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12224,7 +12251,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12262,7 +12289,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12300,7 +12327,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12338,7 +12365,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12376,7 +12403,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12414,7 +12441,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12452,7 +12479,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12490,7 +12517,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12528,7 +12555,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12566,7 +12593,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12604,7 +12631,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12642,7 +12669,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12680,7 +12707,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12718,7 +12745,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12756,7 +12783,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12794,7 +12821,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12832,7 +12859,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12870,7 +12897,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12908,7 +12935,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12946,7 +12973,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12984,7 +13011,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13022,7 +13049,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13060,7 +13087,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13098,7 +13125,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13136,7 +13163,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13174,7 +13201,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13212,7 +13239,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13250,7 +13277,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13288,7 +13315,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13326,7 +13353,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13364,7 +13391,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13402,7 +13429,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13440,7 +13467,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13478,7 +13505,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13516,7 +13543,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13554,7 +13581,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13592,7 +13619,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13630,7 +13657,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13668,7 +13695,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13706,7 +13733,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13744,7 +13771,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13782,7 +13809,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13820,7 +13847,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13858,7 +13885,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13896,7 +13923,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13934,7 +13961,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13972,7 +13999,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14010,7 +14037,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14048,7 +14075,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14086,7 +14113,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14124,7 +14151,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14162,7 +14189,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14200,7 +14227,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14238,7 +14265,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14276,7 +14303,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14314,7 +14341,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14352,7 +14379,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14390,7 +14417,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14428,7 +14455,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14466,7 +14493,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14504,7 +14531,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14542,7 +14569,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14580,7 +14607,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14618,7 +14645,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14656,7 +14683,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14694,7 +14721,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14732,7 +14759,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14770,7 +14797,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14808,7 +14835,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14846,7 +14873,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14884,7 +14911,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14922,7 +14949,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14960,7 +14987,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14998,7 +15025,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15036,7 +15063,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15074,7 +15101,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15112,7 +15139,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15150,7 +15177,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15188,7 +15215,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15226,7 +15253,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15264,7 +15291,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15302,7 +15329,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15340,7 +15367,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15378,7 +15405,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15416,7 +15443,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15454,7 +15481,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15492,7 +15519,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15530,7 +15557,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15568,7 +15595,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15606,7 +15633,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15644,7 +15671,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15682,7 +15709,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15720,7 +15747,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15758,7 +15785,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15796,7 +15823,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15834,7 +15861,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15872,7 +15899,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15910,7 +15937,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15948,7 +15975,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15986,7 +16013,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16024,7 +16051,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16062,7 +16089,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16100,7 +16127,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16138,7 +16165,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16176,7 +16203,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16214,7 +16241,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16252,7 +16279,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16290,7 +16317,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16328,7 +16355,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16366,7 +16393,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16404,7 +16431,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16442,7 +16469,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16480,7 +16507,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16518,7 +16545,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16556,7 +16583,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16594,7 +16621,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16632,7 +16659,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16670,7 +16697,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16708,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16746,7 +16773,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16784,7 +16811,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16822,7 +16849,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16860,7 +16887,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16898,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16936,7 +16963,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16974,7 +17001,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17012,7 +17039,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17050,7 +17077,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17088,7 +17115,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17126,7 +17153,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17164,7 +17191,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17202,7 +17229,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17240,7 +17267,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17278,7 +17305,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17316,7 +17343,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17354,7 +17381,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17392,7 +17419,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17430,7 +17457,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17468,7 +17495,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17506,7 +17533,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17544,7 +17571,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17582,7 +17609,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17620,7 +17647,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17658,7 +17685,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17696,7 +17723,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17734,7 +17761,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17772,7 +17799,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17810,7 +17837,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17848,7 +17875,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17886,7 +17913,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17924,7 +17951,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17962,7 +17989,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18000,7 +18027,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18038,7 +18065,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18076,7 +18103,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18114,7 +18141,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18152,7 +18179,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18190,7 +18217,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18228,7 +18255,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18266,7 +18293,7 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18304,7 +18331,7 @@
         <v>1.55</v>
       </c>
       <c r="L436" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18342,7 +18369,7 @@
         <v>0.86</v>
       </c>
       <c r="L437" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18380,7 +18407,7 @@
         <v>1.51</v>
       </c>
       <c r="L438" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18418,7 +18445,7 @@
         <v>1.24</v>
       </c>
       <c r="L439" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18456,7 +18483,7 @@
         <v>1.59</v>
       </c>
       <c r="L440" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18494,7 +18521,7 @@
         <v>2.13</v>
       </c>
       <c r="L441" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18532,7 +18559,7 @@
         <v>2.4</v>
       </c>
       <c r="L442" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18570,7 +18597,7 @@
         <v>1.35</v>
       </c>
       <c r="L443" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18608,7 +18635,349 @@
         <v>4.15</v>
       </c>
       <c r="L444" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
         <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.56</v>
+      </c>
+      <c r="D445">
+        <v>100</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>60</v>
+      </c>
+      <c r="G445">
+        <v>290.41</v>
+      </c>
+      <c r="H445">
+        <v>60</v>
+      </c>
+      <c r="I445">
+        <v>-0.96</v>
+      </c>
+      <c r="J445">
+        <v>92</v>
+      </c>
+      <c r="K445">
+        <v>1.75</v>
+      </c>
+      <c r="L445" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.56</v>
+      </c>
+      <c r="D446">
+        <v>100</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>60</v>
+      </c>
+      <c r="G446">
+        <v>310.17</v>
+      </c>
+      <c r="H446">
+        <v>60</v>
+      </c>
+      <c r="I446">
+        <v>1.5</v>
+      </c>
+      <c r="J446">
+        <v>92.27</v>
+      </c>
+      <c r="K446">
+        <v>2.79</v>
+      </c>
+      <c r="L446" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.55</v>
+      </c>
+      <c r="D447">
+        <v>100</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>60</v>
+      </c>
+      <c r="G447">
+        <v>174.05</v>
+      </c>
+      <c r="H447">
+        <v>60</v>
+      </c>
+      <c r="I447">
+        <v>0.43</v>
+      </c>
+      <c r="J447">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="K447">
+        <v>1.91</v>
+      </c>
+      <c r="L447" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.55</v>
+      </c>
+      <c r="D448">
+        <v>100</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>60</v>
+      </c>
+      <c r="G448">
+        <v>105.69</v>
+      </c>
+      <c r="H448">
+        <v>60</v>
+      </c>
+      <c r="I448">
+        <v>-0.03</v>
+      </c>
+      <c r="J448">
+        <v>93.44</v>
+      </c>
+      <c r="K448">
+        <v>1.25</v>
+      </c>
+      <c r="L448" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.54</v>
+      </c>
+      <c r="D449">
+        <v>100</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>60</v>
+      </c>
+      <c r="G449">
+        <v>319.57</v>
+      </c>
+      <c r="H449">
+        <v>60</v>
+      </c>
+      <c r="I449">
+        <v>1.28</v>
+      </c>
+      <c r="J449">
+        <v>92.36</v>
+      </c>
+      <c r="K449">
+        <v>2.61</v>
+      </c>
+      <c r="L449" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.53</v>
+      </c>
+      <c r="D450">
+        <v>100</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>60</v>
+      </c>
+      <c r="G450">
+        <v>270.61</v>
+      </c>
+      <c r="H450">
+        <v>60</v>
+      </c>
+      <c r="I450">
+        <v>0.89</v>
+      </c>
+      <c r="J450">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="K450">
+        <v>2.11</v>
+      </c>
+      <c r="L450" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.53</v>
+      </c>
+      <c r="D451">
+        <v>100</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>60</v>
+      </c>
+      <c r="G451">
+        <v>273.12</v>
+      </c>
+      <c r="H451">
+        <v>60</v>
+      </c>
+      <c r="I451">
+        <v>-1.01</v>
+      </c>
+      <c r="J451">
+        <v>95.02</v>
+      </c>
+      <c r="K451">
+        <v>2.08</v>
+      </c>
+      <c r="L451" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.52</v>
+      </c>
+      <c r="D452">
+        <v>100</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>60</v>
+      </c>
+      <c r="G452">
+        <v>292.66</v>
+      </c>
+      <c r="H452">
+        <v>60</v>
+      </c>
+      <c r="I452">
+        <v>-0.2</v>
+      </c>
+      <c r="J452">
+        <v>93.92</v>
+      </c>
+      <c r="K452">
+        <v>1.65</v>
+      </c>
+      <c r="L452" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.52</v>
+      </c>
+      <c r="D453">
+        <v>100</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>60</v>
+      </c>
+      <c r="G453">
+        <v>326.72</v>
+      </c>
+      <c r="H453">
+        <v>60</v>
+      </c>
+      <c r="I453">
+        <v>0.22</v>
+      </c>
+      <c r="J453">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K453">
+        <v>2.03</v>
+      </c>
+      <c r="L453" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="475">
   <si>
     <t>Fecha</t>
   </si>
@@ -1403,6 +1403,39 @@
   </si>
   <si>
     <t>11/9/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1763,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L453"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1872,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1877,7 +1910,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1915,7 +1948,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1953,7 +1986,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1991,7 +2024,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2029,7 +2062,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2067,7 +2100,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2105,7 +2138,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2143,7 +2176,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2181,7 +2214,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2219,7 +2252,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2257,7 +2290,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2295,7 +2328,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2333,7 +2366,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2371,7 +2404,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2409,7 +2442,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2447,7 +2480,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2485,7 +2518,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2523,7 +2556,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2561,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2599,7 +2632,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2637,7 +2670,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2675,7 +2708,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2713,7 +2746,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2751,7 +2784,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2789,7 +2822,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2827,7 +2860,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2865,7 +2898,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2903,7 +2936,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2941,7 +2974,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2979,7 +3012,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3017,7 +3050,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3055,7 +3088,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3093,7 +3126,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3131,7 +3164,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3169,7 +3202,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3207,7 +3240,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3245,7 +3278,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3283,7 +3316,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3321,7 +3354,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3359,7 +3392,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3397,7 +3430,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3435,7 +3468,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3473,7 +3506,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3511,7 +3544,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3549,7 +3582,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3587,7 +3620,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3625,7 +3658,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3663,7 +3696,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3701,7 +3734,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3739,7 +3772,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3777,7 +3810,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3815,7 +3848,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3853,7 +3886,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3891,7 +3924,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3929,7 +3962,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3967,7 +4000,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4005,7 +4038,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4043,7 +4076,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4081,7 +4114,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4119,7 +4152,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4157,7 +4190,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4195,7 +4228,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4233,7 +4266,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4271,7 +4304,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4309,7 +4342,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4347,7 +4380,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4385,7 +4418,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4423,7 +4456,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4461,7 +4494,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4499,7 +4532,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4537,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4575,7 +4608,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4613,7 +4646,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4651,7 +4684,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4689,7 +4722,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4727,7 +4760,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4765,7 +4798,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4803,7 +4836,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4841,7 +4874,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4879,7 +4912,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4917,7 +4950,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4955,7 +4988,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4993,7 +5026,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5031,7 +5064,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5069,7 +5102,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5107,7 +5140,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5145,7 +5178,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5183,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5221,7 +5254,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5259,7 +5292,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5297,7 +5330,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5335,7 +5368,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5373,7 +5406,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5411,7 +5444,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5449,7 +5482,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5487,7 +5520,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5525,7 +5558,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5563,7 +5596,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5601,7 +5634,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5639,7 +5672,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5677,7 +5710,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5715,7 +5748,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5753,7 +5786,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5791,7 +5824,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5829,7 +5862,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5867,7 +5900,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5905,7 +5938,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5943,7 +5976,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5981,7 +6014,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6019,7 +6052,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6057,7 +6090,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6095,7 +6128,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6133,7 +6166,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6171,7 +6204,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6209,7 +6242,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6247,7 +6280,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6285,7 +6318,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6323,7 +6356,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6361,7 +6394,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6399,7 +6432,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6437,7 +6470,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6475,7 +6508,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6513,7 +6546,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6551,7 +6584,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6589,7 +6622,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6627,7 +6660,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6665,7 +6698,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6703,7 +6736,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6741,7 +6774,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6779,7 +6812,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6817,7 +6850,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6855,7 +6888,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6893,7 +6926,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6931,7 +6964,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6969,7 +7002,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7007,7 +7040,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7045,7 +7078,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7083,7 +7116,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7121,7 +7154,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7159,7 +7192,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7197,7 +7230,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7235,7 +7268,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7273,7 +7306,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7311,7 +7344,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7349,7 +7382,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7387,7 +7420,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7425,7 +7458,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7463,7 +7496,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7501,7 +7534,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7539,7 +7572,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7577,7 +7610,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7615,7 +7648,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7653,7 +7686,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7691,7 +7724,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7729,7 +7762,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7767,7 +7800,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7805,7 +7838,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7843,7 +7876,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7881,7 +7914,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7919,7 +7952,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7957,7 +7990,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7995,7 +8028,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8033,7 +8066,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8071,7 +8104,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8109,7 +8142,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8147,7 +8180,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8185,7 +8218,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8223,7 +8256,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8261,7 +8294,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8299,7 +8332,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8337,7 +8370,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8375,7 +8408,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8413,7 +8446,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8451,7 +8484,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8489,7 +8522,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8527,7 +8560,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8565,7 +8598,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8603,7 +8636,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8641,7 +8674,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8679,7 +8712,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8717,7 +8750,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8755,7 +8788,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8793,7 +8826,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8831,7 +8864,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8869,7 +8902,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8907,7 +8940,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8945,7 +8978,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8983,7 +9016,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9021,7 +9054,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9059,7 +9092,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9097,7 +9130,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9135,7 +9168,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9173,7 +9206,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9211,7 +9244,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9249,7 +9282,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9287,7 +9320,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9325,7 +9358,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9363,7 +9396,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9401,7 +9434,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9439,7 +9472,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9477,7 +9510,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9515,7 +9548,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9553,7 +9586,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9591,7 +9624,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9629,7 +9662,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9667,7 +9700,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9705,7 +9738,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9743,7 +9776,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9781,7 +9814,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9819,7 +9852,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9857,7 +9890,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9895,7 +9928,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9933,7 +9966,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9971,7 +10004,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10009,7 +10042,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10047,7 +10080,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10085,7 +10118,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10123,7 +10156,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10161,7 +10194,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10199,7 +10232,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10237,7 +10270,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10275,7 +10308,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10313,7 +10346,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10351,7 +10384,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10389,7 +10422,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10427,7 +10460,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10465,7 +10498,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10503,7 +10536,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10541,7 +10574,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10579,7 +10612,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10617,7 +10650,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10655,7 +10688,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10693,7 +10726,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10731,7 +10764,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10769,7 +10802,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10807,7 +10840,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10845,7 +10878,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10883,7 +10916,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10921,7 +10954,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10959,7 +10992,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10997,7 +11030,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11035,7 +11068,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11073,7 +11106,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11111,7 +11144,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11149,7 +11182,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11187,7 +11220,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11225,7 +11258,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11263,7 +11296,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11301,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11339,7 +11372,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11377,7 +11410,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11415,7 +11448,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11453,7 +11486,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11491,7 +11524,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11529,7 +11562,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11567,7 +11600,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11605,7 +11638,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11643,7 +11676,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11681,7 +11714,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11719,7 +11752,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11757,7 +11790,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11795,7 +11828,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11833,7 +11866,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11871,7 +11904,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11909,7 +11942,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11947,7 +11980,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11985,7 +12018,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12023,7 +12056,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12061,7 +12094,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12099,7 +12132,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12137,7 +12170,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12175,7 +12208,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12213,7 +12246,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12251,7 +12284,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12289,7 +12322,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12327,7 +12360,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12365,7 +12398,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12403,7 +12436,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12441,7 +12474,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12479,7 +12512,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12517,7 +12550,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12555,7 +12588,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12593,7 +12626,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12631,7 +12664,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12669,7 +12702,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12707,7 +12740,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12745,7 +12778,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12783,7 +12816,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12821,7 +12854,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12859,7 +12892,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12897,7 +12930,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12935,7 +12968,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12973,7 +13006,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13011,7 +13044,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13049,7 +13082,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13087,7 +13120,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13125,7 +13158,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13163,7 +13196,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13201,7 +13234,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13239,7 +13272,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13277,7 +13310,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13315,7 +13348,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13353,7 +13386,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13391,7 +13424,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13429,7 +13462,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13467,7 +13500,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13505,7 +13538,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13543,7 +13576,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13581,7 +13614,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13619,7 +13652,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13657,7 +13690,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13695,7 +13728,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13733,7 +13766,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13771,7 +13804,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13809,7 +13842,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13847,7 +13880,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13885,7 +13918,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13923,7 +13956,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13961,7 +13994,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13999,7 +14032,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14037,7 +14070,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14075,7 +14108,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14113,7 +14146,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14151,7 +14184,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14189,7 +14222,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14227,7 +14260,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14265,7 +14298,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14303,7 +14336,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14341,7 +14374,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14379,7 +14412,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14417,7 +14450,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14455,7 +14488,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14493,7 +14526,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14531,7 +14564,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14569,7 +14602,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14607,7 +14640,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14645,7 +14678,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14683,7 +14716,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14721,7 +14754,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14759,7 +14792,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14797,7 +14830,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14835,7 +14868,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14873,7 +14906,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14911,7 +14944,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14949,7 +14982,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14987,7 +15020,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15025,7 +15058,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15063,7 +15096,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15101,7 +15134,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15139,7 +15172,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15177,7 +15210,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15215,7 +15248,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15253,7 +15286,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15291,7 +15324,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15329,7 +15362,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15367,7 +15400,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15405,7 +15438,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15443,7 +15476,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15481,7 +15514,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15519,7 +15552,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15557,7 +15590,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15595,7 +15628,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15633,7 +15666,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15671,7 +15704,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15709,7 +15742,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15747,7 +15780,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15785,7 +15818,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15823,7 +15856,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15861,7 +15894,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15899,7 +15932,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15937,7 +15970,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15975,7 +16008,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16013,7 +16046,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16051,7 +16084,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16089,7 +16122,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16127,7 +16160,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16165,7 +16198,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16203,7 +16236,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16241,7 +16274,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16279,7 +16312,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16317,7 +16350,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16355,7 +16388,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16393,7 +16426,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16431,7 +16464,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16469,7 +16502,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16507,7 +16540,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16545,7 +16578,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16583,7 +16616,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16621,7 +16654,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16659,7 +16692,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16697,7 +16730,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16735,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16773,7 +16806,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16811,7 +16844,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16849,7 +16882,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16887,7 +16920,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16925,7 +16958,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16963,7 +16996,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17001,7 +17034,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17039,7 +17072,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17077,7 +17110,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17115,7 +17148,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17153,7 +17186,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17191,7 +17224,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17229,7 +17262,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17267,7 +17300,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17305,7 +17338,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17343,7 +17376,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17381,7 +17414,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17419,7 +17452,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17457,7 +17490,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17495,7 +17528,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17533,7 +17566,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17571,7 +17604,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17609,7 +17642,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17647,7 +17680,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17685,7 +17718,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17723,7 +17756,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17761,7 +17794,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17799,7 +17832,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17837,7 +17870,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17875,7 +17908,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17913,7 +17946,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17951,7 +17984,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17989,7 +18022,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18027,7 +18060,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18065,7 +18098,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18103,7 +18136,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18141,7 +18174,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18179,7 +18212,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18217,7 +18250,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18255,7 +18288,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18293,7 +18326,7 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18331,7 +18364,7 @@
         <v>1.55</v>
       </c>
       <c r="L436" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18369,7 +18402,7 @@
         <v>0.86</v>
       </c>
       <c r="L437" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18407,7 +18440,7 @@
         <v>1.51</v>
       </c>
       <c r="L438" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18445,7 +18478,7 @@
         <v>1.24</v>
       </c>
       <c r="L439" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18483,7 +18516,7 @@
         <v>1.59</v>
       </c>
       <c r="L440" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18521,7 +18554,7 @@
         <v>2.13</v>
       </c>
       <c r="L441" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18559,7 +18592,7 @@
         <v>2.4</v>
       </c>
       <c r="L442" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18597,7 +18630,7 @@
         <v>1.35</v>
       </c>
       <c r="L443" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18635,7 +18668,7 @@
         <v>4.15</v>
       </c>
       <c r="L444" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18673,7 +18706,7 @@
         <v>1.75</v>
       </c>
       <c r="L445" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18711,7 +18744,7 @@
         <v>2.79</v>
       </c>
       <c r="L446" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18749,7 +18782,7 @@
         <v>1.91</v>
       </c>
       <c r="L447" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18787,7 +18820,7 @@
         <v>1.25</v>
       </c>
       <c r="L448" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18825,7 +18858,7 @@
         <v>2.61</v>
       </c>
       <c r="L449" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18863,7 +18896,7 @@
         <v>2.11</v>
       </c>
       <c r="L450" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18901,7 +18934,7 @@
         <v>2.08</v>
       </c>
       <c r="L451" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18939,7 +18972,7 @@
         <v>1.65</v>
       </c>
       <c r="L452" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18977,7 +19010,425 @@
         <v>2.03</v>
       </c>
       <c r="L453" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
         <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.51</v>
+      </c>
+      <c r="D454">
+        <v>100</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>60</v>
+      </c>
+      <c r="G454">
+        <v>327.37</v>
+      </c>
+      <c r="H454">
+        <v>60</v>
+      </c>
+      <c r="I454">
+        <v>-0.48</v>
+      </c>
+      <c r="J454">
+        <v>98.59</v>
+      </c>
+      <c r="K454">
+        <v>1.66</v>
+      </c>
+      <c r="L454" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.5</v>
+      </c>
+      <c r="D455">
+        <v>100</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>60</v>
+      </c>
+      <c r="G455">
+        <v>305.26</v>
+      </c>
+      <c r="H455">
+        <v>60</v>
+      </c>
+      <c r="I455">
+        <v>0.01</v>
+      </c>
+      <c r="J455">
+        <v>103.87</v>
+      </c>
+      <c r="K455">
+        <v>1.49</v>
+      </c>
+      <c r="L455" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.5</v>
+      </c>
+      <c r="D456">
+        <v>100</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>60</v>
+      </c>
+      <c r="G456">
+        <v>331.2</v>
+      </c>
+      <c r="H456">
+        <v>60</v>
+      </c>
+      <c r="I456">
+        <v>-1.1</v>
+      </c>
+      <c r="J456">
+        <v>105.97</v>
+      </c>
+      <c r="K456">
+        <v>2.71</v>
+      </c>
+      <c r="L456" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.49</v>
+      </c>
+      <c r="D457">
+        <v>100</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>60</v>
+      </c>
+      <c r="G457">
+        <v>23.64</v>
+      </c>
+      <c r="H457">
+        <v>60</v>
+      </c>
+      <c r="I457">
+        <v>-0.33</v>
+      </c>
+      <c r="J457">
+        <v>105.87</v>
+      </c>
+      <c r="K457">
+        <v>3.81</v>
+      </c>
+      <c r="L457" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.49</v>
+      </c>
+      <c r="D458">
+        <v>100</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>60</v>
+      </c>
+      <c r="G458">
+        <v>358.54</v>
+      </c>
+      <c r="H458">
+        <v>60</v>
+      </c>
+      <c r="I458">
+        <v>-0.02</v>
+      </c>
+      <c r="J458">
+        <v>103.84</v>
+      </c>
+      <c r="K458">
+        <v>3.46</v>
+      </c>
+      <c r="L458" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.48</v>
+      </c>
+      <c r="D459">
+        <v>100</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>60</v>
+      </c>
+      <c r="G459">
+        <v>341.98</v>
+      </c>
+      <c r="H459">
+        <v>60</v>
+      </c>
+      <c r="I459">
+        <v>1.75</v>
+      </c>
+      <c r="J459">
+        <v>104.38</v>
+      </c>
+      <c r="K459">
+        <v>3.51</v>
+      </c>
+      <c r="L459" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.48</v>
+      </c>
+      <c r="D460">
+        <v>100</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>60</v>
+      </c>
+      <c r="G460">
+        <v>350.8</v>
+      </c>
+      <c r="H460">
+        <v>60</v>
+      </c>
+      <c r="I460">
+        <v>-0.18</v>
+      </c>
+      <c r="J460">
+        <v>104.81</v>
+      </c>
+      <c r="K460">
+        <v>3.35</v>
+      </c>
+      <c r="L460" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.48</v>
+      </c>
+      <c r="D461">
+        <v>100</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>60</v>
+      </c>
+      <c r="G461">
+        <v>7.28</v>
+      </c>
+      <c r="H461">
+        <v>60</v>
+      </c>
+      <c r="I461">
+        <v>-1.77</v>
+      </c>
+      <c r="J461">
+        <v>105.3</v>
+      </c>
+      <c r="K461">
+        <v>3.87</v>
+      </c>
+      <c r="L461" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.47</v>
+      </c>
+      <c r="D462">
+        <v>100</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>60</v>
+      </c>
+      <c r="G462">
+        <v>15.58</v>
+      </c>
+      <c r="H462">
+        <v>60</v>
+      </c>
+      <c r="I462">
+        <v>0.43</v>
+      </c>
+      <c r="J462">
+        <v>102.63</v>
+      </c>
+      <c r="K462">
+        <v>5.32</v>
+      </c>
+      <c r="L462" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.46</v>
+      </c>
+      <c r="D463">
+        <v>100</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>60</v>
+      </c>
+      <c r="G463">
+        <v>347.21</v>
+      </c>
+      <c r="H463">
+        <v>60</v>
+      </c>
+      <c r="I463">
+        <v>-0.02</v>
+      </c>
+      <c r="J463">
+        <v>105.61</v>
+      </c>
+      <c r="K463">
+        <v>3.09</v>
+      </c>
+      <c r="L463" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.46</v>
+      </c>
+      <c r="D464">
+        <v>100</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>60</v>
+      </c>
+      <c r="G464">
+        <v>330.48</v>
+      </c>
+      <c r="H464">
+        <v>60</v>
+      </c>
+      <c r="I464">
+        <v>-1.03</v>
+      </c>
+      <c r="J464">
+        <v>107.05</v>
+      </c>
+      <c r="K464">
+        <v>2.65</v>
+      </c>
+      <c r="L464" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="484">
   <si>
     <t>Fecha</t>
   </si>
@@ -1436,6 +1436,33 @@
   </si>
   <si>
     <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:30:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1796,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1872,7 +1899,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1910,7 +1937,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1948,7 +1975,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1986,7 +2013,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2024,7 +2051,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2062,7 +2089,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2100,7 +2127,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2138,7 +2165,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2176,7 +2203,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2214,7 +2241,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2252,7 +2279,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2290,7 +2317,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2328,7 +2355,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2366,7 +2393,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2404,7 +2431,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2442,7 +2469,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2480,7 +2507,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2518,7 +2545,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2556,7 +2583,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2594,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2632,7 +2659,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2670,7 +2697,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2708,7 +2735,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2746,7 +2773,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2784,7 +2811,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2822,7 +2849,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2860,7 +2887,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2898,7 +2925,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2936,7 +2963,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2974,7 +3001,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3012,7 +3039,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3050,7 +3077,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3088,7 +3115,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3126,7 +3153,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3164,7 +3191,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3202,7 +3229,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3240,7 +3267,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3278,7 +3305,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3316,7 +3343,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3354,7 +3381,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3392,7 +3419,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3430,7 +3457,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3468,7 +3495,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3506,7 +3533,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3544,7 +3571,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3582,7 +3609,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3620,7 +3647,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3658,7 +3685,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3696,7 +3723,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3734,7 +3761,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3772,7 +3799,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3810,7 +3837,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3848,7 +3875,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3886,7 +3913,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3924,7 +3951,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3962,7 +3989,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4000,7 +4027,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4038,7 +4065,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4076,7 +4103,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4114,7 +4141,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4152,7 +4179,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4190,7 +4217,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4228,7 +4255,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4266,7 +4293,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4304,7 +4331,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4342,7 +4369,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4380,7 +4407,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4418,7 +4445,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4456,7 +4483,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4494,7 +4521,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4532,7 +4559,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4570,7 +4597,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4608,7 +4635,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4646,7 +4673,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4684,7 +4711,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4722,7 +4749,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4760,7 +4787,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4798,7 +4825,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4836,7 +4863,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4874,7 +4901,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4912,7 +4939,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4950,7 +4977,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4988,7 +5015,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5026,7 +5053,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5064,7 +5091,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5102,7 +5129,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5140,7 +5167,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5178,7 +5205,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5216,7 +5243,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5254,7 +5281,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5292,7 +5319,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5330,7 +5357,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5368,7 +5395,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5406,7 +5433,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5444,7 +5471,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5482,7 +5509,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5520,7 +5547,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5558,7 +5585,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5596,7 +5623,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5634,7 +5661,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5672,7 +5699,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5710,7 +5737,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5748,7 +5775,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5786,7 +5813,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5824,7 +5851,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5862,7 +5889,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5900,7 +5927,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5938,7 +5965,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5976,7 +6003,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6014,7 +6041,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6052,7 +6079,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6090,7 +6117,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6128,7 +6155,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6166,7 +6193,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6204,7 +6231,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6242,7 +6269,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6280,7 +6307,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6318,7 +6345,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6356,7 +6383,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6394,7 +6421,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6432,7 +6459,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6470,7 +6497,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6508,7 +6535,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6546,7 +6573,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6584,7 +6611,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6622,7 +6649,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6660,7 +6687,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6698,7 +6725,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6736,7 +6763,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6774,7 +6801,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6812,7 +6839,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6850,7 +6877,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6888,7 +6915,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6926,7 +6953,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6964,7 +6991,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7002,7 +7029,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7040,7 +7067,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7078,7 +7105,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7116,7 +7143,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7154,7 +7181,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7192,7 +7219,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7230,7 +7257,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7268,7 +7295,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7306,7 +7333,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7344,7 +7371,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7382,7 +7409,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7420,7 +7447,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7458,7 +7485,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7496,7 +7523,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7534,7 +7561,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7572,7 +7599,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7610,7 +7637,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7648,7 +7675,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7686,7 +7713,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7724,7 +7751,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7762,7 +7789,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7800,7 +7827,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7838,7 +7865,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7876,7 +7903,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7914,7 +7941,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7952,7 +7979,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7990,7 +8017,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8028,7 +8055,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8066,7 +8093,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8104,7 +8131,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8142,7 +8169,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8180,7 +8207,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8218,7 +8245,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8256,7 +8283,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8294,7 +8321,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8332,7 +8359,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8370,7 +8397,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8408,7 +8435,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8446,7 +8473,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8484,7 +8511,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8522,7 +8549,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8560,7 +8587,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8598,7 +8625,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8636,7 +8663,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8674,7 +8701,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8712,7 +8739,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8750,7 +8777,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8788,7 +8815,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8826,7 +8853,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8864,7 +8891,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8902,7 +8929,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8940,7 +8967,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8978,7 +9005,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9016,7 +9043,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9054,7 +9081,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9092,7 +9119,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9130,7 +9157,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9168,7 +9195,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9206,7 +9233,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9244,7 +9271,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9282,7 +9309,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9320,7 +9347,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9358,7 +9385,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9396,7 +9423,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9434,7 +9461,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9472,7 +9499,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9510,7 +9537,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9548,7 +9575,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9586,7 +9613,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9624,7 +9651,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9662,7 +9689,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9700,7 +9727,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9738,7 +9765,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9776,7 +9803,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9814,7 +9841,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9852,7 +9879,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9890,7 +9917,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9928,7 +9955,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9966,7 +9993,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10004,7 +10031,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10042,7 +10069,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10080,7 +10107,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10118,7 +10145,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10156,7 +10183,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10194,7 +10221,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10232,7 +10259,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10270,7 +10297,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10308,7 +10335,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10346,7 +10373,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10384,7 +10411,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10422,7 +10449,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10460,7 +10487,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10498,7 +10525,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10536,7 +10563,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10574,7 +10601,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10612,7 +10639,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10650,7 +10677,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10688,7 +10715,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10726,7 +10753,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10764,7 +10791,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10802,7 +10829,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10840,7 +10867,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10878,7 +10905,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10916,7 +10943,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10954,7 +10981,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10992,7 +11019,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11030,7 +11057,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11068,7 +11095,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11106,7 +11133,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11144,7 +11171,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11182,7 +11209,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11220,7 +11247,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11258,7 +11285,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11296,7 +11323,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11334,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11372,7 +11399,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11410,7 +11437,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11448,7 +11475,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11486,7 +11513,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11524,7 +11551,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11562,7 +11589,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11600,7 +11627,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11638,7 +11665,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11676,7 +11703,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11714,7 +11741,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11752,7 +11779,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11790,7 +11817,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11828,7 +11855,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11866,7 +11893,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11904,7 +11931,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11942,7 +11969,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11980,7 +12007,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12018,7 +12045,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12056,7 +12083,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12094,7 +12121,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12132,7 +12159,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12170,7 +12197,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12208,7 +12235,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12246,7 +12273,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12284,7 +12311,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12322,7 +12349,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12360,7 +12387,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12398,7 +12425,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12436,7 +12463,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12474,7 +12501,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12512,7 +12539,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12550,7 +12577,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12588,7 +12615,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12626,7 +12653,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12664,7 +12691,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12702,7 +12729,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12740,7 +12767,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12778,7 +12805,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12816,7 +12843,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12854,7 +12881,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12892,7 +12919,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12930,7 +12957,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12968,7 +12995,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13006,7 +13033,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13044,7 +13071,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13082,7 +13109,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13120,7 +13147,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13158,7 +13185,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13196,7 +13223,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13234,7 +13261,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13272,7 +13299,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13310,7 +13337,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13348,7 +13375,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13386,7 +13413,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13424,7 +13451,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13462,7 +13489,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13500,7 +13527,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13538,7 +13565,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13576,7 +13603,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13614,7 +13641,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13652,7 +13679,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13690,7 +13717,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13728,7 +13755,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13766,7 +13793,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13804,7 +13831,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13842,7 +13869,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13880,7 +13907,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13918,7 +13945,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13956,7 +13983,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13994,7 +14021,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14032,7 +14059,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14070,7 +14097,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14108,7 +14135,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14146,7 +14173,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14184,7 +14211,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14222,7 +14249,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14260,7 +14287,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14298,7 +14325,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14336,7 +14363,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14374,7 +14401,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14412,7 +14439,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14450,7 +14477,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14488,7 +14515,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14526,7 +14553,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14564,7 +14591,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14602,7 +14629,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14640,7 +14667,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14678,7 +14705,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14716,7 +14743,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14754,7 +14781,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14792,7 +14819,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14830,7 +14857,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14868,7 +14895,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14906,7 +14933,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14944,7 +14971,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14982,7 +15009,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15020,7 +15047,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15058,7 +15085,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15096,7 +15123,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15134,7 +15161,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15172,7 +15199,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15210,7 +15237,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15248,7 +15275,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15286,7 +15313,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15324,7 +15351,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15362,7 +15389,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15400,7 +15427,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15438,7 +15465,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15476,7 +15503,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15514,7 +15541,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15552,7 +15579,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15590,7 +15617,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15628,7 +15655,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15666,7 +15693,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15704,7 +15731,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15742,7 +15769,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15780,7 +15807,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15818,7 +15845,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15856,7 +15883,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15894,7 +15921,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15932,7 +15959,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15970,7 +15997,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16008,7 +16035,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16046,7 +16073,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16084,7 +16111,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16122,7 +16149,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16160,7 +16187,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16198,7 +16225,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16236,7 +16263,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16274,7 +16301,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16312,7 +16339,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16350,7 +16377,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16388,7 +16415,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16426,7 +16453,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16464,7 +16491,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16502,7 +16529,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16540,7 +16567,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16578,7 +16605,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16616,7 +16643,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16654,7 +16681,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16692,7 +16719,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16730,7 +16757,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16768,7 +16795,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16806,7 +16833,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16844,7 +16871,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16882,7 +16909,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16920,7 +16947,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16958,7 +16985,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16996,7 +17023,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17034,7 +17061,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17072,7 +17099,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17110,7 +17137,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17148,7 +17175,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17186,7 +17213,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17224,7 +17251,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17262,7 +17289,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17300,7 +17327,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17338,7 +17365,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17376,7 +17403,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17414,7 +17441,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17452,7 +17479,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17490,7 +17517,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17528,7 +17555,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17566,7 +17593,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17604,7 +17631,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17642,7 +17669,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17680,7 +17707,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17718,7 +17745,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17756,7 +17783,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17794,7 +17821,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17832,7 +17859,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17870,7 +17897,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17908,7 +17935,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17946,7 +17973,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17984,7 +18011,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18022,7 +18049,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18060,7 +18087,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18098,7 +18125,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18136,7 +18163,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18174,7 +18201,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18212,7 +18239,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18250,7 +18277,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18288,7 +18315,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18326,7 +18353,7 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18364,7 +18391,7 @@
         <v>1.55</v>
       </c>
       <c r="L436" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18402,7 +18429,7 @@
         <v>0.86</v>
       </c>
       <c r="L437" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18440,7 +18467,7 @@
         <v>1.51</v>
       </c>
       <c r="L438" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18478,7 +18505,7 @@
         <v>1.24</v>
       </c>
       <c r="L439" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18516,7 +18543,7 @@
         <v>1.59</v>
       </c>
       <c r="L440" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18554,7 +18581,7 @@
         <v>2.13</v>
       </c>
       <c r="L441" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18592,7 +18619,7 @@
         <v>2.4</v>
       </c>
       <c r="L442" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18630,7 +18657,7 @@
         <v>1.35</v>
       </c>
       <c r="L443" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18668,7 +18695,7 @@
         <v>4.15</v>
       </c>
       <c r="L444" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18706,7 +18733,7 @@
         <v>1.75</v>
       </c>
       <c r="L445" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18744,7 +18771,7 @@
         <v>2.79</v>
       </c>
       <c r="L446" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18782,7 +18809,7 @@
         <v>1.91</v>
       </c>
       <c r="L447" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18820,7 +18847,7 @@
         <v>1.25</v>
       </c>
       <c r="L448" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18858,7 +18885,7 @@
         <v>2.61</v>
       </c>
       <c r="L449" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18896,7 +18923,7 @@
         <v>2.11</v>
       </c>
       <c r="L450" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18934,7 +18961,7 @@
         <v>2.08</v>
       </c>
       <c r="L451" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18972,7 +18999,7 @@
         <v>1.65</v>
       </c>
       <c r="L452" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19010,7 +19037,7 @@
         <v>2.03</v>
       </c>
       <c r="L453" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19048,7 +19075,7 @@
         <v>1.66</v>
       </c>
       <c r="L454" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19086,7 +19113,7 @@
         <v>1.49</v>
       </c>
       <c r="L455" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19124,7 +19151,7 @@
         <v>2.71</v>
       </c>
       <c r="L456" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19162,7 +19189,7 @@
         <v>3.81</v>
       </c>
       <c r="L457" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19200,7 +19227,7 @@
         <v>3.46</v>
       </c>
       <c r="L458" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19238,7 +19265,7 @@
         <v>3.51</v>
       </c>
       <c r="L459" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19276,7 +19303,7 @@
         <v>3.35</v>
       </c>
       <c r="L460" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19314,7 +19341,7 @@
         <v>3.87</v>
       </c>
       <c r="L461" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19352,7 +19379,7 @@
         <v>5.32</v>
       </c>
       <c r="L462" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19390,7 +19417,7 @@
         <v>3.09</v>
       </c>
       <c r="L463" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19428,7 +19455,349 @@
         <v>2.65</v>
       </c>
       <c r="L464" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
         <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.46</v>
+      </c>
+      <c r="D465">
+        <v>100</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>60</v>
+      </c>
+      <c r="G465">
+        <v>347.35</v>
+      </c>
+      <c r="H465">
+        <v>60</v>
+      </c>
+      <c r="I465">
+        <v>0.38</v>
+      </c>
+      <c r="J465">
+        <v>110.96</v>
+      </c>
+      <c r="K465">
+        <v>3.48</v>
+      </c>
+      <c r="L465" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.46</v>
+      </c>
+      <c r="D466">
+        <v>100</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>60</v>
+      </c>
+      <c r="G466">
+        <v>19.42</v>
+      </c>
+      <c r="H466">
+        <v>60</v>
+      </c>
+      <c r="I466">
+        <v>-0.57</v>
+      </c>
+      <c r="J466">
+        <v>116.73</v>
+      </c>
+      <c r="K466">
+        <v>3.25</v>
+      </c>
+      <c r="L466" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.45</v>
+      </c>
+      <c r="D467">
+        <v>100</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>60</v>
+      </c>
+      <c r="G467">
+        <v>22.87</v>
+      </c>
+      <c r="H467">
+        <v>60</v>
+      </c>
+      <c r="I467">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J467">
+        <v>123.45</v>
+      </c>
+      <c r="K467">
+        <v>2.65</v>
+      </c>
+      <c r="L467" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.45</v>
+      </c>
+      <c r="D468">
+        <v>100</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>60</v>
+      </c>
+      <c r="G468">
+        <v>315.89</v>
+      </c>
+      <c r="H468">
+        <v>60</v>
+      </c>
+      <c r="I468">
+        <v>0.49</v>
+      </c>
+      <c r="J468">
+        <v>128.48</v>
+      </c>
+      <c r="K468">
+        <v>1.63</v>
+      </c>
+      <c r="L468" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.44</v>
+      </c>
+      <c r="D469">
+        <v>100</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>60</v>
+      </c>
+      <c r="G469">
+        <v>318.5</v>
+      </c>
+      <c r="H469">
+        <v>60</v>
+      </c>
+      <c r="I469">
+        <v>0.14</v>
+      </c>
+      <c r="J469">
+        <v>132.83</v>
+      </c>
+      <c r="K469">
+        <v>1.28</v>
+      </c>
+      <c r="L469" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.44</v>
+      </c>
+      <c r="D470">
+        <v>100</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>60</v>
+      </c>
+      <c r="G470">
+        <v>41.93</v>
+      </c>
+      <c r="H470">
+        <v>60</v>
+      </c>
+      <c r="I470">
+        <v>-9.07</v>
+      </c>
+      <c r="J470">
+        <v>156.36</v>
+      </c>
+      <c r="K470">
+        <v>1.62</v>
+      </c>
+      <c r="L470" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.43</v>
+      </c>
+      <c r="D471">
+        <v>100</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>60</v>
+      </c>
+      <c r="G471">
+        <v>130.74</v>
+      </c>
+      <c r="H471">
+        <v>60</v>
+      </c>
+      <c r="I471">
+        <v>3.28</v>
+      </c>
+      <c r="J471">
+        <v>157.37</v>
+      </c>
+      <c r="K471">
+        <v>1.51</v>
+      </c>
+      <c r="L471" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.46</v>
+      </c>
+      <c r="D472">
+        <v>100</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>60</v>
+      </c>
+      <c r="G472">
+        <v>126.85</v>
+      </c>
+      <c r="H472">
+        <v>60</v>
+      </c>
+      <c r="I472">
+        <v>3.14</v>
+      </c>
+      <c r="J472">
+        <v>156.28</v>
+      </c>
+      <c r="K472">
+        <v>1.38</v>
+      </c>
+      <c r="L472" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.5</v>
+      </c>
+      <c r="D473">
+        <v>100</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>60</v>
+      </c>
+      <c r="G473">
+        <v>133.69</v>
+      </c>
+      <c r="H473">
+        <v>60</v>
+      </c>
+      <c r="I473">
+        <v>0.8</v>
+      </c>
+      <c r="J473">
+        <v>152.85</v>
+      </c>
+      <c r="K473">
+        <v>1.14</v>
+      </c>
+      <c r="L473" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="493">
   <si>
     <t>Fecha</t>
   </si>
@@ -1463,6 +1463,33 @@
   </si>
   <si>
     <t>11/9/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1823,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L473"/>
+  <dimension ref="A1:L482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,7 +1926,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1937,7 +1964,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1975,7 +2002,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2013,7 +2040,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2051,7 +2078,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2089,7 +2116,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2127,7 +2154,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2165,7 +2192,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2203,7 +2230,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2241,7 +2268,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2279,7 +2306,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2317,7 +2344,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2355,7 +2382,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2393,7 +2420,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2431,7 +2458,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2469,7 +2496,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2507,7 +2534,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2545,7 +2572,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2583,7 +2610,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2621,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2659,7 +2686,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2697,7 +2724,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2735,7 +2762,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2773,7 +2800,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2811,7 +2838,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2849,7 +2876,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2887,7 +2914,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2925,7 +2952,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2963,7 +2990,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3001,7 +3028,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3039,7 +3066,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3077,7 +3104,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3115,7 +3142,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3153,7 +3180,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3191,7 +3218,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3229,7 +3256,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3267,7 +3294,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3305,7 +3332,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3343,7 +3370,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3381,7 +3408,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3419,7 +3446,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3457,7 +3484,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3495,7 +3522,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3533,7 +3560,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3571,7 +3598,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3609,7 +3636,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3647,7 +3674,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3685,7 +3712,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3723,7 +3750,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3761,7 +3788,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3799,7 +3826,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3837,7 +3864,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3875,7 +3902,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3913,7 +3940,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3951,7 +3978,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3989,7 +4016,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4027,7 +4054,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4065,7 +4092,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4103,7 +4130,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4141,7 +4168,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4179,7 +4206,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4217,7 +4244,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4255,7 +4282,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4293,7 +4320,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4331,7 +4358,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4369,7 +4396,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4407,7 +4434,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4445,7 +4472,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4483,7 +4510,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4521,7 +4548,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4559,7 +4586,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4597,7 +4624,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4635,7 +4662,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4673,7 +4700,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4711,7 +4738,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4749,7 +4776,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4787,7 +4814,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4825,7 +4852,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4863,7 +4890,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4901,7 +4928,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4939,7 +4966,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4977,7 +5004,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5015,7 +5042,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5053,7 +5080,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5091,7 +5118,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5129,7 +5156,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5167,7 +5194,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5205,7 +5232,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5243,7 +5270,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5281,7 +5308,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5319,7 +5346,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5357,7 +5384,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5395,7 +5422,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5433,7 +5460,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5471,7 +5498,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5509,7 +5536,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5547,7 +5574,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5585,7 +5612,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5623,7 +5650,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5661,7 +5688,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5699,7 +5726,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5737,7 +5764,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5775,7 +5802,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5813,7 +5840,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5851,7 +5878,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5889,7 +5916,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5927,7 +5954,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5965,7 +5992,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6003,7 +6030,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6041,7 +6068,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6079,7 +6106,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6117,7 +6144,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6155,7 +6182,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6193,7 +6220,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6231,7 +6258,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6269,7 +6296,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6307,7 +6334,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6345,7 +6372,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6383,7 +6410,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6421,7 +6448,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6459,7 +6486,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6497,7 +6524,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6535,7 +6562,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6573,7 +6600,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6611,7 +6638,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6649,7 +6676,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6687,7 +6714,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6725,7 +6752,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6763,7 +6790,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6801,7 +6828,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6839,7 +6866,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6877,7 +6904,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6915,7 +6942,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6953,7 +6980,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6991,7 +7018,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7029,7 +7056,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7067,7 +7094,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7105,7 +7132,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7143,7 +7170,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7181,7 +7208,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7219,7 +7246,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7257,7 +7284,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7295,7 +7322,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7333,7 +7360,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7371,7 +7398,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7409,7 +7436,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7447,7 +7474,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7485,7 +7512,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7523,7 +7550,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7561,7 +7588,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7599,7 +7626,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7637,7 +7664,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7675,7 +7702,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7713,7 +7740,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7751,7 +7778,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7789,7 +7816,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7827,7 +7854,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7865,7 +7892,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7903,7 +7930,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7941,7 +7968,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7979,7 +8006,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8017,7 +8044,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8055,7 +8082,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8093,7 +8120,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8131,7 +8158,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8169,7 +8196,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8207,7 +8234,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8245,7 +8272,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8283,7 +8310,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8321,7 +8348,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8359,7 +8386,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8397,7 +8424,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8435,7 +8462,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8473,7 +8500,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8511,7 +8538,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8549,7 +8576,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8587,7 +8614,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8625,7 +8652,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8663,7 +8690,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8701,7 +8728,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8739,7 +8766,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8777,7 +8804,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8815,7 +8842,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8853,7 +8880,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8891,7 +8918,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8929,7 +8956,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8967,7 +8994,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9005,7 +9032,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9043,7 +9070,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9081,7 +9108,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9119,7 +9146,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9157,7 +9184,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9195,7 +9222,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9233,7 +9260,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9271,7 +9298,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9309,7 +9336,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9347,7 +9374,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9385,7 +9412,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9423,7 +9450,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9461,7 +9488,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9499,7 +9526,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9537,7 +9564,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9575,7 +9602,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9613,7 +9640,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9651,7 +9678,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9689,7 +9716,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9727,7 +9754,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9765,7 +9792,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9803,7 +9830,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9841,7 +9868,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9879,7 +9906,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9917,7 +9944,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9955,7 +9982,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9993,7 +10020,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10031,7 +10058,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10069,7 +10096,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10107,7 +10134,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10145,7 +10172,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10183,7 +10210,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10221,7 +10248,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10259,7 +10286,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10297,7 +10324,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10335,7 +10362,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10373,7 +10400,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10411,7 +10438,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10449,7 +10476,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10487,7 +10514,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10525,7 +10552,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10563,7 +10590,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10601,7 +10628,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10639,7 +10666,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10677,7 +10704,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10715,7 +10742,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10753,7 +10780,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10791,7 +10818,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10829,7 +10856,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10867,7 +10894,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10905,7 +10932,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10943,7 +10970,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10981,7 +11008,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11019,7 +11046,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11057,7 +11084,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11095,7 +11122,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11133,7 +11160,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11171,7 +11198,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11209,7 +11236,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11247,7 +11274,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11285,7 +11312,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11323,7 +11350,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11361,7 +11388,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11399,7 +11426,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11437,7 +11464,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11475,7 +11502,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11513,7 +11540,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11551,7 +11578,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11589,7 +11616,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11627,7 +11654,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11665,7 +11692,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11703,7 +11730,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11741,7 +11768,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11779,7 +11806,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11817,7 +11844,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11855,7 +11882,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11893,7 +11920,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11931,7 +11958,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11969,7 +11996,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12007,7 +12034,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12045,7 +12072,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12083,7 +12110,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12121,7 +12148,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12159,7 +12186,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12197,7 +12224,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12235,7 +12262,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12273,7 +12300,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12311,7 +12338,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12349,7 +12376,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12387,7 +12414,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12425,7 +12452,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12463,7 +12490,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12501,7 +12528,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12539,7 +12566,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12577,7 +12604,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12615,7 +12642,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12653,7 +12680,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12691,7 +12718,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12729,7 +12756,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12767,7 +12794,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12805,7 +12832,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12843,7 +12870,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12881,7 +12908,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12919,7 +12946,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12957,7 +12984,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12995,7 +13022,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13033,7 +13060,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13071,7 +13098,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13109,7 +13136,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13147,7 +13174,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13185,7 +13212,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13223,7 +13250,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13261,7 +13288,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13299,7 +13326,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13337,7 +13364,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13375,7 +13402,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13413,7 +13440,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13451,7 +13478,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13489,7 +13516,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13527,7 +13554,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13565,7 +13592,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13603,7 +13630,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13641,7 +13668,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13679,7 +13706,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13717,7 +13744,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13755,7 +13782,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13793,7 +13820,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13831,7 +13858,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13869,7 +13896,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13907,7 +13934,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13945,7 +13972,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13983,7 +14010,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14021,7 +14048,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14059,7 +14086,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14097,7 +14124,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14135,7 +14162,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14173,7 +14200,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14211,7 +14238,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14249,7 +14276,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14287,7 +14314,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14325,7 +14352,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14363,7 +14390,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14401,7 +14428,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14439,7 +14466,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14477,7 +14504,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14515,7 +14542,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14553,7 +14580,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14591,7 +14618,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14629,7 +14656,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14667,7 +14694,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14705,7 +14732,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14743,7 +14770,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14781,7 +14808,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14819,7 +14846,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14857,7 +14884,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14895,7 +14922,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14933,7 +14960,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14971,7 +14998,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15009,7 +15036,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15047,7 +15074,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15085,7 +15112,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15123,7 +15150,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15161,7 +15188,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15199,7 +15226,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15237,7 +15264,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15275,7 +15302,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15313,7 +15340,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15351,7 +15378,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15389,7 +15416,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15427,7 +15454,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15465,7 +15492,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15503,7 +15530,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15541,7 +15568,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15579,7 +15606,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15617,7 +15644,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15655,7 +15682,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15693,7 +15720,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15731,7 +15758,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15769,7 +15796,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15807,7 +15834,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15845,7 +15872,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15883,7 +15910,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15921,7 +15948,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15959,7 +15986,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15997,7 +16024,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16035,7 +16062,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16073,7 +16100,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16111,7 +16138,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16149,7 +16176,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16187,7 +16214,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16225,7 +16252,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16263,7 +16290,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16301,7 +16328,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16339,7 +16366,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16377,7 +16404,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16415,7 +16442,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16453,7 +16480,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16491,7 +16518,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16529,7 +16556,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16567,7 +16594,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16605,7 +16632,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16643,7 +16670,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16681,7 +16708,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16719,7 +16746,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16757,7 +16784,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16795,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16833,7 +16860,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16871,7 +16898,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16909,7 +16936,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16947,7 +16974,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16985,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17023,7 +17050,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17061,7 +17088,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17099,7 +17126,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17137,7 +17164,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17175,7 +17202,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17213,7 +17240,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17251,7 +17278,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17289,7 +17316,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17327,7 +17354,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17365,7 +17392,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17403,7 +17430,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17441,7 +17468,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17479,7 +17506,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17517,7 +17544,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17555,7 +17582,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17593,7 +17620,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17631,7 +17658,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17669,7 +17696,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17707,7 +17734,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17745,7 +17772,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17783,7 +17810,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17821,7 +17848,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17859,7 +17886,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17897,7 +17924,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17935,7 +17962,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17973,7 +18000,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18011,7 +18038,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18049,7 +18076,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18087,7 +18114,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18125,7 +18152,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18163,7 +18190,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18201,7 +18228,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18239,7 +18266,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18277,7 +18304,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18315,7 +18342,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18353,7 +18380,7 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18391,7 +18418,7 @@
         <v>1.55</v>
       </c>
       <c r="L436" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18429,7 +18456,7 @@
         <v>0.86</v>
       </c>
       <c r="L437" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18467,7 +18494,7 @@
         <v>1.51</v>
       </c>
       <c r="L438" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18505,7 +18532,7 @@
         <v>1.24</v>
       </c>
       <c r="L439" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18543,7 +18570,7 @@
         <v>1.59</v>
       </c>
       <c r="L440" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18581,7 +18608,7 @@
         <v>2.13</v>
       </c>
       <c r="L441" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18619,7 +18646,7 @@
         <v>2.4</v>
       </c>
       <c r="L442" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18657,7 +18684,7 @@
         <v>1.35</v>
       </c>
       <c r="L443" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18695,7 +18722,7 @@
         <v>4.15</v>
       </c>
       <c r="L444" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18733,7 +18760,7 @@
         <v>1.75</v>
       </c>
       <c r="L445" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18771,7 +18798,7 @@
         <v>2.79</v>
       </c>
       <c r="L446" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18809,7 +18836,7 @@
         <v>1.91</v>
       </c>
       <c r="L447" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18847,7 +18874,7 @@
         <v>1.25</v>
       </c>
       <c r="L448" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18885,7 +18912,7 @@
         <v>2.61</v>
       </c>
       <c r="L449" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18923,7 +18950,7 @@
         <v>2.11</v>
       </c>
       <c r="L450" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18961,7 +18988,7 @@
         <v>2.08</v>
       </c>
       <c r="L451" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18999,7 +19026,7 @@
         <v>1.65</v>
       </c>
       <c r="L452" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19037,7 +19064,7 @@
         <v>2.03</v>
       </c>
       <c r="L453" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19075,7 +19102,7 @@
         <v>1.66</v>
       </c>
       <c r="L454" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19113,7 +19140,7 @@
         <v>1.49</v>
       </c>
       <c r="L455" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19151,7 +19178,7 @@
         <v>2.71</v>
       </c>
       <c r="L456" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19189,7 +19216,7 @@
         <v>3.81</v>
       </c>
       <c r="L457" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19227,7 +19254,7 @@
         <v>3.46</v>
       </c>
       <c r="L458" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19265,7 +19292,7 @@
         <v>3.51</v>
       </c>
       <c r="L459" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19303,7 +19330,7 @@
         <v>3.35</v>
       </c>
       <c r="L460" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19341,7 +19368,7 @@
         <v>3.87</v>
       </c>
       <c r="L461" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19379,7 +19406,7 @@
         <v>5.32</v>
       </c>
       <c r="L462" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19417,7 +19444,7 @@
         <v>3.09</v>
       </c>
       <c r="L463" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19455,7 +19482,7 @@
         <v>2.65</v>
       </c>
       <c r="L464" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19493,7 +19520,7 @@
         <v>3.48</v>
       </c>
       <c r="L465" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19531,7 +19558,7 @@
         <v>3.25</v>
       </c>
       <c r="L466" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19569,7 +19596,7 @@
         <v>2.65</v>
       </c>
       <c r="L467" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19607,7 +19634,7 @@
         <v>1.63</v>
       </c>
       <c r="L468" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19645,7 +19672,7 @@
         <v>1.28</v>
       </c>
       <c r="L469" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19683,7 +19710,7 @@
         <v>1.62</v>
       </c>
       <c r="L470" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19721,7 +19748,7 @@
         <v>1.51</v>
       </c>
       <c r="L471" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19759,7 +19786,7 @@
         <v>1.38</v>
       </c>
       <c r="L472" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19797,7 +19824,349 @@
         <v>1.14</v>
       </c>
       <c r="L473" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
         <v>483</v>
+      </c>
+      <c r="C474">
+        <v>12.58</v>
+      </c>
+      <c r="D474">
+        <v>100</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>60</v>
+      </c>
+      <c r="G474">
+        <v>59.8</v>
+      </c>
+      <c r="H474">
+        <v>60</v>
+      </c>
+      <c r="I474">
+        <v>0.92</v>
+      </c>
+      <c r="J474">
+        <v>150.48</v>
+      </c>
+      <c r="K474">
+        <v>2.29</v>
+      </c>
+      <c r="L474" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>12.76</v>
+      </c>
+      <c r="D475">
+        <v>100</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>60</v>
+      </c>
+      <c r="G475">
+        <v>57.93</v>
+      </c>
+      <c r="H475">
+        <v>60</v>
+      </c>
+      <c r="I475">
+        <v>-0.14</v>
+      </c>
+      <c r="J475">
+        <v>149.12</v>
+      </c>
+      <c r="K475">
+        <v>1.61</v>
+      </c>
+      <c r="L475" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>12.86</v>
+      </c>
+      <c r="D476">
+        <v>100</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>60</v>
+      </c>
+      <c r="G476">
+        <v>39.26</v>
+      </c>
+      <c r="H476">
+        <v>60</v>
+      </c>
+      <c r="I476">
+        <v>0.17</v>
+      </c>
+      <c r="J476">
+        <v>147.39</v>
+      </c>
+      <c r="K476">
+        <v>1.62</v>
+      </c>
+      <c r="L476" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13</v>
+      </c>
+      <c r="D477">
+        <v>100</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>60</v>
+      </c>
+      <c r="G477">
+        <v>325.44</v>
+      </c>
+      <c r="H477">
+        <v>60</v>
+      </c>
+      <c r="I477">
+        <v>-0.27</v>
+      </c>
+      <c r="J477">
+        <v>149.47</v>
+      </c>
+      <c r="K477">
+        <v>1.03</v>
+      </c>
+      <c r="L477" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>12.98</v>
+      </c>
+      <c r="D478">
+        <v>100</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>60</v>
+      </c>
+      <c r="G478">
+        <v>354.14</v>
+      </c>
+      <c r="H478">
+        <v>60</v>
+      </c>
+      <c r="I478">
+        <v>0.33</v>
+      </c>
+      <c r="J478">
+        <v>141.27</v>
+      </c>
+      <c r="K478">
+        <v>2.85</v>
+      </c>
+      <c r="L478" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.05</v>
+      </c>
+      <c r="D479">
+        <v>100</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>60</v>
+      </c>
+      <c r="G479">
+        <v>333.32</v>
+      </c>
+      <c r="H479">
+        <v>60</v>
+      </c>
+      <c r="I479">
+        <v>0.21</v>
+      </c>
+      <c r="J479">
+        <v>131.84</v>
+      </c>
+      <c r="K479">
+        <v>3.27</v>
+      </c>
+      <c r="L479" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.16</v>
+      </c>
+      <c r="D480">
+        <v>100</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>60</v>
+      </c>
+      <c r="G480">
+        <v>340</v>
+      </c>
+      <c r="H480">
+        <v>60</v>
+      </c>
+      <c r="I480">
+        <v>81.05</v>
+      </c>
+      <c r="J480">
+        <v>125.36</v>
+      </c>
+      <c r="K480">
+        <v>3.97</v>
+      </c>
+      <c r="L480" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.17</v>
+      </c>
+      <c r="D481">
+        <v>100</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>60</v>
+      </c>
+      <c r="G481">
+        <v>7.45</v>
+      </c>
+      <c r="H481">
+        <v>60</v>
+      </c>
+      <c r="I481">
+        <v>10.37</v>
+      </c>
+      <c r="J481">
+        <v>119.83</v>
+      </c>
+      <c r="K481">
+        <v>4.61</v>
+      </c>
+      <c r="L481" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.3</v>
+      </c>
+      <c r="D482">
+        <v>100</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>60</v>
+      </c>
+      <c r="G482">
+        <v>340.05</v>
+      </c>
+      <c r="H482">
+        <v>60</v>
+      </c>
+      <c r="I482">
+        <v>0.02</v>
+      </c>
+      <c r="J482">
+        <v>114.85</v>
+      </c>
+      <c r="K482">
+        <v>3.8</v>
+      </c>
+      <c r="L482" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="503">
   <si>
     <t>Fecha</t>
   </si>
@@ -1490,6 +1490,36 @@
   </si>
   <si>
     <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:40:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1850,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L482"/>
+  <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1956,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1964,7 +1994,7 @@
         <v>3.11</v>
       </c>
       <c r="L3" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2002,7 +2032,7 @@
         <v>3.99</v>
       </c>
       <c r="L4" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2040,7 +2070,7 @@
         <v>4.47</v>
       </c>
       <c r="L5" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2078,7 +2108,7 @@
         <v>2.84</v>
       </c>
       <c r="L6" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2116,7 +2146,7 @@
         <v>1.67</v>
       </c>
       <c r="L7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2154,7 +2184,7 @@
         <v>1.46</v>
       </c>
       <c r="L8" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2192,7 +2222,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2230,7 +2260,7 @@
         <v>2.6</v>
       </c>
       <c r="L10" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2268,7 +2298,7 @@
         <v>1.54</v>
       </c>
       <c r="L11" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2306,7 +2336,7 @@
         <v>0.79</v>
       </c>
       <c r="L12" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2344,7 +2374,7 @@
         <v>0.7</v>
       </c>
       <c r="L13" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2382,7 +2412,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2420,7 +2450,7 @@
         <v>0.89</v>
       </c>
       <c r="L15" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2458,7 +2488,7 @@
         <v>1.63</v>
       </c>
       <c r="L16" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2496,7 +2526,7 @@
         <v>3.84</v>
       </c>
       <c r="L17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2534,7 +2564,7 @@
         <v>3.21</v>
       </c>
       <c r="L18" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2572,7 +2602,7 @@
         <v>3.83</v>
       </c>
       <c r="L19" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2610,7 +2640,7 @@
         <v>3.05</v>
       </c>
       <c r="L20" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2648,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2686,7 +2716,7 @@
         <v>2.11</v>
       </c>
       <c r="L22" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2724,7 +2754,7 @@
         <v>2.77</v>
       </c>
       <c r="L23" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2762,7 +2792,7 @@
         <v>1.18</v>
       </c>
       <c r="L24" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2800,7 +2830,7 @@
         <v>1.03</v>
       </c>
       <c r="L25" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2838,7 +2868,7 @@
         <v>0.91</v>
       </c>
       <c r="L26" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2876,7 +2906,7 @@
         <v>0.65</v>
       </c>
       <c r="L27" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2914,7 +2944,7 @@
         <v>1.85</v>
       </c>
       <c r="L28" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2952,7 +2982,7 @@
         <v>3.54</v>
       </c>
       <c r="L29" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2990,7 +3020,7 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3028,7 +3058,7 @@
         <v>3.32</v>
       </c>
       <c r="L31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3066,7 +3096,7 @@
         <v>3.36</v>
       </c>
       <c r="L32" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3104,7 +3134,7 @@
         <v>1.97</v>
       </c>
       <c r="L33" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3142,7 +3172,7 @@
         <v>2.95</v>
       </c>
       <c r="L34" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3180,7 +3210,7 @@
         <v>2.35</v>
       </c>
       <c r="L35" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3218,7 +3248,7 @@
         <v>2.41</v>
       </c>
       <c r="L36" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3256,7 +3286,7 @@
         <v>2.93</v>
       </c>
       <c r="L37" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3294,7 +3324,7 @@
         <v>3.24</v>
       </c>
       <c r="L38" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3332,7 +3362,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3370,7 +3400,7 @@
         <v>5.1</v>
       </c>
       <c r="L40" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3408,7 +3438,7 @@
         <v>2.81</v>
       </c>
       <c r="L41" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3446,7 +3476,7 @@
         <v>2.72</v>
       </c>
       <c r="L42" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3484,7 +3514,7 @@
         <v>3.34</v>
       </c>
       <c r="L43" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3522,7 +3552,7 @@
         <v>3.36</v>
       </c>
       <c r="L44" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3560,7 +3590,7 @@
         <v>4.7</v>
       </c>
       <c r="L45" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3598,7 +3628,7 @@
         <v>4.26</v>
       </c>
       <c r="L46" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3636,7 +3666,7 @@
         <v>5.25</v>
       </c>
       <c r="L47" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3674,7 +3704,7 @@
         <v>4.43</v>
       </c>
       <c r="L48" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3712,7 +3742,7 @@
         <v>4.76</v>
       </c>
       <c r="L49" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3750,7 +3780,7 @@
         <v>4.76</v>
       </c>
       <c r="L50" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3788,7 +3818,7 @@
         <v>6.41</v>
       </c>
       <c r="L51" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3826,7 +3856,7 @@
         <v>5.42</v>
       </c>
       <c r="L52" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3864,7 +3894,7 @@
         <v>5.48</v>
       </c>
       <c r="L53" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3902,7 +3932,7 @@
         <v>6.45</v>
       </c>
       <c r="L54" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3940,7 +3970,7 @@
         <v>4.81</v>
       </c>
       <c r="L55" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3978,7 +4008,7 @@
         <v>4.51</v>
       </c>
       <c r="L56" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4016,7 +4046,7 @@
         <v>4.48</v>
       </c>
       <c r="L57" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4054,7 +4084,7 @@
         <v>4.35</v>
       </c>
       <c r="L58" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4092,7 +4122,7 @@
         <v>7.52</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4130,7 +4160,7 @@
         <v>4.94</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4168,7 +4198,7 @@
         <v>3.86</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4206,7 +4236,7 @@
         <v>4.8</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4244,7 +4274,7 @@
         <v>3.75</v>
       </c>
       <c r="L63" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4282,7 +4312,7 @@
         <v>4.37</v>
       </c>
       <c r="L64" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4320,7 +4350,7 @@
         <v>5.87</v>
       </c>
       <c r="L65" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4358,7 +4388,7 @@
         <v>9.31</v>
       </c>
       <c r="L66" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4396,7 +4426,7 @@
         <v>7.68</v>
       </c>
       <c r="L67" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4434,7 +4464,7 @@
         <v>5.7</v>
       </c>
       <c r="L68" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4472,7 +4502,7 @@
         <v>4.06</v>
       </c>
       <c r="L69" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4510,7 +4540,7 @@
         <v>4.23</v>
       </c>
       <c r="L70" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4548,7 +4578,7 @@
         <v>7.37</v>
       </c>
       <c r="L71" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4586,7 +4616,7 @@
         <v>5.95</v>
       </c>
       <c r="L72" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4624,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4662,7 +4692,7 @@
         <v>5.49</v>
       </c>
       <c r="L74" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4700,7 +4730,7 @@
         <v>7.76</v>
       </c>
       <c r="L75" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4738,7 +4768,7 @@
         <v>7.9</v>
       </c>
       <c r="L76" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4776,7 +4806,7 @@
         <v>5.36</v>
       </c>
       <c r="L77" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4814,7 +4844,7 @@
         <v>4.67</v>
       </c>
       <c r="L78" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4852,7 +4882,7 @@
         <v>5.52</v>
       </c>
       <c r="L79" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4890,7 +4920,7 @@
         <v>6.85</v>
       </c>
       <c r="L80" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4928,7 +4958,7 @@
         <v>7.77</v>
       </c>
       <c r="L81" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4966,7 +4996,7 @@
         <v>9.31</v>
       </c>
       <c r="L82" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5004,7 +5034,7 @@
         <v>5.85</v>
       </c>
       <c r="L83" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5042,7 +5072,7 @@
         <v>7.6</v>
       </c>
       <c r="L84" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5080,7 +5110,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L85" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5118,7 +5148,7 @@
         <v>10.07</v>
       </c>
       <c r="L86" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5156,7 +5186,7 @@
         <v>4.88</v>
       </c>
       <c r="L87" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5194,7 +5224,7 @@
         <v>5.91</v>
       </c>
       <c r="L88" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5232,7 +5262,7 @@
         <v>5.17</v>
       </c>
       <c r="L89" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5270,7 +5300,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5308,7 +5338,7 @@
         <v>3.47</v>
       </c>
       <c r="L91" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5346,7 +5376,7 @@
         <v>6.38</v>
       </c>
       <c r="L92" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5384,7 +5414,7 @@
         <v>4.02</v>
       </c>
       <c r="L93" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5422,7 +5452,7 @@
         <v>6.09</v>
       </c>
       <c r="L94" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5460,7 +5490,7 @@
         <v>6.46</v>
       </c>
       <c r="L95" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5498,7 +5528,7 @@
         <v>4.36</v>
       </c>
       <c r="L96" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5536,7 +5566,7 @@
         <v>6.78</v>
       </c>
       <c r="L97" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5574,7 +5604,7 @@
         <v>5.16</v>
       </c>
       <c r="L98" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5612,7 +5642,7 @@
         <v>5.23</v>
       </c>
       <c r="L99" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5650,7 +5680,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5688,7 +5718,7 @@
         <v>3.76</v>
       </c>
       <c r="L101" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5726,7 +5756,7 @@
         <v>3.5</v>
       </c>
       <c r="L102" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5764,7 +5794,7 @@
         <v>2.78</v>
       </c>
       <c r="L103" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5802,7 +5832,7 @@
         <v>3.26</v>
       </c>
       <c r="L104" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5840,7 +5870,7 @@
         <v>1.87</v>
       </c>
       <c r="L105" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5878,7 +5908,7 @@
         <v>1.57</v>
       </c>
       <c r="L106" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5916,7 +5946,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5954,7 +5984,7 @@
         <v>2.17</v>
       </c>
       <c r="L108" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5992,7 +6022,7 @@
         <v>2.19</v>
       </c>
       <c r="L109" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6030,7 +6060,7 @@
         <v>1.91</v>
       </c>
       <c r="L110" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6068,7 +6098,7 @@
         <v>2.34</v>
       </c>
       <c r="L111" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6106,7 +6136,7 @@
         <v>2.34</v>
       </c>
       <c r="L112" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6144,7 +6174,7 @@
         <v>1.94</v>
       </c>
       <c r="L113" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6182,7 +6212,7 @@
         <v>3.02</v>
       </c>
       <c r="L114" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6220,7 +6250,7 @@
         <v>3.78</v>
       </c>
       <c r="L115" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6258,7 +6288,7 @@
         <v>1.67</v>
       </c>
       <c r="L116" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6296,7 +6326,7 @@
         <v>2.32</v>
       </c>
       <c r="L117" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6334,7 +6364,7 @@
         <v>3.21</v>
       </c>
       <c r="L118" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6372,7 +6402,7 @@
         <v>1.45</v>
       </c>
       <c r="L119" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6410,7 +6440,7 @@
         <v>1.39</v>
       </c>
       <c r="L120" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6448,7 +6478,7 @@
         <v>1.57</v>
       </c>
       <c r="L121" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6486,7 +6516,7 @@
         <v>2.98</v>
       </c>
       <c r="L122" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6524,7 +6554,7 @@
         <v>4.72</v>
       </c>
       <c r="L123" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6562,7 +6592,7 @@
         <v>4.09</v>
       </c>
       <c r="L124" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6600,7 +6630,7 @@
         <v>3.35</v>
       </c>
       <c r="L125" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6638,7 +6668,7 @@
         <v>3.14</v>
       </c>
       <c r="L126" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6676,7 +6706,7 @@
         <v>4.31</v>
       </c>
       <c r="L127" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6714,7 +6744,7 @@
         <v>4.27</v>
       </c>
       <c r="L128" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6752,7 +6782,7 @@
         <v>2.38</v>
       </c>
       <c r="L129" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6790,7 +6820,7 @@
         <v>1.36</v>
       </c>
       <c r="L130" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6828,7 +6858,7 @@
         <v>0.82</v>
       </c>
       <c r="L131" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6866,7 +6896,7 @@
         <v>1.05</v>
       </c>
       <c r="L132" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6904,7 +6934,7 @@
         <v>0.95</v>
       </c>
       <c r="L133" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6942,7 +6972,7 @@
         <v>1.02</v>
       </c>
       <c r="L134" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6980,7 +7010,7 @@
         <v>0.57</v>
       </c>
       <c r="L135" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7018,7 +7048,7 @@
         <v>1.51</v>
       </c>
       <c r="L136" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7056,7 +7086,7 @@
         <v>2.74</v>
       </c>
       <c r="L137" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7094,7 +7124,7 @@
         <v>2.65</v>
       </c>
       <c r="L138" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7132,7 +7162,7 @@
         <v>2.29</v>
       </c>
       <c r="L139" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7170,7 +7200,7 @@
         <v>2.26</v>
       </c>
       <c r="L140" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7208,7 +7238,7 @@
         <v>2.06</v>
       </c>
       <c r="L141" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7246,7 +7276,7 @@
         <v>2.65</v>
       </c>
       <c r="L142" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7284,7 +7314,7 @@
         <v>3.93</v>
       </c>
       <c r="L143" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7322,7 +7352,7 @@
         <v>4.07</v>
       </c>
       <c r="L144" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7360,7 +7390,7 @@
         <v>4.49</v>
       </c>
       <c r="L145" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7398,7 +7428,7 @@
         <v>2.44</v>
       </c>
       <c r="L146" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7436,7 +7466,7 @@
         <v>2.04</v>
       </c>
       <c r="L147" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7474,7 +7504,7 @@
         <v>2.96</v>
       </c>
       <c r="L148" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7512,7 +7542,7 @@
         <v>3.8</v>
       </c>
       <c r="L149" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7550,7 +7580,7 @@
         <v>4.05</v>
       </c>
       <c r="L150" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7588,7 +7618,7 @@
         <v>3.87</v>
       </c>
       <c r="L151" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7626,7 +7656,7 @@
         <v>4.27</v>
       </c>
       <c r="L152" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7664,7 +7694,7 @@
         <v>4.94</v>
       </c>
       <c r="L153" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7702,7 +7732,7 @@
         <v>3.71</v>
       </c>
       <c r="L154" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7740,7 +7770,7 @@
         <v>2.89</v>
       </c>
       <c r="L155" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7778,7 +7808,7 @@
         <v>2.81</v>
       </c>
       <c r="L156" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7816,7 +7846,7 @@
         <v>2.84</v>
       </c>
       <c r="L157" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7854,7 +7884,7 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7892,7 +7922,7 @@
         <v>2.79</v>
       </c>
       <c r="L159" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7930,7 +7960,7 @@
         <v>6.04</v>
       </c>
       <c r="L160" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7968,7 +7998,7 @@
         <v>5.69</v>
       </c>
       <c r="L161" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8006,7 +8036,7 @@
         <v>4.43</v>
       </c>
       <c r="L162" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8044,7 +8074,7 @@
         <v>5.08</v>
       </c>
       <c r="L163" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8082,7 +8112,7 @@
         <v>2.64</v>
       </c>
       <c r="L164" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8120,7 +8150,7 @@
         <v>2.3</v>
       </c>
       <c r="L165" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8158,7 +8188,7 @@
         <v>4.21</v>
       </c>
       <c r="L166" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8196,7 +8226,7 @@
         <v>2.82</v>
       </c>
       <c r="L167" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8234,7 +8264,7 @@
         <v>3.39</v>
       </c>
       <c r="L168" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8272,7 +8302,7 @@
         <v>3.31</v>
       </c>
       <c r="L169" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8310,7 +8340,7 @@
         <v>3.88</v>
       </c>
       <c r="L170" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8348,7 +8378,7 @@
         <v>4.41</v>
       </c>
       <c r="L171" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8386,7 +8416,7 @@
         <v>4.95</v>
       </c>
       <c r="L172" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8424,7 +8454,7 @@
         <v>6.7</v>
       </c>
       <c r="L173" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8462,7 +8492,7 @@
         <v>6.38</v>
       </c>
       <c r="L174" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8500,7 +8530,7 @@
         <v>6.31</v>
       </c>
       <c r="L175" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8538,7 +8568,7 @@
         <v>4.95</v>
       </c>
       <c r="L176" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8576,7 +8606,7 @@
         <v>4.8</v>
       </c>
       <c r="L177" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8614,7 +8644,7 @@
         <v>6.35</v>
       </c>
       <c r="L178" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8652,7 +8682,7 @@
         <v>3.32</v>
       </c>
       <c r="L179" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8690,7 +8720,7 @@
         <v>4.35</v>
       </c>
       <c r="L180" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8728,7 +8758,7 @@
         <v>5.99</v>
       </c>
       <c r="L181" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8766,7 +8796,7 @@
         <v>6.09</v>
       </c>
       <c r="L182" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8804,7 +8834,7 @@
         <v>6.17</v>
       </c>
       <c r="L183" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8842,7 +8872,7 @@
         <v>4.35</v>
       </c>
       <c r="L184" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8880,7 +8910,7 @@
         <v>5.29</v>
       </c>
       <c r="L185" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8918,7 +8948,7 @@
         <v>6.43</v>
       </c>
       <c r="L186" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8956,7 +8986,7 @@
         <v>6.53</v>
       </c>
       <c r="L187" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8994,7 +9024,7 @@
         <v>7.53</v>
       </c>
       <c r="L188" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9032,7 +9062,7 @@
         <v>5.6</v>
       </c>
       <c r="L189" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9070,7 +9100,7 @@
         <v>4.44</v>
       </c>
       <c r="L190" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9108,7 +9138,7 @@
         <v>5.47</v>
       </c>
       <c r="L191" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9146,7 +9176,7 @@
         <v>5.42</v>
       </c>
       <c r="L192" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9184,7 +9214,7 @@
         <v>4.95</v>
       </c>
       <c r="L193" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9222,7 +9252,7 @@
         <v>5.49</v>
       </c>
       <c r="L194" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9260,7 +9290,7 @@
         <v>6.75</v>
       </c>
       <c r="L195" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9298,7 +9328,7 @@
         <v>6.36</v>
       </c>
       <c r="L196" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9336,7 +9366,7 @@
         <v>6.83</v>
       </c>
       <c r="L197" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9374,7 +9404,7 @@
         <v>7.82</v>
       </c>
       <c r="L198" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9412,7 +9442,7 @@
         <v>5.71</v>
       </c>
       <c r="L199" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9450,7 +9480,7 @@
         <v>7.51</v>
       </c>
       <c r="L200" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9488,7 +9518,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9526,7 +9556,7 @@
         <v>6.74</v>
       </c>
       <c r="L202" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9564,7 +9594,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L203" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9602,7 +9632,7 @@
         <v>5.9</v>
       </c>
       <c r="L204" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9640,7 +9670,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9678,7 +9708,7 @@
         <v>8.32</v>
       </c>
       <c r="L206" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9716,7 +9746,7 @@
         <v>6.05</v>
       </c>
       <c r="L207" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9754,7 +9784,7 @@
         <v>6.09</v>
       </c>
       <c r="L208" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9792,7 +9822,7 @@
         <v>6.72</v>
       </c>
       <c r="L209" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9830,7 +9860,7 @@
         <v>5.71</v>
       </c>
       <c r="L210" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9868,7 +9898,7 @@
         <v>5.24</v>
       </c>
       <c r="L211" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9906,7 +9936,7 @@
         <v>7.87</v>
       </c>
       <c r="L212" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9944,7 +9974,7 @@
         <v>10.48</v>
       </c>
       <c r="L213" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9982,7 +10012,7 @@
         <v>11.82</v>
       </c>
       <c r="L214" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10020,7 +10050,7 @@
         <v>7.84</v>
       </c>
       <c r="L215" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10058,7 +10088,7 @@
         <v>6.03</v>
       </c>
       <c r="L216" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10096,7 +10126,7 @@
         <v>10.97</v>
       </c>
       <c r="L217" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10134,7 +10164,7 @@
         <v>10.97</v>
       </c>
       <c r="L218" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10172,7 +10202,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L219" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10210,7 +10240,7 @@
         <v>8.6</v>
       </c>
       <c r="L220" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10248,7 +10278,7 @@
         <v>7.73</v>
       </c>
       <c r="L221" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10286,7 +10316,7 @@
         <v>8.31</v>
       </c>
       <c r="L222" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10324,7 +10354,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10362,7 +10392,7 @@
         <v>6.52</v>
       </c>
       <c r="L224" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10400,7 +10430,7 @@
         <v>10.25</v>
       </c>
       <c r="L225" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10438,7 +10468,7 @@
         <v>8.48</v>
       </c>
       <c r="L226" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10476,7 +10506,7 @@
         <v>10.79</v>
       </c>
       <c r="L227" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10514,7 +10544,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L228" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10552,7 +10582,7 @@
         <v>7.99</v>
       </c>
       <c r="L229" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10590,7 +10620,7 @@
         <v>6.8</v>
       </c>
       <c r="L230" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10628,7 +10658,7 @@
         <v>6.45</v>
       </c>
       <c r="L231" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10666,7 +10696,7 @@
         <v>5.3</v>
       </c>
       <c r="L232" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10704,7 +10734,7 @@
         <v>4.5</v>
       </c>
       <c r="L233" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10742,7 +10772,7 @@
         <v>4.57</v>
       </c>
       <c r="L234" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10780,7 +10810,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L235" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10818,7 +10848,7 @@
         <v>7.54</v>
       </c>
       <c r="L236" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10856,7 +10886,7 @@
         <v>7.22</v>
       </c>
       <c r="L237" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10894,7 +10924,7 @@
         <v>5.84</v>
       </c>
       <c r="L238" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10932,7 +10962,7 @@
         <v>6.42</v>
       </c>
       <c r="L239" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10970,7 +11000,7 @@
         <v>4.98</v>
       </c>
       <c r="L240" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11008,7 +11038,7 @@
         <v>4.79</v>
       </c>
       <c r="L241" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11046,7 +11076,7 @@
         <v>5.09</v>
       </c>
       <c r="L242" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11084,7 +11114,7 @@
         <v>5.25</v>
       </c>
       <c r="L243" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11122,7 +11152,7 @@
         <v>5.15</v>
       </c>
       <c r="L244" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11160,7 +11190,7 @@
         <v>6.22</v>
       </c>
       <c r="L245" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11198,7 +11228,7 @@
         <v>5.92</v>
       </c>
       <c r="L246" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11236,7 +11266,7 @@
         <v>4</v>
       </c>
       <c r="L247" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11274,7 +11304,7 @@
         <v>4.99</v>
       </c>
       <c r="L248" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11312,7 +11342,7 @@
         <v>3.6</v>
       </c>
       <c r="L249" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11350,7 +11380,7 @@
         <v>2.76</v>
       </c>
       <c r="L250" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11388,7 +11418,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11426,7 +11456,7 @@
         <v>1.92</v>
       </c>
       <c r="L252" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11464,7 +11494,7 @@
         <v>2.43</v>
       </c>
       <c r="L253" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11502,7 +11532,7 @@
         <v>1.59</v>
       </c>
       <c r="L254" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11540,7 +11570,7 @@
         <v>2.62</v>
       </c>
       <c r="L255" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11578,7 +11608,7 @@
         <v>3.45</v>
       </c>
       <c r="L256" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11616,7 +11646,7 @@
         <v>3.99</v>
       </c>
       <c r="L257" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11654,7 +11684,7 @@
         <v>5.11</v>
       </c>
       <c r="L258" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11692,7 +11722,7 @@
         <v>3.13</v>
       </c>
       <c r="L259" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11730,7 +11760,7 @@
         <v>4.77</v>
       </c>
       <c r="L260" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11768,7 +11798,7 @@
         <v>3.74</v>
       </c>
       <c r="L261" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11806,7 +11836,7 @@
         <v>3.65</v>
       </c>
       <c r="L262" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11844,7 +11874,7 @@
         <v>3.55</v>
       </c>
       <c r="L263" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11882,7 +11912,7 @@
         <v>4.1</v>
       </c>
       <c r="L264" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11920,7 +11950,7 @@
         <v>4.01</v>
       </c>
       <c r="L265" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11958,7 +11988,7 @@
         <v>3.64</v>
       </c>
       <c r="L266" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11996,7 +12026,7 @@
         <v>3.41</v>
       </c>
       <c r="L267" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12034,7 +12064,7 @@
         <v>4.03</v>
       </c>
       <c r="L268" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12072,7 +12102,7 @@
         <v>4.07</v>
       </c>
       <c r="L269" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12110,7 +12140,7 @@
         <v>3.85</v>
       </c>
       <c r="L270" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12148,7 +12178,7 @@
         <v>4.85</v>
       </c>
       <c r="L271" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12186,7 +12216,7 @@
         <v>3.75</v>
       </c>
       <c r="L272" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12224,7 +12254,7 @@
         <v>4.33</v>
       </c>
       <c r="L273" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12262,7 +12292,7 @@
         <v>4.22</v>
       </c>
       <c r="L274" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12300,7 +12330,7 @@
         <v>4.07</v>
       </c>
       <c r="L275" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12338,7 +12368,7 @@
         <v>3.8</v>
       </c>
       <c r="L276" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12376,7 +12406,7 @@
         <v>3.72</v>
       </c>
       <c r="L277" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12414,7 +12444,7 @@
         <v>4</v>
       </c>
       <c r="L278" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12452,7 +12482,7 @@
         <v>4.96</v>
       </c>
       <c r="L279" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12490,7 +12520,7 @@
         <v>4.24</v>
       </c>
       <c r="L280" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12528,7 +12558,7 @@
         <v>4.43</v>
       </c>
       <c r="L281" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12566,7 +12596,7 @@
         <v>4.52</v>
       </c>
       <c r="L282" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12604,7 +12634,7 @@
         <v>4.97</v>
       </c>
       <c r="L283" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12642,7 +12672,7 @@
         <v>4.67</v>
       </c>
       <c r="L284" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12680,7 +12710,7 @@
         <v>5.28</v>
       </c>
       <c r="L285" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12718,7 +12748,7 @@
         <v>5.68</v>
       </c>
       <c r="L286" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12756,7 +12786,7 @@
         <v>6.03</v>
       </c>
       <c r="L287" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12794,7 +12824,7 @@
         <v>6.45</v>
       </c>
       <c r="L288" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12832,7 +12862,7 @@
         <v>6</v>
       </c>
       <c r="L289" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12870,7 +12900,7 @@
         <v>6.82</v>
       </c>
       <c r="L290" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12908,7 +12938,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12946,7 +12976,7 @@
         <v>6.66</v>
       </c>
       <c r="L292" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12984,7 +13014,7 @@
         <v>6.02</v>
       </c>
       <c r="L293" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13022,7 +13052,7 @@
         <v>6.36</v>
       </c>
       <c r="L294" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13060,7 +13090,7 @@
         <v>4.99</v>
       </c>
       <c r="L295" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13098,7 +13128,7 @@
         <v>7.93</v>
       </c>
       <c r="L296" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13136,7 +13166,7 @@
         <v>6.24</v>
       </c>
       <c r="L297" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13174,7 +13204,7 @@
         <v>6.05</v>
       </c>
       <c r="L298" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13212,7 +13242,7 @@
         <v>5.21</v>
       </c>
       <c r="L299" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13250,7 +13280,7 @@
         <v>4.19</v>
       </c>
       <c r="L300" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13288,7 +13318,7 @@
         <v>5.65</v>
       </c>
       <c r="L301" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13326,7 +13356,7 @@
         <v>6.16</v>
       </c>
       <c r="L302" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13364,7 +13394,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L303" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13402,7 +13432,7 @@
         <v>6.81</v>
       </c>
       <c r="L304" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13440,7 +13470,7 @@
         <v>6.51</v>
       </c>
       <c r="L305" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13478,7 +13508,7 @@
         <v>6.84</v>
       </c>
       <c r="L306" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13516,7 +13546,7 @@
         <v>6.16</v>
       </c>
       <c r="L307" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13554,7 +13584,7 @@
         <v>4.68</v>
       </c>
       <c r="L308" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13592,7 +13622,7 @@
         <v>6.49</v>
       </c>
       <c r="L309" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13630,7 +13660,7 @@
         <v>4.9</v>
       </c>
       <c r="L310" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13668,7 +13698,7 @@
         <v>4.98</v>
       </c>
       <c r="L311" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13706,7 +13736,7 @@
         <v>5.71</v>
       </c>
       <c r="L312" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13744,7 +13774,7 @@
         <v>4.62</v>
       </c>
       <c r="L313" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13782,7 +13812,7 @@
         <v>5.24</v>
       </c>
       <c r="L314" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13820,7 +13850,7 @@
         <v>6.49</v>
       </c>
       <c r="L315" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13858,7 +13888,7 @@
         <v>5.43</v>
       </c>
       <c r="L316" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13896,7 +13926,7 @@
         <v>4.8</v>
       </c>
       <c r="L317" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13934,7 +13964,7 @@
         <v>5.5</v>
       </c>
       <c r="L318" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13972,7 +14002,7 @@
         <v>5.15</v>
       </c>
       <c r="L319" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14010,7 +14040,7 @@
         <v>5.2</v>
       </c>
       <c r="L320" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14048,7 +14078,7 @@
         <v>5.85</v>
       </c>
       <c r="L321" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14086,7 +14116,7 @@
         <v>5.62</v>
       </c>
       <c r="L322" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14124,7 +14154,7 @@
         <v>3.47</v>
       </c>
       <c r="L323" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14162,7 +14192,7 @@
         <v>3.55</v>
       </c>
       <c r="L324" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14200,7 +14230,7 @@
         <v>3.32</v>
       </c>
       <c r="L325" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14238,7 +14268,7 @@
         <v>4.77</v>
       </c>
       <c r="L326" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14276,7 +14306,7 @@
         <v>3.88</v>
       </c>
       <c r="L327" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14314,7 +14344,7 @@
         <v>3.1</v>
       </c>
       <c r="L328" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14352,7 +14382,7 @@
         <v>4.69</v>
       </c>
       <c r="L329" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14390,7 +14420,7 @@
         <v>5.3</v>
       </c>
       <c r="L330" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14428,7 +14458,7 @@
         <v>5.19</v>
       </c>
       <c r="L331" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14466,7 +14496,7 @@
         <v>5.46</v>
       </c>
       <c r="L332" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14504,7 +14534,7 @@
         <v>5.9</v>
       </c>
       <c r="L333" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14542,7 +14572,7 @@
         <v>7.51</v>
       </c>
       <c r="L334" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14580,7 +14610,7 @@
         <v>6.56</v>
       </c>
       <c r="L335" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14618,7 +14648,7 @@
         <v>6.56</v>
       </c>
       <c r="L336" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14656,7 +14686,7 @@
         <v>4.56</v>
       </c>
       <c r="L337" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14694,7 +14724,7 @@
         <v>6.11</v>
       </c>
       <c r="L338" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14732,7 +14762,7 @@
         <v>7.26</v>
       </c>
       <c r="L339" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14770,7 +14800,7 @@
         <v>6.04</v>
       </c>
       <c r="L340" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14808,7 +14838,7 @@
         <v>6.6</v>
       </c>
       <c r="L341" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14846,7 +14876,7 @@
         <v>7.76</v>
       </c>
       <c r="L342" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14884,7 +14914,7 @@
         <v>7.83</v>
       </c>
       <c r="L343" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14922,7 +14952,7 @@
         <v>10.29</v>
       </c>
       <c r="L344" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14960,7 +14990,7 @@
         <v>6.56</v>
       </c>
       <c r="L345" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14998,7 +15028,7 @@
         <v>6.15</v>
       </c>
       <c r="L346" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15036,7 +15066,7 @@
         <v>7.51</v>
       </c>
       <c r="L347" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15074,7 +15104,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L348" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15112,7 +15142,7 @@
         <v>9.31</v>
       </c>
       <c r="L349" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15150,7 +15180,7 @@
         <v>7.47</v>
       </c>
       <c r="L350" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15188,7 +15218,7 @@
         <v>6.26</v>
       </c>
       <c r="L351" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15226,7 +15256,7 @@
         <v>7.45</v>
       </c>
       <c r="L352" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15264,7 +15294,7 @@
         <v>3.69</v>
       </c>
       <c r="L353" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15302,7 +15332,7 @@
         <v>4.33</v>
       </c>
       <c r="L354" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15340,7 +15370,7 @@
         <v>8.5</v>
       </c>
       <c r="L355" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15378,7 +15408,7 @@
         <v>4.74</v>
       </c>
       <c r="L356" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15416,7 +15446,7 @@
         <v>4.43</v>
       </c>
       <c r="L357" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15454,7 +15484,7 @@
         <v>3.84</v>
       </c>
       <c r="L358" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15492,7 +15522,7 @@
         <v>2.92</v>
       </c>
       <c r="L359" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15530,7 +15560,7 @@
         <v>3.73</v>
       </c>
       <c r="L360" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15568,7 +15598,7 @@
         <v>3.81</v>
       </c>
       <c r="L361" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15606,7 +15636,7 @@
         <v>4.14</v>
       </c>
       <c r="L362" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15644,7 +15674,7 @@
         <v>3.32</v>
       </c>
       <c r="L363" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15682,7 +15712,7 @@
         <v>3.62</v>
       </c>
       <c r="L364" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15720,7 +15750,7 @@
         <v>4.48</v>
       </c>
       <c r="L365" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15758,7 +15788,7 @@
         <v>3.15</v>
       </c>
       <c r="L366" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15796,7 +15826,7 @@
         <v>2.27</v>
       </c>
       <c r="L367" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15834,7 +15864,7 @@
         <v>2</v>
       </c>
       <c r="L368" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15872,7 +15902,7 @@
         <v>2.26</v>
       </c>
       <c r="L369" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15910,7 +15940,7 @@
         <v>1.78</v>
       </c>
       <c r="L370" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15948,7 +15978,7 @@
         <v>2.25</v>
       </c>
       <c r="L371" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15986,7 +16016,7 @@
         <v>2.67</v>
       </c>
       <c r="L372" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16024,7 +16054,7 @@
         <v>1.2</v>
       </c>
       <c r="L373" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16062,7 +16092,7 @@
         <v>1.31</v>
       </c>
       <c r="L374" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16100,7 +16130,7 @@
         <v>1.79</v>
       </c>
       <c r="L375" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16138,7 +16168,7 @@
         <v>2.26</v>
       </c>
       <c r="L376" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16176,7 +16206,7 @@
         <v>2.15</v>
       </c>
       <c r="L377" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16214,7 +16244,7 @@
         <v>1.63</v>
       </c>
       <c r="L378" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16252,7 +16282,7 @@
         <v>1.33</v>
       </c>
       <c r="L379" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16290,7 +16320,7 @@
         <v>1.08</v>
       </c>
       <c r="L380" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16328,7 +16358,7 @@
         <v>1.77</v>
       </c>
       <c r="L381" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16366,7 +16396,7 @@
         <v>3.85</v>
       </c>
       <c r="L382" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16404,7 +16434,7 @@
         <v>2.94</v>
       </c>
       <c r="L383" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16442,7 +16472,7 @@
         <v>1.42</v>
       </c>
       <c r="L384" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16480,7 +16510,7 @@
         <v>2.15</v>
       </c>
       <c r="L385" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16518,7 +16548,7 @@
         <v>2.03</v>
       </c>
       <c r="L386" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16556,7 +16586,7 @@
         <v>1.66</v>
       </c>
       <c r="L387" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16594,7 +16624,7 @@
         <v>1.39</v>
       </c>
       <c r="L388" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16632,7 +16662,7 @@
         <v>1.49</v>
       </c>
       <c r="L389" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16670,7 +16700,7 @@
         <v>1.56</v>
       </c>
       <c r="L390" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16708,7 +16738,7 @@
         <v>1.37</v>
       </c>
       <c r="L391" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16746,7 +16776,7 @@
         <v>2.21</v>
       </c>
       <c r="L392" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16784,7 +16814,7 @@
         <v>1.74</v>
       </c>
       <c r="L393" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16822,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16860,7 +16890,7 @@
         <v>0.92</v>
       </c>
       <c r="L395" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16898,7 +16928,7 @@
         <v>0.92</v>
       </c>
       <c r="L396" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16936,7 +16966,7 @@
         <v>0.7</v>
       </c>
       <c r="L397" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16974,7 +17004,7 @@
         <v>0.88</v>
       </c>
       <c r="L398" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17012,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17050,7 +17080,7 @@
         <v>1.13</v>
       </c>
       <c r="L400" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17088,7 +17118,7 @@
         <v>1.34</v>
       </c>
       <c r="L401" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17126,7 +17156,7 @@
         <v>1.34</v>
       </c>
       <c r="L402" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17164,7 +17194,7 @@
         <v>0.98</v>
       </c>
       <c r="L403" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17202,7 +17232,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L404" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17240,7 +17270,7 @@
         <v>1.04</v>
       </c>
       <c r="L405" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17278,7 +17308,7 @@
         <v>1.13</v>
       </c>
       <c r="L406" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17316,7 +17346,7 @@
         <v>1.18</v>
       </c>
       <c r="L407" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17354,7 +17384,7 @@
         <v>0.87</v>
       </c>
       <c r="L408" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17392,7 +17422,7 @@
         <v>0.57</v>
       </c>
       <c r="L409" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17430,7 +17460,7 @@
         <v>1.37</v>
       </c>
       <c r="L410" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17468,7 +17498,7 @@
         <v>2.26</v>
       </c>
       <c r="L411" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17506,7 +17536,7 @@
         <v>1.73</v>
       </c>
       <c r="L412" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17544,7 +17574,7 @@
         <v>1.26</v>
       </c>
       <c r="L413" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17582,7 +17612,7 @@
         <v>1.22</v>
       </c>
       <c r="L414" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17620,7 +17650,7 @@
         <v>1.23</v>
       </c>
       <c r="L415" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17658,7 +17688,7 @@
         <v>0.9</v>
       </c>
       <c r="L416" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17696,7 +17726,7 @@
         <v>1.3</v>
       </c>
       <c r="L417" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17734,7 +17764,7 @@
         <v>1.55</v>
       </c>
       <c r="L418" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17772,7 +17802,7 @@
         <v>1.42</v>
       </c>
       <c r="L419" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17810,7 +17840,7 @@
         <v>1.35</v>
       </c>
       <c r="L420" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17848,7 +17878,7 @@
         <v>2.99</v>
       </c>
       <c r="L421" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17886,7 +17916,7 @@
         <v>3.36</v>
       </c>
       <c r="L422" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17924,7 +17954,7 @@
         <v>4.04</v>
       </c>
       <c r="L423" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17962,7 +17992,7 @@
         <v>5.02</v>
       </c>
       <c r="L424" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18000,7 +18030,7 @@
         <v>1.76</v>
       </c>
       <c r="L425" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18038,7 +18068,7 @@
         <v>2.97</v>
       </c>
       <c r="L426" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18076,7 +18106,7 @@
         <v>2.03</v>
       </c>
       <c r="L427" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18114,7 +18144,7 @@
         <v>2.2</v>
       </c>
       <c r="L428" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18152,7 +18182,7 @@
         <v>2.28</v>
       </c>
       <c r="L429" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18190,7 +18220,7 @@
         <v>2.17</v>
       </c>
       <c r="L430" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18228,7 +18258,7 @@
         <v>2.69</v>
       </c>
       <c r="L431" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18266,7 +18296,7 @@
         <v>1.24</v>
       </c>
       <c r="L432" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18304,7 +18334,7 @@
         <v>1.91</v>
       </c>
       <c r="L433" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18342,7 +18372,7 @@
         <v>2.27</v>
       </c>
       <c r="L434" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18380,7 +18410,7 @@
         <v>0.79</v>
       </c>
       <c r="L435" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18418,7 +18448,7 @@
         <v>1.55</v>
       </c>
       <c r="L436" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18456,7 +18486,7 @@
         <v>0.86</v>
       </c>
       <c r="L437" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18494,7 +18524,7 @@
         <v>1.51</v>
       </c>
       <c r="L438" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18532,7 +18562,7 @@
         <v>1.24</v>
       </c>
       <c r="L439" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18570,7 +18600,7 @@
         <v>1.59</v>
       </c>
       <c r="L440" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18608,7 +18638,7 @@
         <v>2.13</v>
       </c>
       <c r="L441" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18646,7 +18676,7 @@
         <v>2.4</v>
       </c>
       <c r="L442" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18684,7 +18714,7 @@
         <v>1.35</v>
       </c>
       <c r="L443" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18722,7 +18752,7 @@
         <v>4.15</v>
       </c>
       <c r="L444" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18760,7 +18790,7 @@
         <v>1.75</v>
       </c>
       <c r="L445" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18798,7 +18828,7 @@
         <v>2.79</v>
       </c>
       <c r="L446" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18836,7 +18866,7 @@
         <v>1.91</v>
       </c>
       <c r="L447" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18874,7 +18904,7 @@
         <v>1.25</v>
       </c>
       <c r="L448" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18912,7 +18942,7 @@
         <v>2.61</v>
       </c>
       <c r="L449" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18950,7 +18980,7 @@
         <v>2.11</v>
       </c>
       <c r="L450" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18988,7 +19018,7 @@
         <v>2.08</v>
       </c>
       <c r="L451" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19026,7 +19056,7 @@
         <v>1.65</v>
       </c>
       <c r="L452" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19064,7 +19094,7 @@
         <v>2.03</v>
       </c>
       <c r="L453" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19102,7 +19132,7 @@
         <v>1.66</v>
       </c>
       <c r="L454" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19140,7 +19170,7 @@
         <v>1.49</v>
       </c>
       <c r="L455" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19178,7 +19208,7 @@
         <v>2.71</v>
       </c>
       <c r="L456" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19216,7 +19246,7 @@
         <v>3.81</v>
       </c>
       <c r="L457" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19254,7 +19284,7 @@
         <v>3.46</v>
       </c>
       <c r="L458" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19292,7 +19322,7 @@
         <v>3.51</v>
       </c>
       <c r="L459" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19330,7 +19360,7 @@
         <v>3.35</v>
       </c>
       <c r="L460" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19368,7 +19398,7 @@
         <v>3.87</v>
       </c>
       <c r="L461" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19406,7 +19436,7 @@
         <v>5.32</v>
       </c>
       <c r="L462" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19444,7 +19474,7 @@
         <v>3.09</v>
       </c>
       <c r="L463" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19482,7 +19512,7 @@
         <v>2.65</v>
       </c>
       <c r="L464" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19520,7 +19550,7 @@
         <v>3.48</v>
       </c>
       <c r="L465" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19558,7 +19588,7 @@
         <v>3.25</v>
       </c>
       <c r="L466" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19596,7 +19626,7 @@
         <v>2.65</v>
       </c>
       <c r="L467" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19634,7 +19664,7 @@
         <v>1.63</v>
       </c>
       <c r="L468" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19672,7 +19702,7 @@
         <v>1.28</v>
       </c>
       <c r="L469" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19710,7 +19740,7 @@
         <v>1.62</v>
       </c>
       <c r="L470" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19748,7 +19778,7 @@
         <v>1.51</v>
       </c>
       <c r="L471" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19786,7 +19816,7 @@
         <v>1.38</v>
       </c>
       <c r="L472" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19824,7 +19854,7 @@
         <v>1.14</v>
       </c>
       <c r="L473" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19862,7 +19892,7 @@
         <v>2.29</v>
       </c>
       <c r="L474" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19900,7 +19930,7 @@
         <v>1.61</v>
       </c>
       <c r="L475" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19938,7 +19968,7 @@
         <v>1.62</v>
       </c>
       <c r="L476" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19976,7 +20006,7 @@
         <v>1.03</v>
       </c>
       <c r="L477" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20014,7 +20044,7 @@
         <v>2.85</v>
       </c>
       <c r="L478" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20052,7 +20082,7 @@
         <v>3.27</v>
       </c>
       <c r="L479" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20090,7 +20120,7 @@
         <v>3.97</v>
       </c>
       <c r="L480" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20128,7 +20158,7 @@
         <v>4.61</v>
       </c>
       <c r="L481" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20166,7 +20196,387 @@
         <v>3.8</v>
       </c>
       <c r="L482" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
         <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.47</v>
+      </c>
+      <c r="D483">
+        <v>100</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>60</v>
+      </c>
+      <c r="G483">
+        <v>352.83</v>
+      </c>
+      <c r="H483">
+        <v>60</v>
+      </c>
+      <c r="I483">
+        <v>0.16</v>
+      </c>
+      <c r="J483">
+        <v>98.25</v>
+      </c>
+      <c r="K483">
+        <v>4.58</v>
+      </c>
+      <c r="L483" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.53</v>
+      </c>
+      <c r="D484">
+        <v>100</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>60</v>
+      </c>
+      <c r="G484">
+        <v>2.28</v>
+      </c>
+      <c r="H484">
+        <v>60</v>
+      </c>
+      <c r="I484">
+        <v>-53.72</v>
+      </c>
+      <c r="J484">
+        <v>91.3</v>
+      </c>
+      <c r="K484">
+        <v>4.04</v>
+      </c>
+      <c r="L484" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.55</v>
+      </c>
+      <c r="D485">
+        <v>100</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>60</v>
+      </c>
+      <c r="G485">
+        <v>47.35</v>
+      </c>
+      <c r="H485">
+        <v>60</v>
+      </c>
+      <c r="I485">
+        <v>-34.56</v>
+      </c>
+      <c r="J485">
+        <v>79.5</v>
+      </c>
+      <c r="K485">
+        <v>3.22</v>
+      </c>
+      <c r="L485" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.56</v>
+      </c>
+      <c r="D486">
+        <v>100</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>60</v>
+      </c>
+      <c r="G486">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="H486">
+        <v>60</v>
+      </c>
+      <c r="I486">
+        <v>-0.11</v>
+      </c>
+      <c r="J486">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="K486">
+        <v>2.28</v>
+      </c>
+      <c r="L486" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.56</v>
+      </c>
+      <c r="D487">
+        <v>100</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>60</v>
+      </c>
+      <c r="G487">
+        <v>26.46</v>
+      </c>
+      <c r="H487">
+        <v>60</v>
+      </c>
+      <c r="I487">
+        <v>1.17</v>
+      </c>
+      <c r="J487">
+        <v>46.72</v>
+      </c>
+      <c r="K487">
+        <v>1.9</v>
+      </c>
+      <c r="L487" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.57</v>
+      </c>
+      <c r="D488">
+        <v>100</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>60</v>
+      </c>
+      <c r="G488">
+        <v>45.62</v>
+      </c>
+      <c r="H488">
+        <v>60</v>
+      </c>
+      <c r="I488">
+        <v>0.7</v>
+      </c>
+      <c r="J488">
+        <v>33.8</v>
+      </c>
+      <c r="K488">
+        <v>2.11</v>
+      </c>
+      <c r="L488" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.56</v>
+      </c>
+      <c r="D489">
+        <v>100</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>60</v>
+      </c>
+      <c r="G489">
+        <v>219.91</v>
+      </c>
+      <c r="H489">
+        <v>60</v>
+      </c>
+      <c r="I489">
+        <v>0.37</v>
+      </c>
+      <c r="J489">
+        <v>20.61</v>
+      </c>
+      <c r="K489">
+        <v>1.76</v>
+      </c>
+      <c r="L489" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>499</v>
+      </c>
+      <c r="C490">
+        <v>13.52</v>
+      </c>
+      <c r="D490">
+        <v>100</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>60</v>
+      </c>
+      <c r="G490">
+        <v>207.42</v>
+      </c>
+      <c r="H490">
+        <v>60</v>
+      </c>
+      <c r="I490">
+        <v>-0.65</v>
+      </c>
+      <c r="J490">
+        <v>21.15</v>
+      </c>
+      <c r="K490">
+        <v>1.29</v>
+      </c>
+      <c r="L490" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>500</v>
+      </c>
+      <c r="C491">
+        <v>13.55</v>
+      </c>
+      <c r="D491">
+        <v>100</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>60</v>
+      </c>
+      <c r="G491">
+        <v>198.65</v>
+      </c>
+      <c r="H491">
+        <v>60</v>
+      </c>
+      <c r="I491">
+        <v>-0.36</v>
+      </c>
+      <c r="J491">
+        <v>21.41</v>
+      </c>
+      <c r="K491">
+        <v>1.31</v>
+      </c>
+      <c r="L491" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>501</v>
+      </c>
+      <c r="C492">
+        <v>13.56</v>
+      </c>
+      <c r="D492">
+        <v>100</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>60</v>
+      </c>
+      <c r="G492">
+        <v>202.61</v>
+      </c>
+      <c r="H492">
+        <v>60</v>
+      </c>
+      <c r="I492">
+        <v>-0.49</v>
+      </c>
+      <c r="J492">
+        <v>20.01</v>
+      </c>
+      <c r="K492">
+        <v>1.56</v>
+      </c>
+      <c r="L492" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="553">
   <si>
     <t>Fecha</t>
   </si>
@@ -1661,6 +1661,15 @@
   </si>
   <si>
     <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -2021,7 +2030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L539"/>
+  <dimension ref="A1:L542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2097,7 +2106,7 @@
         <v>1.69</v>
       </c>
       <c r="L2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2135,7 +2144,7 @@
         <v>1.58</v>
       </c>
       <c r="L3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2173,7 +2182,7 @@
         <v>1.42</v>
       </c>
       <c r="L4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2211,7 +2220,7 @@
         <v>1.47</v>
       </c>
       <c r="L5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2249,7 +2258,7 @@
         <v>1.28</v>
       </c>
       <c r="L6" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2287,7 +2296,7 @@
         <v>1.76</v>
       </c>
       <c r="L7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2325,7 +2334,7 @@
         <v>1.55</v>
       </c>
       <c r="L8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2363,7 +2372,7 @@
         <v>1.05</v>
       </c>
       <c r="L9" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2401,7 +2410,7 @@
         <v>1.49</v>
       </c>
       <c r="L10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2439,7 +2448,7 @@
         <v>1.23</v>
       </c>
       <c r="L11" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2477,7 +2486,7 @@
         <v>1.24</v>
       </c>
       <c r="L12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2515,7 +2524,7 @@
         <v>1.86</v>
       </c>
       <c r="L13" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2553,7 +2562,7 @@
         <v>1.14</v>
       </c>
       <c r="L14" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2591,7 +2600,7 @@
         <v>1.28</v>
       </c>
       <c r="L15" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2629,7 +2638,7 @@
         <v>1.26</v>
       </c>
       <c r="L16" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2667,7 +2676,7 @@
         <v>1.72</v>
       </c>
       <c r="L17" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2705,7 +2714,7 @@
         <v>1.02</v>
       </c>
       <c r="L18" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2743,7 +2752,7 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2781,7 +2790,7 @@
         <v>2.52</v>
       </c>
       <c r="L20" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2819,7 +2828,7 @@
         <v>1.5</v>
       </c>
       <c r="L21" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2857,7 +2866,7 @@
         <v>1.93</v>
       </c>
       <c r="L22" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2895,7 +2904,7 @@
         <v>1.48</v>
       </c>
       <c r="L23" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2933,7 +2942,7 @@
         <v>1.93</v>
       </c>
       <c r="L24" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2971,7 +2980,7 @@
         <v>2.31</v>
       </c>
       <c r="L25" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3009,7 +3018,7 @@
         <v>2.47</v>
       </c>
       <c r="L26" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3047,7 +3056,7 @@
         <v>1.94</v>
       </c>
       <c r="L27" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3085,7 +3094,7 @@
         <v>2.31</v>
       </c>
       <c r="L28" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3123,7 +3132,7 @@
         <v>1.88</v>
       </c>
       <c r="L29" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3161,7 +3170,7 @@
         <v>1.73</v>
       </c>
       <c r="L30" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3199,7 +3208,7 @@
         <v>2.22</v>
       </c>
       <c r="L31" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3237,7 +3246,7 @@
         <v>1.52</v>
       </c>
       <c r="L32" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3275,7 +3284,7 @@
         <v>1.95</v>
       </c>
       <c r="L33" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3313,7 +3322,7 @@
         <v>2.08</v>
       </c>
       <c r="L34" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3351,7 +3360,7 @@
         <v>2.34</v>
       </c>
       <c r="L35" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3389,7 +3398,7 @@
         <v>2.79</v>
       </c>
       <c r="L36" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3427,7 +3436,7 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3465,7 +3474,7 @@
         <v>1.25</v>
       </c>
       <c r="L38" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3503,7 +3512,7 @@
         <v>2.32</v>
       </c>
       <c r="L39" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3541,7 +3550,7 @@
         <v>1.79</v>
       </c>
       <c r="L40" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3579,7 +3588,7 @@
         <v>2.5</v>
       </c>
       <c r="L41" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3617,7 +3626,7 @@
         <v>1.87</v>
       </c>
       <c r="L42" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3655,7 +3664,7 @@
         <v>2.73</v>
       </c>
       <c r="L43" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3693,7 +3702,7 @@
         <v>2.37</v>
       </c>
       <c r="L44" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3731,7 +3740,7 @@
         <v>1.35</v>
       </c>
       <c r="L45" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3769,7 +3778,7 @@
         <v>1.49</v>
       </c>
       <c r="L46" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3807,7 +3816,7 @@
         <v>2.08</v>
       </c>
       <c r="L47" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3845,7 +3854,7 @@
         <v>2.36</v>
       </c>
       <c r="L48" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3883,7 +3892,7 @@
         <v>1.84</v>
       </c>
       <c r="L49" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3921,7 +3930,7 @@
         <v>1.78</v>
       </c>
       <c r="L50" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3959,7 +3968,7 @@
         <v>3.58</v>
       </c>
       <c r="L51" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3997,7 +4006,7 @@
         <v>2.9</v>
       </c>
       <c r="L52" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4035,7 +4044,7 @@
         <v>2.64</v>
       </c>
       <c r="L53" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4073,7 +4082,7 @@
         <v>2.88</v>
       </c>
       <c r="L54" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4111,7 +4120,7 @@
         <v>3.7</v>
       </c>
       <c r="L55" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4149,7 +4158,7 @@
         <v>2.54</v>
       </c>
       <c r="L56" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4187,7 +4196,7 @@
         <v>2.94</v>
       </c>
       <c r="L57" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4225,7 +4234,7 @@
         <v>1.61</v>
       </c>
       <c r="L58" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4263,7 +4272,7 @@
         <v>1.46</v>
       </c>
       <c r="L59" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4301,7 +4310,7 @@
         <v>0.95</v>
       </c>
       <c r="L60" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4339,7 +4348,7 @@
         <v>2.48</v>
       </c>
       <c r="L61" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4377,7 +4386,7 @@
         <v>2.34</v>
       </c>
       <c r="L62" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4415,7 +4424,7 @@
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4453,7 +4462,7 @@
         <v>2.9</v>
       </c>
       <c r="L64" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4491,7 +4500,7 @@
         <v>2.55</v>
       </c>
       <c r="L65" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4529,7 +4538,7 @@
         <v>2.65</v>
       </c>
       <c r="L66" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4567,7 +4576,7 @@
         <v>2.96</v>
       </c>
       <c r="L67" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4605,7 +4614,7 @@
         <v>4.17</v>
       </c>
       <c r="L68" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4643,7 +4652,7 @@
         <v>2.65</v>
       </c>
       <c r="L69" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4681,7 +4690,7 @@
         <v>2.84</v>
       </c>
       <c r="L70" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4719,7 +4728,7 @@
         <v>3.51</v>
       </c>
       <c r="L71" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4757,7 +4766,7 @@
         <v>4.73</v>
       </c>
       <c r="L72" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4795,7 +4804,7 @@
         <v>3.52</v>
       </c>
       <c r="L73" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4833,7 +4842,7 @@
         <v>2.97</v>
       </c>
       <c r="L74" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4871,7 +4880,7 @@
         <v>2.96</v>
       </c>
       <c r="L75" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4909,7 +4918,7 @@
         <v>3.05</v>
       </c>
       <c r="L76" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4947,7 +4956,7 @@
         <v>3.02</v>
       </c>
       <c r="L77" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4985,7 +4994,7 @@
         <v>3.1</v>
       </c>
       <c r="L78" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5023,7 +5032,7 @@
         <v>3.57</v>
       </c>
       <c r="L79" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5061,7 +5070,7 @@
         <v>3.35</v>
       </c>
       <c r="L80" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5099,7 +5108,7 @@
         <v>3.59</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5137,7 +5146,7 @@
         <v>3.81</v>
       </c>
       <c r="L82" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5175,7 +5184,7 @@
         <v>3.33</v>
       </c>
       <c r="L83" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5213,7 +5222,7 @@
         <v>3.19</v>
       </c>
       <c r="L84" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5251,7 +5260,7 @@
         <v>3.46</v>
       </c>
       <c r="L85" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5289,7 +5298,7 @@
         <v>3.17</v>
       </c>
       <c r="L86" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5327,7 +5336,7 @@
         <v>3.21</v>
       </c>
       <c r="L87" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5365,7 +5374,7 @@
         <v>3.15</v>
       </c>
       <c r="L88" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5403,7 +5412,7 @@
         <v>3.11</v>
       </c>
       <c r="L89" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5441,7 +5450,7 @@
         <v>3.59</v>
       </c>
       <c r="L90" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5479,7 +5488,7 @@
         <v>2.69</v>
       </c>
       <c r="L91" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5517,7 +5526,7 @@
         <v>3.19</v>
       </c>
       <c r="L92" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5555,7 +5564,7 @@
         <v>3.43</v>
       </c>
       <c r="L93" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5593,7 +5602,7 @@
         <v>3.11</v>
       </c>
       <c r="L94" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5631,7 +5640,7 @@
         <v>3.34</v>
       </c>
       <c r="L95" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5669,7 +5678,7 @@
         <v>2.97</v>
       </c>
       <c r="L96" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5707,7 +5716,7 @@
         <v>3.21</v>
       </c>
       <c r="L97" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5745,7 +5754,7 @@
         <v>2.85</v>
       </c>
       <c r="L98" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5783,7 +5792,7 @@
         <v>3.34</v>
       </c>
       <c r="L99" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5821,7 +5830,7 @@
         <v>2.76</v>
       </c>
       <c r="L100" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5859,7 +5868,7 @@
         <v>1.86</v>
       </c>
       <c r="L101" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5897,7 +5906,7 @@
         <v>1.97</v>
       </c>
       <c r="L102" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5935,7 +5944,7 @@
         <v>1.91</v>
       </c>
       <c r="L103" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5973,7 +5982,7 @@
         <v>2.71</v>
       </c>
       <c r="L104" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6011,7 +6020,7 @@
         <v>2.17</v>
       </c>
       <c r="L105" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6049,7 +6058,7 @@
         <v>1.88</v>
       </c>
       <c r="L106" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6087,7 +6096,7 @@
         <v>1.61</v>
       </c>
       <c r="L107" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6125,7 +6134,7 @@
         <v>2.13</v>
       </c>
       <c r="L108" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6163,7 +6172,7 @@
         <v>1.35</v>
       </c>
       <c r="L109" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6201,7 +6210,7 @@
         <v>1.92</v>
       </c>
       <c r="L110" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6239,7 +6248,7 @@
         <v>1.28</v>
       </c>
       <c r="L111" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6277,7 +6286,7 @@
         <v>2.07</v>
       </c>
       <c r="L112" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6315,7 +6324,7 @@
         <v>2.05</v>
       </c>
       <c r="L113" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6353,7 +6362,7 @@
         <v>2.26</v>
       </c>
       <c r="L114" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6391,7 +6400,7 @@
         <v>1.54</v>
       </c>
       <c r="L115" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6429,7 +6438,7 @@
         <v>0.95</v>
       </c>
       <c r="L116" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6467,7 +6476,7 @@
         <v>1.53</v>
       </c>
       <c r="L117" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6505,7 +6514,7 @@
         <v>1.79</v>
       </c>
       <c r="L118" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6543,7 +6552,7 @@
         <v>1.55</v>
       </c>
       <c r="L119" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6581,7 +6590,7 @@
         <v>1.65</v>
       </c>
       <c r="L120" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6619,7 +6628,7 @@
         <v>1.27</v>
       </c>
       <c r="L121" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6657,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="L122" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6695,7 +6704,7 @@
         <v>1.59</v>
       </c>
       <c r="L123" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6733,7 +6742,7 @@
         <v>2.35</v>
       </c>
       <c r="L124" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6771,7 +6780,7 @@
         <v>1.56</v>
       </c>
       <c r="L125" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6809,7 +6818,7 @@
         <v>2.44</v>
       </c>
       <c r="L126" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6847,7 +6856,7 @@
         <v>2.52</v>
       </c>
       <c r="L127" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6885,7 +6894,7 @@
         <v>2.22</v>
       </c>
       <c r="L128" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6923,7 +6932,7 @@
         <v>1.63</v>
       </c>
       <c r="L129" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6961,7 +6970,7 @@
         <v>1.85</v>
       </c>
       <c r="L130" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6999,7 +7008,7 @@
         <v>1.91</v>
       </c>
       <c r="L131" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7037,7 +7046,7 @@
         <v>2.31</v>
       </c>
       <c r="L132" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7075,7 +7084,7 @@
         <v>1.64</v>
       </c>
       <c r="L133" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7113,7 +7122,7 @@
         <v>2.01</v>
       </c>
       <c r="L134" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7151,7 +7160,7 @@
         <v>2.38</v>
       </c>
       <c r="L135" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7189,7 +7198,7 @@
         <v>2.13</v>
       </c>
       <c r="L136" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7227,7 +7236,7 @@
         <v>1.3</v>
       </c>
       <c r="L137" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7265,7 +7274,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7303,7 +7312,7 @@
         <v>1.33</v>
       </c>
       <c r="L139" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7341,7 +7350,7 @@
         <v>1.2</v>
       </c>
       <c r="L140" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7379,7 +7388,7 @@
         <v>1.37</v>
       </c>
       <c r="L141" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7417,7 +7426,7 @@
         <v>2.01</v>
       </c>
       <c r="L142" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7455,7 +7464,7 @@
         <v>2.52</v>
       </c>
       <c r="L143" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7493,7 +7502,7 @@
         <v>1.91</v>
       </c>
       <c r="L144" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7531,7 +7540,7 @@
         <v>1.55</v>
       </c>
       <c r="L145" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7569,7 +7578,7 @@
         <v>1.66</v>
       </c>
       <c r="L146" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7607,7 +7616,7 @@
         <v>1.68</v>
       </c>
       <c r="L147" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7645,7 +7654,7 @@
         <v>1.81</v>
       </c>
       <c r="L148" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7683,7 +7692,7 @@
         <v>1.83</v>
       </c>
       <c r="L149" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7721,7 +7730,7 @@
         <v>1.46</v>
       </c>
       <c r="L150" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7759,7 +7768,7 @@
         <v>1.13</v>
       </c>
       <c r="L151" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7797,7 +7806,7 @@
         <v>1.94</v>
       </c>
       <c r="L152" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7835,7 +7844,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7873,7 +7882,7 @@
         <v>1.75</v>
       </c>
       <c r="L154" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7911,7 +7920,7 @@
         <v>1.73</v>
       </c>
       <c r="L155" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7949,7 +7958,7 @@
         <v>1.78</v>
       </c>
       <c r="L156" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7987,7 +7996,7 @@
         <v>1.52</v>
       </c>
       <c r="L157" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8025,7 +8034,7 @@
         <v>1.1</v>
       </c>
       <c r="L158" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8063,7 +8072,7 @@
         <v>1.24</v>
       </c>
       <c r="L159" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8101,7 +8110,7 @@
         <v>0.86</v>
       </c>
       <c r="L160" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8139,7 +8148,7 @@
         <v>0.61</v>
       </c>
       <c r="L161" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8177,7 +8186,7 @@
         <v>0.82</v>
       </c>
       <c r="L162" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8215,7 +8224,7 @@
         <v>1.23</v>
       </c>
       <c r="L163" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8253,7 +8262,7 @@
         <v>1.32</v>
       </c>
       <c r="L164" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8291,7 +8300,7 @@
         <v>1.64</v>
       </c>
       <c r="L165" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8329,7 +8338,7 @@
         <v>0.91</v>
       </c>
       <c r="L166" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8367,7 +8376,7 @@
         <v>1.82</v>
       </c>
       <c r="L167" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8405,7 +8414,7 @@
         <v>1.61</v>
       </c>
       <c r="L168" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8443,7 +8452,7 @@
         <v>1.97</v>
       </c>
       <c r="L169" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8481,7 +8490,7 @@
         <v>2.1</v>
       </c>
       <c r="L170" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8519,7 +8528,7 @@
         <v>1.91</v>
       </c>
       <c r="L171" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8557,7 +8566,7 @@
         <v>1.92</v>
       </c>
       <c r="L172" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8595,7 +8604,7 @@
         <v>1.29</v>
       </c>
       <c r="L173" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8633,7 +8642,7 @@
         <v>1.99</v>
       </c>
       <c r="L174" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8671,7 +8680,7 @@
         <v>1.93</v>
       </c>
       <c r="L175" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8709,7 +8718,7 @@
         <v>2.04</v>
       </c>
       <c r="L176" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8747,7 +8756,7 @@
         <v>1.28</v>
       </c>
       <c r="L177" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8785,7 +8794,7 @@
         <v>2.43</v>
       </c>
       <c r="L178" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8823,7 +8832,7 @@
         <v>1.28</v>
       </c>
       <c r="L179" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8861,7 +8870,7 @@
         <v>1.24</v>
       </c>
       <c r="L180" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8899,7 +8908,7 @@
         <v>0.89</v>
       </c>
       <c r="L181" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8937,7 +8946,7 @@
         <v>1.06</v>
       </c>
       <c r="L182" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8975,7 +8984,7 @@
         <v>0.64</v>
       </c>
       <c r="L183" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9013,7 +9022,7 @@
         <v>1.16</v>
       </c>
       <c r="L184" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9051,7 +9060,7 @@
         <v>2.69</v>
       </c>
       <c r="L185" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9089,7 +9098,7 @@
         <v>2.31</v>
       </c>
       <c r="L186" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9127,7 +9136,7 @@
         <v>1.96</v>
       </c>
       <c r="L187" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9165,7 +9174,7 @@
         <v>0.73</v>
       </c>
       <c r="L188" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9203,7 +9212,7 @@
         <v>1.51</v>
       </c>
       <c r="L189" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9241,7 +9250,7 @@
         <v>1.95</v>
       </c>
       <c r="L190" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9279,7 +9288,7 @@
         <v>2.23</v>
       </c>
       <c r="L191" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9317,7 +9326,7 @@
         <v>1.4</v>
       </c>
       <c r="L192" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9355,7 +9364,7 @@
         <v>1.97</v>
       </c>
       <c r="L193" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9393,7 +9402,7 @@
         <v>1.45</v>
       </c>
       <c r="L194" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9431,7 +9440,7 @@
         <v>1.52</v>
       </c>
       <c r="L195" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9469,7 +9478,7 @@
         <v>2.18</v>
       </c>
       <c r="L196" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9507,7 +9516,7 @@
         <v>1.26</v>
       </c>
       <c r="L197" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9545,7 +9554,7 @@
         <v>3.89</v>
       </c>
       <c r="L198" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9583,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="L199" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9621,7 +9630,7 @@
         <v>4.33</v>
       </c>
       <c r="L200" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9659,7 +9668,7 @@
         <v>5.54</v>
       </c>
       <c r="L201" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9697,7 +9706,7 @@
         <v>3.44</v>
       </c>
       <c r="L202" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9735,7 +9744,7 @@
         <v>4.28</v>
       </c>
       <c r="L203" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9773,7 +9782,7 @@
         <v>5.23</v>
       </c>
       <c r="L204" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9811,7 +9820,7 @@
         <v>4.87</v>
       </c>
       <c r="L205" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9849,7 +9858,7 @@
         <v>4.18</v>
       </c>
       <c r="L206" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9887,7 +9896,7 @@
         <v>5.02</v>
       </c>
       <c r="L207" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9925,7 +9934,7 @@
         <v>2.71</v>
       </c>
       <c r="L208" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9963,7 +9972,7 @@
         <v>2.05</v>
       </c>
       <c r="L209" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -10001,7 +10010,7 @@
         <v>2.13</v>
       </c>
       <c r="L210" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10039,7 +10048,7 @@
         <v>2.69</v>
       </c>
       <c r="L211" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10077,7 +10086,7 @@
         <v>2.99</v>
       </c>
       <c r="L212" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10115,7 +10124,7 @@
         <v>3.96</v>
       </c>
       <c r="L213" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10153,7 +10162,7 @@
         <v>2.76</v>
       </c>
       <c r="L214" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10191,7 +10200,7 @@
         <v>3.34</v>
       </c>
       <c r="L215" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10229,7 +10238,7 @@
         <v>3.32</v>
       </c>
       <c r="L216" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10267,7 +10276,7 @@
         <v>3.48</v>
       </c>
       <c r="L217" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10305,7 +10314,7 @@
         <v>3.7</v>
       </c>
       <c r="L218" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10343,7 +10352,7 @@
         <v>3.32</v>
       </c>
       <c r="L219" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10381,7 +10390,7 @@
         <v>3.55</v>
       </c>
       <c r="L220" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10419,7 +10428,7 @@
         <v>3.03</v>
       </c>
       <c r="L221" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10457,7 +10466,7 @@
         <v>2.73</v>
       </c>
       <c r="L222" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10495,7 +10504,7 @@
         <v>3.13</v>
       </c>
       <c r="L223" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10533,7 +10542,7 @@
         <v>3.24</v>
       </c>
       <c r="L224" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10571,7 +10580,7 @@
         <v>2.81</v>
       </c>
       <c r="L225" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10609,7 +10618,7 @@
         <v>2.95</v>
       </c>
       <c r="L226" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10647,7 +10656,7 @@
         <v>3.33</v>
       </c>
       <c r="L227" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10685,7 +10694,7 @@
         <v>3.24</v>
       </c>
       <c r="L228" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10723,7 +10732,7 @@
         <v>3.72</v>
       </c>
       <c r="L229" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10761,7 +10770,7 @@
         <v>2.59</v>
       </c>
       <c r="L230" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10799,7 +10808,7 @@
         <v>2.93</v>
       </c>
       <c r="L231" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10837,7 +10846,7 @@
         <v>2.53</v>
       </c>
       <c r="L232" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10875,7 +10884,7 @@
         <v>2.62</v>
       </c>
       <c r="L233" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10913,7 +10922,7 @@
         <v>1.76</v>
       </c>
       <c r="L234" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10951,7 +10960,7 @@
         <v>1.97</v>
       </c>
       <c r="L235" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10989,7 +10998,7 @@
         <v>2.5</v>
       </c>
       <c r="L236" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11027,7 +11036,7 @@
         <v>2.36</v>
       </c>
       <c r="L237" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11065,7 +11074,7 @@
         <v>2.48</v>
       </c>
       <c r="L238" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11103,7 +11112,7 @@
         <v>2.15</v>
       </c>
       <c r="L239" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11141,7 +11150,7 @@
         <v>2.02</v>
       </c>
       <c r="L240" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11179,7 +11188,7 @@
         <v>2.53</v>
       </c>
       <c r="L241" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11217,7 +11226,7 @@
         <v>2.42</v>
       </c>
       <c r="L242" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11255,7 +11264,7 @@
         <v>2.11</v>
       </c>
       <c r="L243" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11293,7 +11302,7 @@
         <v>2.09</v>
       </c>
       <c r="L244" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11331,7 +11340,7 @@
         <v>2.26</v>
       </c>
       <c r="L245" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11369,7 +11378,7 @@
         <v>1.69</v>
       </c>
       <c r="L246" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11407,7 +11416,7 @@
         <v>1.71</v>
       </c>
       <c r="L247" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11445,7 +11454,7 @@
         <v>1.88</v>
       </c>
       <c r="L248" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11483,7 +11492,7 @@
         <v>1.28</v>
       </c>
       <c r="L249" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11521,7 +11530,7 @@
         <v>1.29</v>
       </c>
       <c r="L250" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11559,7 +11568,7 @@
         <v>0.97</v>
       </c>
       <c r="L251" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11597,7 +11606,7 @@
         <v>1.02</v>
       </c>
       <c r="L252" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11635,7 +11644,7 @@
         <v>1.29</v>
       </c>
       <c r="L253" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11673,7 +11682,7 @@
         <v>1.19</v>
       </c>
       <c r="L254" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11711,7 +11720,7 @@
         <v>0.74</v>
       </c>
       <c r="L255" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11749,7 +11758,7 @@
         <v>1.12</v>
       </c>
       <c r="L256" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11787,7 +11796,7 @@
         <v>1.07</v>
       </c>
       <c r="L257" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11825,7 +11834,7 @@
         <v>1.13</v>
       </c>
       <c r="L258" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11863,7 +11872,7 @@
         <v>1.09</v>
       </c>
       <c r="L259" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11901,7 +11910,7 @@
         <v>1.61</v>
       </c>
       <c r="L260" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11939,7 +11948,7 @@
         <v>0.82</v>
       </c>
       <c r="L261" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11977,7 +11986,7 @@
         <v>1.03</v>
       </c>
       <c r="L262" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12015,7 +12024,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L263" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12053,7 +12062,7 @@
         <v>1.69</v>
       </c>
       <c r="L264" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12091,7 +12100,7 @@
         <v>1.67</v>
       </c>
       <c r="L265" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12129,7 +12138,7 @@
         <v>1.26</v>
       </c>
       <c r="L266" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12167,7 +12176,7 @@
         <v>2.28</v>
       </c>
       <c r="L267" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12205,7 +12214,7 @@
         <v>1.71</v>
       </c>
       <c r="L268" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12243,7 +12252,7 @@
         <v>1.06</v>
       </c>
       <c r="L269" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12281,7 +12290,7 @@
         <v>1.7</v>
       </c>
       <c r="L270" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12319,7 +12328,7 @@
         <v>0.96</v>
       </c>
       <c r="L271" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12357,7 +12366,7 @@
         <v>1.1</v>
       </c>
       <c r="L272" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12395,7 +12404,7 @@
         <v>1.18</v>
       </c>
       <c r="L273" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12433,7 +12442,7 @@
         <v>0.98</v>
       </c>
       <c r="L274" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12471,7 +12480,7 @@
         <v>1.65</v>
       </c>
       <c r="L275" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12509,7 +12518,7 @@
         <v>0.77</v>
       </c>
       <c r="L276" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12547,7 +12556,7 @@
         <v>0.86</v>
       </c>
       <c r="L277" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12585,7 +12594,7 @@
         <v>3.39</v>
       </c>
       <c r="L278" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12623,7 +12632,7 @@
         <v>1.1</v>
       </c>
       <c r="L279" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12661,7 +12670,7 @@
         <v>1.02</v>
       </c>
       <c r="L280" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12699,7 +12708,7 @@
         <v>1.19</v>
       </c>
       <c r="L281" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12737,7 +12746,7 @@
         <v>1.72</v>
       </c>
       <c r="L282" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12775,7 +12784,7 @@
         <v>1.69</v>
       </c>
       <c r="L283" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12813,7 +12822,7 @@
         <v>2.33</v>
       </c>
       <c r="L284" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12851,7 +12860,7 @@
         <v>3.18</v>
       </c>
       <c r="L285" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12889,7 +12898,7 @@
         <v>3.55</v>
       </c>
       <c r="L286" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12927,7 +12936,7 @@
         <v>4.68</v>
       </c>
       <c r="L287" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12965,7 +12974,7 @@
         <v>6.74</v>
       </c>
       <c r="L288" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -13003,7 +13012,7 @@
         <v>5.54</v>
       </c>
       <c r="L289" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13041,7 +13050,7 @@
         <v>6.91</v>
       </c>
       <c r="L290" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13079,7 +13088,7 @@
         <v>5.46</v>
       </c>
       <c r="L291" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13117,7 +13126,7 @@
         <v>3.64</v>
       </c>
       <c r="L292" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13155,7 +13164,7 @@
         <v>5.76</v>
       </c>
       <c r="L293" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13193,7 +13202,7 @@
         <v>5.86</v>
       </c>
       <c r="L294" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13231,7 +13240,7 @@
         <v>4.01</v>
       </c>
       <c r="L295" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13269,7 +13278,7 @@
         <v>3.39</v>
       </c>
       <c r="L296" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13307,7 +13316,7 @@
         <v>3.47</v>
       </c>
       <c r="L297" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13345,7 +13354,7 @@
         <v>3.68</v>
       </c>
       <c r="L298" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13383,7 +13392,7 @@
         <v>5.13</v>
       </c>
       <c r="L299" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13421,7 +13430,7 @@
         <v>3.95</v>
       </c>
       <c r="L300" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13459,7 +13468,7 @@
         <v>4.14</v>
       </c>
       <c r="L301" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13497,7 +13506,7 @@
         <v>3.21</v>
       </c>
       <c r="L302" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13535,7 +13544,7 @@
         <v>3.49</v>
       </c>
       <c r="L303" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13573,7 +13582,7 @@
         <v>4.52</v>
       </c>
       <c r="L304" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13611,7 +13620,7 @@
         <v>2.84</v>
       </c>
       <c r="L305" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13649,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="L306" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13687,7 +13696,7 @@
         <v>3.78</v>
       </c>
       <c r="L307" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13725,7 +13734,7 @@
         <v>3.05</v>
       </c>
       <c r="L308" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13763,7 +13772,7 @@
         <v>4.08</v>
       </c>
       <c r="L309" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13801,7 +13810,7 @@
         <v>3.44</v>
       </c>
       <c r="L310" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13839,7 +13848,7 @@
         <v>3.68</v>
       </c>
       <c r="L311" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13877,7 +13886,7 @@
         <v>3.67</v>
       </c>
       <c r="L312" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13915,7 +13924,7 @@
         <v>4.1</v>
       </c>
       <c r="L313" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13953,7 +13962,7 @@
         <v>4.54</v>
       </c>
       <c r="L314" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13991,7 +14000,7 @@
         <v>5.98</v>
       </c>
       <c r="L315" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14029,7 +14038,7 @@
         <v>5.25</v>
       </c>
       <c r="L316" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14067,7 +14076,7 @@
         <v>4.46</v>
       </c>
       <c r="L317" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14105,7 +14114,7 @@
         <v>4.36</v>
       </c>
       <c r="L318" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14143,7 +14152,7 @@
         <v>3.3</v>
       </c>
       <c r="L319" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14181,7 +14190,7 @@
         <v>4.89</v>
       </c>
       <c r="L320" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14219,7 +14228,7 @@
         <v>6.11</v>
       </c>
       <c r="L321" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14257,7 +14266,7 @@
         <v>5.98</v>
       </c>
       <c r="L322" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14295,7 +14304,7 @@
         <v>4.43</v>
       </c>
       <c r="L323" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14333,7 +14342,7 @@
         <v>6.46</v>
       </c>
       <c r="L324" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14371,7 +14380,7 @@
         <v>6.03</v>
       </c>
       <c r="L325" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14409,7 +14418,7 @@
         <v>4.89</v>
       </c>
       <c r="L326" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14447,7 +14456,7 @@
         <v>4.56</v>
       </c>
       <c r="L327" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14485,7 +14494,7 @@
         <v>6.03</v>
       </c>
       <c r="L328" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14523,7 +14532,7 @@
         <v>4.47</v>
       </c>
       <c r="L329" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14561,7 +14570,7 @@
         <v>5.12</v>
       </c>
       <c r="L330" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14599,7 +14608,7 @@
         <v>5.31</v>
       </c>
       <c r="L331" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14637,7 +14646,7 @@
         <v>5.55</v>
       </c>
       <c r="L332" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14675,7 +14684,7 @@
         <v>7.97</v>
       </c>
       <c r="L333" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14713,7 +14722,7 @@
         <v>7.48</v>
       </c>
       <c r="L334" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14751,7 +14760,7 @@
         <v>8.76</v>
       </c>
       <c r="L335" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14789,7 +14798,7 @@
         <v>6.85</v>
       </c>
       <c r="L336" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14827,7 +14836,7 @@
         <v>5.83</v>
       </c>
       <c r="L337" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14865,7 +14874,7 @@
         <v>7.11</v>
       </c>
       <c r="L338" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14903,7 +14912,7 @@
         <v>4.12</v>
       </c>
       <c r="L339" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14941,7 +14950,7 @@
         <v>5.29</v>
       </c>
       <c r="L340" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14979,7 +14988,7 @@
         <v>6.28</v>
       </c>
       <c r="L341" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15017,7 +15026,7 @@
         <v>9.49</v>
       </c>
       <c r="L342" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15055,7 +15064,7 @@
         <v>9.74</v>
       </c>
       <c r="L343" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15093,7 +15102,7 @@
         <v>5.83</v>
       </c>
       <c r="L344" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15131,7 +15140,7 @@
         <v>9.49</v>
       </c>
       <c r="L345" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15169,7 +15178,7 @@
         <v>11.18</v>
       </c>
       <c r="L346" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15207,7 +15216,7 @@
         <v>8.93</v>
       </c>
       <c r="L347" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15245,7 +15254,7 @@
         <v>7.33</v>
       </c>
       <c r="L348" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15283,7 +15292,7 @@
         <v>7.25</v>
       </c>
       <c r="L349" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15321,7 +15330,7 @@
         <v>11.32</v>
       </c>
       <c r="L350" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15359,7 +15368,7 @@
         <v>11.36</v>
       </c>
       <c r="L351" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15397,7 +15406,7 @@
         <v>10.03</v>
       </c>
       <c r="L352" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15435,7 +15444,7 @@
         <v>13.31</v>
       </c>
       <c r="L353" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15473,7 +15482,7 @@
         <v>7.32</v>
       </c>
       <c r="L354" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15511,7 +15520,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="L355" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15549,7 +15558,7 @@
         <v>8.41</v>
       </c>
       <c r="L356" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15587,7 +15596,7 @@
         <v>9.58</v>
       </c>
       <c r="L357" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15625,7 +15634,7 @@
         <v>7.46</v>
       </c>
       <c r="L358" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15663,7 +15672,7 @@
         <v>6.25</v>
       </c>
       <c r="L359" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15701,7 +15710,7 @@
         <v>7.69</v>
       </c>
       <c r="L360" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15739,7 +15748,7 @@
         <v>7.6</v>
       </c>
       <c r="L361" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15777,7 +15786,7 @@
         <v>4.9</v>
       </c>
       <c r="L362" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15815,7 +15824,7 @@
         <v>6.95</v>
       </c>
       <c r="L363" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15853,7 +15862,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L364" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15891,7 +15900,7 @@
         <v>4.82</v>
       </c>
       <c r="L365" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15929,7 +15938,7 @@
         <v>5.88</v>
       </c>
       <c r="L366" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15967,7 +15976,7 @@
         <v>5.07</v>
       </c>
       <c r="L367" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16005,7 +16014,7 @@
         <v>5.59</v>
       </c>
       <c r="L368" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16043,7 +16052,7 @@
         <v>5.03</v>
       </c>
       <c r="L369" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16081,7 +16090,7 @@
         <v>7.01</v>
       </c>
       <c r="L370" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16119,7 +16128,7 @@
         <v>8.52</v>
       </c>
       <c r="L371" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16157,7 +16166,7 @@
         <v>7.61</v>
       </c>
       <c r="L372" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16195,7 +16204,7 @@
         <v>8.52</v>
       </c>
       <c r="L373" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16233,7 +16242,7 @@
         <v>5.11</v>
       </c>
       <c r="L374" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16271,7 +16280,7 @@
         <v>4.84</v>
       </c>
       <c r="L375" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16309,7 +16318,7 @@
         <v>6.12</v>
       </c>
       <c r="L376" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16347,7 +16356,7 @@
         <v>8.74</v>
       </c>
       <c r="L377" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16385,7 +16394,7 @@
         <v>6.2</v>
       </c>
       <c r="L378" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16423,7 +16432,7 @@
         <v>7.98</v>
       </c>
       <c r="L379" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16461,7 +16470,7 @@
         <v>8.59</v>
       </c>
       <c r="L380" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16499,7 +16508,7 @@
         <v>5.6</v>
       </c>
       <c r="L381" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16537,7 +16546,7 @@
         <v>6.56</v>
       </c>
       <c r="L382" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16575,7 +16584,7 @@
         <v>5.3</v>
       </c>
       <c r="L383" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16613,7 +16622,7 @@
         <v>6.66</v>
       </c>
       <c r="L384" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16651,7 +16660,7 @@
         <v>5.33</v>
       </c>
       <c r="L385" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16689,7 +16698,7 @@
         <v>7.84</v>
       </c>
       <c r="L386" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16727,7 +16736,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L387" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16765,7 +16774,7 @@
         <v>5.99</v>
       </c>
       <c r="L388" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16803,7 +16812,7 @@
         <v>3.16</v>
       </c>
       <c r="L389" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16841,7 +16850,7 @@
         <v>3.78</v>
       </c>
       <c r="L390" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16879,7 +16888,7 @@
         <v>4.31</v>
       </c>
       <c r="L391" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16917,7 +16926,7 @@
         <v>7.55</v>
       </c>
       <c r="L392" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16955,7 +16964,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16993,7 +17002,7 @@
         <v>6.88</v>
       </c>
       <c r="L394" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17031,7 +17040,7 @@
         <v>5.25</v>
       </c>
       <c r="L395" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17069,7 +17078,7 @@
         <v>4.48</v>
       </c>
       <c r="L396" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17107,7 +17116,7 @@
         <v>5.79</v>
       </c>
       <c r="L397" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17145,7 +17154,7 @@
         <v>7.17</v>
       </c>
       <c r="L398" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17183,7 +17192,7 @@
         <v>5.48</v>
       </c>
       <c r="L399" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17221,7 +17230,7 @@
         <v>5.91</v>
       </c>
       <c r="L400" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17259,7 +17268,7 @@
         <v>6.42</v>
       </c>
       <c r="L401" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17297,7 +17306,7 @@
         <v>5.73</v>
       </c>
       <c r="L402" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17335,7 +17344,7 @@
         <v>4.84</v>
       </c>
       <c r="L403" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17373,7 +17382,7 @@
         <v>5.3</v>
       </c>
       <c r="L404" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17411,7 +17420,7 @@
         <v>4.01</v>
       </c>
       <c r="L405" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17449,7 +17458,7 @@
         <v>2.5</v>
       </c>
       <c r="L406" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17487,7 +17496,7 @@
         <v>4.54</v>
       </c>
       <c r="L407" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17525,7 +17534,7 @@
         <v>5.22</v>
       </c>
       <c r="L408" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17563,7 +17572,7 @@
         <v>6.16</v>
       </c>
       <c r="L409" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17601,7 +17610,7 @@
         <v>7.22</v>
       </c>
       <c r="L410" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17639,7 +17648,7 @@
         <v>5.84</v>
       </c>
       <c r="L411" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17677,7 +17686,7 @@
         <v>7.4</v>
       </c>
       <c r="L412" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17715,7 +17724,7 @@
         <v>6.36</v>
       </c>
       <c r="L413" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17753,7 +17762,7 @@
         <v>4.94</v>
       </c>
       <c r="L414" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17791,7 +17800,7 @@
         <v>3.82</v>
       </c>
       <c r="L415" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17829,7 +17838,7 @@
         <v>4.41</v>
       </c>
       <c r="L416" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17867,7 +17876,7 @@
         <v>6.06</v>
       </c>
       <c r="L417" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17905,7 +17914,7 @@
         <v>4.65</v>
       </c>
       <c r="L418" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17943,7 +17952,7 @@
         <v>3.47</v>
       </c>
       <c r="L419" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17981,7 +17990,7 @@
         <v>3.93</v>
       </c>
       <c r="L420" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18019,7 +18028,7 @@
         <v>4.93</v>
       </c>
       <c r="L421" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18057,7 +18066,7 @@
         <v>4.87</v>
       </c>
       <c r="L422" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18095,7 +18104,7 @@
         <v>5.48</v>
       </c>
       <c r="L423" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18133,7 +18142,7 @@
         <v>5.94</v>
       </c>
       <c r="L424" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18171,7 +18180,7 @@
         <v>8.23</v>
       </c>
       <c r="L425" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18209,7 +18218,7 @@
         <v>10.13</v>
       </c>
       <c r="L426" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18247,7 +18256,7 @@
         <v>5.87</v>
       </c>
       <c r="L427" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18285,7 +18294,7 @@
         <v>8.43</v>
       </c>
       <c r="L428" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18323,7 +18332,7 @@
         <v>7.37</v>
       </c>
       <c r="L429" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18361,7 +18370,7 @@
         <v>6.86</v>
       </c>
       <c r="L430" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18399,7 +18408,7 @@
         <v>6.22</v>
       </c>
       <c r="L431" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18437,7 +18446,7 @@
         <v>6.52</v>
       </c>
       <c r="L432" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18475,7 +18484,7 @@
         <v>5.21</v>
       </c>
       <c r="L433" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18513,7 +18522,7 @@
         <v>7.41</v>
       </c>
       <c r="L434" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18551,7 +18560,7 @@
         <v>7.24</v>
       </c>
       <c r="L435" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18589,7 +18598,7 @@
         <v>6.32</v>
       </c>
       <c r="L436" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18627,7 +18636,7 @@
         <v>5.09</v>
       </c>
       <c r="L437" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18665,7 +18674,7 @@
         <v>6.06</v>
       </c>
       <c r="L438" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18703,7 +18712,7 @@
         <v>6.51</v>
       </c>
       <c r="L439" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18741,7 +18750,7 @@
         <v>5.27</v>
       </c>
       <c r="L440" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18779,7 +18788,7 @@
         <v>5.42</v>
       </c>
       <c r="L441" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18817,7 +18826,7 @@
         <v>5.08</v>
       </c>
       <c r="L442" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18855,7 +18864,7 @@
         <v>6.4</v>
       </c>
       <c r="L443" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18893,7 +18902,7 @@
         <v>5.37</v>
       </c>
       <c r="L444" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18931,7 +18940,7 @@
         <v>6.87</v>
       </c>
       <c r="L445" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18969,7 +18978,7 @@
         <v>6.3</v>
       </c>
       <c r="L446" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19007,7 +19016,7 @@
         <v>7.63</v>
       </c>
       <c r="L447" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19045,7 +19054,7 @@
         <v>5.39</v>
       </c>
       <c r="L448" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19083,7 +19092,7 @@
         <v>5.64</v>
       </c>
       <c r="L449" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19121,7 +19130,7 @@
         <v>5.44</v>
       </c>
       <c r="L450" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19159,7 +19168,7 @@
         <v>8.41</v>
       </c>
       <c r="L451" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19197,7 +19206,7 @@
         <v>5.44</v>
       </c>
       <c r="L452" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19235,7 +19244,7 @@
         <v>5.61</v>
       </c>
       <c r="L453" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19273,7 +19282,7 @@
         <v>7.1</v>
       </c>
       <c r="L454" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19311,7 +19320,7 @@
         <v>6.1</v>
       </c>
       <c r="L455" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19349,7 +19358,7 @@
         <v>6.76</v>
       </c>
       <c r="L456" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19387,7 +19396,7 @@
         <v>7.65</v>
       </c>
       <c r="L457" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19425,7 +19434,7 @@
         <v>3.96</v>
       </c>
       <c r="L458" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19463,7 +19472,7 @@
         <v>4.24</v>
       </c>
       <c r="L459" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19501,7 +19510,7 @@
         <v>4.31</v>
       </c>
       <c r="L460" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19539,7 +19548,7 @@
         <v>6.02</v>
       </c>
       <c r="L461" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19577,7 +19586,7 @@
         <v>4.81</v>
       </c>
       <c r="L462" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19615,7 +19624,7 @@
         <v>3.11</v>
       </c>
       <c r="L463" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19653,7 +19662,7 @@
         <v>3.62</v>
       </c>
       <c r="L464" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19691,7 +19700,7 @@
         <v>3.99</v>
       </c>
       <c r="L465" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19729,7 +19738,7 @@
         <v>3.62</v>
       </c>
       <c r="L466" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19767,7 +19776,7 @@
         <v>3.1</v>
       </c>
       <c r="L467" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19805,7 +19814,7 @@
         <v>3.17</v>
       </c>
       <c r="L468" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19843,7 +19852,7 @@
         <v>3.65</v>
       </c>
       <c r="L469" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19881,7 +19890,7 @@
         <v>3.59</v>
       </c>
       <c r="L470" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19919,7 +19928,7 @@
         <v>3.64</v>
       </c>
       <c r="L471" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19957,7 +19966,7 @@
         <v>3.45</v>
       </c>
       <c r="L472" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19995,7 +20004,7 @@
         <v>3.42</v>
       </c>
       <c r="L473" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20033,7 +20042,7 @@
         <v>4.53</v>
       </c>
       <c r="L474" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20071,7 +20080,7 @@
         <v>5.58</v>
       </c>
       <c r="L475" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20109,7 +20118,7 @@
         <v>5.67</v>
       </c>
       <c r="L476" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20147,7 +20156,7 @@
         <v>4.39</v>
       </c>
       <c r="L477" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20185,7 +20194,7 @@
         <v>5.18</v>
       </c>
       <c r="L478" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20223,7 +20232,7 @@
         <v>5.21</v>
       </c>
       <c r="L479" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20261,7 +20270,7 @@
         <v>8.92</v>
       </c>
       <c r="L480" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20299,7 +20308,7 @@
         <v>10.84</v>
       </c>
       <c r="L481" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20337,7 +20346,7 @@
         <v>9.16</v>
       </c>
       <c r="L482" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20375,7 +20384,7 @@
         <v>8.31</v>
       </c>
       <c r="L483" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20413,7 +20422,7 @@
         <v>6.06</v>
       </c>
       <c r="L484" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20451,7 +20460,7 @@
         <v>10.28</v>
       </c>
       <c r="L485" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20489,7 +20498,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="L486" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20527,7 +20536,7 @@
         <v>8.52</v>
       </c>
       <c r="L487" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20565,7 +20574,7 @@
         <v>9.59</v>
       </c>
       <c r="L488" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20603,7 +20612,7 @@
         <v>10.9</v>
       </c>
       <c r="L489" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20641,7 +20650,7 @@
         <v>8.57</v>
       </c>
       <c r="L490" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20679,7 +20688,7 @@
         <v>11.39</v>
       </c>
       <c r="L491" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20717,7 +20726,7 @@
         <v>10.44</v>
       </c>
       <c r="L492" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20755,7 +20764,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L493" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20793,7 +20802,7 @@
         <v>9.25</v>
       </c>
       <c r="L494" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20831,7 +20840,7 @@
         <v>10.11</v>
       </c>
       <c r="L495" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20869,7 +20878,7 @@
         <v>11.25</v>
       </c>
       <c r="L496" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20907,7 +20916,7 @@
         <v>7.76</v>
       </c>
       <c r="L497" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20945,7 +20954,7 @@
         <v>8.92</v>
       </c>
       <c r="L498" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20983,7 +20992,7 @@
         <v>10.61</v>
       </c>
       <c r="L499" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21021,7 +21030,7 @@
         <v>7.25</v>
       </c>
       <c r="L500" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21059,7 +21068,7 @@
         <v>6.86</v>
       </c>
       <c r="L501" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21097,7 +21106,7 @@
         <v>8.35</v>
       </c>
       <c r="L502" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21135,7 +21144,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L503" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21173,7 +21182,7 @@
         <v>8.99</v>
       </c>
       <c r="L504" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21211,7 +21220,7 @@
         <v>10.48</v>
       </c>
       <c r="L505" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21249,7 +21258,7 @@
         <v>7.55</v>
       </c>
       <c r="L506" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21287,7 +21296,7 @@
         <v>11.78</v>
       </c>
       <c r="L507" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21325,7 +21334,7 @@
         <v>8.06</v>
       </c>
       <c r="L508" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21363,7 +21372,7 @@
         <v>7.77</v>
       </c>
       <c r="L509" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21401,7 +21410,7 @@
         <v>4.64</v>
       </c>
       <c r="L510" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21439,7 +21448,7 @@
         <v>7.52</v>
       </c>
       <c r="L511" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21477,7 +21486,7 @@
         <v>7.56</v>
       </c>
       <c r="L512" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21515,7 +21524,7 @@
         <v>6.79</v>
       </c>
       <c r="L513" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21553,7 +21562,7 @@
         <v>8.49</v>
       </c>
       <c r="L514" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21591,7 +21600,7 @@
         <v>7.28</v>
       </c>
       <c r="L515" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21629,7 +21638,7 @@
         <v>7.37</v>
       </c>
       <c r="L516" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21667,7 +21676,7 @@
         <v>5.74</v>
       </c>
       <c r="L517" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21705,7 +21714,7 @@
         <v>7.08</v>
       </c>
       <c r="L518" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21743,7 +21752,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L519" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21781,7 +21790,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L520" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21819,7 +21828,7 @@
         <v>6.78</v>
       </c>
       <c r="L521" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21857,7 +21866,7 @@
         <v>8.25</v>
       </c>
       <c r="L522" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21895,7 +21904,7 @@
         <v>9.49</v>
       </c>
       <c r="L523" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21933,7 +21942,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L524" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21971,7 +21980,7 @@
         <v>5.61</v>
       </c>
       <c r="L525" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22009,7 +22018,7 @@
         <v>6.31</v>
       </c>
       <c r="L526" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22047,7 +22056,7 @@
         <v>5.55</v>
       </c>
       <c r="L527" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22085,7 +22094,7 @@
         <v>5.77</v>
       </c>
       <c r="L528" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22123,7 +22132,7 @@
         <v>4.78</v>
       </c>
       <c r="L529" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22161,7 +22170,7 @@
         <v>6.14</v>
       </c>
       <c r="L530" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22199,7 +22208,7 @@
         <v>6.15</v>
       </c>
       <c r="L531" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22237,7 +22246,7 @@
         <v>6.44</v>
       </c>
       <c r="L532" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22275,7 +22284,7 @@
         <v>5.67</v>
       </c>
       <c r="L533" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22313,7 +22322,7 @@
         <v>4.61</v>
       </c>
       <c r="L534" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22351,7 +22360,7 @@
         <v>4.5</v>
       </c>
       <c r="L535" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22389,7 +22398,7 @@
         <v>4.06</v>
       </c>
       <c r="L536" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22427,7 +22436,7 @@
         <v>3.64</v>
       </c>
       <c r="L537" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22465,7 +22474,7 @@
         <v>3.21</v>
       </c>
       <c r="L538" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22503,7 +22512,121 @@
         <v>5.48</v>
       </c>
       <c r="L539" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
         <v>549</v>
+      </c>
+      <c r="C540">
+        <v>12.8</v>
+      </c>
+      <c r="D540">
+        <v>100</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>60</v>
+      </c>
+      <c r="G540">
+        <v>4.43</v>
+      </c>
+      <c r="H540">
+        <v>60</v>
+      </c>
+      <c r="I540">
+        <v>0.34</v>
+      </c>
+      <c r="J540">
+        <v>23.91</v>
+      </c>
+      <c r="K540">
+        <v>6.63</v>
+      </c>
+      <c r="L540" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>550</v>
+      </c>
+      <c r="C541">
+        <v>12.79</v>
+      </c>
+      <c r="D541">
+        <v>100</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>60</v>
+      </c>
+      <c r="G541">
+        <v>348.91</v>
+      </c>
+      <c r="H541">
+        <v>60</v>
+      </c>
+      <c r="I541">
+        <v>1.96</v>
+      </c>
+      <c r="J541">
+        <v>28.17</v>
+      </c>
+      <c r="K541">
+        <v>7.34</v>
+      </c>
+      <c r="L541" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>551</v>
+      </c>
+      <c r="C542">
+        <v>12.79</v>
+      </c>
+      <c r="D542">
+        <v>100</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>60</v>
+      </c>
+      <c r="G542">
+        <v>345.61</v>
+      </c>
+      <c r="H542">
+        <v>60</v>
+      </c>
+      <c r="I542">
+        <v>-0.38</v>
+      </c>
+      <c r="J542">
+        <v>33.01</v>
+      </c>
+      <c r="K542">
+        <v>5.08</v>
+      </c>
+      <c r="L542" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="554">
   <si>
     <t>Fecha</t>
   </si>
@@ -1670,6 +1670,9 @@
   </si>
   <si>
     <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:10:00 PM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -2030,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L542"/>
+  <dimension ref="A1:L543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2106,7 +2109,7 @@
         <v>1.69</v>
       </c>
       <c r="L2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2144,7 +2147,7 @@
         <v>1.58</v>
       </c>
       <c r="L3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2182,7 +2185,7 @@
         <v>1.42</v>
       </c>
       <c r="L4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2220,7 +2223,7 @@
         <v>1.47</v>
       </c>
       <c r="L5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2258,7 +2261,7 @@
         <v>1.28</v>
       </c>
       <c r="L6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2296,7 +2299,7 @@
         <v>1.76</v>
       </c>
       <c r="L7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2334,7 +2337,7 @@
         <v>1.55</v>
       </c>
       <c r="L8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2372,7 +2375,7 @@
         <v>1.05</v>
       </c>
       <c r="L9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2410,7 +2413,7 @@
         <v>1.49</v>
       </c>
       <c r="L10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2448,7 +2451,7 @@
         <v>1.23</v>
       </c>
       <c r="L11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2486,7 +2489,7 @@
         <v>1.24</v>
       </c>
       <c r="L12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2524,7 +2527,7 @@
         <v>1.86</v>
       </c>
       <c r="L13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2562,7 +2565,7 @@
         <v>1.14</v>
       </c>
       <c r="L14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2600,7 +2603,7 @@
         <v>1.28</v>
       </c>
       <c r="L15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2638,7 +2641,7 @@
         <v>1.26</v>
       </c>
       <c r="L16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2676,7 +2679,7 @@
         <v>1.72</v>
       </c>
       <c r="L17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2714,7 +2717,7 @@
         <v>1.02</v>
       </c>
       <c r="L18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2752,7 +2755,7 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2790,7 +2793,7 @@
         <v>2.52</v>
       </c>
       <c r="L20" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2828,7 +2831,7 @@
         <v>1.5</v>
       </c>
       <c r="L21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2866,7 +2869,7 @@
         <v>1.93</v>
       </c>
       <c r="L22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2904,7 +2907,7 @@
         <v>1.48</v>
       </c>
       <c r="L23" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2942,7 +2945,7 @@
         <v>1.93</v>
       </c>
       <c r="L24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2980,7 +2983,7 @@
         <v>2.31</v>
       </c>
       <c r="L25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3018,7 +3021,7 @@
         <v>2.47</v>
       </c>
       <c r="L26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3056,7 +3059,7 @@
         <v>1.94</v>
       </c>
       <c r="L27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3094,7 +3097,7 @@
         <v>2.31</v>
       </c>
       <c r="L28" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3132,7 +3135,7 @@
         <v>1.88</v>
       </c>
       <c r="L29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3170,7 +3173,7 @@
         <v>1.73</v>
       </c>
       <c r="L30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3208,7 +3211,7 @@
         <v>2.22</v>
       </c>
       <c r="L31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3246,7 +3249,7 @@
         <v>1.52</v>
       </c>
       <c r="L32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3284,7 +3287,7 @@
         <v>1.95</v>
       </c>
       <c r="L33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3322,7 +3325,7 @@
         <v>2.08</v>
       </c>
       <c r="L34" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3360,7 +3363,7 @@
         <v>2.34</v>
       </c>
       <c r="L35" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3398,7 +3401,7 @@
         <v>2.79</v>
       </c>
       <c r="L36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3436,7 +3439,7 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3474,7 +3477,7 @@
         <v>1.25</v>
       </c>
       <c r="L38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3512,7 +3515,7 @@
         <v>2.32</v>
       </c>
       <c r="L39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3550,7 +3553,7 @@
         <v>1.79</v>
       </c>
       <c r="L40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3588,7 +3591,7 @@
         <v>2.5</v>
       </c>
       <c r="L41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3626,7 +3629,7 @@
         <v>1.87</v>
       </c>
       <c r="L42" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3664,7 +3667,7 @@
         <v>2.73</v>
       </c>
       <c r="L43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3702,7 +3705,7 @@
         <v>2.37</v>
       </c>
       <c r="L44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3740,7 +3743,7 @@
         <v>1.35</v>
       </c>
       <c r="L45" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3778,7 +3781,7 @@
         <v>1.49</v>
       </c>
       <c r="L46" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3816,7 +3819,7 @@
         <v>2.08</v>
       </c>
       <c r="L47" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3854,7 +3857,7 @@
         <v>2.36</v>
       </c>
       <c r="L48" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3892,7 +3895,7 @@
         <v>1.84</v>
       </c>
       <c r="L49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3930,7 +3933,7 @@
         <v>1.78</v>
       </c>
       <c r="L50" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3968,7 +3971,7 @@
         <v>3.58</v>
       </c>
       <c r="L51" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4006,7 +4009,7 @@
         <v>2.9</v>
       </c>
       <c r="L52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4044,7 +4047,7 @@
         <v>2.64</v>
       </c>
       <c r="L53" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4082,7 +4085,7 @@
         <v>2.88</v>
       </c>
       <c r="L54" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4120,7 +4123,7 @@
         <v>3.7</v>
       </c>
       <c r="L55" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4158,7 +4161,7 @@
         <v>2.54</v>
       </c>
       <c r="L56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4196,7 +4199,7 @@
         <v>2.94</v>
       </c>
       <c r="L57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4234,7 +4237,7 @@
         <v>1.61</v>
       </c>
       <c r="L58" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4272,7 +4275,7 @@
         <v>1.46</v>
       </c>
       <c r="L59" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4310,7 +4313,7 @@
         <v>0.95</v>
       </c>
       <c r="L60" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4348,7 +4351,7 @@
         <v>2.48</v>
       </c>
       <c r="L61" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4386,7 +4389,7 @@
         <v>2.34</v>
       </c>
       <c r="L62" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4424,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4462,7 +4465,7 @@
         <v>2.9</v>
       </c>
       <c r="L64" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4500,7 +4503,7 @@
         <v>2.55</v>
       </c>
       <c r="L65" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4538,7 +4541,7 @@
         <v>2.65</v>
       </c>
       <c r="L66" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4576,7 +4579,7 @@
         <v>2.96</v>
       </c>
       <c r="L67" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4614,7 +4617,7 @@
         <v>4.17</v>
       </c>
       <c r="L68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4652,7 +4655,7 @@
         <v>2.65</v>
       </c>
       <c r="L69" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4690,7 +4693,7 @@
         <v>2.84</v>
       </c>
       <c r="L70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4728,7 +4731,7 @@
         <v>3.51</v>
       </c>
       <c r="L71" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4766,7 +4769,7 @@
         <v>4.73</v>
       </c>
       <c r="L72" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4804,7 +4807,7 @@
         <v>3.52</v>
       </c>
       <c r="L73" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4842,7 +4845,7 @@
         <v>2.97</v>
       </c>
       <c r="L74" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4880,7 +4883,7 @@
         <v>2.96</v>
       </c>
       <c r="L75" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4918,7 +4921,7 @@
         <v>3.05</v>
       </c>
       <c r="L76" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4956,7 +4959,7 @@
         <v>3.02</v>
       </c>
       <c r="L77" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4994,7 +4997,7 @@
         <v>3.1</v>
       </c>
       <c r="L78" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5032,7 +5035,7 @@
         <v>3.57</v>
       </c>
       <c r="L79" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5070,7 +5073,7 @@
         <v>3.35</v>
       </c>
       <c r="L80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5108,7 +5111,7 @@
         <v>3.59</v>
       </c>
       <c r="L81" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5146,7 +5149,7 @@
         <v>3.81</v>
       </c>
       <c r="L82" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5184,7 +5187,7 @@
         <v>3.33</v>
       </c>
       <c r="L83" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5222,7 +5225,7 @@
         <v>3.19</v>
       </c>
       <c r="L84" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5260,7 +5263,7 @@
         <v>3.46</v>
       </c>
       <c r="L85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5298,7 +5301,7 @@
         <v>3.17</v>
       </c>
       <c r="L86" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5336,7 +5339,7 @@
         <v>3.21</v>
       </c>
       <c r="L87" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5374,7 +5377,7 @@
         <v>3.15</v>
       </c>
       <c r="L88" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5412,7 +5415,7 @@
         <v>3.11</v>
       </c>
       <c r="L89" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5450,7 +5453,7 @@
         <v>3.59</v>
       </c>
       <c r="L90" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5488,7 +5491,7 @@
         <v>2.69</v>
       </c>
       <c r="L91" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5526,7 +5529,7 @@
         <v>3.19</v>
       </c>
       <c r="L92" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5564,7 +5567,7 @@
         <v>3.43</v>
       </c>
       <c r="L93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5602,7 +5605,7 @@
         <v>3.11</v>
       </c>
       <c r="L94" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5640,7 +5643,7 @@
         <v>3.34</v>
       </c>
       <c r="L95" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5678,7 +5681,7 @@
         <v>2.97</v>
       </c>
       <c r="L96" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5716,7 +5719,7 @@
         <v>3.21</v>
       </c>
       <c r="L97" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5754,7 +5757,7 @@
         <v>2.85</v>
       </c>
       <c r="L98" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5792,7 +5795,7 @@
         <v>3.34</v>
       </c>
       <c r="L99" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5830,7 +5833,7 @@
         <v>2.76</v>
       </c>
       <c r="L100" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5868,7 +5871,7 @@
         <v>1.86</v>
       </c>
       <c r="L101" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5906,7 +5909,7 @@
         <v>1.97</v>
       </c>
       <c r="L102" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5944,7 +5947,7 @@
         <v>1.91</v>
       </c>
       <c r="L103" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5982,7 +5985,7 @@
         <v>2.71</v>
       </c>
       <c r="L104" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6020,7 +6023,7 @@
         <v>2.17</v>
       </c>
       <c r="L105" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6058,7 +6061,7 @@
         <v>1.88</v>
       </c>
       <c r="L106" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6096,7 +6099,7 @@
         <v>1.61</v>
       </c>
       <c r="L107" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6134,7 +6137,7 @@
         <v>2.13</v>
       </c>
       <c r="L108" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6172,7 +6175,7 @@
         <v>1.35</v>
       </c>
       <c r="L109" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6210,7 +6213,7 @@
         <v>1.92</v>
       </c>
       <c r="L110" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6248,7 +6251,7 @@
         <v>1.28</v>
       </c>
       <c r="L111" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6286,7 +6289,7 @@
         <v>2.07</v>
       </c>
       <c r="L112" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6324,7 +6327,7 @@
         <v>2.05</v>
       </c>
       <c r="L113" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6362,7 +6365,7 @@
         <v>2.26</v>
       </c>
       <c r="L114" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6400,7 +6403,7 @@
         <v>1.54</v>
       </c>
       <c r="L115" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6438,7 +6441,7 @@
         <v>0.95</v>
       </c>
       <c r="L116" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6476,7 +6479,7 @@
         <v>1.53</v>
       </c>
       <c r="L117" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6514,7 +6517,7 @@
         <v>1.79</v>
       </c>
       <c r="L118" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6552,7 +6555,7 @@
         <v>1.55</v>
       </c>
       <c r="L119" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6590,7 +6593,7 @@
         <v>1.65</v>
       </c>
       <c r="L120" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6628,7 +6631,7 @@
         <v>1.27</v>
       </c>
       <c r="L121" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6666,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="L122" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6704,7 +6707,7 @@
         <v>1.59</v>
       </c>
       <c r="L123" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6742,7 +6745,7 @@
         <v>2.35</v>
       </c>
       <c r="L124" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6780,7 +6783,7 @@
         <v>1.56</v>
       </c>
       <c r="L125" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6818,7 +6821,7 @@
         <v>2.44</v>
       </c>
       <c r="L126" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6856,7 +6859,7 @@
         <v>2.52</v>
       </c>
       <c r="L127" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6894,7 +6897,7 @@
         <v>2.22</v>
       </c>
       <c r="L128" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6932,7 +6935,7 @@
         <v>1.63</v>
       </c>
       <c r="L129" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6970,7 +6973,7 @@
         <v>1.85</v>
       </c>
       <c r="L130" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -7008,7 +7011,7 @@
         <v>1.91</v>
       </c>
       <c r="L131" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7046,7 +7049,7 @@
         <v>2.31</v>
       </c>
       <c r="L132" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7084,7 +7087,7 @@
         <v>1.64</v>
       </c>
       <c r="L133" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7122,7 +7125,7 @@
         <v>2.01</v>
       </c>
       <c r="L134" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7160,7 +7163,7 @@
         <v>2.38</v>
       </c>
       <c r="L135" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7198,7 +7201,7 @@
         <v>2.13</v>
       </c>
       <c r="L136" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7236,7 +7239,7 @@
         <v>1.3</v>
       </c>
       <c r="L137" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7274,7 +7277,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7312,7 +7315,7 @@
         <v>1.33</v>
       </c>
       <c r="L139" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7350,7 +7353,7 @@
         <v>1.2</v>
       </c>
       <c r="L140" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7388,7 +7391,7 @@
         <v>1.37</v>
       </c>
       <c r="L141" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7426,7 +7429,7 @@
         <v>2.01</v>
       </c>
       <c r="L142" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7464,7 +7467,7 @@
         <v>2.52</v>
       </c>
       <c r="L143" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7502,7 +7505,7 @@
         <v>1.91</v>
       </c>
       <c r="L144" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7540,7 +7543,7 @@
         <v>1.55</v>
       </c>
       <c r="L145" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7578,7 +7581,7 @@
         <v>1.66</v>
       </c>
       <c r="L146" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7616,7 +7619,7 @@
         <v>1.68</v>
       </c>
       <c r="L147" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7654,7 +7657,7 @@
         <v>1.81</v>
       </c>
       <c r="L148" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7692,7 +7695,7 @@
         <v>1.83</v>
       </c>
       <c r="L149" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7730,7 +7733,7 @@
         <v>1.46</v>
       </c>
       <c r="L150" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7768,7 +7771,7 @@
         <v>1.13</v>
       </c>
       <c r="L151" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7806,7 +7809,7 @@
         <v>1.94</v>
       </c>
       <c r="L152" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7844,7 +7847,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7882,7 +7885,7 @@
         <v>1.75</v>
       </c>
       <c r="L154" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7920,7 +7923,7 @@
         <v>1.73</v>
       </c>
       <c r="L155" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7958,7 +7961,7 @@
         <v>1.78</v>
       </c>
       <c r="L156" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7996,7 +7999,7 @@
         <v>1.52</v>
       </c>
       <c r="L157" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8034,7 +8037,7 @@
         <v>1.1</v>
       </c>
       <c r="L158" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8072,7 +8075,7 @@
         <v>1.24</v>
       </c>
       <c r="L159" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8110,7 +8113,7 @@
         <v>0.86</v>
       </c>
       <c r="L160" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8148,7 +8151,7 @@
         <v>0.61</v>
       </c>
       <c r="L161" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8186,7 +8189,7 @@
         <v>0.82</v>
       </c>
       <c r="L162" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8224,7 +8227,7 @@
         <v>1.23</v>
       </c>
       <c r="L163" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8262,7 +8265,7 @@
         <v>1.32</v>
       </c>
       <c r="L164" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8300,7 +8303,7 @@
         <v>1.64</v>
       </c>
       <c r="L165" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8338,7 +8341,7 @@
         <v>0.91</v>
       </c>
       <c r="L166" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8376,7 +8379,7 @@
         <v>1.82</v>
       </c>
       <c r="L167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8414,7 +8417,7 @@
         <v>1.61</v>
       </c>
       <c r="L168" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8452,7 +8455,7 @@
         <v>1.97</v>
       </c>
       <c r="L169" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8490,7 +8493,7 @@
         <v>2.1</v>
       </c>
       <c r="L170" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8528,7 +8531,7 @@
         <v>1.91</v>
       </c>
       <c r="L171" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8566,7 +8569,7 @@
         <v>1.92</v>
       </c>
       <c r="L172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8604,7 +8607,7 @@
         <v>1.29</v>
       </c>
       <c r="L173" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8642,7 +8645,7 @@
         <v>1.99</v>
       </c>
       <c r="L174" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8680,7 +8683,7 @@
         <v>1.93</v>
       </c>
       <c r="L175" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8718,7 +8721,7 @@
         <v>2.04</v>
       </c>
       <c r="L176" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8756,7 +8759,7 @@
         <v>1.28</v>
       </c>
       <c r="L177" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8794,7 +8797,7 @@
         <v>2.43</v>
       </c>
       <c r="L178" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8832,7 +8835,7 @@
         <v>1.28</v>
       </c>
       <c r="L179" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8870,7 +8873,7 @@
         <v>1.24</v>
       </c>
       <c r="L180" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8908,7 +8911,7 @@
         <v>0.89</v>
       </c>
       <c r="L181" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8946,7 +8949,7 @@
         <v>1.06</v>
       </c>
       <c r="L182" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8984,7 +8987,7 @@
         <v>0.64</v>
       </c>
       <c r="L183" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9022,7 +9025,7 @@
         <v>1.16</v>
       </c>
       <c r="L184" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9060,7 +9063,7 @@
         <v>2.69</v>
       </c>
       <c r="L185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9098,7 +9101,7 @@
         <v>2.31</v>
       </c>
       <c r="L186" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9136,7 +9139,7 @@
         <v>1.96</v>
       </c>
       <c r="L187" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9174,7 +9177,7 @@
         <v>0.73</v>
       </c>
       <c r="L188" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9212,7 +9215,7 @@
         <v>1.51</v>
       </c>
       <c r="L189" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9250,7 +9253,7 @@
         <v>1.95</v>
       </c>
       <c r="L190" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9288,7 +9291,7 @@
         <v>2.23</v>
       </c>
       <c r="L191" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9326,7 +9329,7 @@
         <v>1.4</v>
       </c>
       <c r="L192" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9364,7 +9367,7 @@
         <v>1.97</v>
       </c>
       <c r="L193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9402,7 +9405,7 @@
         <v>1.45</v>
       </c>
       <c r="L194" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9440,7 +9443,7 @@
         <v>1.52</v>
       </c>
       <c r="L195" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9478,7 +9481,7 @@
         <v>2.18</v>
       </c>
       <c r="L196" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9516,7 +9519,7 @@
         <v>1.26</v>
       </c>
       <c r="L197" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9554,7 +9557,7 @@
         <v>3.89</v>
       </c>
       <c r="L198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9592,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="L199" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9630,7 +9633,7 @@
         <v>4.33</v>
       </c>
       <c r="L200" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9668,7 +9671,7 @@
         <v>5.54</v>
       </c>
       <c r="L201" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9706,7 +9709,7 @@
         <v>3.44</v>
       </c>
       <c r="L202" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9744,7 +9747,7 @@
         <v>4.28</v>
       </c>
       <c r="L203" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9782,7 +9785,7 @@
         <v>5.23</v>
       </c>
       <c r="L204" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9820,7 +9823,7 @@
         <v>4.87</v>
       </c>
       <c r="L205" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9858,7 +9861,7 @@
         <v>4.18</v>
       </c>
       <c r="L206" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9896,7 +9899,7 @@
         <v>5.02</v>
       </c>
       <c r="L207" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9934,7 +9937,7 @@
         <v>2.71</v>
       </c>
       <c r="L208" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9972,7 +9975,7 @@
         <v>2.05</v>
       </c>
       <c r="L209" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -10010,7 +10013,7 @@
         <v>2.13</v>
       </c>
       <c r="L210" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10048,7 +10051,7 @@
         <v>2.69</v>
       </c>
       <c r="L211" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10086,7 +10089,7 @@
         <v>2.99</v>
       </c>
       <c r="L212" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10124,7 +10127,7 @@
         <v>3.96</v>
       </c>
       <c r="L213" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10162,7 +10165,7 @@
         <v>2.76</v>
       </c>
       <c r="L214" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10200,7 +10203,7 @@
         <v>3.34</v>
       </c>
       <c r="L215" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10238,7 +10241,7 @@
         <v>3.32</v>
       </c>
       <c r="L216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10276,7 +10279,7 @@
         <v>3.48</v>
       </c>
       <c r="L217" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10314,7 +10317,7 @@
         <v>3.7</v>
       </c>
       <c r="L218" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10352,7 +10355,7 @@
         <v>3.32</v>
       </c>
       <c r="L219" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10390,7 +10393,7 @@
         <v>3.55</v>
       </c>
       <c r="L220" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10428,7 +10431,7 @@
         <v>3.03</v>
       </c>
       <c r="L221" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10466,7 +10469,7 @@
         <v>2.73</v>
       </c>
       <c r="L222" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10504,7 +10507,7 @@
         <v>3.13</v>
       </c>
       <c r="L223" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10542,7 +10545,7 @@
         <v>3.24</v>
       </c>
       <c r="L224" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10580,7 +10583,7 @@
         <v>2.81</v>
       </c>
       <c r="L225" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10618,7 +10621,7 @@
         <v>2.95</v>
       </c>
       <c r="L226" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10656,7 +10659,7 @@
         <v>3.33</v>
       </c>
       <c r="L227" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10694,7 +10697,7 @@
         <v>3.24</v>
       </c>
       <c r="L228" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10732,7 +10735,7 @@
         <v>3.72</v>
       </c>
       <c r="L229" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10770,7 +10773,7 @@
         <v>2.59</v>
       </c>
       <c r="L230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10808,7 +10811,7 @@
         <v>2.93</v>
       </c>
       <c r="L231" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10846,7 +10849,7 @@
         <v>2.53</v>
       </c>
       <c r="L232" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10884,7 +10887,7 @@
         <v>2.62</v>
       </c>
       <c r="L233" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10922,7 +10925,7 @@
         <v>1.76</v>
       </c>
       <c r="L234" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10960,7 +10963,7 @@
         <v>1.97</v>
       </c>
       <c r="L235" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10998,7 +11001,7 @@
         <v>2.5</v>
       </c>
       <c r="L236" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11036,7 +11039,7 @@
         <v>2.36</v>
       </c>
       <c r="L237" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11074,7 +11077,7 @@
         <v>2.48</v>
       </c>
       <c r="L238" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11112,7 +11115,7 @@
         <v>2.15</v>
       </c>
       <c r="L239" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11150,7 +11153,7 @@
         <v>2.02</v>
       </c>
       <c r="L240" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11188,7 +11191,7 @@
         <v>2.53</v>
       </c>
       <c r="L241" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11226,7 +11229,7 @@
         <v>2.42</v>
       </c>
       <c r="L242" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11264,7 +11267,7 @@
         <v>2.11</v>
       </c>
       <c r="L243" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11302,7 +11305,7 @@
         <v>2.09</v>
       </c>
       <c r="L244" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11340,7 +11343,7 @@
         <v>2.26</v>
       </c>
       <c r="L245" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11378,7 +11381,7 @@
         <v>1.69</v>
       </c>
       <c r="L246" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11416,7 +11419,7 @@
         <v>1.71</v>
       </c>
       <c r="L247" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11454,7 +11457,7 @@
         <v>1.88</v>
       </c>
       <c r="L248" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11492,7 +11495,7 @@
         <v>1.28</v>
       </c>
       <c r="L249" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11530,7 +11533,7 @@
         <v>1.29</v>
       </c>
       <c r="L250" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11568,7 +11571,7 @@
         <v>0.97</v>
       </c>
       <c r="L251" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11606,7 +11609,7 @@
         <v>1.02</v>
       </c>
       <c r="L252" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11644,7 +11647,7 @@
         <v>1.29</v>
       </c>
       <c r="L253" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11682,7 +11685,7 @@
         <v>1.19</v>
       </c>
       <c r="L254" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11720,7 +11723,7 @@
         <v>0.74</v>
       </c>
       <c r="L255" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11758,7 +11761,7 @@
         <v>1.12</v>
       </c>
       <c r="L256" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11796,7 +11799,7 @@
         <v>1.07</v>
       </c>
       <c r="L257" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11834,7 +11837,7 @@
         <v>1.13</v>
       </c>
       <c r="L258" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11872,7 +11875,7 @@
         <v>1.09</v>
       </c>
       <c r="L259" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11910,7 +11913,7 @@
         <v>1.61</v>
       </c>
       <c r="L260" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11948,7 +11951,7 @@
         <v>0.82</v>
       </c>
       <c r="L261" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11986,7 +11989,7 @@
         <v>1.03</v>
       </c>
       <c r="L262" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12024,7 +12027,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L263" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12062,7 +12065,7 @@
         <v>1.69</v>
       </c>
       <c r="L264" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12100,7 +12103,7 @@
         <v>1.67</v>
       </c>
       <c r="L265" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12138,7 +12141,7 @@
         <v>1.26</v>
       </c>
       <c r="L266" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12176,7 +12179,7 @@
         <v>2.28</v>
       </c>
       <c r="L267" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12214,7 +12217,7 @@
         <v>1.71</v>
       </c>
       <c r="L268" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12252,7 +12255,7 @@
         <v>1.06</v>
       </c>
       <c r="L269" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12290,7 +12293,7 @@
         <v>1.7</v>
       </c>
       <c r="L270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12328,7 +12331,7 @@
         <v>0.96</v>
       </c>
       <c r="L271" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12366,7 +12369,7 @@
         <v>1.1</v>
       </c>
       <c r="L272" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12404,7 +12407,7 @@
         <v>1.18</v>
       </c>
       <c r="L273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12442,7 +12445,7 @@
         <v>0.98</v>
       </c>
       <c r="L274" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12480,7 +12483,7 @@
         <v>1.65</v>
       </c>
       <c r="L275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12518,7 +12521,7 @@
         <v>0.77</v>
       </c>
       <c r="L276" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12556,7 +12559,7 @@
         <v>0.86</v>
       </c>
       <c r="L277" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12594,7 +12597,7 @@
         <v>3.39</v>
       </c>
       <c r="L278" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12632,7 +12635,7 @@
         <v>1.1</v>
       </c>
       <c r="L279" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12670,7 +12673,7 @@
         <v>1.02</v>
       </c>
       <c r="L280" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12708,7 +12711,7 @@
         <v>1.19</v>
       </c>
       <c r="L281" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12746,7 +12749,7 @@
         <v>1.72</v>
       </c>
       <c r="L282" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12784,7 +12787,7 @@
         <v>1.69</v>
       </c>
       <c r="L283" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12822,7 +12825,7 @@
         <v>2.33</v>
       </c>
       <c r="L284" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12860,7 +12863,7 @@
         <v>3.18</v>
       </c>
       <c r="L285" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12898,7 +12901,7 @@
         <v>3.55</v>
       </c>
       <c r="L286" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12936,7 +12939,7 @@
         <v>4.68</v>
       </c>
       <c r="L287" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12974,7 +12977,7 @@
         <v>6.74</v>
       </c>
       <c r="L288" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -13012,7 +13015,7 @@
         <v>5.54</v>
       </c>
       <c r="L289" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13050,7 +13053,7 @@
         <v>6.91</v>
       </c>
       <c r="L290" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13088,7 +13091,7 @@
         <v>5.46</v>
       </c>
       <c r="L291" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13126,7 +13129,7 @@
         <v>3.64</v>
       </c>
       <c r="L292" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13164,7 +13167,7 @@
         <v>5.76</v>
       </c>
       <c r="L293" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13202,7 +13205,7 @@
         <v>5.86</v>
       </c>
       <c r="L294" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13240,7 +13243,7 @@
         <v>4.01</v>
       </c>
       <c r="L295" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13278,7 +13281,7 @@
         <v>3.39</v>
       </c>
       <c r="L296" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13316,7 +13319,7 @@
         <v>3.47</v>
       </c>
       <c r="L297" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13354,7 +13357,7 @@
         <v>3.68</v>
       </c>
       <c r="L298" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13392,7 +13395,7 @@
         <v>5.13</v>
       </c>
       <c r="L299" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13430,7 +13433,7 @@
         <v>3.95</v>
       </c>
       <c r="L300" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13468,7 +13471,7 @@
         <v>4.14</v>
       </c>
       <c r="L301" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13506,7 +13509,7 @@
         <v>3.21</v>
       </c>
       <c r="L302" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13544,7 +13547,7 @@
         <v>3.49</v>
       </c>
       <c r="L303" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13582,7 +13585,7 @@
         <v>4.52</v>
       </c>
       <c r="L304" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13620,7 +13623,7 @@
         <v>2.84</v>
       </c>
       <c r="L305" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13658,7 +13661,7 @@
         <v>3</v>
       </c>
       <c r="L306" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13696,7 +13699,7 @@
         <v>3.78</v>
       </c>
       <c r="L307" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13734,7 +13737,7 @@
         <v>3.05</v>
       </c>
       <c r="L308" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13772,7 +13775,7 @@
         <v>4.08</v>
       </c>
       <c r="L309" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13810,7 +13813,7 @@
         <v>3.44</v>
       </c>
       <c r="L310" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13848,7 +13851,7 @@
         <v>3.68</v>
       </c>
       <c r="L311" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13886,7 +13889,7 @@
         <v>3.67</v>
       </c>
       <c r="L312" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13924,7 +13927,7 @@
         <v>4.1</v>
       </c>
       <c r="L313" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13962,7 +13965,7 @@
         <v>4.54</v>
       </c>
       <c r="L314" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -14000,7 +14003,7 @@
         <v>5.98</v>
       </c>
       <c r="L315" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14038,7 +14041,7 @@
         <v>5.25</v>
       </c>
       <c r="L316" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14076,7 +14079,7 @@
         <v>4.46</v>
       </c>
       <c r="L317" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14114,7 +14117,7 @@
         <v>4.36</v>
       </c>
       <c r="L318" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14152,7 +14155,7 @@
         <v>3.3</v>
       </c>
       <c r="L319" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14190,7 +14193,7 @@
         <v>4.89</v>
       </c>
       <c r="L320" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14228,7 +14231,7 @@
         <v>6.11</v>
       </c>
       <c r="L321" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14266,7 +14269,7 @@
         <v>5.98</v>
       </c>
       <c r="L322" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14304,7 +14307,7 @@
         <v>4.43</v>
       </c>
       <c r="L323" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14342,7 +14345,7 @@
         <v>6.46</v>
       </c>
       <c r="L324" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14380,7 +14383,7 @@
         <v>6.03</v>
       </c>
       <c r="L325" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14418,7 +14421,7 @@
         <v>4.89</v>
       </c>
       <c r="L326" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14456,7 +14459,7 @@
         <v>4.56</v>
       </c>
       <c r="L327" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14494,7 +14497,7 @@
         <v>6.03</v>
       </c>
       <c r="L328" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14532,7 +14535,7 @@
         <v>4.47</v>
       </c>
       <c r="L329" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14570,7 +14573,7 @@
         <v>5.12</v>
       </c>
       <c r="L330" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14608,7 +14611,7 @@
         <v>5.31</v>
       </c>
       <c r="L331" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14646,7 +14649,7 @@
         <v>5.55</v>
       </c>
       <c r="L332" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14684,7 +14687,7 @@
         <v>7.97</v>
       </c>
       <c r="L333" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14722,7 +14725,7 @@
         <v>7.48</v>
       </c>
       <c r="L334" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14760,7 +14763,7 @@
         <v>8.76</v>
       </c>
       <c r="L335" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14798,7 +14801,7 @@
         <v>6.85</v>
       </c>
       <c r="L336" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14836,7 +14839,7 @@
         <v>5.83</v>
       </c>
       <c r="L337" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14874,7 +14877,7 @@
         <v>7.11</v>
       </c>
       <c r="L338" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14912,7 +14915,7 @@
         <v>4.12</v>
       </c>
       <c r="L339" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14950,7 +14953,7 @@
         <v>5.29</v>
       </c>
       <c r="L340" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14988,7 +14991,7 @@
         <v>6.28</v>
       </c>
       <c r="L341" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15026,7 +15029,7 @@
         <v>9.49</v>
       </c>
       <c r="L342" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15064,7 +15067,7 @@
         <v>9.74</v>
       </c>
       <c r="L343" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15102,7 +15105,7 @@
         <v>5.83</v>
       </c>
       <c r="L344" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15140,7 +15143,7 @@
         <v>9.49</v>
       </c>
       <c r="L345" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15178,7 +15181,7 @@
         <v>11.18</v>
       </c>
       <c r="L346" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15216,7 +15219,7 @@
         <v>8.93</v>
       </c>
       <c r="L347" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15254,7 +15257,7 @@
         <v>7.33</v>
       </c>
       <c r="L348" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15292,7 +15295,7 @@
         <v>7.25</v>
       </c>
       <c r="L349" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15330,7 +15333,7 @@
         <v>11.32</v>
       </c>
       <c r="L350" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15368,7 +15371,7 @@
         <v>11.36</v>
       </c>
       <c r="L351" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15406,7 +15409,7 @@
         <v>10.03</v>
       </c>
       <c r="L352" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15444,7 +15447,7 @@
         <v>13.31</v>
       </c>
       <c r="L353" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15482,7 +15485,7 @@
         <v>7.32</v>
       </c>
       <c r="L354" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15520,7 +15523,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="L355" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15558,7 +15561,7 @@
         <v>8.41</v>
       </c>
       <c r="L356" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15596,7 +15599,7 @@
         <v>9.58</v>
       </c>
       <c r="L357" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15634,7 +15637,7 @@
         <v>7.46</v>
       </c>
       <c r="L358" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15672,7 +15675,7 @@
         <v>6.25</v>
       </c>
       <c r="L359" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15710,7 +15713,7 @@
         <v>7.69</v>
       </c>
       <c r="L360" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15748,7 +15751,7 @@
         <v>7.6</v>
       </c>
       <c r="L361" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15786,7 +15789,7 @@
         <v>4.9</v>
       </c>
       <c r="L362" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15824,7 +15827,7 @@
         <v>6.95</v>
       </c>
       <c r="L363" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15862,7 +15865,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L364" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15900,7 +15903,7 @@
         <v>4.82</v>
       </c>
       <c r="L365" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15938,7 +15941,7 @@
         <v>5.88</v>
       </c>
       <c r="L366" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15976,7 +15979,7 @@
         <v>5.07</v>
       </c>
       <c r="L367" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16014,7 +16017,7 @@
         <v>5.59</v>
       </c>
       <c r="L368" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16052,7 +16055,7 @@
         <v>5.03</v>
       </c>
       <c r="L369" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16090,7 +16093,7 @@
         <v>7.01</v>
       </c>
       <c r="L370" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16128,7 +16131,7 @@
         <v>8.52</v>
       </c>
       <c r="L371" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16166,7 +16169,7 @@
         <v>7.61</v>
       </c>
       <c r="L372" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16204,7 +16207,7 @@
         <v>8.52</v>
       </c>
       <c r="L373" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16242,7 +16245,7 @@
         <v>5.11</v>
       </c>
       <c r="L374" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16280,7 +16283,7 @@
         <v>4.84</v>
       </c>
       <c r="L375" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16318,7 +16321,7 @@
         <v>6.12</v>
       </c>
       <c r="L376" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16356,7 +16359,7 @@
         <v>8.74</v>
       </c>
       <c r="L377" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16394,7 +16397,7 @@
         <v>6.2</v>
       </c>
       <c r="L378" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16432,7 +16435,7 @@
         <v>7.98</v>
       </c>
       <c r="L379" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16470,7 +16473,7 @@
         <v>8.59</v>
       </c>
       <c r="L380" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16508,7 +16511,7 @@
         <v>5.6</v>
       </c>
       <c r="L381" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16546,7 +16549,7 @@
         <v>6.56</v>
       </c>
       <c r="L382" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16584,7 +16587,7 @@
         <v>5.3</v>
       </c>
       <c r="L383" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16622,7 +16625,7 @@
         <v>6.66</v>
       </c>
       <c r="L384" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16660,7 +16663,7 @@
         <v>5.33</v>
       </c>
       <c r="L385" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16698,7 +16701,7 @@
         <v>7.84</v>
       </c>
       <c r="L386" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16736,7 +16739,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L387" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16774,7 +16777,7 @@
         <v>5.99</v>
       </c>
       <c r="L388" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16812,7 +16815,7 @@
         <v>3.16</v>
       </c>
       <c r="L389" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16850,7 +16853,7 @@
         <v>3.78</v>
       </c>
       <c r="L390" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16888,7 +16891,7 @@
         <v>4.31</v>
       </c>
       <c r="L391" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16926,7 +16929,7 @@
         <v>7.55</v>
       </c>
       <c r="L392" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16964,7 +16967,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -17002,7 +17005,7 @@
         <v>6.88</v>
       </c>
       <c r="L394" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17040,7 +17043,7 @@
         <v>5.25</v>
       </c>
       <c r="L395" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17078,7 +17081,7 @@
         <v>4.48</v>
       </c>
       <c r="L396" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17116,7 +17119,7 @@
         <v>5.79</v>
       </c>
       <c r="L397" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17154,7 +17157,7 @@
         <v>7.17</v>
       </c>
       <c r="L398" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17192,7 +17195,7 @@
         <v>5.48</v>
       </c>
       <c r="L399" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17230,7 +17233,7 @@
         <v>5.91</v>
       </c>
       <c r="L400" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17268,7 +17271,7 @@
         <v>6.42</v>
       </c>
       <c r="L401" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17306,7 +17309,7 @@
         <v>5.73</v>
       </c>
       <c r="L402" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17344,7 +17347,7 @@
         <v>4.84</v>
       </c>
       <c r="L403" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17382,7 +17385,7 @@
         <v>5.3</v>
       </c>
       <c r="L404" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17420,7 +17423,7 @@
         <v>4.01</v>
       </c>
       <c r="L405" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17458,7 +17461,7 @@
         <v>2.5</v>
       </c>
       <c r="L406" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17496,7 +17499,7 @@
         <v>4.54</v>
       </c>
       <c r="L407" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17534,7 +17537,7 @@
         <v>5.22</v>
       </c>
       <c r="L408" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17572,7 +17575,7 @@
         <v>6.16</v>
       </c>
       <c r="L409" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17610,7 +17613,7 @@
         <v>7.22</v>
       </c>
       <c r="L410" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17648,7 +17651,7 @@
         <v>5.84</v>
       </c>
       <c r="L411" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17686,7 +17689,7 @@
         <v>7.4</v>
       </c>
       <c r="L412" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17724,7 +17727,7 @@
         <v>6.36</v>
       </c>
       <c r="L413" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17762,7 +17765,7 @@
         <v>4.94</v>
       </c>
       <c r="L414" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17800,7 +17803,7 @@
         <v>3.82</v>
       </c>
       <c r="L415" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17838,7 +17841,7 @@
         <v>4.41</v>
       </c>
       <c r="L416" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17876,7 +17879,7 @@
         <v>6.06</v>
       </c>
       <c r="L417" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17914,7 +17917,7 @@
         <v>4.65</v>
       </c>
       <c r="L418" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17952,7 +17955,7 @@
         <v>3.47</v>
       </c>
       <c r="L419" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17990,7 +17993,7 @@
         <v>3.93</v>
       </c>
       <c r="L420" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18028,7 +18031,7 @@
         <v>4.93</v>
       </c>
       <c r="L421" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18066,7 +18069,7 @@
         <v>4.87</v>
       </c>
       <c r="L422" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18104,7 +18107,7 @@
         <v>5.48</v>
       </c>
       <c r="L423" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18142,7 +18145,7 @@
         <v>5.94</v>
       </c>
       <c r="L424" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18180,7 +18183,7 @@
         <v>8.23</v>
       </c>
       <c r="L425" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18218,7 +18221,7 @@
         <v>10.13</v>
       </c>
       <c r="L426" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18256,7 +18259,7 @@
         <v>5.87</v>
       </c>
       <c r="L427" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18294,7 +18297,7 @@
         <v>8.43</v>
       </c>
       <c r="L428" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18332,7 +18335,7 @@
         <v>7.37</v>
       </c>
       <c r="L429" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18370,7 +18373,7 @@
         <v>6.86</v>
       </c>
       <c r="L430" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18408,7 +18411,7 @@
         <v>6.22</v>
       </c>
       <c r="L431" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18446,7 +18449,7 @@
         <v>6.52</v>
       </c>
       <c r="L432" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18484,7 +18487,7 @@
         <v>5.21</v>
       </c>
       <c r="L433" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18522,7 +18525,7 @@
         <v>7.41</v>
       </c>
       <c r="L434" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18560,7 +18563,7 @@
         <v>7.24</v>
       </c>
       <c r="L435" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18598,7 +18601,7 @@
         <v>6.32</v>
       </c>
       <c r="L436" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18636,7 +18639,7 @@
         <v>5.09</v>
       </c>
       <c r="L437" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18674,7 +18677,7 @@
         <v>6.06</v>
       </c>
       <c r="L438" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18712,7 +18715,7 @@
         <v>6.51</v>
       </c>
       <c r="L439" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18750,7 +18753,7 @@
         <v>5.27</v>
       </c>
       <c r="L440" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18788,7 +18791,7 @@
         <v>5.42</v>
       </c>
       <c r="L441" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18826,7 +18829,7 @@
         <v>5.08</v>
       </c>
       <c r="L442" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18864,7 +18867,7 @@
         <v>6.4</v>
       </c>
       <c r="L443" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18902,7 +18905,7 @@
         <v>5.37</v>
       </c>
       <c r="L444" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18940,7 +18943,7 @@
         <v>6.87</v>
       </c>
       <c r="L445" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18978,7 +18981,7 @@
         <v>6.3</v>
       </c>
       <c r="L446" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19016,7 +19019,7 @@
         <v>7.63</v>
       </c>
       <c r="L447" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19054,7 +19057,7 @@
         <v>5.39</v>
       </c>
       <c r="L448" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19092,7 +19095,7 @@
         <v>5.64</v>
       </c>
       <c r="L449" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19130,7 +19133,7 @@
         <v>5.44</v>
       </c>
       <c r="L450" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19168,7 +19171,7 @@
         <v>8.41</v>
       </c>
       <c r="L451" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19206,7 +19209,7 @@
         <v>5.44</v>
       </c>
       <c r="L452" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19244,7 +19247,7 @@
         <v>5.61</v>
       </c>
       <c r="L453" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19282,7 +19285,7 @@
         <v>7.1</v>
       </c>
       <c r="L454" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19320,7 +19323,7 @@
         <v>6.1</v>
       </c>
       <c r="L455" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19358,7 +19361,7 @@
         <v>6.76</v>
       </c>
       <c r="L456" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19396,7 +19399,7 @@
         <v>7.65</v>
       </c>
       <c r="L457" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19434,7 +19437,7 @@
         <v>3.96</v>
       </c>
       <c r="L458" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19472,7 +19475,7 @@
         <v>4.24</v>
       </c>
       <c r="L459" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19510,7 +19513,7 @@
         <v>4.31</v>
       </c>
       <c r="L460" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19548,7 +19551,7 @@
         <v>6.02</v>
       </c>
       <c r="L461" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19586,7 +19589,7 @@
         <v>4.81</v>
       </c>
       <c r="L462" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19624,7 +19627,7 @@
         <v>3.11</v>
       </c>
       <c r="L463" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19662,7 +19665,7 @@
         <v>3.62</v>
       </c>
       <c r="L464" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19700,7 +19703,7 @@
         <v>3.99</v>
       </c>
       <c r="L465" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19738,7 +19741,7 @@
         <v>3.62</v>
       </c>
       <c r="L466" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19776,7 +19779,7 @@
         <v>3.1</v>
       </c>
       <c r="L467" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19814,7 +19817,7 @@
         <v>3.17</v>
       </c>
       <c r="L468" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19852,7 +19855,7 @@
         <v>3.65</v>
       </c>
       <c r="L469" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19890,7 +19893,7 @@
         <v>3.59</v>
       </c>
       <c r="L470" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19928,7 +19931,7 @@
         <v>3.64</v>
       </c>
       <c r="L471" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19966,7 +19969,7 @@
         <v>3.45</v>
       </c>
       <c r="L472" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -20004,7 +20007,7 @@
         <v>3.42</v>
       </c>
       <c r="L473" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20042,7 +20045,7 @@
         <v>4.53</v>
       </c>
       <c r="L474" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20080,7 +20083,7 @@
         <v>5.58</v>
       </c>
       <c r="L475" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20118,7 +20121,7 @@
         <v>5.67</v>
       </c>
       <c r="L476" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20156,7 +20159,7 @@
         <v>4.39</v>
       </c>
       <c r="L477" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20194,7 +20197,7 @@
         <v>5.18</v>
       </c>
       <c r="L478" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20232,7 +20235,7 @@
         <v>5.21</v>
       </c>
       <c r="L479" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20270,7 +20273,7 @@
         <v>8.92</v>
       </c>
       <c r="L480" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20308,7 +20311,7 @@
         <v>10.84</v>
       </c>
       <c r="L481" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20346,7 +20349,7 @@
         <v>9.16</v>
       </c>
       <c r="L482" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20384,7 +20387,7 @@
         <v>8.31</v>
       </c>
       <c r="L483" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20422,7 +20425,7 @@
         <v>6.06</v>
       </c>
       <c r="L484" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20460,7 +20463,7 @@
         <v>10.28</v>
       </c>
       <c r="L485" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20498,7 +20501,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="L486" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20536,7 +20539,7 @@
         <v>8.52</v>
       </c>
       <c r="L487" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20574,7 +20577,7 @@
         <v>9.59</v>
       </c>
       <c r="L488" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20612,7 +20615,7 @@
         <v>10.9</v>
       </c>
       <c r="L489" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20650,7 +20653,7 @@
         <v>8.57</v>
       </c>
       <c r="L490" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20688,7 +20691,7 @@
         <v>11.39</v>
       </c>
       <c r="L491" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20726,7 +20729,7 @@
         <v>10.44</v>
       </c>
       <c r="L492" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20764,7 +20767,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L493" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20802,7 +20805,7 @@
         <v>9.25</v>
       </c>
       <c r="L494" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20840,7 +20843,7 @@
         <v>10.11</v>
       </c>
       <c r="L495" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20878,7 +20881,7 @@
         <v>11.25</v>
       </c>
       <c r="L496" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20916,7 +20919,7 @@
         <v>7.76</v>
       </c>
       <c r="L497" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20954,7 +20957,7 @@
         <v>8.92</v>
       </c>
       <c r="L498" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20992,7 +20995,7 @@
         <v>10.61</v>
       </c>
       <c r="L499" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21030,7 +21033,7 @@
         <v>7.25</v>
       </c>
       <c r="L500" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21068,7 +21071,7 @@
         <v>6.86</v>
       </c>
       <c r="L501" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21106,7 +21109,7 @@
         <v>8.35</v>
       </c>
       <c r="L502" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21144,7 +21147,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L503" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21182,7 +21185,7 @@
         <v>8.99</v>
       </c>
       <c r="L504" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21220,7 +21223,7 @@
         <v>10.48</v>
       </c>
       <c r="L505" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21258,7 +21261,7 @@
         <v>7.55</v>
       </c>
       <c r="L506" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21296,7 +21299,7 @@
         <v>11.78</v>
       </c>
       <c r="L507" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21334,7 +21337,7 @@
         <v>8.06</v>
       </c>
       <c r="L508" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21372,7 +21375,7 @@
         <v>7.77</v>
       </c>
       <c r="L509" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21410,7 +21413,7 @@
         <v>4.64</v>
       </c>
       <c r="L510" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21448,7 +21451,7 @@
         <v>7.52</v>
       </c>
       <c r="L511" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21486,7 +21489,7 @@
         <v>7.56</v>
       </c>
       <c r="L512" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21524,7 +21527,7 @@
         <v>6.79</v>
       </c>
       <c r="L513" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21562,7 +21565,7 @@
         <v>8.49</v>
       </c>
       <c r="L514" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21600,7 +21603,7 @@
         <v>7.28</v>
       </c>
       <c r="L515" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21638,7 +21641,7 @@
         <v>7.37</v>
       </c>
       <c r="L516" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21676,7 +21679,7 @@
         <v>5.74</v>
       </c>
       <c r="L517" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21714,7 +21717,7 @@
         <v>7.08</v>
       </c>
       <c r="L518" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21752,7 +21755,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L519" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21790,7 +21793,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L520" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21828,7 +21831,7 @@
         <v>6.78</v>
       </c>
       <c r="L521" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21866,7 +21869,7 @@
         <v>8.25</v>
       </c>
       <c r="L522" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21904,7 +21907,7 @@
         <v>9.49</v>
       </c>
       <c r="L523" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21942,7 +21945,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L524" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21980,7 +21983,7 @@
         <v>5.61</v>
       </c>
       <c r="L525" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22018,7 +22021,7 @@
         <v>6.31</v>
       </c>
       <c r="L526" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22056,7 +22059,7 @@
         <v>5.55</v>
       </c>
       <c r="L527" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22094,7 +22097,7 @@
         <v>5.77</v>
       </c>
       <c r="L528" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22132,7 +22135,7 @@
         <v>4.78</v>
       </c>
       <c r="L529" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22170,7 +22173,7 @@
         <v>6.14</v>
       </c>
       <c r="L530" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22208,7 +22211,7 @@
         <v>6.15</v>
       </c>
       <c r="L531" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22246,7 +22249,7 @@
         <v>6.44</v>
       </c>
       <c r="L532" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22284,7 +22287,7 @@
         <v>5.67</v>
       </c>
       <c r="L533" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22322,7 +22325,7 @@
         <v>4.61</v>
       </c>
       <c r="L534" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22360,7 +22363,7 @@
         <v>4.5</v>
       </c>
       <c r="L535" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22398,7 +22401,7 @@
         <v>4.06</v>
       </c>
       <c r="L536" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22436,7 +22439,7 @@
         <v>3.64</v>
       </c>
       <c r="L537" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22474,7 +22477,7 @@
         <v>3.21</v>
       </c>
       <c r="L538" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22512,7 +22515,7 @@
         <v>5.48</v>
       </c>
       <c r="L539" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -22550,7 +22553,7 @@
         <v>6.63</v>
       </c>
       <c r="L540" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -22588,7 +22591,7 @@
         <v>7.34</v>
       </c>
       <c r="L541" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -22626,7 +22629,45 @@
         <v>5.08</v>
       </c>
       <c r="L542" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
         <v>552</v>
+      </c>
+      <c r="C543">
+        <v>12.78</v>
+      </c>
+      <c r="D543">
+        <v>100</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>60</v>
+      </c>
+      <c r="G543">
+        <v>334.34</v>
+      </c>
+      <c r="H543">
+        <v>60</v>
+      </c>
+      <c r="I543">
+        <v>0.02</v>
+      </c>
+      <c r="J543">
+        <v>41.71</v>
+      </c>
+      <c r="K543">
+        <v>4.04</v>
+      </c>
+      <c r="L543" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="458">
   <si>
     <t>Fecha</t>
   </si>
@@ -1358,6 +1358,33 @@
   </si>
   <si>
     <t>11/17/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:10:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1718,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L438"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1821,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1832,7 +1859,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1870,7 +1897,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1908,7 +1935,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1946,7 +1973,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1984,7 +2011,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2022,7 +2049,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2060,7 +2087,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2098,7 +2125,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2136,7 +2163,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2174,7 +2201,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2212,7 +2239,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2250,7 +2277,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2288,7 +2315,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2326,7 +2353,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2364,7 +2391,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2402,7 +2429,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2440,7 +2467,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2478,7 +2505,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2516,7 +2543,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2554,7 +2581,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2592,7 +2619,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2630,7 +2657,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2668,7 +2695,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2706,7 +2733,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2744,7 +2771,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2782,7 +2809,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2820,7 +2847,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2858,7 +2885,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2896,7 +2923,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2934,7 +2961,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2972,7 +2999,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3010,7 +3037,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3048,7 +3075,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3086,7 +3113,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3124,7 +3151,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3162,7 +3189,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3200,7 +3227,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3238,7 +3265,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3276,7 +3303,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3314,7 +3341,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3352,7 +3379,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3390,7 +3417,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3428,7 +3455,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3466,7 +3493,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3504,7 +3531,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3542,7 +3569,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3580,7 +3607,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3618,7 +3645,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3656,7 +3683,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3694,7 +3721,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3732,7 +3759,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3770,7 +3797,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3808,7 +3835,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3846,7 +3873,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3884,7 +3911,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3922,7 +3949,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3960,7 +3987,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3998,7 +4025,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4036,7 +4063,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4074,7 +4101,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4112,7 +4139,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4150,7 +4177,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4188,7 +4215,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4226,7 +4253,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4264,7 +4291,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4302,7 +4329,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4340,7 +4367,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4378,7 +4405,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4416,7 +4443,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4454,7 +4481,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4492,7 +4519,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4530,7 +4557,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4568,7 +4595,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4606,7 +4633,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4644,7 +4671,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4682,7 +4709,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4720,7 +4747,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4758,7 +4785,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4796,7 +4823,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4834,7 +4861,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4872,7 +4899,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4910,7 +4937,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4948,7 +4975,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4986,7 +5013,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5024,7 +5051,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5062,7 +5089,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5100,7 +5127,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5138,7 +5165,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5176,7 +5203,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5214,7 +5241,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5252,7 +5279,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5290,7 +5317,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5328,7 +5355,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5366,7 +5393,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5404,7 +5431,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5442,7 +5469,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5480,7 +5507,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5518,7 +5545,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5556,7 +5583,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5594,7 +5621,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5632,7 +5659,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5670,7 +5697,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5708,7 +5735,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5746,7 +5773,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5784,7 +5811,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5822,7 +5849,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5860,7 +5887,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5898,7 +5925,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5936,7 +5963,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5974,7 +6001,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6012,7 +6039,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6050,7 +6077,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6088,7 +6115,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6126,7 +6153,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6164,7 +6191,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6202,7 +6229,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6240,7 +6267,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6278,7 +6305,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6316,7 +6343,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6354,7 +6381,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6392,7 +6419,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6430,7 +6457,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6468,7 +6495,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6506,7 +6533,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6544,7 +6571,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6582,7 +6609,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6620,7 +6647,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6658,7 +6685,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6696,7 +6723,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6734,7 +6761,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6772,7 +6799,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6810,7 +6837,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6848,7 +6875,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6886,7 +6913,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6924,7 +6951,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6962,7 +6989,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7000,7 +7027,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7038,7 +7065,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7076,7 +7103,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7114,7 +7141,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7152,7 +7179,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7190,7 +7217,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7228,7 +7255,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7266,7 +7293,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7304,7 +7331,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7342,7 +7369,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7380,7 +7407,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7418,7 +7445,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7456,7 +7483,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7494,7 +7521,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7532,7 +7559,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7570,7 +7597,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7608,7 +7635,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7646,7 +7673,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7684,7 +7711,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7722,7 +7749,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7760,7 +7787,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7798,7 +7825,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7836,7 +7863,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7874,7 +7901,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7912,7 +7939,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7950,7 +7977,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7988,7 +8015,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8026,7 +8053,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8064,7 +8091,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8102,7 +8129,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8140,7 +8167,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8178,7 +8205,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8216,7 +8243,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8254,7 +8281,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8292,7 +8319,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8330,7 +8357,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8368,7 +8395,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8406,7 +8433,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8444,7 +8471,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8482,7 +8509,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8520,7 +8547,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8558,7 +8585,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8596,7 +8623,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8634,7 +8661,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8672,7 +8699,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8710,7 +8737,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8748,7 +8775,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8786,7 +8813,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8824,7 +8851,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8862,7 +8889,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8900,7 +8927,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8938,7 +8965,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8976,7 +9003,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9014,7 +9041,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9052,7 +9079,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9090,7 +9117,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9128,7 +9155,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9166,7 +9193,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9204,7 +9231,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9242,7 +9269,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9280,7 +9307,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9318,7 +9345,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9356,7 +9383,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9394,7 +9421,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9432,7 +9459,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9470,7 +9497,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9508,7 +9535,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9546,7 +9573,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9584,7 +9611,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9622,7 +9649,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9660,7 +9687,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9698,7 +9725,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9736,7 +9763,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9774,7 +9801,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9812,7 +9839,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9850,7 +9877,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9888,7 +9915,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9926,7 +9953,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9964,7 +9991,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10002,7 +10029,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10040,7 +10067,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10078,7 +10105,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10116,7 +10143,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10154,7 +10181,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10192,7 +10219,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10230,7 +10257,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10268,7 +10295,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10306,7 +10333,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10344,7 +10371,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10382,7 +10409,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10420,7 +10447,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10458,7 +10485,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10496,7 +10523,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10534,7 +10561,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10572,7 +10599,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10610,7 +10637,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10648,7 +10675,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10686,7 +10713,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10724,7 +10751,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10762,7 +10789,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10800,7 +10827,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10838,7 +10865,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10876,7 +10903,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10914,7 +10941,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10952,7 +10979,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10990,7 +11017,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11028,7 +11055,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11066,7 +11093,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11104,7 +11131,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11142,7 +11169,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11180,7 +11207,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11218,7 +11245,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11256,7 +11283,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11294,7 +11321,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11332,7 +11359,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11370,7 +11397,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11408,7 +11435,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11446,7 +11473,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11484,7 +11511,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11522,7 +11549,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11560,7 +11587,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11598,7 +11625,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11636,7 +11663,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11674,7 +11701,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11712,7 +11739,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11750,7 +11777,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11788,7 +11815,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11826,7 +11853,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11864,7 +11891,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11902,7 +11929,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11940,7 +11967,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11978,7 +12005,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12016,7 +12043,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12054,7 +12081,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12092,7 +12119,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12130,7 +12157,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12168,7 +12195,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12206,7 +12233,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12244,7 +12271,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12282,7 +12309,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12320,7 +12347,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12358,7 +12385,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12396,7 +12423,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12434,7 +12461,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12472,7 +12499,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12510,7 +12537,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12548,7 +12575,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12586,7 +12613,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12624,7 +12651,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12662,7 +12689,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12700,7 +12727,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12738,7 +12765,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12776,7 +12803,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12814,7 +12841,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12852,7 +12879,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12890,7 +12917,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12928,7 +12955,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12966,7 +12993,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13004,7 +13031,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13042,7 +13069,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13080,7 +13107,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13118,7 +13145,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13156,7 +13183,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13194,7 +13221,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13232,7 +13259,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13270,7 +13297,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13308,7 +13335,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13346,7 +13373,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13384,7 +13411,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13422,7 +13449,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13460,7 +13487,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13498,7 +13525,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13536,7 +13563,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13574,7 +13601,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13612,7 +13639,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13650,7 +13677,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13688,7 +13715,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13726,7 +13753,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13764,7 +13791,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13802,7 +13829,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13840,7 +13867,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13878,7 +13905,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13916,7 +13943,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13954,7 +13981,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13992,7 +14019,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14030,7 +14057,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14068,7 +14095,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14106,7 +14133,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14144,7 +14171,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14182,7 +14209,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14220,7 +14247,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14258,7 +14285,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14296,7 +14323,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14334,7 +14361,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14372,7 +14399,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14410,7 +14437,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14448,7 +14475,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14486,7 +14513,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14524,7 +14551,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14562,7 +14589,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14600,7 +14627,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14638,7 +14665,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14676,7 +14703,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14714,7 +14741,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14752,7 +14779,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14790,7 +14817,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14828,7 +14855,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14866,7 +14893,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14904,7 +14931,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14942,7 +14969,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14980,7 +15007,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15018,7 +15045,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15056,7 +15083,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15094,7 +15121,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15132,7 +15159,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15170,7 +15197,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15208,7 +15235,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15246,7 +15273,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15284,7 +15311,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15322,7 +15349,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15360,7 +15387,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15398,7 +15425,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15436,7 +15463,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15474,7 +15501,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15512,7 +15539,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15550,7 +15577,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15588,7 +15615,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15626,7 +15653,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15664,7 +15691,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15702,7 +15729,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15740,7 +15767,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15778,7 +15805,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15816,7 +15843,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15854,7 +15881,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15892,7 +15919,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15930,7 +15957,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15968,7 +15995,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16006,7 +16033,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16044,7 +16071,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16082,7 +16109,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16120,7 +16147,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16158,7 +16185,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16196,7 +16223,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16234,7 +16261,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16272,7 +16299,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16310,7 +16337,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16348,7 +16375,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16386,7 +16413,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16424,7 +16451,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16462,7 +16489,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16500,7 +16527,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16538,7 +16565,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16576,7 +16603,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16614,7 +16641,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16652,7 +16679,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16690,7 +16717,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16728,7 +16755,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16766,7 +16793,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16804,7 +16831,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16842,7 +16869,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16880,7 +16907,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16918,7 +16945,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16956,7 +16983,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16994,7 +17021,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17032,7 +17059,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17070,7 +17097,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17108,7 +17135,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17146,7 +17173,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17184,7 +17211,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17222,7 +17249,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17260,7 +17287,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17298,7 +17325,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17336,7 +17363,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17374,7 +17401,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17412,7 +17439,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17450,7 +17477,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17488,7 +17515,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17526,7 +17553,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17564,7 +17591,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17602,7 +17629,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17640,7 +17667,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17678,7 +17705,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17716,7 +17743,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17754,7 +17781,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17792,7 +17819,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17830,7 +17857,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17868,7 +17895,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17906,7 +17933,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17944,7 +17971,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17982,7 +18009,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18020,7 +18047,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18058,7 +18085,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18096,7 +18123,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18134,7 +18161,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18172,7 +18199,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18210,7 +18237,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18248,7 +18275,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18286,7 +18313,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18324,7 +18351,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18362,7 +18389,349 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
         <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.61</v>
+      </c>
+      <c r="D439">
+        <v>100</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>60</v>
+      </c>
+      <c r="G439">
+        <v>317.59</v>
+      </c>
+      <c r="H439">
+        <v>60</v>
+      </c>
+      <c r="I439">
+        <v>0.23</v>
+      </c>
+      <c r="J439">
+        <v>156.24</v>
+      </c>
+      <c r="K439">
+        <v>9.4</v>
+      </c>
+      <c r="L439" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.61</v>
+      </c>
+      <c r="D440">
+        <v>100</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>60</v>
+      </c>
+      <c r="G440">
+        <v>321.49</v>
+      </c>
+      <c r="H440">
+        <v>60</v>
+      </c>
+      <c r="I440">
+        <v>-0.15</v>
+      </c>
+      <c r="J440">
+        <v>158.51</v>
+      </c>
+      <c r="K440">
+        <v>10.71</v>
+      </c>
+      <c r="L440" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.6</v>
+      </c>
+      <c r="D441">
+        <v>100</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>60</v>
+      </c>
+      <c r="G441">
+        <v>329.02</v>
+      </c>
+      <c r="H441">
+        <v>60</v>
+      </c>
+      <c r="I441">
+        <v>-0.6</v>
+      </c>
+      <c r="J441">
+        <v>157.75</v>
+      </c>
+      <c r="K441">
+        <v>12.34</v>
+      </c>
+      <c r="L441" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.6</v>
+      </c>
+      <c r="D442">
+        <v>100</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>60</v>
+      </c>
+      <c r="G442">
+        <v>331.13</v>
+      </c>
+      <c r="H442">
+        <v>60</v>
+      </c>
+      <c r="I442">
+        <v>-0.05</v>
+      </c>
+      <c r="J442">
+        <v>156.88</v>
+      </c>
+      <c r="K442">
+        <v>12.29</v>
+      </c>
+      <c r="L442" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.59</v>
+      </c>
+      <c r="D443">
+        <v>100</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>60</v>
+      </c>
+      <c r="G443">
+        <v>328.92</v>
+      </c>
+      <c r="H443">
+        <v>60</v>
+      </c>
+      <c r="I443">
+        <v>0.47</v>
+      </c>
+      <c r="J443">
+        <v>152.37</v>
+      </c>
+      <c r="K443">
+        <v>11.21</v>
+      </c>
+      <c r="L443" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.59</v>
+      </c>
+      <c r="D444">
+        <v>100</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>60</v>
+      </c>
+      <c r="G444">
+        <v>330.06</v>
+      </c>
+      <c r="H444">
+        <v>60</v>
+      </c>
+      <c r="I444">
+        <v>0.25</v>
+      </c>
+      <c r="J444">
+        <v>153.67</v>
+      </c>
+      <c r="K444">
+        <v>13.88</v>
+      </c>
+      <c r="L444" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.58</v>
+      </c>
+      <c r="D445">
+        <v>100</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>60</v>
+      </c>
+      <c r="G445">
+        <v>326.33</v>
+      </c>
+      <c r="H445">
+        <v>60</v>
+      </c>
+      <c r="I445">
+        <v>-0.72</v>
+      </c>
+      <c r="J445">
+        <v>156.99</v>
+      </c>
+      <c r="K445">
+        <v>12.18</v>
+      </c>
+      <c r="L445" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.58</v>
+      </c>
+      <c r="D446">
+        <v>100</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>60</v>
+      </c>
+      <c r="G446">
+        <v>330.32</v>
+      </c>
+      <c r="H446">
+        <v>60</v>
+      </c>
+      <c r="I446">
+        <v>0.36</v>
+      </c>
+      <c r="J446">
+        <v>154.99</v>
+      </c>
+      <c r="K446">
+        <v>11.9</v>
+      </c>
+      <c r="L446" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.57</v>
+      </c>
+      <c r="D447">
+        <v>100</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>60</v>
+      </c>
+      <c r="G447">
+        <v>322.92</v>
+      </c>
+      <c r="H447">
+        <v>60</v>
+      </c>
+      <c r="I447">
+        <v>-0.2</v>
+      </c>
+      <c r="J447">
+        <v>153.91</v>
+      </c>
+      <c r="K447">
+        <v>10.77</v>
+      </c>
+      <c r="L447" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="469">
   <si>
     <t>Fecha</t>
   </si>
@@ -1385,6 +1385,39 @@
   </si>
   <si>
     <t>11/17/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1745,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L447"/>
+  <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1821,7 +1854,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1859,7 +1892,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1897,7 +1930,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1935,7 +1968,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1973,7 +2006,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2011,7 +2044,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2049,7 +2082,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2087,7 +2120,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2125,7 +2158,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2163,7 +2196,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2201,7 +2234,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2239,7 +2272,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2277,7 +2310,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2315,7 +2348,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2353,7 +2386,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2391,7 +2424,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2429,7 +2462,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2467,7 +2500,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2505,7 +2538,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2543,7 +2576,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2581,7 +2614,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2619,7 +2652,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2657,7 +2690,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2695,7 +2728,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2733,7 +2766,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2771,7 +2804,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2809,7 +2842,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2847,7 +2880,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2885,7 +2918,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2923,7 +2956,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2961,7 +2994,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2999,7 +3032,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3037,7 +3070,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3075,7 +3108,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3113,7 +3146,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3151,7 +3184,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3189,7 +3222,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3227,7 +3260,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3265,7 +3298,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3303,7 +3336,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3341,7 +3374,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3379,7 +3412,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3417,7 +3450,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3455,7 +3488,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3493,7 +3526,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3531,7 +3564,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3569,7 +3602,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3607,7 +3640,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3645,7 +3678,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3683,7 +3716,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3721,7 +3754,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3759,7 +3792,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3797,7 +3830,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3835,7 +3868,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3873,7 +3906,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3911,7 +3944,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3949,7 +3982,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3987,7 +4020,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4025,7 +4058,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4063,7 +4096,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4101,7 +4134,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4139,7 +4172,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4177,7 +4210,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4215,7 +4248,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4253,7 +4286,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4291,7 +4324,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4329,7 +4362,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4367,7 +4400,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4405,7 +4438,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4443,7 +4476,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4481,7 +4514,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4519,7 +4552,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4557,7 +4590,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4595,7 +4628,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4633,7 +4666,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4671,7 +4704,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4709,7 +4742,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4747,7 +4780,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4785,7 +4818,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4823,7 +4856,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4861,7 +4894,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4899,7 +4932,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4937,7 +4970,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4975,7 +5008,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5013,7 +5046,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5051,7 +5084,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5089,7 +5122,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5127,7 +5160,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5165,7 +5198,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5203,7 +5236,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5241,7 +5274,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5279,7 +5312,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5317,7 +5350,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5355,7 +5388,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5393,7 +5426,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5431,7 +5464,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5469,7 +5502,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5507,7 +5540,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5545,7 +5578,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5583,7 +5616,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5621,7 +5654,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5659,7 +5692,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5697,7 +5730,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5735,7 +5768,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5773,7 +5806,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5811,7 +5844,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5849,7 +5882,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5887,7 +5920,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5925,7 +5958,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5963,7 +5996,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6001,7 +6034,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6039,7 +6072,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6077,7 +6110,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6115,7 +6148,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6153,7 +6186,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6191,7 +6224,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6229,7 +6262,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6267,7 +6300,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6305,7 +6338,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6343,7 +6376,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6381,7 +6414,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6419,7 +6452,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6457,7 +6490,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6495,7 +6528,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6533,7 +6566,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6571,7 +6604,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6609,7 +6642,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6647,7 +6680,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6685,7 +6718,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6723,7 +6756,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6761,7 +6794,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6799,7 +6832,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6837,7 +6870,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6875,7 +6908,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6913,7 +6946,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6951,7 +6984,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6989,7 +7022,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7027,7 +7060,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7065,7 +7098,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7103,7 +7136,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7141,7 +7174,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7179,7 +7212,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7217,7 +7250,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7255,7 +7288,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7293,7 +7326,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7331,7 +7364,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7369,7 +7402,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7407,7 +7440,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7445,7 +7478,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7483,7 +7516,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7521,7 +7554,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7559,7 +7592,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7597,7 +7630,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7635,7 +7668,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7673,7 +7706,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7711,7 +7744,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7749,7 +7782,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7787,7 +7820,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7825,7 +7858,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7863,7 +7896,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7901,7 +7934,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7939,7 +7972,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7977,7 +8010,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8015,7 +8048,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8053,7 +8086,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8091,7 +8124,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8129,7 +8162,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8167,7 +8200,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8205,7 +8238,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8243,7 +8276,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8281,7 +8314,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8319,7 +8352,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8357,7 +8390,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8395,7 +8428,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8433,7 +8466,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8471,7 +8504,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8509,7 +8542,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8547,7 +8580,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8585,7 +8618,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8623,7 +8656,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8661,7 +8694,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8699,7 +8732,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8737,7 +8770,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8775,7 +8808,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8813,7 +8846,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8851,7 +8884,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8889,7 +8922,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8927,7 +8960,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8965,7 +8998,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9003,7 +9036,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9041,7 +9074,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9079,7 +9112,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9117,7 +9150,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9155,7 +9188,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9193,7 +9226,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9231,7 +9264,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9269,7 +9302,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9307,7 +9340,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9345,7 +9378,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9383,7 +9416,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9421,7 +9454,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9459,7 +9492,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9497,7 +9530,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9535,7 +9568,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9573,7 +9606,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9611,7 +9644,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9649,7 +9682,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9687,7 +9720,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9725,7 +9758,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9763,7 +9796,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9801,7 +9834,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9839,7 +9872,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9877,7 +9910,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9915,7 +9948,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9953,7 +9986,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9991,7 +10024,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10029,7 +10062,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10067,7 +10100,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10105,7 +10138,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10143,7 +10176,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10181,7 +10214,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10219,7 +10252,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10257,7 +10290,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10295,7 +10328,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10333,7 +10366,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10371,7 +10404,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10409,7 +10442,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10447,7 +10480,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10485,7 +10518,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10523,7 +10556,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10561,7 +10594,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10599,7 +10632,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10637,7 +10670,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10675,7 +10708,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10713,7 +10746,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10751,7 +10784,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10789,7 +10822,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10827,7 +10860,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10865,7 +10898,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10903,7 +10936,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10941,7 +10974,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10979,7 +11012,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11017,7 +11050,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11055,7 +11088,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11093,7 +11126,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11131,7 +11164,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11169,7 +11202,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11207,7 +11240,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11245,7 +11278,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11283,7 +11316,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11321,7 +11354,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11359,7 +11392,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11397,7 +11430,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11435,7 +11468,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11473,7 +11506,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11511,7 +11544,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11549,7 +11582,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11587,7 +11620,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11625,7 +11658,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11663,7 +11696,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11701,7 +11734,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11739,7 +11772,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11777,7 +11810,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11815,7 +11848,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11853,7 +11886,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11891,7 +11924,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11929,7 +11962,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11967,7 +12000,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12005,7 +12038,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12043,7 +12076,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12081,7 +12114,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12119,7 +12152,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12157,7 +12190,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12195,7 +12228,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12233,7 +12266,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12271,7 +12304,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12309,7 +12342,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12347,7 +12380,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12385,7 +12418,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12423,7 +12456,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12461,7 +12494,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12499,7 +12532,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12537,7 +12570,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12575,7 +12608,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12613,7 +12646,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12651,7 +12684,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12689,7 +12722,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12727,7 +12760,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12765,7 +12798,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12803,7 +12836,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12841,7 +12874,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12879,7 +12912,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12917,7 +12950,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12955,7 +12988,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12993,7 +13026,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13031,7 +13064,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13069,7 +13102,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13107,7 +13140,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13145,7 +13178,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13183,7 +13216,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13221,7 +13254,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13259,7 +13292,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13297,7 +13330,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13335,7 +13368,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13373,7 +13406,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13411,7 +13444,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13449,7 +13482,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13487,7 +13520,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13525,7 +13558,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13563,7 +13596,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13601,7 +13634,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13639,7 +13672,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13677,7 +13710,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13715,7 +13748,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13753,7 +13786,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13791,7 +13824,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13829,7 +13862,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13867,7 +13900,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13905,7 +13938,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13943,7 +13976,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13981,7 +14014,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14019,7 +14052,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14057,7 +14090,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14095,7 +14128,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14133,7 +14166,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14171,7 +14204,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14209,7 +14242,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14247,7 +14280,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14285,7 +14318,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14323,7 +14356,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14361,7 +14394,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14399,7 +14432,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14437,7 +14470,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14475,7 +14508,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14513,7 +14546,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14551,7 +14584,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14589,7 +14622,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14627,7 +14660,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14665,7 +14698,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14703,7 +14736,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14741,7 +14774,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14779,7 +14812,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14817,7 +14850,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14855,7 +14888,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14893,7 +14926,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14931,7 +14964,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14969,7 +15002,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15007,7 +15040,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15045,7 +15078,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15083,7 +15116,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15121,7 +15154,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15159,7 +15192,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15197,7 +15230,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15235,7 +15268,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15273,7 +15306,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15311,7 +15344,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15349,7 +15382,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15387,7 +15420,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15425,7 +15458,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15463,7 +15496,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15501,7 +15534,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15539,7 +15572,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15577,7 +15610,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15615,7 +15648,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15653,7 +15686,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15691,7 +15724,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15729,7 +15762,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15767,7 +15800,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15805,7 +15838,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15843,7 +15876,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15881,7 +15914,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15919,7 +15952,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15957,7 +15990,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15995,7 +16028,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16033,7 +16066,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16071,7 +16104,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16109,7 +16142,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16147,7 +16180,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16185,7 +16218,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16223,7 +16256,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16261,7 +16294,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16299,7 +16332,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16337,7 +16370,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16375,7 +16408,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16413,7 +16446,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16451,7 +16484,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16489,7 +16522,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16527,7 +16560,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16565,7 +16598,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16603,7 +16636,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16641,7 +16674,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16679,7 +16712,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16717,7 +16750,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16755,7 +16788,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16793,7 +16826,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16831,7 +16864,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16869,7 +16902,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16907,7 +16940,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16945,7 +16978,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16983,7 +17016,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17021,7 +17054,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17059,7 +17092,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17097,7 +17130,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17135,7 +17168,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17173,7 +17206,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17211,7 +17244,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17249,7 +17282,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17287,7 +17320,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17325,7 +17358,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17363,7 +17396,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17401,7 +17434,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17439,7 +17472,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17477,7 +17510,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17515,7 +17548,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17553,7 +17586,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17591,7 +17624,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17629,7 +17662,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17667,7 +17700,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17705,7 +17738,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17743,7 +17776,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17781,7 +17814,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17819,7 +17852,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17857,7 +17890,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17895,7 +17928,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17933,7 +17966,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17971,7 +18004,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18009,7 +18042,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18047,7 +18080,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18085,7 +18118,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18123,7 +18156,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18161,7 +18194,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18199,7 +18232,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18237,7 +18270,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18275,7 +18308,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18313,7 +18346,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18351,7 +18384,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18389,7 +18422,7 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18427,7 +18460,7 @@
         <v>9.4</v>
       </c>
       <c r="L439" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18465,7 +18498,7 @@
         <v>10.71</v>
       </c>
       <c r="L440" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18503,7 +18536,7 @@
         <v>12.34</v>
       </c>
       <c r="L441" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18541,7 +18574,7 @@
         <v>12.29</v>
       </c>
       <c r="L442" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18579,7 +18612,7 @@
         <v>11.21</v>
       </c>
       <c r="L443" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18617,7 +18650,7 @@
         <v>13.88</v>
       </c>
       <c r="L444" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18655,7 +18688,7 @@
         <v>12.18</v>
       </c>
       <c r="L445" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18693,7 +18726,7 @@
         <v>11.9</v>
       </c>
       <c r="L446" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18731,7 +18764,425 @@
         <v>10.77</v>
       </c>
       <c r="L447" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
         <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.57</v>
+      </c>
+      <c r="D448">
+        <v>100</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>60</v>
+      </c>
+      <c r="G448">
+        <v>333.64</v>
+      </c>
+      <c r="H448">
+        <v>60</v>
+      </c>
+      <c r="I448">
+        <v>-0.45</v>
+      </c>
+      <c r="J448">
+        <v>154.55</v>
+      </c>
+      <c r="K448">
+        <v>15.5</v>
+      </c>
+      <c r="L448" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.56</v>
+      </c>
+      <c r="D449">
+        <v>100</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>60</v>
+      </c>
+      <c r="G449">
+        <v>328.28</v>
+      </c>
+      <c r="H449">
+        <v>60</v>
+      </c>
+      <c r="I449">
+        <v>-0.53</v>
+      </c>
+      <c r="J449">
+        <v>157.64</v>
+      </c>
+      <c r="K449">
+        <v>13.54</v>
+      </c>
+      <c r="L449" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.56</v>
+      </c>
+      <c r="D450">
+        <v>100</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>60</v>
+      </c>
+      <c r="G450">
+        <v>328.29</v>
+      </c>
+      <c r="H450">
+        <v>60</v>
+      </c>
+      <c r="I450">
+        <v>-0.31</v>
+      </c>
+      <c r="J450">
+        <v>156.22</v>
+      </c>
+      <c r="K450">
+        <v>13.3</v>
+      </c>
+      <c r="L450" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.55</v>
+      </c>
+      <c r="D451">
+        <v>100</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>60</v>
+      </c>
+      <c r="G451">
+        <v>328.08</v>
+      </c>
+      <c r="H451">
+        <v>60</v>
+      </c>
+      <c r="I451">
+        <v>0.97</v>
+      </c>
+      <c r="J451">
+        <v>157.13</v>
+      </c>
+      <c r="K451">
+        <v>13.85</v>
+      </c>
+      <c r="L451" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.55</v>
+      </c>
+      <c r="D452">
+        <v>100</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>60</v>
+      </c>
+      <c r="G452">
+        <v>331.91</v>
+      </c>
+      <c r="H452">
+        <v>60</v>
+      </c>
+      <c r="I452">
+        <v>0.25</v>
+      </c>
+      <c r="J452">
+        <v>154.85</v>
+      </c>
+      <c r="K452">
+        <v>14.39</v>
+      </c>
+      <c r="L452" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.54</v>
+      </c>
+      <c r="D453">
+        <v>100</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>60</v>
+      </c>
+      <c r="G453">
+        <v>323.45</v>
+      </c>
+      <c r="H453">
+        <v>60</v>
+      </c>
+      <c r="I453">
+        <v>-0.03</v>
+      </c>
+      <c r="J453">
+        <v>156.92</v>
+      </c>
+      <c r="K453">
+        <v>11.77</v>
+      </c>
+      <c r="L453" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.53</v>
+      </c>
+      <c r="D454">
+        <v>100</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>60</v>
+      </c>
+      <c r="G454">
+        <v>323.2</v>
+      </c>
+      <c r="H454">
+        <v>60</v>
+      </c>
+      <c r="I454">
+        <v>-0.3</v>
+      </c>
+      <c r="J454">
+        <v>159.52</v>
+      </c>
+      <c r="K454">
+        <v>13.57</v>
+      </c>
+      <c r="L454" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.53</v>
+      </c>
+      <c r="D455">
+        <v>100</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>60</v>
+      </c>
+      <c r="G455">
+        <v>327.67</v>
+      </c>
+      <c r="H455">
+        <v>60</v>
+      </c>
+      <c r="I455">
+        <v>-0.67</v>
+      </c>
+      <c r="J455">
+        <v>162.72</v>
+      </c>
+      <c r="K455">
+        <v>13.49</v>
+      </c>
+      <c r="L455" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.52</v>
+      </c>
+      <c r="D456">
+        <v>100</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>60</v>
+      </c>
+      <c r="G456">
+        <v>331.28</v>
+      </c>
+      <c r="H456">
+        <v>60</v>
+      </c>
+      <c r="I456">
+        <v>-0.92</v>
+      </c>
+      <c r="J456">
+        <v>166.1</v>
+      </c>
+      <c r="K456">
+        <v>14.93</v>
+      </c>
+      <c r="L456" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.52</v>
+      </c>
+      <c r="D457">
+        <v>100</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>60</v>
+      </c>
+      <c r="G457">
+        <v>321.47</v>
+      </c>
+      <c r="H457">
+        <v>60</v>
+      </c>
+      <c r="I457">
+        <v>0.36</v>
+      </c>
+      <c r="J457">
+        <v>163.17</v>
+      </c>
+      <c r="K457">
+        <v>12.12</v>
+      </c>
+      <c r="L457" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.51</v>
+      </c>
+      <c r="D458">
+        <v>100</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>60</v>
+      </c>
+      <c r="G458">
+        <v>335.12</v>
+      </c>
+      <c r="H458">
+        <v>60</v>
+      </c>
+      <c r="I458">
+        <v>0.77</v>
+      </c>
+      <c r="J458">
+        <v>165.02</v>
+      </c>
+      <c r="K458">
+        <v>14.07</v>
+      </c>
+      <c r="L458" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="478">
   <si>
     <t>Fecha</t>
   </si>
@@ -1418,6 +1418,33 @@
   </si>
   <si>
     <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:30:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1778,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L458"/>
+  <dimension ref="A1:L467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +1881,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1892,7 +1919,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1930,7 +1957,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1968,7 +1995,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2006,7 +2033,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2044,7 +2071,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2082,7 +2109,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2120,7 +2147,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2158,7 +2185,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2196,7 +2223,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2234,7 +2261,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2272,7 +2299,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2310,7 +2337,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2348,7 +2375,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2386,7 +2413,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2424,7 +2451,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2462,7 +2489,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2500,7 +2527,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2538,7 +2565,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2576,7 +2603,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2614,7 +2641,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2652,7 +2679,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2690,7 +2717,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2728,7 +2755,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2766,7 +2793,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2804,7 +2831,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2842,7 +2869,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2880,7 +2907,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2918,7 +2945,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2956,7 +2983,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2994,7 +3021,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3032,7 +3059,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3070,7 +3097,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3108,7 +3135,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3146,7 +3173,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3184,7 +3211,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3222,7 +3249,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3260,7 +3287,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3298,7 +3325,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3336,7 +3363,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3374,7 +3401,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3412,7 +3439,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3450,7 +3477,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3488,7 +3515,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3526,7 +3553,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3564,7 +3591,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3602,7 +3629,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3640,7 +3667,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3678,7 +3705,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3716,7 +3743,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3754,7 +3781,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3792,7 +3819,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3830,7 +3857,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3868,7 +3895,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3906,7 +3933,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3944,7 +3971,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3982,7 +4009,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4020,7 +4047,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4058,7 +4085,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4096,7 +4123,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4134,7 +4161,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4172,7 +4199,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4210,7 +4237,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4248,7 +4275,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4286,7 +4313,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4324,7 +4351,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4362,7 +4389,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4400,7 +4427,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4438,7 +4465,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4476,7 +4503,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4514,7 +4541,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4552,7 +4579,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4590,7 +4617,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4628,7 +4655,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4666,7 +4693,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4704,7 +4731,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4742,7 +4769,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4780,7 +4807,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4818,7 +4845,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4856,7 +4883,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4894,7 +4921,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4932,7 +4959,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4970,7 +4997,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5008,7 +5035,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5046,7 +5073,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5084,7 +5111,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5122,7 +5149,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5160,7 +5187,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5198,7 +5225,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5236,7 +5263,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5274,7 +5301,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5312,7 +5339,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5350,7 +5377,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5388,7 +5415,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5426,7 +5453,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5464,7 +5491,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5502,7 +5529,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5540,7 +5567,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5578,7 +5605,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5616,7 +5643,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5654,7 +5681,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5692,7 +5719,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5730,7 +5757,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5768,7 +5795,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5806,7 +5833,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5844,7 +5871,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5882,7 +5909,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5920,7 +5947,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5958,7 +5985,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5996,7 +6023,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6034,7 +6061,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6072,7 +6099,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6110,7 +6137,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6148,7 +6175,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6186,7 +6213,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6224,7 +6251,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6262,7 +6289,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6300,7 +6327,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6338,7 +6365,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6376,7 +6403,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6414,7 +6441,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6452,7 +6479,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6490,7 +6517,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6528,7 +6555,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6566,7 +6593,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6604,7 +6631,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6642,7 +6669,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6680,7 +6707,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6718,7 +6745,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6756,7 +6783,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6794,7 +6821,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6832,7 +6859,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6870,7 +6897,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6908,7 +6935,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6946,7 +6973,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6984,7 +7011,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7022,7 +7049,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7060,7 +7087,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7098,7 +7125,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7136,7 +7163,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7174,7 +7201,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7212,7 +7239,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7250,7 +7277,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7288,7 +7315,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7326,7 +7353,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7364,7 +7391,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7402,7 +7429,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7440,7 +7467,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7478,7 +7505,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7516,7 +7543,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7554,7 +7581,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7592,7 +7619,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7630,7 +7657,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7668,7 +7695,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7706,7 +7733,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7744,7 +7771,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7782,7 +7809,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7820,7 +7847,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7858,7 +7885,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7896,7 +7923,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7934,7 +7961,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7972,7 +7999,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8010,7 +8037,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8048,7 +8075,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8086,7 +8113,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8124,7 +8151,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8162,7 +8189,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8200,7 +8227,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8238,7 +8265,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8276,7 +8303,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8314,7 +8341,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8352,7 +8379,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8390,7 +8417,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8428,7 +8455,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8466,7 +8493,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8504,7 +8531,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8542,7 +8569,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8580,7 +8607,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8618,7 +8645,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8656,7 +8683,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8694,7 +8721,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8732,7 +8759,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8770,7 +8797,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8808,7 +8835,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8846,7 +8873,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8884,7 +8911,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8922,7 +8949,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8960,7 +8987,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8998,7 +9025,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9036,7 +9063,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9074,7 +9101,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9112,7 +9139,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9150,7 +9177,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9188,7 +9215,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9226,7 +9253,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9264,7 +9291,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9302,7 +9329,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9340,7 +9367,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9378,7 +9405,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9416,7 +9443,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9454,7 +9481,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9492,7 +9519,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9530,7 +9557,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9568,7 +9595,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9606,7 +9633,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9644,7 +9671,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9682,7 +9709,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9720,7 +9747,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9758,7 +9785,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9796,7 +9823,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9834,7 +9861,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9872,7 +9899,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9910,7 +9937,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9948,7 +9975,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9986,7 +10013,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10024,7 +10051,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10062,7 +10089,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10100,7 +10127,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10138,7 +10165,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10176,7 +10203,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10214,7 +10241,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10252,7 +10279,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10290,7 +10317,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10328,7 +10355,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10366,7 +10393,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10404,7 +10431,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10442,7 +10469,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10480,7 +10507,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10518,7 +10545,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10556,7 +10583,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10594,7 +10621,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10632,7 +10659,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10670,7 +10697,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10708,7 +10735,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10746,7 +10773,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10784,7 +10811,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10822,7 +10849,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10860,7 +10887,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10898,7 +10925,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10936,7 +10963,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10974,7 +11001,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11012,7 +11039,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11050,7 +11077,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11088,7 +11115,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11126,7 +11153,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11164,7 +11191,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11202,7 +11229,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11240,7 +11267,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11278,7 +11305,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11316,7 +11343,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11354,7 +11381,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11392,7 +11419,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11430,7 +11457,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11468,7 +11495,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11506,7 +11533,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11544,7 +11571,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11582,7 +11609,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11620,7 +11647,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11658,7 +11685,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11696,7 +11723,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11734,7 +11761,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11772,7 +11799,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11810,7 +11837,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11848,7 +11875,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11886,7 +11913,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11924,7 +11951,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11962,7 +11989,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12000,7 +12027,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12038,7 +12065,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12076,7 +12103,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12114,7 +12141,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12152,7 +12179,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12190,7 +12217,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12228,7 +12255,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12266,7 +12293,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12304,7 +12331,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12342,7 +12369,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12380,7 +12407,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12418,7 +12445,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12456,7 +12483,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12494,7 +12521,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12532,7 +12559,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12570,7 +12597,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12608,7 +12635,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12646,7 +12673,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12684,7 +12711,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12722,7 +12749,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12760,7 +12787,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12798,7 +12825,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12836,7 +12863,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12874,7 +12901,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12912,7 +12939,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12950,7 +12977,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12988,7 +13015,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13026,7 +13053,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13064,7 +13091,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13102,7 +13129,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13140,7 +13167,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13178,7 +13205,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13216,7 +13243,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13254,7 +13281,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13292,7 +13319,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13330,7 +13357,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13368,7 +13395,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13406,7 +13433,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13444,7 +13471,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13482,7 +13509,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13520,7 +13547,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13558,7 +13585,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13596,7 +13623,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13634,7 +13661,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13672,7 +13699,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13710,7 +13737,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13748,7 +13775,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13786,7 +13813,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13824,7 +13851,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13862,7 +13889,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13900,7 +13927,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13938,7 +13965,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13976,7 +14003,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14014,7 +14041,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14052,7 +14079,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14090,7 +14117,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14128,7 +14155,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14166,7 +14193,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14204,7 +14231,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14242,7 +14269,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14280,7 +14307,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14318,7 +14345,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14356,7 +14383,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14394,7 +14421,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14432,7 +14459,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14470,7 +14497,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14508,7 +14535,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14546,7 +14573,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14584,7 +14611,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14622,7 +14649,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14660,7 +14687,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14698,7 +14725,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14736,7 +14763,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14774,7 +14801,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14812,7 +14839,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14850,7 +14877,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14888,7 +14915,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14926,7 +14953,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14964,7 +14991,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15002,7 +15029,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15040,7 +15067,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15078,7 +15105,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15116,7 +15143,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15154,7 +15181,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15192,7 +15219,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15230,7 +15257,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15268,7 +15295,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15306,7 +15333,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15344,7 +15371,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15382,7 +15409,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15420,7 +15447,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15458,7 +15485,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15496,7 +15523,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15534,7 +15561,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15572,7 +15599,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15610,7 +15637,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15648,7 +15675,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15686,7 +15713,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15724,7 +15751,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15762,7 +15789,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15800,7 +15827,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15838,7 +15865,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15876,7 +15903,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15914,7 +15941,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15952,7 +15979,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15990,7 +16017,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16028,7 +16055,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16066,7 +16093,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16104,7 +16131,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16142,7 +16169,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16180,7 +16207,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16218,7 +16245,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16256,7 +16283,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16294,7 +16321,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16332,7 +16359,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16370,7 +16397,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16408,7 +16435,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16446,7 +16473,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16484,7 +16511,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16522,7 +16549,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16560,7 +16587,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16598,7 +16625,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16636,7 +16663,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16674,7 +16701,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16712,7 +16739,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16750,7 +16777,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16788,7 +16815,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16826,7 +16853,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16864,7 +16891,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16902,7 +16929,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16940,7 +16967,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16978,7 +17005,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17016,7 +17043,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17054,7 +17081,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17092,7 +17119,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17130,7 +17157,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17168,7 +17195,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17206,7 +17233,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17244,7 +17271,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17282,7 +17309,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17320,7 +17347,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17358,7 +17385,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17396,7 +17423,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17434,7 +17461,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17472,7 +17499,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17510,7 +17537,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17548,7 +17575,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17586,7 +17613,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17624,7 +17651,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17662,7 +17689,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17700,7 +17727,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17738,7 +17765,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17776,7 +17803,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17814,7 +17841,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17852,7 +17879,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17890,7 +17917,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17928,7 +17955,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17966,7 +17993,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18004,7 +18031,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18042,7 +18069,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18080,7 +18107,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18118,7 +18145,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18156,7 +18183,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18194,7 +18221,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18232,7 +18259,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18270,7 +18297,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18308,7 +18335,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18346,7 +18373,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18384,7 +18411,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18422,7 +18449,7 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18460,7 +18487,7 @@
         <v>9.4</v>
       </c>
       <c r="L439" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18498,7 +18525,7 @@
         <v>10.71</v>
       </c>
       <c r="L440" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18536,7 +18563,7 @@
         <v>12.34</v>
       </c>
       <c r="L441" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18574,7 +18601,7 @@
         <v>12.29</v>
       </c>
       <c r="L442" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18612,7 +18639,7 @@
         <v>11.21</v>
       </c>
       <c r="L443" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18650,7 +18677,7 @@
         <v>13.88</v>
       </c>
       <c r="L444" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18688,7 +18715,7 @@
         <v>12.18</v>
       </c>
       <c r="L445" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18726,7 +18753,7 @@
         <v>11.9</v>
       </c>
       <c r="L446" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18764,7 +18791,7 @@
         <v>10.77</v>
       </c>
       <c r="L447" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18802,7 +18829,7 @@
         <v>15.5</v>
       </c>
       <c r="L448" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18840,7 +18867,7 @@
         <v>13.54</v>
       </c>
       <c r="L449" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18878,7 +18905,7 @@
         <v>13.3</v>
       </c>
       <c r="L450" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18916,7 +18943,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18954,7 +18981,7 @@
         <v>14.39</v>
       </c>
       <c r="L452" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18992,7 +19019,7 @@
         <v>11.77</v>
       </c>
       <c r="L453" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19030,7 +19057,7 @@
         <v>13.57</v>
       </c>
       <c r="L454" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19068,7 +19095,7 @@
         <v>13.49</v>
       </c>
       <c r="L455" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19106,7 +19133,7 @@
         <v>14.93</v>
       </c>
       <c r="L456" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19144,7 +19171,7 @@
         <v>12.12</v>
       </c>
       <c r="L457" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19182,7 +19209,349 @@
         <v>14.07</v>
       </c>
       <c r="L458" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
         <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.5</v>
+      </c>
+      <c r="D459">
+        <v>100</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>60</v>
+      </c>
+      <c r="G459">
+        <v>341.16</v>
+      </c>
+      <c r="H459">
+        <v>60</v>
+      </c>
+      <c r="I459">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="J459">
+        <v>172.78</v>
+      </c>
+      <c r="K459">
+        <v>15.92</v>
+      </c>
+      <c r="L459" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.5</v>
+      </c>
+      <c r="D460">
+        <v>100</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>60</v>
+      </c>
+      <c r="G460">
+        <v>339.63</v>
+      </c>
+      <c r="H460">
+        <v>60</v>
+      </c>
+      <c r="I460">
+        <v>-0.85</v>
+      </c>
+      <c r="J460">
+        <v>180.12</v>
+      </c>
+      <c r="K460">
+        <v>15.47</v>
+      </c>
+      <c r="L460" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.49</v>
+      </c>
+      <c r="D461">
+        <v>100</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>60</v>
+      </c>
+      <c r="G461">
+        <v>336.37</v>
+      </c>
+      <c r="H461">
+        <v>60</v>
+      </c>
+      <c r="I461">
+        <v>-0.22</v>
+      </c>
+      <c r="J461">
+        <v>182.3</v>
+      </c>
+      <c r="K461">
+        <v>15.16</v>
+      </c>
+      <c r="L461" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.48</v>
+      </c>
+      <c r="D462">
+        <v>100</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>60</v>
+      </c>
+      <c r="G462">
+        <v>331.76</v>
+      </c>
+      <c r="H462">
+        <v>60</v>
+      </c>
+      <c r="I462">
+        <v>0.18</v>
+      </c>
+      <c r="J462">
+        <v>183.04</v>
+      </c>
+      <c r="K462">
+        <v>15.1</v>
+      </c>
+      <c r="L462" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.48</v>
+      </c>
+      <c r="D463">
+        <v>100</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>60</v>
+      </c>
+      <c r="G463">
+        <v>336.74</v>
+      </c>
+      <c r="H463">
+        <v>60</v>
+      </c>
+      <c r="I463">
+        <v>0.32</v>
+      </c>
+      <c r="J463">
+        <v>182.54</v>
+      </c>
+      <c r="K463">
+        <v>18.63</v>
+      </c>
+      <c r="L463" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.47</v>
+      </c>
+      <c r="D464">
+        <v>100</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>60</v>
+      </c>
+      <c r="G464">
+        <v>337.45</v>
+      </c>
+      <c r="H464">
+        <v>60</v>
+      </c>
+      <c r="I464">
+        <v>0.05</v>
+      </c>
+      <c r="J464">
+        <v>179.43</v>
+      </c>
+      <c r="K464">
+        <v>21.12</v>
+      </c>
+      <c r="L464" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.47</v>
+      </c>
+      <c r="D465">
+        <v>100</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>60</v>
+      </c>
+      <c r="G465">
+        <v>337.66</v>
+      </c>
+      <c r="H465">
+        <v>60</v>
+      </c>
+      <c r="I465">
+        <v>-0.17</v>
+      </c>
+      <c r="J465">
+        <v>178.18</v>
+      </c>
+      <c r="K465">
+        <v>19.96</v>
+      </c>
+      <c r="L465" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.46</v>
+      </c>
+      <c r="D466">
+        <v>100</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>60</v>
+      </c>
+      <c r="G466">
+        <v>335.24</v>
+      </c>
+      <c r="H466">
+        <v>60</v>
+      </c>
+      <c r="I466">
+        <v>-0.22</v>
+      </c>
+      <c r="J466">
+        <v>179.33</v>
+      </c>
+      <c r="K466">
+        <v>18.61</v>
+      </c>
+      <c r="L466" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.45</v>
+      </c>
+      <c r="D467">
+        <v>100</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>60</v>
+      </c>
+      <c r="G467">
+        <v>337.93</v>
+      </c>
+      <c r="H467">
+        <v>60</v>
+      </c>
+      <c r="I467">
+        <v>-0.83</v>
+      </c>
+      <c r="J467">
+        <v>182.24</v>
+      </c>
+      <c r="K467">
+        <v>22.37</v>
+      </c>
+      <c r="L467" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="487">
   <si>
     <t>Fecha</t>
   </si>
@@ -1445,6 +1445,33 @@
   </si>
   <si>
     <t>11/17/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1805,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +1908,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1919,7 +1946,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1957,7 +1984,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1995,7 +2022,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2033,7 +2060,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2071,7 +2098,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2109,7 +2136,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2147,7 +2174,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2185,7 +2212,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2223,7 +2250,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2261,7 +2288,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2299,7 +2326,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2337,7 +2364,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2375,7 +2402,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2413,7 +2440,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2451,7 +2478,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2489,7 +2516,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2527,7 +2554,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2565,7 +2592,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2603,7 +2630,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2641,7 +2668,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2679,7 +2706,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2717,7 +2744,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2755,7 +2782,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2793,7 +2820,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2831,7 +2858,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2869,7 +2896,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2907,7 +2934,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2945,7 +2972,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2983,7 +3010,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3021,7 +3048,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3059,7 +3086,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3097,7 +3124,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3135,7 +3162,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3173,7 +3200,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3211,7 +3238,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3249,7 +3276,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3287,7 +3314,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3325,7 +3352,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3363,7 +3390,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3401,7 +3428,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3439,7 +3466,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3477,7 +3504,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3515,7 +3542,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3553,7 +3580,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3591,7 +3618,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3629,7 +3656,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3667,7 +3694,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3705,7 +3732,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3743,7 +3770,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3781,7 +3808,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3819,7 +3846,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3857,7 +3884,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3895,7 +3922,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3933,7 +3960,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3971,7 +3998,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4009,7 +4036,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4047,7 +4074,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4085,7 +4112,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4123,7 +4150,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4161,7 +4188,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4199,7 +4226,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4237,7 +4264,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4275,7 +4302,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4313,7 +4340,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4351,7 +4378,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4389,7 +4416,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4427,7 +4454,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4465,7 +4492,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4503,7 +4530,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4541,7 +4568,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4579,7 +4606,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4617,7 +4644,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4655,7 +4682,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4693,7 +4720,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4731,7 +4758,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4769,7 +4796,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4807,7 +4834,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4845,7 +4872,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4883,7 +4910,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4921,7 +4948,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4959,7 +4986,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4997,7 +5024,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5035,7 +5062,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5073,7 +5100,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5111,7 +5138,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5149,7 +5176,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5187,7 +5214,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5225,7 +5252,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5263,7 +5290,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5301,7 +5328,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5339,7 +5366,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5377,7 +5404,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5415,7 +5442,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5453,7 +5480,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5491,7 +5518,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5529,7 +5556,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5567,7 +5594,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5605,7 +5632,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5643,7 +5670,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5681,7 +5708,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5719,7 +5746,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5757,7 +5784,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5795,7 +5822,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5833,7 +5860,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5871,7 +5898,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5909,7 +5936,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5947,7 +5974,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5985,7 +6012,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6023,7 +6050,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6061,7 +6088,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6099,7 +6126,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6137,7 +6164,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6175,7 +6202,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6213,7 +6240,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6251,7 +6278,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6289,7 +6316,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6327,7 +6354,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6365,7 +6392,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6403,7 +6430,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6441,7 +6468,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6479,7 +6506,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6517,7 +6544,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6555,7 +6582,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6593,7 +6620,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6631,7 +6658,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6669,7 +6696,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6707,7 +6734,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6745,7 +6772,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6783,7 +6810,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6821,7 +6848,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6859,7 +6886,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6897,7 +6924,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6935,7 +6962,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6973,7 +7000,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7011,7 +7038,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7049,7 +7076,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7087,7 +7114,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7125,7 +7152,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7163,7 +7190,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7201,7 +7228,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7239,7 +7266,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7277,7 +7304,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7315,7 +7342,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7353,7 +7380,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7391,7 +7418,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7429,7 +7456,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7467,7 +7494,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7505,7 +7532,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7543,7 +7570,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7581,7 +7608,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7619,7 +7646,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7657,7 +7684,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7695,7 +7722,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7733,7 +7760,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7771,7 +7798,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7809,7 +7836,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7847,7 +7874,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7885,7 +7912,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7923,7 +7950,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7961,7 +7988,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7999,7 +8026,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8037,7 +8064,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8075,7 +8102,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8113,7 +8140,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8151,7 +8178,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8189,7 +8216,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8227,7 +8254,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8265,7 +8292,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8303,7 +8330,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8341,7 +8368,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8379,7 +8406,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8417,7 +8444,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8455,7 +8482,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8493,7 +8520,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8531,7 +8558,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8569,7 +8596,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8607,7 +8634,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8645,7 +8672,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8683,7 +8710,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8721,7 +8748,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8759,7 +8786,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8797,7 +8824,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8835,7 +8862,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8873,7 +8900,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8911,7 +8938,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8949,7 +8976,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8987,7 +9014,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9025,7 +9052,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9063,7 +9090,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9101,7 +9128,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9139,7 +9166,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9177,7 +9204,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9215,7 +9242,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9253,7 +9280,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9291,7 +9318,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9329,7 +9356,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9367,7 +9394,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9405,7 +9432,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9443,7 +9470,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9481,7 +9508,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9519,7 +9546,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9557,7 +9584,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9595,7 +9622,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9633,7 +9660,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9671,7 +9698,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9709,7 +9736,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9747,7 +9774,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9785,7 +9812,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9823,7 +9850,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9861,7 +9888,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9899,7 +9926,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9937,7 +9964,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9975,7 +10002,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10013,7 +10040,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10051,7 +10078,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10089,7 +10116,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10127,7 +10154,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10165,7 +10192,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10203,7 +10230,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10241,7 +10268,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10279,7 +10306,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10317,7 +10344,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10355,7 +10382,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10393,7 +10420,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10431,7 +10458,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10469,7 +10496,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10507,7 +10534,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10545,7 +10572,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10583,7 +10610,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10621,7 +10648,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10659,7 +10686,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10697,7 +10724,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10735,7 +10762,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10773,7 +10800,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10811,7 +10838,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10849,7 +10876,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10887,7 +10914,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10925,7 +10952,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10963,7 +10990,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11001,7 +11028,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11039,7 +11066,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11077,7 +11104,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11115,7 +11142,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11153,7 +11180,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11191,7 +11218,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11229,7 +11256,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11267,7 +11294,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11305,7 +11332,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11343,7 +11370,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11381,7 +11408,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11419,7 +11446,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11457,7 +11484,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11495,7 +11522,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11533,7 +11560,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11571,7 +11598,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11609,7 +11636,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11647,7 +11674,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11685,7 +11712,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11723,7 +11750,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11761,7 +11788,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11799,7 +11826,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11837,7 +11864,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11875,7 +11902,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11913,7 +11940,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11951,7 +11978,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11989,7 +12016,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12027,7 +12054,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12065,7 +12092,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12103,7 +12130,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12141,7 +12168,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12179,7 +12206,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12217,7 +12244,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12255,7 +12282,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12293,7 +12320,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12331,7 +12358,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12369,7 +12396,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12407,7 +12434,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12445,7 +12472,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12483,7 +12510,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12521,7 +12548,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12559,7 +12586,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12597,7 +12624,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12635,7 +12662,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12673,7 +12700,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12711,7 +12738,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12749,7 +12776,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12787,7 +12814,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12825,7 +12852,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12863,7 +12890,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12901,7 +12928,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12939,7 +12966,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12977,7 +13004,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13015,7 +13042,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13053,7 +13080,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13091,7 +13118,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13129,7 +13156,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13167,7 +13194,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13205,7 +13232,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13243,7 +13270,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13281,7 +13308,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13319,7 +13346,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13357,7 +13384,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13395,7 +13422,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13433,7 +13460,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13471,7 +13498,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13509,7 +13536,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13547,7 +13574,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13585,7 +13612,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13623,7 +13650,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13661,7 +13688,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13699,7 +13726,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13737,7 +13764,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13775,7 +13802,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13813,7 +13840,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13851,7 +13878,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13889,7 +13916,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13927,7 +13954,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13965,7 +13992,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14003,7 +14030,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14041,7 +14068,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14079,7 +14106,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14117,7 +14144,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14155,7 +14182,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14193,7 +14220,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14231,7 +14258,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14269,7 +14296,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14307,7 +14334,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14345,7 +14372,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14383,7 +14410,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14421,7 +14448,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14459,7 +14486,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14497,7 +14524,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14535,7 +14562,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14573,7 +14600,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14611,7 +14638,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14649,7 +14676,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14687,7 +14714,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14725,7 +14752,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14763,7 +14790,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14801,7 +14828,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14839,7 +14866,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14877,7 +14904,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14915,7 +14942,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14953,7 +14980,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14991,7 +15018,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15029,7 +15056,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15067,7 +15094,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15105,7 +15132,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15143,7 +15170,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15181,7 +15208,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15219,7 +15246,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15257,7 +15284,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15295,7 +15322,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15333,7 +15360,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15371,7 +15398,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15409,7 +15436,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15447,7 +15474,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15485,7 +15512,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15523,7 +15550,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15561,7 +15588,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15599,7 +15626,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15637,7 +15664,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15675,7 +15702,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15713,7 +15740,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15751,7 +15778,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15789,7 +15816,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15827,7 +15854,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15865,7 +15892,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15903,7 +15930,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15941,7 +15968,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15979,7 +16006,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16017,7 +16044,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16055,7 +16082,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16093,7 +16120,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16131,7 +16158,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16169,7 +16196,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16207,7 +16234,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16245,7 +16272,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16283,7 +16310,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16321,7 +16348,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16359,7 +16386,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16397,7 +16424,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16435,7 +16462,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16473,7 +16500,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16511,7 +16538,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16549,7 +16576,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16587,7 +16614,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16625,7 +16652,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16663,7 +16690,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16701,7 +16728,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16739,7 +16766,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16777,7 +16804,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16815,7 +16842,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16853,7 +16880,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16891,7 +16918,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16929,7 +16956,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16967,7 +16994,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17005,7 +17032,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17043,7 +17070,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17081,7 +17108,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17119,7 +17146,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17157,7 +17184,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17195,7 +17222,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17233,7 +17260,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17271,7 +17298,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17309,7 +17336,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17347,7 +17374,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17385,7 +17412,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17423,7 +17450,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17461,7 +17488,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17499,7 +17526,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17537,7 +17564,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17575,7 +17602,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17613,7 +17640,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17651,7 +17678,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17689,7 +17716,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17727,7 +17754,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17765,7 +17792,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17803,7 +17830,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17841,7 +17868,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17879,7 +17906,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17917,7 +17944,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17955,7 +17982,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17993,7 +18020,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18031,7 +18058,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18069,7 +18096,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18107,7 +18134,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18145,7 +18172,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18183,7 +18210,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18221,7 +18248,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18259,7 +18286,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18297,7 +18324,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18335,7 +18362,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18373,7 +18400,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18411,7 +18438,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18449,7 +18476,7 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18487,7 +18514,7 @@
         <v>9.4</v>
       </c>
       <c r="L439" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18525,7 +18552,7 @@
         <v>10.71</v>
       </c>
       <c r="L440" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18563,7 +18590,7 @@
         <v>12.34</v>
       </c>
       <c r="L441" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18601,7 +18628,7 @@
         <v>12.29</v>
       </c>
       <c r="L442" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18639,7 +18666,7 @@
         <v>11.21</v>
       </c>
       <c r="L443" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18677,7 +18704,7 @@
         <v>13.88</v>
       </c>
       <c r="L444" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18715,7 +18742,7 @@
         <v>12.18</v>
       </c>
       <c r="L445" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18753,7 +18780,7 @@
         <v>11.9</v>
       </c>
       <c r="L446" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18791,7 +18818,7 @@
         <v>10.77</v>
       </c>
       <c r="L447" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18829,7 +18856,7 @@
         <v>15.5</v>
       </c>
       <c r="L448" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18867,7 +18894,7 @@
         <v>13.54</v>
       </c>
       <c r="L449" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18905,7 +18932,7 @@
         <v>13.3</v>
       </c>
       <c r="L450" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18943,7 +18970,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18981,7 +19008,7 @@
         <v>14.39</v>
       </c>
       <c r="L452" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19019,7 +19046,7 @@
         <v>11.77</v>
       </c>
       <c r="L453" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19057,7 +19084,7 @@
         <v>13.57</v>
       </c>
       <c r="L454" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19095,7 +19122,7 @@
         <v>13.49</v>
       </c>
       <c r="L455" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19133,7 +19160,7 @@
         <v>14.93</v>
       </c>
       <c r="L456" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19171,7 +19198,7 @@
         <v>12.12</v>
       </c>
       <c r="L457" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19209,7 +19236,7 @@
         <v>14.07</v>
       </c>
       <c r="L458" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19247,7 +19274,7 @@
         <v>15.92</v>
       </c>
       <c r="L459" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19285,7 +19312,7 @@
         <v>15.47</v>
       </c>
       <c r="L460" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19323,7 +19350,7 @@
         <v>15.16</v>
       </c>
       <c r="L461" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19361,7 +19388,7 @@
         <v>15.1</v>
       </c>
       <c r="L462" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19399,7 +19426,7 @@
         <v>18.63</v>
       </c>
       <c r="L463" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19437,7 +19464,7 @@
         <v>21.12</v>
       </c>
       <c r="L464" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19475,7 +19502,7 @@
         <v>19.96</v>
       </c>
       <c r="L465" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19513,7 +19540,7 @@
         <v>18.61</v>
       </c>
       <c r="L466" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19551,7 +19578,349 @@
         <v>22.37</v>
       </c>
       <c r="L467" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
         <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.45</v>
+      </c>
+      <c r="D468">
+        <v>100</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>60</v>
+      </c>
+      <c r="G468">
+        <v>338.03</v>
+      </c>
+      <c r="H468">
+        <v>60</v>
+      </c>
+      <c r="I468">
+        <v>0.66</v>
+      </c>
+      <c r="J468">
+        <v>182.14</v>
+      </c>
+      <c r="K468">
+        <v>25.43</v>
+      </c>
+      <c r="L468" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.44</v>
+      </c>
+      <c r="D469">
+        <v>100</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>60</v>
+      </c>
+      <c r="G469">
+        <v>337.66</v>
+      </c>
+      <c r="H469">
+        <v>60</v>
+      </c>
+      <c r="I469">
+        <v>-0.32</v>
+      </c>
+      <c r="J469">
+        <v>185.03</v>
+      </c>
+      <c r="K469">
+        <v>25.52</v>
+      </c>
+      <c r="L469" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.44</v>
+      </c>
+      <c r="D470">
+        <v>100</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>60</v>
+      </c>
+      <c r="G470">
+        <v>337.09</v>
+      </c>
+      <c r="H470">
+        <v>60</v>
+      </c>
+      <c r="I470">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J470">
+        <v>187.69</v>
+      </c>
+      <c r="K470">
+        <v>21</v>
+      </c>
+      <c r="L470" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.43</v>
+      </c>
+      <c r="D471">
+        <v>100</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>60</v>
+      </c>
+      <c r="G471">
+        <v>339.86</v>
+      </c>
+      <c r="H471">
+        <v>60</v>
+      </c>
+      <c r="I471">
+        <v>0.09</v>
+      </c>
+      <c r="J471">
+        <v>187.45</v>
+      </c>
+      <c r="K471">
+        <v>20.63</v>
+      </c>
+      <c r="L471" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.45</v>
+      </c>
+      <c r="D472">
+        <v>100</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>60</v>
+      </c>
+      <c r="G472">
+        <v>335</v>
+      </c>
+      <c r="H472">
+        <v>60</v>
+      </c>
+      <c r="I472">
+        <v>0.44</v>
+      </c>
+      <c r="J472">
+        <v>183.83</v>
+      </c>
+      <c r="K472">
+        <v>17.29</v>
+      </c>
+      <c r="L472" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.44</v>
+      </c>
+      <c r="D473">
+        <v>100</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>60</v>
+      </c>
+      <c r="G473">
+        <v>322.93</v>
+      </c>
+      <c r="H473">
+        <v>60</v>
+      </c>
+      <c r="I473">
+        <v>-0.35</v>
+      </c>
+      <c r="J473">
+        <v>181.4</v>
+      </c>
+      <c r="K473">
+        <v>11.87</v>
+      </c>
+      <c r="L473" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>12.46</v>
+      </c>
+      <c r="D474">
+        <v>100</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>60</v>
+      </c>
+      <c r="G474">
+        <v>321.85</v>
+      </c>
+      <c r="H474">
+        <v>60</v>
+      </c>
+      <c r="I474">
+        <v>0.29</v>
+      </c>
+      <c r="J474">
+        <v>178.36</v>
+      </c>
+      <c r="K474">
+        <v>10.61</v>
+      </c>
+      <c r="L474" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>12.58</v>
+      </c>
+      <c r="D475">
+        <v>100</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>60</v>
+      </c>
+      <c r="G475">
+        <v>317.19</v>
+      </c>
+      <c r="H475">
+        <v>60</v>
+      </c>
+      <c r="I475">
+        <v>-0.22</v>
+      </c>
+      <c r="J475">
+        <v>177.71</v>
+      </c>
+      <c r="K475">
+        <v>9.84</v>
+      </c>
+      <c r="L475" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>12.73</v>
+      </c>
+      <c r="D476">
+        <v>100</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>60</v>
+      </c>
+      <c r="G476">
+        <v>319.68</v>
+      </c>
+      <c r="H476">
+        <v>60</v>
+      </c>
+      <c r="I476">
+        <v>-1.28</v>
+      </c>
+      <c r="J476">
+        <v>176.22</v>
+      </c>
+      <c r="K476">
+        <v>11.08</v>
+      </c>
+      <c r="L476" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="497">
   <si>
     <t>Fecha</t>
   </si>
@@ -1472,6 +1472,36 @@
   </si>
   <si>
     <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:40:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1832,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L476"/>
+  <dimension ref="A1:L486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1908,7 +1938,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1946,7 +1976,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1984,7 +2014,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2022,7 +2052,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2060,7 +2090,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2098,7 +2128,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2136,7 +2166,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2174,7 +2204,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2212,7 +2242,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2250,7 +2280,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2288,7 +2318,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2326,7 +2356,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2364,7 +2394,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2402,7 +2432,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2440,7 +2470,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2478,7 +2508,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2516,7 +2546,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2554,7 +2584,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2592,7 +2622,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2630,7 +2660,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2668,7 +2698,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2706,7 +2736,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2744,7 +2774,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2782,7 +2812,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2820,7 +2850,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2858,7 +2888,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2896,7 +2926,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2934,7 +2964,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2972,7 +3002,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3010,7 +3040,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3048,7 +3078,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3086,7 +3116,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3124,7 +3154,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3162,7 +3192,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3200,7 +3230,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3238,7 +3268,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3276,7 +3306,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3314,7 +3344,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3352,7 +3382,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3390,7 +3420,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3428,7 +3458,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3466,7 +3496,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3504,7 +3534,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3542,7 +3572,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3580,7 +3610,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3618,7 +3648,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3656,7 +3686,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3694,7 +3724,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3732,7 +3762,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3770,7 +3800,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3808,7 +3838,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3846,7 +3876,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3884,7 +3914,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3922,7 +3952,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3960,7 +3990,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3998,7 +4028,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4036,7 +4066,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4074,7 +4104,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4112,7 +4142,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4150,7 +4180,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4188,7 +4218,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4226,7 +4256,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4264,7 +4294,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4302,7 +4332,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4340,7 +4370,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4378,7 +4408,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4416,7 +4446,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4454,7 +4484,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4492,7 +4522,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4530,7 +4560,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4568,7 +4598,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4606,7 +4636,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4644,7 +4674,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4682,7 +4712,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4720,7 +4750,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4758,7 +4788,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4796,7 +4826,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4834,7 +4864,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4872,7 +4902,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4910,7 +4940,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4948,7 +4978,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4986,7 +5016,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5024,7 +5054,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5062,7 +5092,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5100,7 +5130,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5138,7 +5168,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5176,7 +5206,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5214,7 +5244,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5252,7 +5282,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5290,7 +5320,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5328,7 +5358,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5366,7 +5396,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5404,7 +5434,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5442,7 +5472,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5480,7 +5510,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5518,7 +5548,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5556,7 +5586,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5594,7 +5624,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5632,7 +5662,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5670,7 +5700,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5708,7 +5738,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5746,7 +5776,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5784,7 +5814,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5822,7 +5852,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5860,7 +5890,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5898,7 +5928,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5936,7 +5966,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5974,7 +6004,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6012,7 +6042,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6050,7 +6080,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6088,7 +6118,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6126,7 +6156,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6164,7 +6194,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6202,7 +6232,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6240,7 +6270,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6278,7 +6308,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6316,7 +6346,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6354,7 +6384,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6392,7 +6422,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6430,7 +6460,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6468,7 +6498,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6506,7 +6536,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6544,7 +6574,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6582,7 +6612,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6620,7 +6650,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6658,7 +6688,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6696,7 +6726,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6734,7 +6764,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6772,7 +6802,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6810,7 +6840,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6848,7 +6878,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6886,7 +6916,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6924,7 +6954,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6962,7 +6992,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7000,7 +7030,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7038,7 +7068,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7076,7 +7106,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7114,7 +7144,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7152,7 +7182,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7190,7 +7220,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7228,7 +7258,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7266,7 +7296,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7304,7 +7334,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7342,7 +7372,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7380,7 +7410,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7418,7 +7448,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7456,7 +7486,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7494,7 +7524,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7532,7 +7562,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7570,7 +7600,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7608,7 +7638,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7646,7 +7676,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7684,7 +7714,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7722,7 +7752,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7760,7 +7790,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7798,7 +7828,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7836,7 +7866,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7874,7 +7904,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7912,7 +7942,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7950,7 +7980,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7988,7 +8018,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8026,7 +8056,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8064,7 +8094,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8102,7 +8132,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8140,7 +8170,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8178,7 +8208,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8216,7 +8246,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8254,7 +8284,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8292,7 +8322,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8330,7 +8360,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8368,7 +8398,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8406,7 +8436,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8444,7 +8474,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8482,7 +8512,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8520,7 +8550,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8558,7 +8588,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8596,7 +8626,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8634,7 +8664,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8672,7 +8702,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8710,7 +8740,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8748,7 +8778,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8786,7 +8816,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8824,7 +8854,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8862,7 +8892,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8900,7 +8930,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8938,7 +8968,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8976,7 +9006,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9014,7 +9044,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9052,7 +9082,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9090,7 +9120,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9128,7 +9158,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9166,7 +9196,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9204,7 +9234,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9242,7 +9272,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9280,7 +9310,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9318,7 +9348,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9356,7 +9386,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9394,7 +9424,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9432,7 +9462,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9470,7 +9500,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9508,7 +9538,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9546,7 +9576,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9584,7 +9614,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9622,7 +9652,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9660,7 +9690,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9698,7 +9728,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9736,7 +9766,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9774,7 +9804,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9812,7 +9842,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9850,7 +9880,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9888,7 +9918,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9926,7 +9956,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9964,7 +9994,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10002,7 +10032,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10040,7 +10070,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10078,7 +10108,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10116,7 +10146,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10154,7 +10184,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10192,7 +10222,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10230,7 +10260,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10268,7 +10298,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10306,7 +10336,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10344,7 +10374,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10382,7 +10412,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10420,7 +10450,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10458,7 +10488,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10496,7 +10526,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10534,7 +10564,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10572,7 +10602,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10610,7 +10640,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10648,7 +10678,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10686,7 +10716,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10724,7 +10754,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10762,7 +10792,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10800,7 +10830,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10838,7 +10868,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10876,7 +10906,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10914,7 +10944,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10952,7 +10982,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10990,7 +11020,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11028,7 +11058,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11066,7 +11096,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11104,7 +11134,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11142,7 +11172,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11180,7 +11210,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11218,7 +11248,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11256,7 +11286,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11294,7 +11324,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11332,7 +11362,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11370,7 +11400,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11408,7 +11438,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11446,7 +11476,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11484,7 +11514,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11522,7 +11552,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11560,7 +11590,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11598,7 +11628,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11636,7 +11666,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11674,7 +11704,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11712,7 +11742,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11750,7 +11780,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11788,7 +11818,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11826,7 +11856,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11864,7 +11894,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11902,7 +11932,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11940,7 +11970,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11978,7 +12008,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12016,7 +12046,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12054,7 +12084,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12092,7 +12122,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12130,7 +12160,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12168,7 +12198,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12206,7 +12236,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12244,7 +12274,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12282,7 +12312,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12320,7 +12350,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12358,7 +12388,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12396,7 +12426,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12434,7 +12464,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12472,7 +12502,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12510,7 +12540,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12548,7 +12578,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12586,7 +12616,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12624,7 +12654,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12662,7 +12692,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12700,7 +12730,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12738,7 +12768,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12776,7 +12806,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12814,7 +12844,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12852,7 +12882,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12890,7 +12920,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12928,7 +12958,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12966,7 +12996,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13004,7 +13034,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13042,7 +13072,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13080,7 +13110,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13118,7 +13148,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13156,7 +13186,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13194,7 +13224,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13232,7 +13262,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13270,7 +13300,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13308,7 +13338,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13346,7 +13376,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13384,7 +13414,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13422,7 +13452,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13460,7 +13490,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13498,7 +13528,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13536,7 +13566,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13574,7 +13604,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13612,7 +13642,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13650,7 +13680,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13688,7 +13718,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13726,7 +13756,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13764,7 +13794,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13802,7 +13832,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13840,7 +13870,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13878,7 +13908,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13916,7 +13946,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13954,7 +13984,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13992,7 +14022,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14030,7 +14060,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14068,7 +14098,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14106,7 +14136,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14144,7 +14174,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14182,7 +14212,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14220,7 +14250,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14258,7 +14288,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14296,7 +14326,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14334,7 +14364,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14372,7 +14402,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14410,7 +14440,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14448,7 +14478,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14486,7 +14516,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14524,7 +14554,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14562,7 +14592,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14600,7 +14630,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14638,7 +14668,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14676,7 +14706,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14714,7 +14744,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14752,7 +14782,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14790,7 +14820,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14828,7 +14858,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14866,7 +14896,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14904,7 +14934,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14942,7 +14972,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14980,7 +15010,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15018,7 +15048,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15056,7 +15086,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15094,7 +15124,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15132,7 +15162,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15170,7 +15200,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15208,7 +15238,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15246,7 +15276,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15284,7 +15314,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15322,7 +15352,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15360,7 +15390,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15398,7 +15428,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15436,7 +15466,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15474,7 +15504,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15512,7 +15542,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15550,7 +15580,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15588,7 +15618,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15626,7 +15656,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15664,7 +15694,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15702,7 +15732,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15740,7 +15770,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15778,7 +15808,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15816,7 +15846,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15854,7 +15884,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15892,7 +15922,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15930,7 +15960,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15968,7 +15998,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16006,7 +16036,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16044,7 +16074,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16082,7 +16112,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16120,7 +16150,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16158,7 +16188,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16196,7 +16226,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16234,7 +16264,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16272,7 +16302,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16310,7 +16340,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16348,7 +16378,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16386,7 +16416,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16424,7 +16454,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16462,7 +16492,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16500,7 +16530,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16538,7 +16568,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16576,7 +16606,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16614,7 +16644,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16652,7 +16682,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16690,7 +16720,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16728,7 +16758,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16766,7 +16796,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16804,7 +16834,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16842,7 +16872,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16880,7 +16910,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16918,7 +16948,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16956,7 +16986,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16994,7 +17024,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17032,7 +17062,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17070,7 +17100,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17108,7 +17138,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17146,7 +17176,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17184,7 +17214,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17222,7 +17252,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17260,7 +17290,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17298,7 +17328,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17336,7 +17366,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17374,7 +17404,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17412,7 +17442,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17450,7 +17480,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17488,7 +17518,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17526,7 +17556,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17564,7 +17594,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17602,7 +17632,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17640,7 +17670,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17678,7 +17708,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17716,7 +17746,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17754,7 +17784,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17792,7 +17822,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17830,7 +17860,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17868,7 +17898,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17906,7 +17936,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17944,7 +17974,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17982,7 +18012,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18020,7 +18050,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18058,7 +18088,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18096,7 +18126,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18134,7 +18164,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18172,7 +18202,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18210,7 +18240,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18248,7 +18278,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18286,7 +18316,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18324,7 +18354,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18362,7 +18392,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18400,7 +18430,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18438,7 +18468,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18476,7 +18506,7 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18514,7 +18544,7 @@
         <v>9.4</v>
       </c>
       <c r="L439" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18552,7 +18582,7 @@
         <v>10.71</v>
       </c>
       <c r="L440" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18590,7 +18620,7 @@
         <v>12.34</v>
       </c>
       <c r="L441" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18628,7 +18658,7 @@
         <v>12.29</v>
       </c>
       <c r="L442" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18666,7 +18696,7 @@
         <v>11.21</v>
       </c>
       <c r="L443" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18704,7 +18734,7 @@
         <v>13.88</v>
       </c>
       <c r="L444" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18742,7 +18772,7 @@
         <v>12.18</v>
       </c>
       <c r="L445" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18780,7 +18810,7 @@
         <v>11.9</v>
       </c>
       <c r="L446" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18818,7 +18848,7 @@
         <v>10.77</v>
       </c>
       <c r="L447" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18856,7 +18886,7 @@
         <v>15.5</v>
       </c>
       <c r="L448" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18894,7 +18924,7 @@
         <v>13.54</v>
       </c>
       <c r="L449" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18932,7 +18962,7 @@
         <v>13.3</v>
       </c>
       <c r="L450" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18970,7 +19000,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19008,7 +19038,7 @@
         <v>14.39</v>
       </c>
       <c r="L452" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19046,7 +19076,7 @@
         <v>11.77</v>
       </c>
       <c r="L453" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19084,7 +19114,7 @@
         <v>13.57</v>
       </c>
       <c r="L454" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19122,7 +19152,7 @@
         <v>13.49</v>
       </c>
       <c r="L455" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19160,7 +19190,7 @@
         <v>14.93</v>
       </c>
       <c r="L456" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19198,7 +19228,7 @@
         <v>12.12</v>
       </c>
       <c r="L457" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19236,7 +19266,7 @@
         <v>14.07</v>
       </c>
       <c r="L458" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19274,7 +19304,7 @@
         <v>15.92</v>
       </c>
       <c r="L459" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19312,7 +19342,7 @@
         <v>15.47</v>
       </c>
       <c r="L460" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19350,7 +19380,7 @@
         <v>15.16</v>
       </c>
       <c r="L461" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19388,7 +19418,7 @@
         <v>15.1</v>
       </c>
       <c r="L462" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19426,7 +19456,7 @@
         <v>18.63</v>
       </c>
       <c r="L463" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19464,7 +19494,7 @@
         <v>21.12</v>
       </c>
       <c r="L464" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19502,7 +19532,7 @@
         <v>19.96</v>
       </c>
       <c r="L465" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19540,7 +19570,7 @@
         <v>18.61</v>
       </c>
       <c r="L466" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19578,7 +19608,7 @@
         <v>22.37</v>
       </c>
       <c r="L467" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19616,7 +19646,7 @@
         <v>25.43</v>
       </c>
       <c r="L468" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19654,7 +19684,7 @@
         <v>25.52</v>
       </c>
       <c r="L469" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19692,7 +19722,7 @@
         <v>21</v>
       </c>
       <c r="L470" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19730,7 +19760,7 @@
         <v>20.63</v>
       </c>
       <c r="L471" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19768,7 +19798,7 @@
         <v>17.29</v>
       </c>
       <c r="L472" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19806,7 +19836,7 @@
         <v>11.87</v>
       </c>
       <c r="L473" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19844,7 +19874,7 @@
         <v>10.61</v>
       </c>
       <c r="L474" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19882,7 +19912,7 @@
         <v>9.84</v>
       </c>
       <c r="L475" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19920,7 +19950,387 @@
         <v>11.08</v>
       </c>
       <c r="L476" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
         <v>486</v>
+      </c>
+      <c r="C477">
+        <v>12.77</v>
+      </c>
+      <c r="D477">
+        <v>100</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>60</v>
+      </c>
+      <c r="G477">
+        <v>319.52</v>
+      </c>
+      <c r="H477">
+        <v>60</v>
+      </c>
+      <c r="I477">
+        <v>0.21</v>
+      </c>
+      <c r="J477">
+        <v>173.2</v>
+      </c>
+      <c r="K477">
+        <v>9.6</v>
+      </c>
+      <c r="L477" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>12.95</v>
+      </c>
+      <c r="D478">
+        <v>100</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>60</v>
+      </c>
+      <c r="G478">
+        <v>325.08</v>
+      </c>
+      <c r="H478">
+        <v>60</v>
+      </c>
+      <c r="I478">
+        <v>-1.33</v>
+      </c>
+      <c r="J478">
+        <v>179.15</v>
+      </c>
+      <c r="K478">
+        <v>12.03</v>
+      </c>
+      <c r="L478" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.1</v>
+      </c>
+      <c r="D479">
+        <v>100</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>60</v>
+      </c>
+      <c r="G479">
+        <v>320.29</v>
+      </c>
+      <c r="H479">
+        <v>60</v>
+      </c>
+      <c r="I479">
+        <v>-1.59</v>
+      </c>
+      <c r="J479">
+        <v>184.61</v>
+      </c>
+      <c r="K479">
+        <v>12.46</v>
+      </c>
+      <c r="L479" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.35</v>
+      </c>
+      <c r="D480">
+        <v>100</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>60</v>
+      </c>
+      <c r="G480">
+        <v>317.49</v>
+      </c>
+      <c r="H480">
+        <v>60</v>
+      </c>
+      <c r="I480">
+        <v>-3.18</v>
+      </c>
+      <c r="J480">
+        <v>183.05</v>
+      </c>
+      <c r="K480">
+        <v>12.21</v>
+      </c>
+      <c r="L480" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.39</v>
+      </c>
+      <c r="D481">
+        <v>100</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>60</v>
+      </c>
+      <c r="G481">
+        <v>319.52</v>
+      </c>
+      <c r="H481">
+        <v>60</v>
+      </c>
+      <c r="I481">
+        <v>-0.47</v>
+      </c>
+      <c r="J481">
+        <v>170.31</v>
+      </c>
+      <c r="K481">
+        <v>13.37</v>
+      </c>
+      <c r="L481" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.43</v>
+      </c>
+      <c r="D482">
+        <v>100</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>60</v>
+      </c>
+      <c r="G482">
+        <v>325.86</v>
+      </c>
+      <c r="H482">
+        <v>60</v>
+      </c>
+      <c r="I482">
+        <v>0.92</v>
+      </c>
+      <c r="J482">
+        <v>156.02</v>
+      </c>
+      <c r="K482">
+        <v>16.38</v>
+      </c>
+      <c r="L482" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.39</v>
+      </c>
+      <c r="D483">
+        <v>100</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>60</v>
+      </c>
+      <c r="G483">
+        <v>324.93</v>
+      </c>
+      <c r="H483">
+        <v>60</v>
+      </c>
+      <c r="I483">
+        <v>1.02</v>
+      </c>
+      <c r="J483">
+        <v>140.98</v>
+      </c>
+      <c r="K483">
+        <v>16.33</v>
+      </c>
+      <c r="L483" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.53</v>
+      </c>
+      <c r="D484">
+        <v>100</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>60</v>
+      </c>
+      <c r="G484">
+        <v>321.18</v>
+      </c>
+      <c r="H484">
+        <v>60</v>
+      </c>
+      <c r="I484">
+        <v>2.53</v>
+      </c>
+      <c r="J484">
+        <v>121.31</v>
+      </c>
+      <c r="K484">
+        <v>15.48</v>
+      </c>
+      <c r="L484" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.51</v>
+      </c>
+      <c r="D485">
+        <v>100</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>60</v>
+      </c>
+      <c r="G485">
+        <v>322.03</v>
+      </c>
+      <c r="H485">
+        <v>60</v>
+      </c>
+      <c r="I485">
+        <v>0.21</v>
+      </c>
+      <c r="J485">
+        <v>105.63</v>
+      </c>
+      <c r="K485">
+        <v>14.59</v>
+      </c>
+      <c r="L485" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.46</v>
+      </c>
+      <c r="D486">
+        <v>100</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>60</v>
+      </c>
+      <c r="G486">
+        <v>323.55</v>
+      </c>
+      <c r="H486">
+        <v>60</v>
+      </c>
+      <c r="I486">
+        <v>-1.52</v>
+      </c>
+      <c r="J486">
+        <v>108.19</v>
+      </c>
+      <c r="K486">
+        <v>14.7</v>
+      </c>
+      <c r="L486" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN JOSE PINULA.xlsx
+++ b/tablas_insivumeh/SAN JOSE PINULA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="506">
   <si>
     <t>Fecha</t>
   </si>
@@ -1502,6 +1502,33 @@
   </si>
   <si>
     <t>11/17/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:10:00 AM</t>
   </si>
   <si>
     <t>SAN JOSE PINULA</t>
@@ -1862,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L486"/>
+  <dimension ref="A1:L495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1965,7 @@
         <v>7.01</v>
       </c>
       <c r="L2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1976,7 +2003,7 @@
         <v>6.21</v>
       </c>
       <c r="L3" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2014,7 +2041,7 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2052,7 +2079,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2090,7 +2117,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2128,7 +2155,7 @@
         <v>6.06</v>
       </c>
       <c r="L7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2166,7 +2193,7 @@
         <v>4.94</v>
       </c>
       <c r="L8" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2204,7 +2231,7 @@
         <v>6.7</v>
       </c>
       <c r="L9" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2242,7 +2269,7 @@
         <v>5.32</v>
       </c>
       <c r="L10" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2280,7 +2307,7 @@
         <v>6.24</v>
       </c>
       <c r="L11" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2318,7 +2345,7 @@
         <v>6.03</v>
       </c>
       <c r="L12" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2356,7 +2383,7 @@
         <v>6.16</v>
       </c>
       <c r="L13" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2394,7 +2421,7 @@
         <v>7.81</v>
       </c>
       <c r="L14" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2432,7 +2459,7 @@
         <v>7.84</v>
       </c>
       <c r="L15" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2470,7 +2497,7 @@
         <v>5.84</v>
       </c>
       <c r="L16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2508,7 +2535,7 @@
         <v>3.54</v>
       </c>
       <c r="L17" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2546,7 +2573,7 @@
         <v>6.01</v>
       </c>
       <c r="L18" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2584,7 +2611,7 @@
         <v>4.17</v>
       </c>
       <c r="L19" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2622,7 +2649,7 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2660,7 +2687,7 @@
         <v>3.61</v>
       </c>
       <c r="L21" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2698,7 +2725,7 @@
         <v>5.14</v>
       </c>
       <c r="L22" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2736,7 +2763,7 @@
         <v>4.53</v>
       </c>
       <c r="L23" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2774,7 +2801,7 @@
         <v>3.24</v>
       </c>
       <c r="L24" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2812,7 +2839,7 @@
         <v>3.12</v>
       </c>
       <c r="L25" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2850,7 +2877,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2888,7 +2915,7 @@
         <v>3.32</v>
       </c>
       <c r="L27" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2926,7 +2953,7 @@
         <v>5.9</v>
       </c>
       <c r="L28" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2964,7 +2991,7 @@
         <v>5.28</v>
       </c>
       <c r="L29" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3002,7 +3029,7 @@
         <v>4.53</v>
       </c>
       <c r="L30" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3040,7 +3067,7 @@
         <v>5.38</v>
       </c>
       <c r="L31" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3078,7 +3105,7 @@
         <v>5.92</v>
       </c>
       <c r="L32" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3116,7 +3143,7 @@
         <v>4.12</v>
       </c>
       <c r="L33" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3154,7 +3181,7 @@
         <v>4.17</v>
       </c>
       <c r="L34" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3192,7 +3219,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3230,7 +3257,7 @@
         <v>1.69</v>
       </c>
       <c r="L36" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3268,7 +3295,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3306,7 +3333,7 @@
         <v>3.44</v>
       </c>
       <c r="L38" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3344,7 +3371,7 @@
         <v>4.86</v>
       </c>
       <c r="L39" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3382,7 +3409,7 @@
         <v>3.29</v>
       </c>
       <c r="L40" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3420,7 +3447,7 @@
         <v>1.66</v>
       </c>
       <c r="L41" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3458,7 +3485,7 @@
         <v>3.33</v>
       </c>
       <c r="L42" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3496,7 +3523,7 @@
         <v>2.09</v>
       </c>
       <c r="L43" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3534,7 +3561,7 @@
         <v>2.54</v>
       </c>
       <c r="L44" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3572,7 +3599,7 @@
         <v>5.47</v>
       </c>
       <c r="L45" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3610,7 +3637,7 @@
         <v>6.25</v>
       </c>
       <c r="L46" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3648,7 +3675,7 @@
         <v>4.86</v>
       </c>
       <c r="L47" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3686,7 +3713,7 @@
         <v>4.44</v>
       </c>
       <c r="L48" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3724,7 +3751,7 @@
         <v>6.83</v>
       </c>
       <c r="L49" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3762,7 +3789,7 @@
         <v>6.27</v>
       </c>
       <c r="L50" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3800,7 +3827,7 @@
         <v>6.56</v>
       </c>
       <c r="L51" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3838,7 +3865,7 @@
         <v>5.74</v>
       </c>
       <c r="L52" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3876,7 +3903,7 @@
         <v>7.49</v>
       </c>
       <c r="L53" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3914,7 +3941,7 @@
         <v>6.74</v>
       </c>
       <c r="L54" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3952,7 +3979,7 @@
         <v>5.48</v>
       </c>
       <c r="L55" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3990,7 +4017,7 @@
         <v>7.28</v>
       </c>
       <c r="L56" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4028,7 +4055,7 @@
         <v>6.38</v>
       </c>
       <c r="L57" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4066,7 +4093,7 @@
         <v>8.99</v>
       </c>
       <c r="L58" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4104,7 +4131,7 @@
         <v>5.56</v>
       </c>
       <c r="L59" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4142,7 +4169,7 @@
         <v>7.11</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4180,7 +4207,7 @@
         <v>5.48</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4218,7 +4245,7 @@
         <v>6.6</v>
       </c>
       <c r="L62" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4256,7 +4283,7 @@
         <v>4.14</v>
       </c>
       <c r="L63" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4294,7 +4321,7 @@
         <v>3.28</v>
       </c>
       <c r="L64" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4332,7 +4359,7 @@
         <v>3.94</v>
       </c>
       <c r="L65" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4370,7 +4397,7 @@
         <v>3.18</v>
       </c>
       <c r="L66" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4408,7 +4435,7 @@
         <v>2.29</v>
       </c>
       <c r="L67" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4446,7 +4473,7 @@
         <v>4.54</v>
       </c>
       <c r="L68" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4484,7 +4511,7 @@
         <v>5.58</v>
       </c>
       <c r="L69" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4522,7 +4549,7 @@
         <v>7.74</v>
       </c>
       <c r="L70" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4560,7 +4587,7 @@
         <v>8.58</v>
       </c>
       <c r="L71" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4598,7 +4625,7 @@
         <v>4.59</v>
       </c>
       <c r="L72" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4636,7 +4663,7 @@
         <v>5.41</v>
       </c>
       <c r="L73" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4674,7 +4701,7 @@
         <v>4.33</v>
       </c>
       <c r="L74" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4712,7 +4739,7 @@
         <v>4.39</v>
       </c>
       <c r="L75" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4750,7 +4777,7 @@
         <v>5.09</v>
       </c>
       <c r="L76" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4788,7 +4815,7 @@
         <v>6.48</v>
       </c>
       <c r="L77" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4826,7 +4853,7 @@
         <v>7.23</v>
       </c>
       <c r="L78" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4864,7 +4891,7 @@
         <v>2.59</v>
       </c>
       <c r="L79" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4902,7 +4929,7 @@
         <v>2.56</v>
       </c>
       <c r="L80" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4940,7 +4967,7 @@
         <v>6.44</v>
       </c>
       <c r="L81" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4978,7 +5005,7 @@
         <v>3.91</v>
       </c>
       <c r="L82" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5016,7 +5043,7 @@
         <v>3.34</v>
       </c>
       <c r="L83" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5054,7 +5081,7 @@
         <v>2.29</v>
       </c>
       <c r="L84" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5092,7 +5119,7 @@
         <v>2.06</v>
       </c>
       <c r="L85" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5130,7 +5157,7 @@
         <v>3.77</v>
       </c>
       <c r="L86" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5168,7 +5195,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L87" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5206,7 +5233,7 @@
         <v>6.82</v>
       </c>
       <c r="L88" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5244,7 +5271,7 @@
         <v>4.28</v>
       </c>
       <c r="L89" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5282,7 +5309,7 @@
         <v>2.29</v>
       </c>
       <c r="L90" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5320,7 +5347,7 @@
         <v>2.61</v>
       </c>
       <c r="L91" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5358,7 +5385,7 @@
         <v>2.08</v>
       </c>
       <c r="L92" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5396,7 +5423,7 @@
         <v>3.07</v>
       </c>
       <c r="L93" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5434,7 +5461,7 @@
         <v>2.22</v>
       </c>
       <c r="L94" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5472,7 +5499,7 @@
         <v>1.84</v>
       </c>
       <c r="L95" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5510,7 +5537,7 @@
         <v>4.23</v>
       </c>
       <c r="L96" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5548,7 +5575,7 @@
         <v>3.45</v>
       </c>
       <c r="L97" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5586,7 +5613,7 @@
         <v>4.52</v>
       </c>
       <c r="L98" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5624,7 +5651,7 @@
         <v>2.07</v>
       </c>
       <c r="L99" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5662,7 +5689,7 @@
         <v>1.73</v>
       </c>
       <c r="L100" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5700,7 +5727,7 @@
         <v>0.7</v>
       </c>
       <c r="L101" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5738,7 +5765,7 @@
         <v>1.53</v>
       </c>
       <c r="L102" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5776,7 +5803,7 @@
         <v>2.37</v>
       </c>
       <c r="L103" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5814,7 +5841,7 @@
         <v>1.95</v>
       </c>
       <c r="L104" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5852,7 +5879,7 @@
         <v>0.85</v>
       </c>
       <c r="L105" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5890,7 +5917,7 @@
         <v>1.34</v>
       </c>
       <c r="L106" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5928,7 +5955,7 @@
         <v>0.83</v>
       </c>
       <c r="L107" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5966,7 +5993,7 @@
         <v>1.48</v>
       </c>
       <c r="L108" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6004,7 +6031,7 @@
         <v>1.6</v>
       </c>
       <c r="L109" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6042,7 +6069,7 @@
         <v>1.55</v>
       </c>
       <c r="L110" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6080,7 +6107,7 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6118,7 +6145,7 @@
         <v>1.04</v>
       </c>
       <c r="L112" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6156,7 +6183,7 @@
         <v>1.27</v>
       </c>
       <c r="L113" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6194,7 +6221,7 @@
         <v>2.96</v>
       </c>
       <c r="L114" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6232,7 +6259,7 @@
         <v>1.29</v>
       </c>
       <c r="L115" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6270,7 +6297,7 @@
         <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6308,7 +6335,7 @@
         <v>1.02</v>
       </c>
       <c r="L117" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6346,7 +6373,7 @@
         <v>1.5</v>
       </c>
       <c r="L118" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6384,7 +6411,7 @@
         <v>1.86</v>
       </c>
       <c r="L119" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6422,7 +6449,7 @@
         <v>1.55</v>
       </c>
       <c r="L120" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6460,7 +6487,7 @@
         <v>1.42</v>
       </c>
       <c r="L121" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6498,7 +6525,7 @@
         <v>1.3</v>
       </c>
       <c r="L122" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6536,7 +6563,7 @@
         <v>0.79</v>
       </c>
       <c r="L123" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6574,7 +6601,7 @@
         <v>0.58</v>
       </c>
       <c r="L124" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6612,7 +6639,7 @@
         <v>1.01</v>
       </c>
       <c r="L125" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6650,7 +6677,7 @@
         <v>1.3</v>
       </c>
       <c r="L126" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6688,7 +6715,7 @@
         <v>2.35</v>
       </c>
       <c r="L127" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6726,7 +6753,7 @@
         <v>0.79</v>
       </c>
       <c r="L128" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6764,7 +6791,7 @@
         <v>1.56</v>
       </c>
       <c r="L129" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6802,7 +6829,7 @@
         <v>1.68</v>
       </c>
       <c r="L130" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6840,7 +6867,7 @@
         <v>1.65</v>
       </c>
       <c r="L131" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6878,7 +6905,7 @@
         <v>0.77</v>
       </c>
       <c r="L132" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6916,7 +6943,7 @@
         <v>1.95</v>
       </c>
       <c r="L133" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6954,7 +6981,7 @@
         <v>0.82</v>
       </c>
       <c r="L134" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6992,7 +7019,7 @@
         <v>1.62</v>
       </c>
       <c r="L135" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7030,7 +7057,7 @@
         <v>3.45</v>
       </c>
       <c r="L136" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7068,7 +7095,7 @@
         <v>1.31</v>
       </c>
       <c r="L137" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7106,7 +7133,7 @@
         <v>1.77</v>
       </c>
       <c r="L138" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7144,7 +7171,7 @@
         <v>3.61</v>
       </c>
       <c r="L139" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7182,7 +7209,7 @@
         <v>1.98</v>
       </c>
       <c r="L140" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7220,7 +7247,7 @@
         <v>1.66</v>
       </c>
       <c r="L141" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7258,7 +7285,7 @@
         <v>1.77</v>
       </c>
       <c r="L142" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7296,7 +7323,7 @@
         <v>2.74</v>
       </c>
       <c r="L143" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7334,7 +7361,7 @@
         <v>1.88</v>
       </c>
       <c r="L144" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7372,7 +7399,7 @@
         <v>1.18</v>
       </c>
       <c r="L145" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7410,7 +7437,7 @@
         <v>1.51</v>
       </c>
       <c r="L146" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7448,7 +7475,7 @@
         <v>1.83</v>
       </c>
       <c r="L147" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7486,7 +7513,7 @@
         <v>2.77</v>
       </c>
       <c r="L148" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7524,7 +7551,7 @@
         <v>1.21</v>
       </c>
       <c r="L149" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7562,7 +7589,7 @@
         <v>1.01</v>
       </c>
       <c r="L150" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7600,7 +7627,7 @@
         <v>3.17</v>
       </c>
       <c r="L151" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7638,7 +7665,7 @@
         <v>2.94</v>
       </c>
       <c r="L152" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7676,7 +7703,7 @@
         <v>1.72</v>
       </c>
       <c r="L153" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7714,7 +7741,7 @@
         <v>1.67</v>
       </c>
       <c r="L154" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7752,7 +7779,7 @@
         <v>1.28</v>
       </c>
       <c r="L155" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7790,7 +7817,7 @@
         <v>1.1</v>
       </c>
       <c r="L156" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7828,7 +7855,7 @@
         <v>2.69</v>
       </c>
       <c r="L157" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7866,7 +7893,7 @@
         <v>1.81</v>
       </c>
       <c r="L158" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7904,7 +7931,7 @@
         <v>1.05</v>
       </c>
       <c r="L159" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7942,7 +7969,7 @@
         <v>1.44</v>
       </c>
       <c r="L160" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7980,7 +8007,7 @@
         <v>3.01</v>
       </c>
       <c r="L161" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8018,7 +8045,7 @@
         <v>3.76</v>
       </c>
       <c r="L162" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8056,7 +8083,7 @@
         <v>3.04</v>
       </c>
       <c r="L163" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8094,7 +8121,7 @@
         <v>2.26</v>
       </c>
       <c r="L164" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8132,7 +8159,7 @@
         <v>4.62</v>
       </c>
       <c r="L165" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8170,7 +8197,7 @@
         <v>3.81</v>
       </c>
       <c r="L166" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8208,7 +8235,7 @@
         <v>1.55</v>
       </c>
       <c r="L167" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8246,7 +8273,7 @@
         <v>2.14</v>
       </c>
       <c r="L168" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8284,7 +8311,7 @@
         <v>1.78</v>
       </c>
       <c r="L169" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8322,7 +8349,7 @@
         <v>2.31</v>
       </c>
       <c r="L170" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8360,7 +8387,7 @@
         <v>2.2</v>
       </c>
       <c r="L171" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8398,7 +8425,7 @@
         <v>3.02</v>
       </c>
       <c r="L172" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8436,7 +8463,7 @@
         <v>3.07</v>
       </c>
       <c r="L173" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8474,7 +8501,7 @@
         <v>4.12</v>
       </c>
       <c r="L174" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8512,7 +8539,7 @@
         <v>4.96</v>
       </c>
       <c r="L175" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8550,7 +8577,7 @@
         <v>4.81</v>
       </c>
       <c r="L176" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8588,7 +8615,7 @@
         <v>5.65</v>
       </c>
       <c r="L177" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8626,7 +8653,7 @@
         <v>6.51</v>
       </c>
       <c r="L178" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8664,7 +8691,7 @@
         <v>5.24</v>
       </c>
       <c r="L179" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8702,7 +8729,7 @@
         <v>4.66</v>
       </c>
       <c r="L180" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8740,7 +8767,7 @@
         <v>4.8</v>
       </c>
       <c r="L181" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8778,7 +8805,7 @@
         <v>6.24</v>
       </c>
       <c r="L182" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8816,7 +8843,7 @@
         <v>6.49</v>
       </c>
       <c r="L183" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8854,7 +8881,7 @@
         <v>6.76</v>
       </c>
       <c r="L184" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8892,7 +8919,7 @@
         <v>6.24</v>
       </c>
       <c r="L185" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8930,7 +8957,7 @@
         <v>3.58</v>
       </c>
       <c r="L186" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8968,7 +8995,7 @@
         <v>5.14</v>
       </c>
       <c r="L187" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9006,7 +9033,7 @@
         <v>4.75</v>
       </c>
       <c r="L188" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9044,7 +9071,7 @@
         <v>5.62</v>
       </c>
       <c r="L189" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9082,7 +9109,7 @@
         <v>5.35</v>
       </c>
       <c r="L190" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9120,7 +9147,7 @@
         <v>5.88</v>
       </c>
       <c r="L191" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9158,7 +9185,7 @@
         <v>6.92</v>
       </c>
       <c r="L192" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9196,7 +9223,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L193" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9234,7 +9261,7 @@
         <v>7.38</v>
       </c>
       <c r="L194" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9272,7 +9299,7 @@
         <v>6.99</v>
       </c>
       <c r="L195" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9310,7 +9337,7 @@
         <v>8.99</v>
       </c>
       <c r="L196" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9348,7 +9375,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L197" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9386,7 +9413,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9424,7 +9451,7 @@
         <v>8.66</v>
       </c>
       <c r="L199" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9462,7 +9489,7 @@
         <v>8.5</v>
       </c>
       <c r="L200" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9500,7 +9527,7 @@
         <v>8.91</v>
       </c>
       <c r="L201" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9538,7 +9565,7 @@
         <v>7.33</v>
       </c>
       <c r="L202" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9576,7 +9603,7 @@
         <v>5.65</v>
       </c>
       <c r="L203" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9614,7 +9641,7 @@
         <v>6.66</v>
       </c>
       <c r="L204" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9652,7 +9679,7 @@
         <v>10.43</v>
       </c>
       <c r="L205" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9690,7 +9717,7 @@
         <v>8.5</v>
       </c>
       <c r="L206" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9728,7 +9755,7 @@
         <v>4.76</v>
       </c>
       <c r="L207" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9766,7 +9793,7 @@
         <v>9.25</v>
       </c>
       <c r="L208" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9804,7 +9831,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L209" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9842,7 +9869,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9880,7 +9907,7 @@
         <v>11.51</v>
       </c>
       <c r="L211" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9918,7 +9945,7 @@
         <v>11.23</v>
       </c>
       <c r="L212" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9956,7 +9983,7 @@
         <v>9.35</v>
       </c>
       <c r="L213" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9994,7 +10021,7 @@
         <v>7.42</v>
       </c>
       <c r="L214" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10032,7 +10059,7 @@
         <v>8.99</v>
       </c>
       <c r="L215" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10070,7 +10097,7 @@
         <v>6.8</v>
       </c>
       <c r="L216" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10108,7 +10135,7 @@
         <v>9.35</v>
       </c>
       <c r="L217" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10146,7 +10173,7 @@
         <v>7.6</v>
       </c>
       <c r="L218" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10184,7 +10211,7 @@
         <v>7.58</v>
       </c>
       <c r="L219" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10222,7 +10249,7 @@
         <v>10.45</v>
       </c>
       <c r="L220" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10260,7 +10287,7 @@
         <v>5.68</v>
       </c>
       <c r="L221" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10298,7 +10325,7 @@
         <v>8.18</v>
       </c>
       <c r="L222" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10336,7 +10363,7 @@
         <v>5.71</v>
       </c>
       <c r="L223" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10374,7 +10401,7 @@
         <v>9.6</v>
       </c>
       <c r="L224" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10412,7 +10439,7 @@
         <v>8.5</v>
       </c>
       <c r="L225" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10450,7 +10477,7 @@
         <v>7.65</v>
       </c>
       <c r="L226" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10488,7 +10515,7 @@
         <v>4.7</v>
       </c>
       <c r="L227" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10526,7 +10553,7 @@
         <v>6.69</v>
       </c>
       <c r="L228" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10564,7 +10591,7 @@
         <v>7.92</v>
       </c>
       <c r="L229" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10602,7 +10629,7 @@
         <v>6.86</v>
       </c>
       <c r="L230" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10640,7 +10667,7 @@
         <v>5.42</v>
       </c>
       <c r="L231" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10678,7 +10705,7 @@
         <v>7.99</v>
       </c>
       <c r="L232" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10716,7 +10743,7 @@
         <v>11.16</v>
       </c>
       <c r="L233" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10754,7 +10781,7 @@
         <v>7.98</v>
       </c>
       <c r="L234" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10792,7 +10819,7 @@
         <v>9.26</v>
       </c>
       <c r="L235" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10830,7 +10857,7 @@
         <v>8.16</v>
       </c>
       <c r="L236" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10868,7 +10895,7 @@
         <v>7.03</v>
       </c>
       <c r="L237" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10906,7 +10933,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10944,7 +10971,7 @@
         <v>7.69</v>
       </c>
       <c r="L239" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10982,7 +11009,7 @@
         <v>5.21</v>
       </c>
       <c r="L240" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11020,7 +11047,7 @@
         <v>5.69</v>
       </c>
       <c r="L241" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11058,7 +11085,7 @@
         <v>7.59</v>
       </c>
       <c r="L242" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11096,7 +11123,7 @@
         <v>4.02</v>
       </c>
       <c r="L243" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11134,7 +11161,7 @@
         <v>4.87</v>
       </c>
       <c r="L244" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11172,7 +11199,7 @@
         <v>3.86</v>
       </c>
       <c r="L245" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11210,7 +11237,7 @@
         <v>3.62</v>
       </c>
       <c r="L246" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11248,7 +11275,7 @@
         <v>4.48</v>
       </c>
       <c r="L247" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11286,7 +11313,7 @@
         <v>4.24</v>
       </c>
       <c r="L248" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11324,7 +11351,7 @@
         <v>4.6</v>
       </c>
       <c r="L249" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11362,7 +11389,7 @@
         <v>3.75</v>
       </c>
       <c r="L250" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11400,7 +11427,7 @@
         <v>3.55</v>
       </c>
       <c r="L251" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11438,7 +11465,7 @@
         <v>5.28</v>
       </c>
       <c r="L252" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11476,7 +11503,7 @@
         <v>5.63</v>
       </c>
       <c r="L253" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11514,7 +11541,7 @@
         <v>6.14</v>
       </c>
       <c r="L254" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11552,7 +11579,7 @@
         <v>5.72</v>
       </c>
       <c r="L255" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11590,7 +11617,7 @@
         <v>5.72</v>
       </c>
       <c r="L256" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11628,7 +11655,7 @@
         <v>4.17</v>
       </c>
       <c r="L257" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11666,7 +11693,7 @@
         <v>2.85</v>
       </c>
       <c r="L258" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11704,7 +11731,7 @@
         <v>4.96</v>
       </c>
       <c r="L259" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11742,7 +11769,7 @@
         <v>4.78</v>
       </c>
       <c r="L260" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11780,7 +11807,7 @@
         <v>4.61</v>
       </c>
       <c r="L261" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11818,7 +11845,7 @@
         <v>4.4</v>
       </c>
       <c r="L262" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11856,7 +11883,7 @@
         <v>5.05</v>
       </c>
       <c r="L263" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11894,7 +11921,7 @@
         <v>7.22</v>
       </c>
       <c r="L264" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11932,7 +11959,7 @@
         <v>5.67</v>
       </c>
       <c r="L265" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11970,7 +11997,7 @@
         <v>5.49</v>
       </c>
       <c r="L266" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12008,7 +12035,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="L267" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12046,7 +12073,7 @@
         <v>5.35</v>
       </c>
       <c r="L268" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12084,7 +12111,7 @@
         <v>4.09</v>
       </c>
       <c r="L269" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12122,7 +12149,7 @@
         <v>6.2</v>
       </c>
       <c r="L270" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12160,7 +12187,7 @@
         <v>8.02</v>
       </c>
       <c r="L271" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12198,7 +12225,7 @@
         <v>8.41</v>
       </c>
       <c r="L272" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12236,7 +12263,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="L273" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12274,7 +12301,7 @@
         <v>5.29</v>
       </c>
       <c r="L274" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12312,7 +12339,7 @@
         <v>7.26</v>
       </c>
       <c r="L275" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12350,7 +12377,7 @@
         <v>6.91</v>
       </c>
       <c r="L276" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12388,7 +12415,7 @@
         <v>6.63</v>
       </c>
       <c r="L277" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12426,7 +12453,7 @@
         <v>6.33</v>
       </c>
       <c r="L278" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12464,7 +12491,7 @@
         <v>7.82</v>
       </c>
       <c r="L279" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12502,7 +12529,7 @@
         <v>5.11</v>
       </c>
       <c r="L280" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12540,7 +12567,7 @@
         <v>9.82</v>
       </c>
       <c r="L281" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12578,7 +12605,7 @@
         <v>7.66</v>
       </c>
       <c r="L282" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12616,7 +12643,7 @@
         <v>6.65</v>
       </c>
       <c r="L283" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12654,7 +12681,7 @@
         <v>9.52</v>
       </c>
       <c r="L284" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12692,7 +12719,7 @@
         <v>8.58</v>
       </c>
       <c r="L285" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12730,7 +12757,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L286" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12768,7 +12795,7 @@
         <v>6.59</v>
       </c>
       <c r="L287" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12806,7 +12833,7 @@
         <v>6.26</v>
       </c>
       <c r="L288" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12844,7 +12871,7 @@
         <v>7.23</v>
       </c>
       <c r="L289" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12882,7 +12909,7 @@
         <v>7.84</v>
       </c>
       <c r="L290" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12920,7 +12947,7 @@
         <v>10.48</v>
       </c>
       <c r="L291" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12958,7 +12985,7 @@
         <v>6.85</v>
       </c>
       <c r="L292" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12996,7 +13023,7 @@
         <v>6.06</v>
       </c>
       <c r="L293" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13034,7 +13061,7 @@
         <v>7.56</v>
       </c>
       <c r="L294" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13072,7 +13099,7 @@
         <v>10.22</v>
       </c>
       <c r="L295" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13110,7 +13137,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L296" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13148,7 +13175,7 @@
         <v>6.94</v>
       </c>
       <c r="L297" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13186,7 +13213,7 @@
         <v>6.74</v>
       </c>
       <c r="L298" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13224,7 +13251,7 @@
         <v>9.18</v>
       </c>
       <c r="L299" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13262,7 +13289,7 @@
         <v>10.46</v>
       </c>
       <c r="L300" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13300,7 +13327,7 @@
         <v>10.1</v>
       </c>
       <c r="L301" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13338,7 +13365,7 @@
         <v>10.82</v>
       </c>
       <c r="L302" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13376,7 +13403,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L303" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13414,7 +13441,7 @@
         <v>7.57</v>
       </c>
       <c r="L304" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13452,7 +13479,7 @@
         <v>7.91</v>
       </c>
       <c r="L305" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13490,7 +13517,7 @@
         <v>8.52</v>
       </c>
       <c r="L306" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13528,7 +13555,7 @@
         <v>12.41</v>
       </c>
       <c r="L307" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13566,7 +13593,7 @@
         <v>10.46</v>
       </c>
       <c r="L308" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13604,7 +13631,7 @@
         <v>9.58</v>
       </c>
       <c r="L309" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13642,7 +13669,7 @@
         <v>10.9</v>
       </c>
       <c r="L310" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13680,7 +13707,7 @@
         <v>13.34</v>
       </c>
       <c r="L311" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13718,7 +13745,7 @@
         <v>12.88</v>
       </c>
       <c r="L312" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13756,7 +13783,7 @@
         <v>11.4</v>
       </c>
       <c r="L313" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13794,7 +13821,7 @@
         <v>10.73</v>
       </c>
       <c r="L314" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13832,7 +13859,7 @@
         <v>11.7</v>
       </c>
       <c r="L315" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13870,7 +13897,7 @@
         <v>9.34</v>
       </c>
       <c r="L316" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13908,7 +13935,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L317" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13946,7 +13973,7 @@
         <v>8.34</v>
       </c>
       <c r="L318" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13984,7 +14011,7 @@
         <v>7.85</v>
       </c>
       <c r="L319" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14022,7 +14049,7 @@
         <v>9.74</v>
       </c>
       <c r="L320" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14060,7 +14087,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L321" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14098,7 +14125,7 @@
         <v>11.28</v>
       </c>
       <c r="L322" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14136,7 +14163,7 @@
         <v>12.99</v>
       </c>
       <c r="L323" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14174,7 +14201,7 @@
         <v>13.7</v>
       </c>
       <c r="L324" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14212,7 +14239,7 @@
         <v>9.74</v>
       </c>
       <c r="L325" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14250,7 +14277,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="L326" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14288,7 +14315,7 @@
         <v>9.15</v>
       </c>
       <c r="L327" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14326,7 +14353,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L328" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14364,7 +14391,7 @@
         <v>11.85</v>
       </c>
       <c r="L329" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14402,7 +14429,7 @@
         <v>12.04</v>
       </c>
       <c r="L330" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14440,7 +14467,7 @@
         <v>9.24</v>
       </c>
       <c r="L331" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14478,7 +14505,7 @@
         <v>10.16</v>
       </c>
       <c r="L332" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14516,7 +14543,7 @@
         <v>12.43</v>
       </c>
       <c r="L333" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14554,7 +14581,7 @@
         <v>13.16</v>
       </c>
       <c r="L334" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14592,7 +14619,7 @@
         <v>14.91</v>
       </c>
       <c r="L335" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14630,7 +14657,7 @@
         <v>12.11</v>
       </c>
       <c r="L336" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14668,7 +14695,7 @@
         <v>14.38</v>
       </c>
       <c r="L337" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14706,7 +14733,7 @@
         <v>10.14</v>
       </c>
       <c r="L338" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14744,7 +14771,7 @@
         <v>8.25</v>
       </c>
       <c r="L339" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14782,7 +14809,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L340" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14820,7 +14847,7 @@
         <v>7.64</v>
       </c>
       <c r="L341" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14858,7 +14885,7 @@
         <v>12.58</v>
       </c>
       <c r="L342" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14896,7 +14923,7 @@
         <v>16.62</v>
       </c>
       <c r="L343" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14934,7 +14961,7 @@
         <v>10.16</v>
       </c>
       <c r="L344" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14972,7 +14999,7 @@
         <v>16.57</v>
       </c>
       <c r="L345" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15010,7 +15037,7 @@
         <v>16.72</v>
       </c>
       <c r="L346" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15048,7 +15075,7 @@
         <v>21.7</v>
       </c>
       <c r="L347" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15086,7 +15113,7 @@
         <v>21.67</v>
       </c>
       <c r="L348" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15124,7 +15151,7 @@
         <v>10.96</v>
       </c>
       <c r="L349" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15162,7 +15189,7 @@
         <v>12.88</v>
       </c>
       <c r="L350" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15200,7 +15227,7 @@
         <v>14.3</v>
       </c>
       <c r="L351" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15238,7 +15265,7 @@
         <v>18.59</v>
       </c>
       <c r="L352" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15276,7 +15303,7 @@
         <v>18.68</v>
       </c>
       <c r="L353" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15314,7 +15341,7 @@
         <v>17.76</v>
       </c>
       <c r="L354" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15352,7 +15379,7 @@
         <v>13.17</v>
       </c>
       <c r="L355" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15390,7 +15417,7 @@
         <v>17.6</v>
       </c>
       <c r="L356" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15428,7 +15455,7 @@
         <v>13.64</v>
       </c>
       <c r="L357" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15466,7 +15493,7 @@
         <v>12.01</v>
       </c>
       <c r="L358" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15504,7 +15531,7 @@
         <v>12.45</v>
       </c>
       <c r="L359" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15542,7 +15569,7 @@
         <v>14.58</v>
       </c>
       <c r="L360" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15580,7 +15607,7 @@
         <v>12.84</v>
       </c>
       <c r="L361" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15618,7 +15645,7 @@
         <v>12.75</v>
       </c>
       <c r="L362" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15656,7 +15683,7 @@
         <v>13.65</v>
       </c>
       <c r="L363" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15694,7 +15721,7 @@
         <v>16.49</v>
       </c>
       <c r="L364" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15732,7 +15759,7 @@
         <v>12.66</v>
       </c>
       <c r="L365" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15770,7 +15797,7 @@
         <v>15.24</v>
       </c>
       <c r="L366" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15808,7 +15835,7 @@
         <v>11.1</v>
       </c>
       <c r="L367" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15846,7 +15873,7 @@
         <v>12.69</v>
       </c>
       <c r="L368" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15884,7 +15911,7 @@
         <v>8.59</v>
       </c>
       <c r="L369" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15922,7 +15949,7 @@
         <v>13.56</v>
       </c>
       <c r="L370" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15960,7 +15987,7 @@
         <v>11.78</v>
       </c>
       <c r="L371" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15998,7 +16025,7 @@
         <v>10.44</v>
       </c>
       <c r="L372" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16036,7 +16063,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L373" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16074,7 +16101,7 @@
         <v>11.59</v>
       </c>
       <c r="L374" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16112,7 +16139,7 @@
         <v>8.66</v>
       </c>
       <c r="L375" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16150,7 +16177,7 @@
         <v>10.44</v>
       </c>
       <c r="L376" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16188,7 +16215,7 @@
         <v>8.93</v>
       </c>
       <c r="L377" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16226,7 +16253,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16264,7 +16291,7 @@
         <v>6.47</v>
       </c>
       <c r="L379" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16302,7 +16329,7 @@
         <v>8.01</v>
       </c>
       <c r="L380" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16340,7 +16367,7 @@
         <v>12.89</v>
       </c>
       <c r="L381" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16378,7 +16405,7 @@
         <v>8.18</v>
       </c>
       <c r="L382" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16416,7 +16443,7 @@
         <v>7.61</v>
       </c>
       <c r="L383" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16454,7 +16481,7 @@
         <v>7.75</v>
       </c>
       <c r="L384" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16492,7 +16519,7 @@
         <v>5.73</v>
       </c>
       <c r="L385" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16530,7 +16557,7 @@
         <v>7.13</v>
       </c>
       <c r="L386" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16568,7 +16595,7 @@
         <v>10.3</v>
       </c>
       <c r="L387" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16606,7 +16633,7 @@
         <v>8.26</v>
       </c>
       <c r="L388" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16644,7 +16671,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16682,7 +16709,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L390" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16720,7 +16747,7 @@
         <v>10.31</v>
       </c>
       <c r="L391" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16758,7 +16785,7 @@
         <v>10.61</v>
       </c>
       <c r="L392" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16796,7 +16823,7 @@
         <v>10.01</v>
       </c>
       <c r="L393" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16834,7 +16861,7 @@
         <v>10.12</v>
       </c>
       <c r="L394" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16872,7 +16899,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L395" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16910,7 +16937,7 @@
         <v>8.92</v>
       </c>
       <c r="L396" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16948,7 +16975,7 @@
         <v>7.53</v>
       </c>
       <c r="L397" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16986,7 +17013,7 @@
         <v>13.31</v>
       </c>
       <c r="L398" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17024,7 +17051,7 @@
         <v>11.83</v>
       </c>
       <c r="L399" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17062,7 +17089,7 @@
         <v>13.77</v>
       </c>
       <c r="L400" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17100,7 +17127,7 @@
         <v>13.57</v>
       </c>
       <c r="L401" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17138,7 +17165,7 @@
         <v>10</v>
       </c>
       <c r="L402" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17176,7 +17203,7 @@
         <v>10.81</v>
       </c>
       <c r="L403" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17214,7 +17241,7 @@
         <v>8.19</v>
       </c>
       <c r="L404" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17252,7 +17279,7 @@
         <v>9.68</v>
       </c>
       <c r="L405" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17290,7 +17317,7 @@
         <v>8.49</v>
       </c>
       <c r="L406" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17328,7 +17355,7 @@
         <v>9.65</v>
       </c>
       <c r="L407" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17366,7 +17393,7 @@
         <v>8.94</v>
       </c>
       <c r="L408" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17404,7 +17431,7 @@
         <v>8.23</v>
       </c>
       <c r="L409" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17442,7 +17469,7 @@
         <v>12.05</v>
       </c>
       <c r="L410" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17480,7 +17507,7 @@
         <v>11.56</v>
       </c>
       <c r="L411" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17518,7 +17545,7 @@
         <v>9.1</v>
       </c>
       <c r="L412" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17556,7 +17583,7 @@
         <v>10.43</v>
       </c>
       <c r="L413" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17594,7 +17621,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L414" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17632,7 +17659,7 @@
         <v>10.82</v>
       </c>
       <c r="L415" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17670,7 +17697,7 @@
         <v>11.6</v>
       </c>
       <c r="L416" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17708,7 +17735,7 @@
         <v>11.48</v>
       </c>
       <c r="L417" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17746,7 +17773,7 @@
         <v>13.86</v>
       </c>
       <c r="L418" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17784,7 +17811,7 @@
         <v>14.32</v>
       </c>
       <c r="L419" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17822,7 +17849,7 @@
         <v>14.81</v>
       </c>
       <c r="L420" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17860,7 +17887,7 @@
         <v>11.24</v>
       </c>
       <c r="L421" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17898,7 +17925,7 @@
         <v>10.05</v>
       </c>
       <c r="L422" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17936,7 +17963,7 @@
         <v>9.1</v>
       </c>
       <c r="L423" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17974,7 +18001,7 @@
         <v>12.1</v>
       </c>
       <c r="L424" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18012,7 +18039,7 @@
         <v>12.01</v>
       </c>
       <c r="L425" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18050,7 +18077,7 @@
         <v>13.56</v>
       </c>
       <c r="L426" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18088,7 +18115,7 @@
         <v>11.51</v>
       </c>
       <c r="L427" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18126,7 +18153,7 @@
         <v>13.26</v>
       </c>
       <c r="L428" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18164,7 +18191,7 @@
         <v>13.35</v>
       </c>
       <c r="L429" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18202,7 +18229,7 @@
         <v>15</v>
       </c>
       <c r="L430" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18240,7 +18267,7 @@
         <v>16.6</v>
       </c>
       <c r="L431" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18278,7 +18305,7 @@
         <v>15.78</v>
       </c>
       <c r="L432" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18316,7 +18343,7 @@
         <v>17.68</v>
       </c>
       <c r="L433" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18354,7 +18381,7 @@
         <v>17.73</v>
       </c>
       <c r="L434" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18392,7 +18419,7 @@
         <v>14.86</v>
       </c>
       <c r="L435" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18430,7 +18457,7 @@
         <v>12.62</v>
       </c>
       <c r="L436" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18468,7 +18495,7 @@
         <v>10.95</v>
       </c>
       <c r="L437" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18506,7 +18533,7 @@
         <v>11.32</v>
       </c>
       <c r="L438" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18544,7 +18571,7 @@
         <v>9.4</v>
       </c>
       <c r="L439" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18582,7 +18609,7 @@
         <v>10.71</v>
       </c>
       <c r="L440" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18620,7 +18647,7 @@
         <v>12.34</v>
       </c>
       <c r="L441" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18658,7 +18685,7 @@
         <v>12.29</v>
       </c>
       <c r="L442" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18696,7 +18723,7 @@
         <v>11.21</v>
       </c>
       <c r="L443" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18734,7 +18761,7 @@
         <v>13.88</v>
       </c>
       <c r="L444" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18772,7 +18799,7 @@
         <v>12.18</v>
       </c>
       <c r="L445" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18810,7 +18837,7 @@
         <v>11.9</v>
       </c>
       <c r="L446" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18848,7 +18875,7 @@
         <v>10.77</v>
       </c>
       <c r="L447" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18886,7 +18913,7 @@
         <v>15.5</v>
       </c>
       <c r="L448" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18924,7 +18951,7 @@
         <v>13.54</v>
       </c>
       <c r="L449" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18962,7 +18989,7 @@
         <v>13.3</v>
       </c>
       <c r="L450" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19000,7 +19027,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19038,7 +19065,7 @@
         <v>14.39</v>
       </c>
       <c r="L452" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19076,7 +19103,7 @@
         <v>11.77</v>
       </c>
       <c r="L453" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19114,7 +19141,7 @@
         <v>13.57</v>
       </c>
       <c r="L454" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19152,7 +19179,7 @@
         <v>13.49</v>
       </c>
       <c r="L455" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19190,7 +19217,7 @@
         <v>14.93</v>
       </c>
       <c r="L456" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19228,7 +19255,7 @@
         <v>12.12</v>
       </c>
       <c r="L457" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19266,7 +19293,7 @@
         <v>14.07</v>
       </c>
       <c r="L458" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19304,7 +19331,7 @@
         <v>15.92</v>
       </c>
       <c r="L459" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19342,7 +19369,7 @@
         <v>15.47</v>
       </c>
       <c r="L460" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19380,7 +19407,7 @@
         <v>15.16</v>
       </c>
       <c r="L461" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19418,7 +19445,7 @@
         <v>15.1</v>
       </c>
       <c r="L462" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19456,7 +19483,7 @@
         <v>18.63</v>
       </c>
       <c r="L463" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19494,7 +19521,7 @@
         <v>21.12</v>
       </c>
       <c r="L464" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19532,7 +19559,7 @@
         <v>19.96</v>
       </c>
       <c r="L465" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19570,7 +19597,7 @@
         <v>18.61</v>
       </c>
       <c r="L466" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19608,7 +19635,7 @@
         <v>22.37</v>
       </c>
       <c r="L467" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19646,7 +19673,7 @@
         <v>25.43</v>
       </c>
       <c r="L468" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19684,7 +19711,7 @@
         <v>25.52</v>
       </c>
       <c r="L469" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19722,7 +19749,7 @@
         <v>21</v>
       </c>
       <c r="L470" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19760,7 +19787,7 @@
         <v>20.63</v>
       </c>
       <c r="L471" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19798,7 +19825,7 @@
         <v>17.29</v>
       </c>
       <c r="L472" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19836,7 +19863,7 @@
         <v>11.87</v>
       </c>
       <c r="L473" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19874,7 +19901,7 @@
         <v>10.61</v>
       </c>
       <c r="L474" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19912,7 +19939,7 @@
         <v>9.84</v>
       </c>
       <c r="L475" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19950,7 +19977,7 @@
         <v>11.08</v>
       </c>
       <c r="L476" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19988,7 +20015,7 @@
         <v>9.6</v>
       </c>
       <c r="L477" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20026,7 +20053,7 @@
         <v>12.03</v>
       </c>
       <c r="L478" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20064,7 +20091,7 @@
         <v>12.46</v>
       </c>
       <c r="L479" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20102,7 +20129,7 @@
         <v>12.21</v>
       </c>
       <c r="L480" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20140,7 +20167,7 @@
         <v>13.37</v>
       </c>
       <c r="L481" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20178,7 +20205,7 @@
         <v>16.38</v>
       </c>
       <c r="L482" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20216,7 +20243,7 @@
         <v>16.33</v>
       </c>
       <c r="L483" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20254,7 +20281,7 @@
         <v>15.48</v>
       </c>
       <c r="L484" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20292,7 +20319,7 @@
         <v>14.59</v>
       </c>
       <c r="L485" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20330,7 +20357,349 @@
         <v>14.7</v>
       </c>
       <c r="L486" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
         <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.53</v>
+      </c>
+      <c r="D487">
+        <v>100</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>60</v>
+      </c>
+      <c r="G487">
+        <v>318.36</v>
+      </c>
+      <c r="H487">
+        <v>60</v>
+      </c>
+      <c r="I487">
+        <v>-2.29</v>
+      </c>
+      <c r="J487">
+        <v>105.83</v>
+      </c>
+      <c r="K487">
+        <v>13.69</v>
+      </c>
+      <c r="L487" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.54</v>
+      </c>
+      <c r="D488">
+        <v>100</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>60</v>
+      </c>
+      <c r="G488">
+        <v>323.35</v>
+      </c>
+      <c r="H488">
+        <v>60</v>
+      </c>
+      <c r="I488">
+        <v>-0.14</v>
+      </c>
+      <c r="J488">
+        <v>95.3</v>
+      </c>
+      <c r="K488">
+        <v>15.67</v>
+      </c>
+      <c r="L488" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.54</v>
+      </c>
+      <c r="D489">
+        <v>100</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>60</v>
+      </c>
+      <c r="G489">
+        <v>321.24</v>
+      </c>
+      <c r="H489">
+        <v>60</v>
+      </c>
+      <c r="I489">
+        <v>2.4</v>
+      </c>
+      <c r="J489">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K489">
+        <v>12.78</v>
+      </c>
+      <c r="L489" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>499</v>
+      </c>
+      <c r="C490">
+        <v>13.49</v>
+      </c>
+      <c r="D490">
+        <v>100</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>60</v>
+      </c>
+      <c r="G490">
+        <v>323.47</v>
+      </c>
+      <c r="H490">
+        <v>60</v>
+      </c>
+      <c r="I490">
+        <v>0.24</v>
+      </c>
+      <c r="J490">
+        <v>87.09</v>
+      </c>
+      <c r="K490">
+        <v>12.44</v>
+      </c>
+      <c r="L490" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>500</v>
+      </c>
+      <c r="C491">
+        <v>13.33</v>
+      </c>
+      <c r="D491">
+        <v>100</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>60</v>
+      </c>
+      <c r="G491">
+        <v>325.8</v>
+      </c>
+      <c r="H491">
+        <v>60</v>
+      </c>
+      <c r="I491">
+        <v>-2.16</v>
+      </c>
+      <c r="J491">
+        <v>95.76000000000001</v>
+      </c>
+      <c r="K491">
+        <v>11.87</v>
+      </c>
+      <c r="L491" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>501</v>
+      </c>
+      <c r="C492">
+        <v>13.52</v>
+      </c>
+      <c r="D492">
+        <v>100</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>60</v>
+      </c>
+      <c r="G492">
+        <v>319.29</v>
+      </c>
+      <c r="H492">
+        <v>60</v>
+      </c>
+      <c r="I492">
+        <v>-0.44</v>
+      </c>
+      <c r="J492">
+        <v>87.31999999999999</v>
+      </c>
+      <c r="K492">
+        <v>12.15</v>
+      </c>
+      <c r="L492" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>502</v>
+      </c>
+      <c r="C493">
+        <v>13.54</v>
+      </c>
+      <c r="D493">
+        <v>100</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>60</v>
+      </c>
+      <c r="G493">
+        <v>310.55</v>
+      </c>
+      <c r="H493">
+        <v>60</v>
+      </c>
+      <c r="I493">
+        <v>1.86</v>
+      </c>
+      <c r="J493">
+        <v>85.72</v>
+      </c>
+      <c r="K493">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L493" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>503</v>
+      </c>
+      <c r="C494">
+        <v>13.54</v>
+      </c>
+      <c r="D494">
+        <v>100</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>60</v>
+      </c>
+      <c r="G494">
+        <v>321.36</v>
+      </c>
+      <c r="H494">
+        <v>60</v>
+      </c>
+      <c r="I494">
+        <v>-3.12</v>
+      </c>
+      <c r="J494">
+        <v>88.58</v>
+      </c>
+      <c r="K494">
+        <v>11.77</v>
+      </c>
+      <c r="L494" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>504</v>
+      </c>
+      <c r="C495">
+        <v>13.54</v>
+      </c>
+      <c r="D495">
+        <v>100</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>60</v>
+      </c>
+      <c r="G495">
+        <v>316.08</v>
+      </c>
+      <c r="H495">
+        <v>60</v>
+      </c>
+      <c r="I495">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="J495">
+        <v>86.41</v>
+      </c>
+      <c r="K495">
+        <v>10.64</v>
+      </c>
+      <c r="L495" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
